--- a/Resources/8086 op code list.xlsx
+++ b/Resources/8086 op code list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1869" uniqueCount="268">
   <si>
     <t>Op Code</t>
   </si>
@@ -808,13 +808,25 @@
   </si>
   <si>
     <t>immediate data in address byte</t>
+  </si>
+  <si>
+    <t>nop</t>
+  </si>
+  <si>
+    <t>ret {0}</t>
+  </si>
+  <si>
+    <t>{0} {1},{2}</t>
+  </si>
+  <si>
+    <t>{0} {1}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -835,8 +847,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -855,6 +873,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -868,7 +898,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -898,6 +928,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1201,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P258"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="B257" sqref="B257:B258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1263,7 +1297,7 @@
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="2">
+      <c r="B3" s="14">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="str">
@@ -1303,7 +1337,7 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
+      <c r="B4" s="14">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="str">
@@ -1343,7 +1377,7 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
+      <c r="B5" s="14">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="str">
@@ -1381,7 +1415,7 @@
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
+      <c r="B6" s="14">
         <v>3</v>
       </c>
       <c r="C6" s="1" t="str">
@@ -1421,7 +1455,7 @@
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
+      <c r="B7" s="14">
         <v>4</v>
       </c>
       <c r="C7" s="1" t="str">
@@ -1458,7 +1492,7 @@
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
+      <c r="B8" s="14">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="str">
@@ -1495,7 +1529,7 @@
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
+      <c r="B9" s="14">
         <v>6</v>
       </c>
       <c r="C9" s="1" t="str">
@@ -1526,7 +1560,7 @@
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
+      <c r="B10" s="14">
         <v>7</v>
       </c>
       <c r="C10" s="1" t="str">
@@ -1557,7 +1591,7 @@
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
+      <c r="B11" s="14">
         <v>8</v>
       </c>
       <c r="C11" s="1" t="str">
@@ -1594,7 +1628,7 @@
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
+      <c r="B12" s="14">
         <v>9</v>
       </c>
       <c r="C12" s="1" t="str">
@@ -1634,7 +1668,7 @@
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
+      <c r="B13" s="14">
         <v>10</v>
       </c>
       <c r="C13" s="1" t="str">
@@ -1668,7 +1702,7 @@
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
+      <c r="B14" s="14">
         <v>11</v>
       </c>
       <c r="C14" s="1" t="str">
@@ -1708,7 +1742,7 @@
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
+      <c r="B15" s="14">
         <v>12</v>
       </c>
       <c r="C15" s="1" t="str">
@@ -1745,7 +1779,7 @@
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="2">
+      <c r="B16" s="14">
         <v>13</v>
       </c>
       <c r="C16" s="1" t="str">
@@ -1782,7 +1816,7 @@
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
+      <c r="B17" s="14">
         <v>14</v>
       </c>
       <c r="C17" s="1" t="str">
@@ -1813,7 +1847,7 @@
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="2">
+      <c r="B18" s="14">
         <v>15</v>
       </c>
       <c r="C18" s="8" t="str">
@@ -1847,7 +1881,7 @@
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="2">
+      <c r="B19" s="14">
         <v>16</v>
       </c>
       <c r="C19" s="1" t="str">
@@ -1887,7 +1921,7 @@
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="2">
+      <c r="B20" s="14">
         <v>17</v>
       </c>
       <c r="C20" s="1" t="str">
@@ -1921,7 +1955,7 @@
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="2">
+      <c r="B21" s="14">
         <v>18</v>
       </c>
       <c r="C21" s="1" t="str">
@@ -1955,7 +1989,7 @@
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="2">
+      <c r="B22" s="14">
         <v>19</v>
       </c>
       <c r="C22" s="1" t="str">
@@ -1989,7 +2023,7 @@
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="2">
+      <c r="B23" s="14">
         <v>20</v>
       </c>
       <c r="C23" s="1" t="str">
@@ -2020,7 +2054,7 @@
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="2">
+      <c r="B24" s="14">
         <v>21</v>
       </c>
       <c r="C24" s="1" t="str">
@@ -2051,7 +2085,7 @@
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="2">
+      <c r="B25" s="14">
         <v>22</v>
       </c>
       <c r="C25" s="1" t="str">
@@ -2076,7 +2110,7 @@
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="2">
+      <c r="B26" s="14">
         <v>23</v>
       </c>
       <c r="C26" s="1" t="str">
@@ -2101,7 +2135,7 @@
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="2">
+      <c r="B27" s="14">
         <v>24</v>
       </c>
       <c r="C27" s="1" t="str">
@@ -2135,7 +2169,7 @@
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="2">
+      <c r="B28" s="14">
         <v>25</v>
       </c>
       <c r="C28" s="1" t="str">
@@ -2169,7 +2203,7 @@
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="2">
+      <c r="B29" s="14">
         <v>26</v>
       </c>
       <c r="C29" s="1" t="str">
@@ -2203,7 +2237,7 @@
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="2">
+      <c r="B30" s="14">
         <v>27</v>
       </c>
       <c r="C30" s="1" t="str">
@@ -2237,7 +2271,7 @@
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B31" s="2">
+      <c r="B31" s="14">
         <v>28</v>
       </c>
       <c r="C31" s="1" t="str">
@@ -2268,7 +2302,7 @@
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="2">
+      <c r="B32" s="14">
         <v>29</v>
       </c>
       <c r="C32" s="1" t="str">
@@ -2299,7 +2333,7 @@
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="2">
+      <c r="B33" s="14">
         <v>30</v>
       </c>
       <c r="C33" s="1" t="str">
@@ -2324,7 +2358,7 @@
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="2">
+      <c r="B34" s="14">
         <v>31</v>
       </c>
       <c r="C34" s="1" t="str">
@@ -2349,7 +2383,7 @@
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="2">
+      <c r="B35" s="14">
         <v>32</v>
       </c>
       <c r="C35" s="1" t="str">
@@ -2383,7 +2417,7 @@
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="2">
+      <c r="B36" s="14">
         <v>33</v>
       </c>
       <c r="C36" s="1" t="str">
@@ -2417,7 +2451,7 @@
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="2">
+      <c r="B37" s="14">
         <v>34</v>
       </c>
       <c r="C37" s="1" t="str">
@@ -2451,7 +2485,7 @@
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="2">
+      <c r="B38" s="14">
         <v>35</v>
       </c>
       <c r="C38" s="1" t="str">
@@ -2485,7 +2519,7 @@
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="2">
+      <c r="B39" s="14">
         <v>36</v>
       </c>
       <c r="C39" s="1" t="str">
@@ -2516,7 +2550,7 @@
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="2">
+      <c r="B40" s="14">
         <v>37</v>
       </c>
       <c r="C40" s="1" t="str">
@@ -2547,7 +2581,7 @@
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="2">
+      <c r="B41" s="14">
         <v>38</v>
       </c>
       <c r="C41" s="1" t="str">
@@ -2569,7 +2603,7 @@
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="2">
+      <c r="B42" s="14">
         <v>39</v>
       </c>
       <c r="C42" s="1" t="str">
@@ -2591,7 +2625,7 @@
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="2">
+      <c r="B43" s="14">
         <v>40</v>
       </c>
       <c r="C43" s="1" t="str">
@@ -2625,7 +2659,7 @@
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="2">
+      <c r="B44" s="14">
         <v>41</v>
       </c>
       <c r="C44" s="1" t="str">
@@ -2659,7 +2693,7 @@
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="2">
+      <c r="B45" s="14">
         <v>42</v>
       </c>
       <c r="C45" s="1" t="str">
@@ -2693,7 +2727,7 @@
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="2">
+      <c r="B46" s="14">
         <v>43</v>
       </c>
       <c r="C46" s="1" t="str">
@@ -2727,7 +2761,7 @@
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="2">
+      <c r="B47" s="14">
         <v>44</v>
       </c>
       <c r="C47" s="1" t="str">
@@ -2758,7 +2792,7 @@
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="2">
+      <c r="B48" s="14">
         <v>45</v>
       </c>
       <c r="C48" s="1" t="str">
@@ -2789,7 +2823,7 @@
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B49" s="2">
+      <c r="B49" s="14">
         <v>46</v>
       </c>
       <c r="C49" s="1" t="str">
@@ -2811,7 +2845,7 @@
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B50" s="2">
+      <c r="B50" s="14">
         <v>47</v>
       </c>
       <c r="C50" s="1" t="str">
@@ -2833,7 +2867,7 @@
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B51" s="2">
+      <c r="B51" s="14">
         <v>48</v>
       </c>
       <c r="C51" s="1" t="str">
@@ -2867,7 +2901,7 @@
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B52" s="2">
+      <c r="B52" s="14">
         <v>49</v>
       </c>
       <c r="C52" s="1" t="str">
@@ -2901,7 +2935,7 @@
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B53" s="2">
+      <c r="B53" s="14">
         <v>50</v>
       </c>
       <c r="C53" s="1" t="str">
@@ -2935,7 +2969,7 @@
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B54" s="2">
+      <c r="B54" s="14">
         <v>51</v>
       </c>
       <c r="C54" s="1" t="str">
@@ -2969,7 +3003,7 @@
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B55" s="2">
+      <c r="B55" s="14">
         <v>52</v>
       </c>
       <c r="C55" s="1" t="str">
@@ -3000,7 +3034,7 @@
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B56" s="2">
+      <c r="B56" s="14">
         <v>53</v>
       </c>
       <c r="C56" s="1" t="str">
@@ -3031,7 +3065,7 @@
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B57" s="2">
+      <c r="B57" s="14">
         <v>54</v>
       </c>
       <c r="C57" s="1" t="str">
@@ -3053,7 +3087,7 @@
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B58" s="2">
+      <c r="B58" s="14">
         <v>55</v>
       </c>
       <c r="C58" s="1" t="str">
@@ -3075,7 +3109,7 @@
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B59" s="2">
+      <c r="B59" s="14">
         <v>56</v>
       </c>
       <c r="C59" s="1" t="str">
@@ -3109,7 +3143,7 @@
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B60" s="2">
+      <c r="B60" s="14">
         <v>57</v>
       </c>
       <c r="C60" s="1" t="str">
@@ -3143,7 +3177,7 @@
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B61" s="2">
+      <c r="B61" s="14">
         <v>58</v>
       </c>
       <c r="C61" s="1" t="str">
@@ -3177,7 +3211,7 @@
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B62" s="2">
+      <c r="B62" s="14">
         <v>59</v>
       </c>
       <c r="C62" s="1" t="str">
@@ -3211,7 +3245,7 @@
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B63" s="2">
+      <c r="B63" s="14">
         <v>60</v>
       </c>
       <c r="C63" s="1" t="str">
@@ -3242,7 +3276,7 @@
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B64" s="2">
+      <c r="B64" s="14">
         <v>61</v>
       </c>
       <c r="C64" s="1" t="str">
@@ -3273,7 +3307,7 @@
       </c>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B65" s="2">
+      <c r="B65" s="14">
         <v>62</v>
       </c>
       <c r="C65" s="1" t="str">
@@ -3295,7 +3329,7 @@
       </c>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B66" s="2">
+      <c r="B66" s="14">
         <v>63</v>
       </c>
       <c r="C66" s="1" t="str">
@@ -3317,7 +3351,7 @@
       </c>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B67" s="2">
+      <c r="B67" s="14">
         <v>64</v>
       </c>
       <c r="C67" s="1" t="str">
@@ -3342,7 +3376,7 @@
       </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B68" s="2">
+      <c r="B68" s="14">
         <v>65</v>
       </c>
       <c r="C68" s="1" t="str">
@@ -3367,7 +3401,7 @@
       </c>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B69" s="2">
+      <c r="B69" s="14">
         <v>66</v>
       </c>
       <c r="C69" s="1" t="str">
@@ -3392,7 +3426,7 @@
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B70" s="2">
+      <c r="B70" s="14">
         <v>67</v>
       </c>
       <c r="C70" s="1" t="str">
@@ -3417,7 +3451,7 @@
       </c>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B71" s="2">
+      <c r="B71" s="14">
         <v>68</v>
       </c>
       <c r="C71" s="1" t="str">
@@ -3442,7 +3476,7 @@
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B72" s="2">
+      <c r="B72" s="14">
         <v>69</v>
       </c>
       <c r="C72" s="1" t="str">
@@ -3467,7 +3501,7 @@
       </c>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B73" s="2">
+      <c r="B73" s="14">
         <v>70</v>
       </c>
       <c r="C73" s="1" t="str">
@@ -3492,7 +3526,7 @@
       </c>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B74" s="2">
+      <c r="B74" s="14">
         <v>71</v>
       </c>
       <c r="C74" s="1" t="str">
@@ -3517,7 +3551,7 @@
       </c>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B75" s="2">
+      <c r="B75" s="14">
         <v>72</v>
       </c>
       <c r="C75" s="1" t="str">
@@ -3542,7 +3576,7 @@
       </c>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B76" s="2">
+      <c r="B76" s="14">
         <v>73</v>
       </c>
       <c r="C76" s="1" t="str">
@@ -3567,7 +3601,7 @@
       </c>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B77" s="2">
+      <c r="B77" s="14">
         <v>74</v>
       </c>
       <c r="C77" s="1" t="str">
@@ -3592,7 +3626,7 @@
       </c>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B78" s="2">
+      <c r="B78" s="14">
         <v>75</v>
       </c>
       <c r="C78" s="1" t="str">
@@ -3617,7 +3651,7 @@
       </c>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B79" s="2">
+      <c r="B79" s="14">
         <v>76</v>
       </c>
       <c r="C79" s="1" t="str">
@@ -3642,7 +3676,7 @@
       </c>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B80" s="2">
+      <c r="B80" s="14">
         <v>77</v>
       </c>
       <c r="C80" s="1" t="str">
@@ -3667,7 +3701,7 @@
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B81" s="2">
+      <c r="B81" s="14">
         <v>78</v>
       </c>
       <c r="C81" s="1" t="str">
@@ -3692,7 +3726,7 @@
       </c>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B82" s="2">
+      <c r="B82" s="14">
         <v>79</v>
       </c>
       <c r="C82" s="1" t="str">
@@ -3717,7 +3751,7 @@
       </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B83" s="2">
+      <c r="B83" s="14">
         <v>80</v>
       </c>
       <c r="C83" s="1" t="str">
@@ -3742,7 +3776,7 @@
       </c>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B84" s="2">
+      <c r="B84" s="14">
         <v>81</v>
       </c>
       <c r="C84" s="1" t="str">
@@ -3767,7 +3801,7 @@
       </c>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B85" s="2">
+      <c r="B85" s="14">
         <v>82</v>
       </c>
       <c r="C85" s="1" t="str">
@@ -3792,7 +3826,7 @@
       </c>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B86" s="2">
+      <c r="B86" s="14">
         <v>83</v>
       </c>
       <c r="C86" s="1" t="str">
@@ -3817,7 +3851,7 @@
       </c>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B87" s="2">
+      <c r="B87" s="14">
         <v>84</v>
       </c>
       <c r="C87" s="1" t="str">
@@ -3842,7 +3876,7 @@
       </c>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B88" s="2">
+      <c r="B88" s="14">
         <v>85</v>
       </c>
       <c r="C88" s="1" t="str">
@@ -3867,7 +3901,7 @@
       </c>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B89" s="2">
+      <c r="B89" s="14">
         <v>86</v>
       </c>
       <c r="C89" s="1" t="str">
@@ -3892,7 +3926,7 @@
       </c>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B90" s="2">
+      <c r="B90" s="14">
         <v>87</v>
       </c>
       <c r="C90" s="1" t="str">
@@ -3917,7 +3951,7 @@
       </c>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B91" s="2">
+      <c r="B91" s="14">
         <v>88</v>
       </c>
       <c r="C91" s="1" t="str">
@@ -3942,7 +3976,7 @@
       </c>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B92" s="2">
+      <c r="B92" s="14">
         <v>89</v>
       </c>
       <c r="C92" s="1" t="str">
@@ -3967,7 +4001,7 @@
       </c>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B93" s="2">
+      <c r="B93" s="14">
         <v>90</v>
       </c>
       <c r="C93" s="1" t="str">
@@ -3992,7 +4026,7 @@
       </c>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B94" s="2">
+      <c r="B94" s="14">
         <v>91</v>
       </c>
       <c r="C94" s="1" t="str">
@@ -4017,7 +4051,7 @@
       </c>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B95" s="2">
+      <c r="B95" s="14">
         <v>92</v>
       </c>
       <c r="C95" s="1" t="str">
@@ -4042,7 +4076,7 @@
       </c>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B96" s="2">
+      <c r="B96" s="14">
         <v>93</v>
       </c>
       <c r="C96" s="1" t="str">
@@ -4067,7 +4101,7 @@
       </c>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B97" s="2">
+      <c r="B97" s="14">
         <v>94</v>
       </c>
       <c r="C97" s="1" t="str">
@@ -4092,7 +4126,7 @@
       </c>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B98" s="2">
+      <c r="B98" s="14">
         <v>95</v>
       </c>
       <c r="C98" s="1" t="str">
@@ -4117,7 +4151,7 @@
       </c>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B99" s="2">
+      <c r="B99" s="14">
         <v>96</v>
       </c>
       <c r="C99" s="1" t="str">
@@ -4151,7 +4185,7 @@
       </c>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B100" s="2">
+      <c r="B100" s="14">
         <v>97</v>
       </c>
       <c r="C100" s="1" t="str">
@@ -4185,7 +4219,7 @@
       </c>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B101" s="2">
+      <c r="B101" s="14">
         <v>98</v>
       </c>
       <c r="C101" s="1" t="str">
@@ -4219,7 +4253,7 @@
       </c>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B102" s="2">
+      <c r="B102" s="14">
         <v>99</v>
       </c>
       <c r="C102" s="1" t="str">
@@ -4253,7 +4287,7 @@
       </c>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B103" s="2">
+      <c r="B103" s="15">
         <v>100</v>
       </c>
       <c r="C103" s="1" t="str">
@@ -4287,7 +4321,7 @@
       </c>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B104" s="2">
+      <c r="B104" s="13">
         <v>101</v>
       </c>
       <c r="C104" s="1" t="str">
@@ -4318,7 +4352,7 @@
       </c>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B105" s="2">
+      <c r="B105" s="14">
         <v>102</v>
       </c>
       <c r="C105" s="3" t="str">
@@ -4352,7 +4386,7 @@
       </c>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B106" s="2">
+      <c r="B106" s="15">
         <v>103</v>
       </c>
       <c r="C106" s="3" t="str">
@@ -4382,7 +4416,7 @@
       </c>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B107" s="2">
+      <c r="B107" s="13">
         <v>104</v>
       </c>
       <c r="C107" s="5" t="str">
@@ -4404,7 +4438,7 @@
       </c>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B108" s="2">
+      <c r="B108" s="13">
         <v>105</v>
       </c>
       <c r="C108" s="5" t="str">
@@ -4426,7 +4460,7 @@
       </c>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B109" s="2">
+      <c r="B109" s="13">
         <v>106</v>
       </c>
       <c r="C109" s="5" t="str">
@@ -4448,7 +4482,7 @@
       </c>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B110" s="2">
+      <c r="B110" s="13">
         <v>107</v>
       </c>
       <c r="C110" s="5" t="str">
@@ -4470,7 +4504,7 @@
       </c>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B111" s="2">
+      <c r="B111" s="13">
         <v>108</v>
       </c>
       <c r="C111" s="5" t="str">
@@ -4492,7 +4526,7 @@
       </c>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B112" s="2">
+      <c r="B112" s="13">
         <v>109</v>
       </c>
       <c r="C112" s="5" t="str">
@@ -4514,7 +4548,7 @@
       </c>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B113" s="2">
+      <c r="B113" s="13">
         <v>110</v>
       </c>
       <c r="C113" s="5" t="str">
@@ -4536,7 +4570,7 @@
       </c>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B114" s="2">
+      <c r="B114" s="13">
         <v>111</v>
       </c>
       <c r="C114" s="5" t="str">
@@ -4558,7 +4592,7 @@
       </c>
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B115" s="2">
+      <c r="B115" s="14">
         <v>112</v>
       </c>
       <c r="C115" s="1" t="str">
@@ -4587,7 +4621,7 @@
       </c>
     </row>
     <row r="116" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B116" s="2">
+      <c r="B116" s="14">
         <v>113</v>
       </c>
       <c r="C116" s="1" t="str">
@@ -4616,7 +4650,7 @@
       </c>
     </row>
     <row r="117" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B117" s="2">
+      <c r="B117" s="14">
         <v>114</v>
       </c>
       <c r="C117" s="1" t="str">
@@ -4645,7 +4679,7 @@
       </c>
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B118" s="2">
+      <c r="B118" s="14">
         <v>115</v>
       </c>
       <c r="C118" s="1" t="str">
@@ -4674,7 +4708,7 @@
       </c>
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B119" s="2">
+      <c r="B119" s="14">
         <v>116</v>
       </c>
       <c r="C119" s="1" t="str">
@@ -4703,7 +4737,7 @@
       </c>
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B120" s="2">
+      <c r="B120" s="14">
         <v>117</v>
       </c>
       <c r="C120" s="1" t="str">
@@ -4732,7 +4766,7 @@
       </c>
     </row>
     <row r="121" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B121" s="2">
+      <c r="B121" s="14">
         <v>118</v>
       </c>
       <c r="C121" s="1" t="str">
@@ -4761,7 +4795,7 @@
       </c>
     </row>
     <row r="122" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B122" s="2">
+      <c r="B122" s="14">
         <v>119</v>
       </c>
       <c r="C122" s="1" t="str">
@@ -4790,7 +4824,7 @@
       </c>
     </row>
     <row r="123" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B123" s="2">
+      <c r="B123" s="14">
         <v>120</v>
       </c>
       <c r="C123" s="1" t="str">
@@ -4819,7 +4853,7 @@
       </c>
     </row>
     <row r="124" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B124" s="2">
+      <c r="B124" s="14">
         <v>121</v>
       </c>
       <c r="C124" s="1" t="str">
@@ -4848,7 +4882,7 @@
       </c>
     </row>
     <row r="125" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B125" s="2">
+      <c r="B125" s="14">
         <v>122</v>
       </c>
       <c r="C125" s="1" t="str">
@@ -4877,7 +4911,7 @@
       </c>
     </row>
     <row r="126" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B126" s="2">
+      <c r="B126" s="14">
         <v>123</v>
       </c>
       <c r="C126" s="1" t="str">
@@ -4906,7 +4940,7 @@
       </c>
     </row>
     <row r="127" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B127" s="2">
+      <c r="B127" s="14">
         <v>124</v>
       </c>
       <c r="C127" s="1" t="str">
@@ -4935,7 +4969,7 @@
       </c>
     </row>
     <row r="128" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B128" s="2">
+      <c r="B128" s="14">
         <v>125</v>
       </c>
       <c r="C128" s="1" t="str">
@@ -4964,7 +4998,7 @@
       </c>
     </row>
     <row r="129" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B129" s="2">
+      <c r="B129" s="14">
         <v>126</v>
       </c>
       <c r="C129" s="1" t="str">
@@ -4993,7 +5027,7 @@
       </c>
     </row>
     <row r="130" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B130" s="2">
+      <c r="B130" s="14">
         <v>127</v>
       </c>
       <c r="C130" s="1" t="str">
@@ -5022,7 +5056,7 @@
       </c>
     </row>
     <row r="131" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B131" s="2">
+      <c r="B131" s="14">
         <v>128</v>
       </c>
       <c r="C131" s="1" t="str">
@@ -5032,8 +5066,11 @@
       <c r="D131" t="s">
         <v>43</v>
       </c>
+      <c r="E131" t="s">
+        <v>266</v>
+      </c>
       <c r="F131" s="7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="G131" t="s">
         <v>148</v>
@@ -5049,11 +5086,11 @@
       </c>
       <c r="K131" t="str">
         <f t="shared" ref="K131:K194" si="5">CONCATENATE("new OpCodeTable(0x",DEC2HEX(B131,2),",","""",E131,"""",",",F131,",","""",G131,"""",",","""",H131,"""",",","""",I131,"""",",","""",J131,"""","),")</f>
-        <v>new OpCodeTable(0x80,"",-1,"R/M","b","I","b"),</v>
+        <v>new OpCodeTable(0x80,"{0} {1},{2}",2,"R/M","b","I","b"),</v>
       </c>
     </row>
     <row r="132" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B132" s="2">
+      <c r="B132" s="14">
         <v>129</v>
       </c>
       <c r="C132" s="1" t="str">
@@ -5063,8 +5100,11 @@
       <c r="D132" t="s">
         <v>44</v>
       </c>
+      <c r="E132" t="s">
+        <v>266</v>
+      </c>
       <c r="F132" s="7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="G132" t="s">
         <v>148</v>
@@ -5080,11 +5120,11 @@
       </c>
       <c r="K132" t="str">
         <f t="shared" si="5"/>
-        <v>new OpCodeTable(0x81,"",-1,"R/M","v","I","v"),</v>
+        <v>new OpCodeTable(0x81,"{0} {1},{2}",2,"R/M","v","I","v"),</v>
       </c>
     </row>
     <row r="133" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B133" s="2">
+      <c r="B133" s="14">
         <v>130</v>
       </c>
       <c r="C133" s="1" t="str">
@@ -5094,8 +5134,11 @@
       <c r="D133" t="s">
         <v>45</v>
       </c>
+      <c r="E133" t="s">
+        <v>266</v>
+      </c>
       <c r="F133" s="7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="G133" t="s">
         <v>148</v>
@@ -5111,11 +5154,11 @@
       </c>
       <c r="K133" t="str">
         <f t="shared" si="5"/>
-        <v>new OpCodeTable(0x82,"",-1,"R/M","b","I","b"),</v>
+        <v>new OpCodeTable(0x82,"{0} {1},{2}",2,"R/M","b","I","b"),</v>
       </c>
     </row>
     <row r="134" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B134" s="2">
+      <c r="B134" s="14">
         <v>131</v>
       </c>
       <c r="C134" s="1" t="str">
@@ -5125,8 +5168,11 @@
       <c r="D134" t="s">
         <v>46</v>
       </c>
+      <c r="E134" t="s">
+        <v>266</v>
+      </c>
       <c r="F134" s="7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="G134" t="s">
         <v>148</v>
@@ -5142,11 +5188,11 @@
       </c>
       <c r="K134" t="str">
         <f t="shared" si="5"/>
-        <v>new OpCodeTable(0x83,"",-1,"R/M","v","I","b"),</v>
+        <v>new OpCodeTable(0x83,"{0} {1},{2}",2,"R/M","v","I","b"),</v>
       </c>
     </row>
     <row r="135" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B135" s="2">
+      <c r="B135" s="13">
         <v>132</v>
       </c>
       <c r="C135" s="1" t="str">
@@ -5184,7 +5230,7 @@
       </c>
     </row>
     <row r="136" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B136" s="2">
+      <c r="B136" s="13">
         <v>133</v>
       </c>
       <c r="C136" s="1" t="str">
@@ -5222,7 +5268,7 @@
       </c>
     </row>
     <row r="137" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B137" s="2">
+      <c r="B137" s="14">
         <v>134</v>
       </c>
       <c r="C137" s="1" t="str">
@@ -5240,24 +5286,24 @@
         <v>2</v>
       </c>
       <c r="G137" t="s">
+        <v>147</v>
+      </c>
+      <c r="H137" t="s">
+        <v>11</v>
+      </c>
+      <c r="I137" t="s">
         <v>148</v>
-      </c>
-      <c r="H137" t="s">
-        <v>11</v>
-      </c>
-      <c r="I137" t="s">
-        <v>147</v>
       </c>
       <c r="J137" t="s">
         <v>11</v>
       </c>
       <c r="K137" t="str">
         <f t="shared" si="5"/>
-        <v>new OpCodeTable(0x86,"xchg {0},{1}",2,"R/M","b","REG","b"),</v>
+        <v>new OpCodeTable(0x86,"xchg {0},{1}",2,"REG","b","R/M","b"),</v>
       </c>
     </row>
     <row r="138" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B138" s="2">
+      <c r="B138" s="14">
         <v>135</v>
       </c>
       <c r="C138" s="1" t="str">
@@ -5275,24 +5321,24 @@
         <v>2</v>
       </c>
       <c r="G138" t="s">
+        <v>147</v>
+      </c>
+      <c r="H138" t="s">
+        <v>12</v>
+      </c>
+      <c r="I138" t="s">
         <v>148</v>
-      </c>
-      <c r="H138" t="s">
-        <v>12</v>
-      </c>
-      <c r="I138" t="s">
-        <v>147</v>
       </c>
       <c r="J138" t="s">
         <v>12</v>
       </c>
       <c r="K138" t="str">
         <f t="shared" si="5"/>
-        <v>new OpCodeTable(0x87,"xchg {0},{1}",2,"R/M","v","REG","v"),</v>
+        <v>new OpCodeTable(0x87,"xchg {0},{1}",2,"REG","v","R/M","v"),</v>
       </c>
     </row>
     <row r="139" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B139" s="2">
+      <c r="B139" s="14">
         <v>136</v>
       </c>
       <c r="C139" s="1" t="str">
@@ -5327,7 +5373,7 @@
       </c>
     </row>
     <row r="140" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B140" s="2">
+      <c r="B140" s="14">
         <v>137</v>
       </c>
       <c r="C140" s="1" t="str">
@@ -5362,7 +5408,7 @@
       </c>
     </row>
     <row r="141" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B141" s="2">
+      <c r="B141" s="14">
         <v>138</v>
       </c>
       <c r="C141" s="1" t="str">
@@ -5397,7 +5443,7 @@
       </c>
     </row>
     <row r="142" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B142" s="2">
+      <c r="B142" s="14">
         <v>139</v>
       </c>
       <c r="C142" s="1" t="str">
@@ -5432,7 +5478,7 @@
       </c>
     </row>
     <row r="143" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B143" s="2">
+      <c r="B143" s="14">
         <v>140</v>
       </c>
       <c r="C143" s="1" t="str">
@@ -5467,7 +5513,7 @@
       </c>
     </row>
     <row r="144" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B144" s="2">
+      <c r="B144" s="14">
         <v>141</v>
       </c>
       <c r="C144" s="1" t="str">
@@ -5491,15 +5537,18 @@
         <v>12</v>
       </c>
       <c r="I144" t="s">
-        <v>67</v>
+        <v>148</v>
+      </c>
+      <c r="J144" t="s">
+        <v>12</v>
       </c>
       <c r="K144" t="str">
         <f t="shared" si="5"/>
-        <v>new OpCodeTable(0x8D,"lea {0},{1}",2,"REG","v","M",""),</v>
+        <v>new OpCodeTable(0x8D,"lea {0},{1}",2,"REG","v","R/M","v"),</v>
       </c>
     </row>
     <row r="145" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B145" s="2">
+      <c r="B145" s="14">
         <v>142</v>
       </c>
       <c r="C145" s="1" t="str">
@@ -5534,7 +5583,7 @@
       </c>
     </row>
     <row r="146" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B146" s="2">
+      <c r="B146" s="14">
         <v>143</v>
       </c>
       <c r="C146" s="1" t="str">
@@ -5562,7 +5611,7 @@
       </c>
     </row>
     <row r="147" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B147" s="2">
+      <c r="B147" s="14">
         <v>144</v>
       </c>
       <c r="C147" s="1" t="str">
@@ -5572,16 +5621,19 @@
       <c r="D147" t="s">
         <v>49</v>
       </c>
+      <c r="E147" t="s">
+        <v>264</v>
+      </c>
       <c r="F147" s="7">
         <v>0</v>
       </c>
       <c r="K147" t="str">
         <f t="shared" si="5"/>
-        <v>new OpCodeTable(0x90,"",0,"","","",""),</v>
+        <v>new OpCodeTable(0x90,"nop",0,"","","",""),</v>
       </c>
     </row>
     <row r="148" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B148" s="2">
+      <c r="B148" s="14">
         <v>145</v>
       </c>
       <c r="C148" s="1" t="str">
@@ -5610,7 +5662,7 @@
       </c>
     </row>
     <row r="149" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B149" s="2">
+      <c r="B149" s="14">
         <v>146</v>
       </c>
       <c r="C149" s="1" t="str">
@@ -5639,7 +5691,7 @@
       </c>
     </row>
     <row r="150" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B150" s="2">
+      <c r="B150" s="14">
         <v>147</v>
       </c>
       <c r="C150" s="1" t="str">
@@ -5668,7 +5720,7 @@
       </c>
     </row>
     <row r="151" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B151" s="2">
+      <c r="B151" s="14">
         <v>148</v>
       </c>
       <c r="C151" s="1" t="str">
@@ -5697,7 +5749,7 @@
       </c>
     </row>
     <row r="152" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B152" s="2">
+      <c r="B152" s="14">
         <v>149</v>
       </c>
       <c r="C152" s="1" t="str">
@@ -5726,7 +5778,7 @@
       </c>
     </row>
     <row r="153" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B153" s="2">
+      <c r="B153" s="14">
         <v>150</v>
       </c>
       <c r="C153" s="1" t="str">
@@ -5755,7 +5807,7 @@
       </c>
     </row>
     <row r="154" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B154" s="2">
+      <c r="B154" s="14">
         <v>151</v>
       </c>
       <c r="C154" s="1" t="str">
@@ -5784,7 +5836,7 @@
       </c>
     </row>
     <row r="155" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B155" s="2">
+      <c r="B155" s="14">
         <v>152</v>
       </c>
       <c r="C155" s="1" t="str">
@@ -5806,7 +5858,7 @@
       </c>
     </row>
     <row r="156" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B156" s="2">
+      <c r="B156" s="14">
         <v>153</v>
       </c>
       <c r="C156" s="1" t="str">
@@ -5828,7 +5880,7 @@
       </c>
     </row>
     <row r="157" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B157" s="2">
+      <c r="B157" s="14">
         <v>154</v>
       </c>
       <c r="C157" s="1" t="str">
@@ -5856,7 +5908,7 @@
       </c>
     </row>
     <row r="158" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B158" s="2">
+      <c r="B158" s="14">
         <v>155</v>
       </c>
       <c r="C158" s="1" t="str">
@@ -5878,7 +5930,7 @@
       </c>
     </row>
     <row r="159" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B159" s="2">
+      <c r="B159" s="14">
         <v>156</v>
       </c>
       <c r="C159" s="1" t="str">
@@ -5900,7 +5952,7 @@
       </c>
     </row>
     <row r="160" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B160" s="2">
+      <c r="B160" s="14">
         <v>157</v>
       </c>
       <c r="C160" s="1" t="str">
@@ -5922,7 +5974,7 @@
       </c>
     </row>
     <row r="161" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B161" s="2">
+      <c r="B161" s="14">
         <v>158</v>
       </c>
       <c r="C161" s="1" t="str">
@@ -5944,7 +5996,7 @@
       </c>
     </row>
     <row r="162" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B162" s="2">
+      <c r="B162" s="14">
         <v>159</v>
       </c>
       <c r="C162" s="1" t="str">
@@ -5966,7 +6018,7 @@
       </c>
     </row>
     <row r="163" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B163" s="2">
+      <c r="B163" s="14">
         <v>160</v>
       </c>
       <c r="C163" s="1" t="str">
@@ -5998,7 +6050,7 @@
       </c>
     </row>
     <row r="164" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B164" s="2">
+      <c r="B164" s="14">
         <v>161</v>
       </c>
       <c r="C164" s="1" t="str">
@@ -6030,7 +6082,7 @@
       </c>
     </row>
     <row r="165" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B165" s="2">
+      <c r="B165" s="14">
         <v>162</v>
       </c>
       <c r="C165" s="1" t="str">
@@ -6062,7 +6114,7 @@
       </c>
     </row>
     <row r="166" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B166" s="2">
+      <c r="B166" s="14">
         <v>163</v>
       </c>
       <c r="C166" s="1" t="str">
@@ -6094,7 +6146,7 @@
       </c>
     </row>
     <row r="167" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B167" s="2">
+      <c r="B167" s="14">
         <v>164</v>
       </c>
       <c r="C167" s="1" t="str">
@@ -6116,7 +6168,7 @@
       </c>
     </row>
     <row r="168" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B168" s="2">
+      <c r="B168" s="14">
         <v>165</v>
       </c>
       <c r="C168" s="1" t="str">
@@ -6138,7 +6190,7 @@
       </c>
     </row>
     <row r="169" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B169" s="2">
+      <c r="B169" s="14">
         <v>166</v>
       </c>
       <c r="C169" s="1" t="str">
@@ -6160,7 +6212,7 @@
       </c>
     </row>
     <row r="170" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B170" s="2">
+      <c r="B170" s="14">
         <v>167</v>
       </c>
       <c r="C170" s="1" t="str">
@@ -6182,7 +6234,7 @@
       </c>
     </row>
     <row r="171" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B171" s="2">
+      <c r="B171" s="16">
         <v>168</v>
       </c>
       <c r="C171" s="1" t="str">
@@ -6214,7 +6266,7 @@
       </c>
     </row>
     <row r="172" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B172" s="2">
+      <c r="B172" s="16">
         <v>169</v>
       </c>
       <c r="C172" s="1" t="str">
@@ -6246,7 +6298,7 @@
       </c>
     </row>
     <row r="173" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B173" s="2">
+      <c r="B173" s="14">
         <v>170</v>
       </c>
       <c r="C173" s="1" t="str">
@@ -6268,7 +6320,7 @@
       </c>
     </row>
     <row r="174" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B174" s="2">
+      <c r="B174" s="14">
         <v>171</v>
       </c>
       <c r="C174" s="1" t="str">
@@ -6290,7 +6342,7 @@
       </c>
     </row>
     <row r="175" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B175" s="2">
+      <c r="B175" s="14">
         <v>172</v>
       </c>
       <c r="C175" s="1" t="str">
@@ -6312,7 +6364,7 @@
       </c>
     </row>
     <row r="176" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B176" s="2">
+      <c r="B176" s="14">
         <v>173</v>
       </c>
       <c r="C176" s="1" t="str">
@@ -6334,7 +6386,7 @@
       </c>
     </row>
     <row r="177" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B177" s="2">
+      <c r="B177" s="14">
         <v>174</v>
       </c>
       <c r="C177" s="1" t="str">
@@ -6356,7 +6408,7 @@
       </c>
     </row>
     <row r="178" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B178" s="2">
+      <c r="B178" s="14">
         <v>175</v>
       </c>
       <c r="C178" s="1" t="str">
@@ -6378,7 +6430,7 @@
       </c>
     </row>
     <row r="179" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B179" s="2">
+      <c r="B179" s="14">
         <v>176</v>
       </c>
       <c r="C179" s="1" t="str">
@@ -6402,15 +6454,15 @@
         <v>13</v>
       </c>
       <c r="J179" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K179" t="str">
         <f t="shared" si="5"/>
-        <v>new OpCodeTable(0xB0,"mov {0},{1}",2,"AL","","I","v"),</v>
+        <v>new OpCodeTable(0xB0,"mov {0},{1}",2,"AL","","I","b"),</v>
       </c>
     </row>
     <row r="180" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B180" s="2">
+      <c r="B180" s="14">
         <v>177</v>
       </c>
       <c r="C180" s="1" t="str">
@@ -6434,15 +6486,15 @@
         <v>13</v>
       </c>
       <c r="J180" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K180" t="str">
         <f t="shared" si="5"/>
-        <v>new OpCodeTable(0xB1,"mov {0},{1}",2,"CL","","I","v"),</v>
+        <v>new OpCodeTable(0xB1,"mov {0},{1}",2,"CL","","I","b"),</v>
       </c>
     </row>
     <row r="181" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B181" s="2">
+      <c r="B181" s="14">
         <v>178</v>
       </c>
       <c r="C181" s="1" t="str">
@@ -6466,15 +6518,15 @@
         <v>13</v>
       </c>
       <c r="J181" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K181" t="str">
         <f t="shared" si="5"/>
-        <v>new OpCodeTable(0xB2,"mov {0},{1}",2,"DL","","I","v"),</v>
+        <v>new OpCodeTable(0xB2,"mov {0},{1}",2,"DL","","I","b"),</v>
       </c>
     </row>
     <row r="182" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B182" s="2">
+      <c r="B182" s="14">
         <v>179</v>
       </c>
       <c r="C182" s="1" t="str">
@@ -6498,15 +6550,15 @@
         <v>13</v>
       </c>
       <c r="J182" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K182" t="str">
         <f t="shared" si="5"/>
-        <v>new OpCodeTable(0xB3,"mov {0},{1}",2,"BL","","I","v"),</v>
+        <v>new OpCodeTable(0xB3,"mov {0},{1}",2,"BL","","I","b"),</v>
       </c>
     </row>
     <row r="183" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B183" s="2">
+      <c r="B183" s="14">
         <v>180</v>
       </c>
       <c r="C183" s="1" t="str">
@@ -6530,15 +6582,15 @@
         <v>13</v>
       </c>
       <c r="J183" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K183" t="str">
         <f t="shared" si="5"/>
-        <v>new OpCodeTable(0xB4,"mov {0},{1}",2,"AH","","I","v"),</v>
+        <v>new OpCodeTable(0xB4,"mov {0},{1}",2,"AH","","I","b"),</v>
       </c>
     </row>
     <row r="184" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B184" s="2">
+      <c r="B184" s="14">
         <v>181</v>
       </c>
       <c r="C184" s="1" t="str">
@@ -6562,15 +6614,15 @@
         <v>13</v>
       </c>
       <c r="J184" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K184" t="str">
         <f t="shared" si="5"/>
-        <v>new OpCodeTable(0xB5,"mov {0},{1}",2,"CH","","I","v"),</v>
+        <v>new OpCodeTable(0xB5,"mov {0},{1}",2,"CH","","I","b"),</v>
       </c>
     </row>
     <row r="185" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B185" s="2">
+      <c r="B185" s="14">
         <v>182</v>
       </c>
       <c r="C185" s="1" t="str">
@@ -6594,15 +6646,15 @@
         <v>13</v>
       </c>
       <c r="J185" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K185" t="str">
         <f t="shared" si="5"/>
-        <v>new OpCodeTable(0xB6,"mov {0},{1}",2,"DH","","I","v"),</v>
+        <v>new OpCodeTable(0xB6,"mov {0},{1}",2,"DH","","I","b"),</v>
       </c>
     </row>
     <row r="186" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B186" s="2">
+      <c r="B186" s="14">
         <v>183</v>
       </c>
       <c r="C186" s="1" t="str">
@@ -6626,15 +6678,15 @@
         <v>13</v>
       </c>
       <c r="J186" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K186" t="str">
         <f t="shared" si="5"/>
-        <v>new OpCodeTable(0xB7,"mov {0},{1}",2,"BH","","I","v"),</v>
+        <v>new OpCodeTable(0xB7,"mov {0},{1}",2,"BH","","I","b"),</v>
       </c>
     </row>
     <row r="187" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B187" s="2">
+      <c r="B187" s="14">
         <v>184</v>
       </c>
       <c r="C187" s="1" t="str">
@@ -6666,7 +6718,7 @@
       </c>
     </row>
     <row r="188" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B188" s="2">
+      <c r="B188" s="14">
         <v>185</v>
       </c>
       <c r="C188" s="1" t="str">
@@ -6698,7 +6750,7 @@
       </c>
     </row>
     <row r="189" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B189" s="2">
+      <c r="B189" s="14">
         <v>186</v>
       </c>
       <c r="C189" s="1" t="str">
@@ -6730,7 +6782,7 @@
       </c>
     </row>
     <row r="190" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B190" s="2">
+      <c r="B190" s="14">
         <v>187</v>
       </c>
       <c r="C190" s="1" t="str">
@@ -6762,7 +6814,7 @@
       </c>
     </row>
     <row r="191" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B191" s="2">
+      <c r="B191" s="14">
         <v>188</v>
       </c>
       <c r="C191" s="1" t="str">
@@ -6794,7 +6846,7 @@
       </c>
     </row>
     <row r="192" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B192" s="2">
+      <c r="B192" s="14">
         <v>189</v>
       </c>
       <c r="C192" s="1" t="str">
@@ -6826,7 +6878,7 @@
       </c>
     </row>
     <row r="193" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B193" s="2">
+      <c r="B193" s="14">
         <v>190</v>
       </c>
       <c r="C193" s="1" t="str">
@@ -6858,7 +6910,7 @@
       </c>
     </row>
     <row r="194" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B194" s="2">
+      <c r="B194" s="14">
         <v>191</v>
       </c>
       <c r="C194" s="1" t="str">
@@ -6890,7 +6942,7 @@
       </c>
     </row>
     <row r="195" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B195" s="2">
+      <c r="B195" s="13">
         <v>192</v>
       </c>
       <c r="C195" s="5" t="str">
@@ -6912,7 +6964,7 @@
       </c>
     </row>
     <row r="196" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B196" s="2">
+      <c r="B196" s="13">
         <v>193</v>
       </c>
       <c r="C196" s="5" t="str">
@@ -6934,7 +6986,7 @@
       </c>
     </row>
     <row r="197" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B197" s="2">
+      <c r="B197" s="14">
         <v>194</v>
       </c>
       <c r="C197" s="1" t="str">
@@ -6945,7 +6997,7 @@
         <v>63</v>
       </c>
       <c r="E197" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="F197" s="7">
         <v>1</v>
@@ -6958,11 +7010,11 @@
       </c>
       <c r="K197" t="str">
         <f t="shared" si="12"/>
-        <v>new OpCodeTable(0xC2,"reg {0}",1,"I","w","",""),</v>
+        <v>new OpCodeTable(0xC2,"ret {0}",1,"I","w","",""),</v>
       </c>
     </row>
     <row r="198" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B198" s="2">
+      <c r="B198" s="14">
         <v>195</v>
       </c>
       <c r="C198" s="1" t="str">
@@ -6984,7 +7036,7 @@
       </c>
     </row>
     <row r="199" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B199" s="2">
+      <c r="B199" s="14">
         <v>196</v>
       </c>
       <c r="C199" s="1" t="str">
@@ -7008,18 +7060,18 @@
         <v>12</v>
       </c>
       <c r="I199" t="s">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="J199" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="K199" t="str">
         <f t="shared" si="12"/>
-        <v>new OpCodeTable(0xC4,"les {0},{1}",2,"REG","v","M","p"),</v>
+        <v>new OpCodeTable(0xC4,"les {0},{1}",2,"REG","v","R/M","v"),</v>
       </c>
     </row>
     <row r="200" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B200" s="2">
+      <c r="B200" s="14">
         <v>197</v>
       </c>
       <c r="C200" s="1" t="str">
@@ -7043,18 +7095,18 @@
         <v>12</v>
       </c>
       <c r="I200" t="s">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="J200" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="K200" t="str">
         <f t="shared" si="12"/>
-        <v>new OpCodeTable(0xC5,"lds {0},{1}",2,"REG","v","M","p"),</v>
+        <v>new OpCodeTable(0xC5,"lds {0},{1}",2,"REG","v","R/M","v"),</v>
       </c>
     </row>
     <row r="201" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B201" s="2">
+      <c r="B201" s="14">
         <v>198</v>
       </c>
       <c r="C201" s="1" t="str">
@@ -7089,7 +7141,7 @@
       </c>
     </row>
     <row r="202" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B202" s="2">
+      <c r="B202" s="14">
         <v>199</v>
       </c>
       <c r="C202" s="1" t="str">
@@ -7124,7 +7176,7 @@
       </c>
     </row>
     <row r="203" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B203" s="2">
+      <c r="B203" s="13">
         <v>200</v>
       </c>
       <c r="C203" s="5" t="str">
@@ -7146,7 +7198,7 @@
       </c>
     </row>
     <row r="204" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B204" s="2">
+      <c r="B204" s="13">
         <v>201</v>
       </c>
       <c r="C204" s="5" t="str">
@@ -7168,7 +7220,7 @@
       </c>
     </row>
     <row r="205" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B205" s="2">
+      <c r="B205" s="14">
         <v>202</v>
       </c>
       <c r="C205" s="1" t="str">
@@ -7196,7 +7248,7 @@
       </c>
     </row>
     <row r="206" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B206" s="2">
+      <c r="B206" s="14">
         <v>203</v>
       </c>
       <c r="C206" s="1" t="str">
@@ -7218,7 +7270,7 @@
       </c>
     </row>
     <row r="207" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B207" s="2">
+      <c r="B207" s="14">
         <v>204</v>
       </c>
       <c r="C207" s="1" t="str">
@@ -7243,7 +7295,7 @@
       </c>
     </row>
     <row r="208" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B208" s="2">
+      <c r="B208" s="14">
         <v>205</v>
       </c>
       <c r="C208" s="1" t="str">
@@ -7271,7 +7323,7 @@
       </c>
     </row>
     <row r="209" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B209" s="2">
+      <c r="B209" s="14">
         <v>206</v>
       </c>
       <c r="C209" s="1" t="str">
@@ -7293,7 +7345,7 @@
       </c>
     </row>
     <row r="210" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B210" s="2">
+      <c r="B210" s="14">
         <v>207</v>
       </c>
       <c r="C210" s="1" t="str">
@@ -7315,7 +7367,7 @@
       </c>
     </row>
     <row r="211" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B211" s="2">
+      <c r="B211" s="14">
         <v>208</v>
       </c>
       <c r="C211" s="1" t="str">
@@ -7325,8 +7377,11 @@
       <c r="D211" t="s">
         <v>44</v>
       </c>
+      <c r="E211" t="s">
+        <v>266</v>
+      </c>
       <c r="F211" s="7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="G211" t="s">
         <v>148</v>
@@ -7339,11 +7394,11 @@
       </c>
       <c r="K211" t="str">
         <f t="shared" si="12"/>
-        <v>new OpCodeTable(0xD0,"",-1,"R/M","b","1",""),</v>
+        <v>new OpCodeTable(0xD0,"{0} {1},{2}",2,"R/M","b","1",""),</v>
       </c>
     </row>
     <row r="212" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B212" s="2">
+      <c r="B212" s="14">
         <v>209</v>
       </c>
       <c r="C212" s="1" t="str">
@@ -7353,8 +7408,11 @@
       <c r="D212" t="s">
         <v>44</v>
       </c>
+      <c r="E212" t="s">
+        <v>266</v>
+      </c>
       <c r="F212" s="7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="G212" t="s">
         <v>148</v>
@@ -7367,11 +7425,11 @@
       </c>
       <c r="K212" t="str">
         <f t="shared" si="12"/>
-        <v>new OpCodeTable(0xD1,"",-1,"R/M","v","1",""),</v>
+        <v>new OpCodeTable(0xD1,"{0} {1},{2}",2,"R/M","v","1",""),</v>
       </c>
     </row>
     <row r="213" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B213" s="2">
+      <c r="B213" s="14">
         <v>210</v>
       </c>
       <c r="C213" s="1" t="str">
@@ -7381,8 +7439,11 @@
       <c r="D213" t="s">
         <v>44</v>
       </c>
+      <c r="E213" t="s">
+        <v>266</v>
+      </c>
       <c r="F213" s="7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="G213" t="s">
         <v>148</v>
@@ -7395,11 +7456,11 @@
       </c>
       <c r="K213" t="str">
         <f t="shared" si="12"/>
-        <v>new OpCodeTable(0xD2,"",-1,"R/M","b","CL",""),</v>
+        <v>new OpCodeTable(0xD2,"{0} {1},{2}",2,"R/M","b","CL",""),</v>
       </c>
     </row>
     <row r="214" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B214" s="2">
+      <c r="B214" s="14">
         <v>211</v>
       </c>
       <c r="C214" s="1" t="str">
@@ -7409,8 +7470,11 @@
       <c r="D214" t="s">
         <v>44</v>
       </c>
+      <c r="E214" t="s">
+        <v>266</v>
+      </c>
       <c r="F214" s="7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="G214" t="s">
         <v>148</v>
@@ -7423,11 +7487,11 @@
       </c>
       <c r="K214" t="str">
         <f t="shared" si="12"/>
-        <v>new OpCodeTable(0xD3,"",-1,"R/M","v","CL",""),</v>
+        <v>new OpCodeTable(0xD3,"{0} {1},{2}",2,"R/M","v","CL",""),</v>
       </c>
     </row>
     <row r="215" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B215" s="2">
+      <c r="B215" s="14">
         <v>212</v>
       </c>
       <c r="C215" s="1" t="str">
@@ -7446,16 +7510,16 @@
       <c r="G215" t="s">
         <v>13</v>
       </c>
-      <c r="H215">
-        <v>0</v>
+      <c r="H215" t="s">
+        <v>11</v>
       </c>
       <c r="K215" t="str">
         <f t="shared" si="12"/>
-        <v>new OpCodeTable(0xD4,"aam {0}",1,"I","0","",""),</v>
+        <v>new OpCodeTable(0xD4,"aam {0}",1,"I","b","",""),</v>
       </c>
     </row>
     <row r="216" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B216" s="2">
+      <c r="B216" s="14">
         <v>213</v>
       </c>
       <c r="C216" s="1" t="str">
@@ -7474,16 +7538,16 @@
       <c r="G216" t="s">
         <v>13</v>
       </c>
-      <c r="H216">
-        <v>0</v>
+      <c r="H216" t="s">
+        <v>11</v>
       </c>
       <c r="K216" t="str">
         <f t="shared" si="12"/>
-        <v>new OpCodeTable(0xD5,"aad {0}",1,"I","0","",""),</v>
+        <v>new OpCodeTable(0xD5,"aad {0}",1,"I","b","",""),</v>
       </c>
     </row>
     <row r="217" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B217" s="2">
+      <c r="B217" s="13">
         <v>214</v>
       </c>
       <c r="C217" s="5" t="str">
@@ -7505,7 +7569,7 @@
       </c>
     </row>
     <row r="218" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B218" s="2">
+      <c r="B218" s="14">
         <v>215</v>
       </c>
       <c r="C218" s="1" t="str">
@@ -7527,7 +7591,7 @@
       </c>
     </row>
     <row r="219" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B219" s="2">
+      <c r="B219" s="13">
         <v>216</v>
       </c>
       <c r="C219" s="3" t="str">
@@ -7548,7 +7612,7 @@
       </c>
     </row>
     <row r="220" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B220" s="2">
+      <c r="B220" s="13">
         <v>217</v>
       </c>
       <c r="C220" s="3" t="str">
@@ -7569,7 +7633,7 @@
       </c>
     </row>
     <row r="221" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B221" s="2">
+      <c r="B221" s="13">
         <v>218</v>
       </c>
       <c r="C221" s="3" t="str">
@@ -7590,7 +7654,7 @@
       </c>
     </row>
     <row r="222" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B222" s="2">
+      <c r="B222" s="13">
         <v>219</v>
       </c>
       <c r="C222" s="3" t="str">
@@ -7614,7 +7678,7 @@
       </c>
     </row>
     <row r="223" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B223" s="2">
+      <c r="B223" s="13">
         <v>220</v>
       </c>
       <c r="C223" s="3" t="str">
@@ -7635,7 +7699,7 @@
       </c>
     </row>
     <row r="224" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B224" s="2">
+      <c r="B224" s="13">
         <v>221</v>
       </c>
       <c r="C224" s="3" t="str">
@@ -7656,7 +7720,7 @@
       </c>
     </row>
     <row r="225" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B225" s="2">
+      <c r="B225" s="13">
         <v>222</v>
       </c>
       <c r="C225" s="3" t="str">
@@ -7677,7 +7741,7 @@
       </c>
     </row>
     <row r="226" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B226" s="2">
+      <c r="B226" s="13">
         <v>223</v>
       </c>
       <c r="C226" s="3" t="str">
@@ -7698,7 +7762,7 @@
       </c>
     </row>
     <row r="227" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B227" s="2">
+      <c r="B227" s="14">
         <v>224</v>
       </c>
       <c r="C227" s="1" t="str">
@@ -7727,7 +7791,7 @@
       </c>
     </row>
     <row r="228" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B228" s="2">
+      <c r="B228" s="14">
         <v>225</v>
       </c>
       <c r="C228" s="1" t="str">
@@ -7756,7 +7820,7 @@
       </c>
     </row>
     <row r="229" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B229" s="2">
+      <c r="B229" s="14">
         <v>226</v>
       </c>
       <c r="C229" s="1" t="str">
@@ -7785,7 +7849,7 @@
       </c>
     </row>
     <row r="230" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B230" s="2">
+      <c r="B230" s="14">
         <v>227</v>
       </c>
       <c r="C230" s="1" t="str">
@@ -7814,7 +7878,7 @@
       </c>
     </row>
     <row r="231" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B231" s="2">
+      <c r="B231" s="14">
         <v>228</v>
       </c>
       <c r="C231" s="1" t="str">
@@ -7839,7 +7903,7 @@
       </c>
     </row>
     <row r="232" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B232" s="2">
+      <c r="B232" s="14">
         <v>229</v>
       </c>
       <c r="C232" s="1" t="str">
@@ -7864,7 +7928,7 @@
       </c>
     </row>
     <row r="233" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B233" s="2">
+      <c r="B233" s="14">
         <v>230</v>
       </c>
       <c r="C233" s="1" t="str">
@@ -7895,7 +7959,7 @@
       </c>
     </row>
     <row r="234" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B234" s="2">
+      <c r="B234" s="14">
         <v>231</v>
       </c>
       <c r="C234" s="1" t="str">
@@ -7926,7 +7990,7 @@
       </c>
     </row>
     <row r="235" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B235" s="2">
+      <c r="B235" s="14">
         <v>232</v>
       </c>
       <c r="C235" s="1" t="str">
@@ -7955,7 +8019,7 @@
       </c>
     </row>
     <row r="236" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B236" s="2">
+      <c r="B236" s="14">
         <v>233</v>
       </c>
       <c r="C236" s="1" t="str">
@@ -7984,7 +8048,7 @@
       </c>
     </row>
     <row r="237" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B237" s="2">
+      <c r="B237" s="14">
         <v>234</v>
       </c>
       <c r="C237" s="1" t="str">
@@ -8013,7 +8077,7 @@
       </c>
     </row>
     <row r="238" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B238" s="2">
+      <c r="B238" s="14">
         <v>235</v>
       </c>
       <c r="C238" s="1" t="str">
@@ -8042,7 +8106,7 @@
       </c>
     </row>
     <row r="239" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B239" s="2">
+      <c r="B239" s="14">
         <v>236</v>
       </c>
       <c r="C239" s="1" t="str">
@@ -8070,7 +8134,7 @@
       </c>
     </row>
     <row r="240" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B240" s="2">
+      <c r="B240" s="14">
         <v>237</v>
       </c>
       <c r="C240" s="1" t="str">
@@ -8098,7 +8162,7 @@
       </c>
     </row>
     <row r="241" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B241" s="2">
+      <c r="B241" s="14">
         <v>238</v>
       </c>
       <c r="C241" s="1" t="str">
@@ -8126,7 +8190,7 @@
       </c>
     </row>
     <row r="242" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B242" s="2">
+      <c r="B242" s="14">
         <v>239</v>
       </c>
       <c r="C242" s="1" t="str">
@@ -8154,7 +8218,7 @@
       </c>
     </row>
     <row r="243" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B243" s="2">
+      <c r="B243" s="14">
         <v>240</v>
       </c>
       <c r="C243" s="1" t="str">
@@ -8176,7 +8240,7 @@
       </c>
     </row>
     <row r="244" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B244" s="2">
+      <c r="B244" s="13">
         <v>241</v>
       </c>
       <c r="C244" s="5" t="str">
@@ -8198,7 +8262,7 @@
       </c>
     </row>
     <row r="245" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B245" s="2">
+      <c r="B245" s="14">
         <v>242</v>
       </c>
       <c r="C245" s="1" t="str">
@@ -8220,7 +8284,7 @@
       </c>
     </row>
     <row r="246" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B246" s="2">
+      <c r="B246" s="14">
         <v>243</v>
       </c>
       <c r="C246" s="1" t="str">
@@ -8242,7 +8306,7 @@
       </c>
     </row>
     <row r="247" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B247" s="2">
+      <c r="B247" s="14">
         <v>244</v>
       </c>
       <c r="C247" s="1" t="str">
@@ -8264,7 +8328,7 @@
       </c>
     </row>
     <row r="248" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B248" s="2">
+      <c r="B248" s="14">
         <v>245</v>
       </c>
       <c r="C248" s="1" t="str">
@@ -8286,7 +8350,7 @@
       </c>
     </row>
     <row r="249" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B249" s="2">
+      <c r="B249" s="14">
         <v>246</v>
       </c>
       <c r="C249" s="1" t="str">
@@ -8296,8 +8360,11 @@
       <c r="D249" t="s">
         <v>83</v>
       </c>
+      <c r="E249" t="s">
+        <v>267</v>
+      </c>
       <c r="F249" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G249" t="s">
         <v>148</v>
@@ -8307,11 +8374,11 @@
       </c>
       <c r="K249" t="str">
         <f t="shared" si="12"/>
-        <v>new OpCodeTable(0xF6,"",-1,"R/M","b","",""),</v>
+        <v>new OpCodeTable(0xF6,"{0} {1}",1,"R/M","b","",""),</v>
       </c>
     </row>
     <row r="250" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B250" s="2">
+      <c r="B250" s="14">
         <v>247</v>
       </c>
       <c r="C250" s="1" t="str">
@@ -8321,8 +8388,11 @@
       <c r="D250" t="s">
         <v>84</v>
       </c>
+      <c r="E250" t="s">
+        <v>267</v>
+      </c>
       <c r="F250" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G250" t="s">
         <v>148</v>
@@ -8332,11 +8402,11 @@
       </c>
       <c r="K250" t="str">
         <f t="shared" si="12"/>
-        <v>new OpCodeTable(0xF7,"",-1,"R/M","v","",""),</v>
+        <v>new OpCodeTable(0xF7,"{0} {1}",1,"R/M","v","",""),</v>
       </c>
     </row>
     <row r="251" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B251" s="2">
+      <c r="B251" s="14">
         <v>248</v>
       </c>
       <c r="C251" s="1" t="str">
@@ -8358,7 +8428,7 @@
       </c>
     </row>
     <row r="252" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B252" s="2">
+      <c r="B252" s="14">
         <v>249</v>
       </c>
       <c r="C252" s="1" t="str">
@@ -8380,7 +8450,7 @@
       </c>
     </row>
     <row r="253" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B253" s="2">
+      <c r="B253" s="14">
         <v>250</v>
       </c>
       <c r="C253" s="1" t="str">
@@ -8402,7 +8472,7 @@
       </c>
     </row>
     <row r="254" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B254" s="2">
+      <c r="B254" s="14">
         <v>251</v>
       </c>
       <c r="C254" s="1" t="str">
@@ -8424,7 +8494,7 @@
       </c>
     </row>
     <row r="255" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B255" s="2">
+      <c r="B255" s="14">
         <v>252</v>
       </c>
       <c r="C255" s="1" t="str">
@@ -8446,7 +8516,7 @@
       </c>
     </row>
     <row r="256" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B256" s="2">
+      <c r="B256" s="14">
         <v>253</v>
       </c>
       <c r="C256" s="1" t="str">
@@ -8468,7 +8538,7 @@
       </c>
     </row>
     <row r="257" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B257" s="2">
+      <c r="B257" s="14">
         <v>254</v>
       </c>
       <c r="C257" s="1" t="str">
@@ -8478,8 +8548,11 @@
       <c r="D257" t="s">
         <v>46</v>
       </c>
+      <c r="E257" t="s">
+        <v>267</v>
+      </c>
       <c r="F257" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G257" t="s">
         <v>148</v>
@@ -8489,11 +8562,11 @@
       </c>
       <c r="K257" t="str">
         <f t="shared" si="12"/>
-        <v>new OpCodeTable(0xFE,"",-1,"R/M","b","",""),</v>
+        <v>new OpCodeTable(0xFE,"{0} {1}",1,"R/M","b","",""),</v>
       </c>
     </row>
     <row r="258" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B258" s="2">
+      <c r="B258" s="14">
         <v>255</v>
       </c>
       <c r="C258" s="1" t="str">
@@ -8503,8 +8576,11 @@
       <c r="D258" t="s">
         <v>131</v>
       </c>
+      <c r="E258" t="s">
+        <v>267</v>
+      </c>
       <c r="F258" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G258" t="s">
         <v>148</v>
@@ -8514,7 +8590,7 @@
       </c>
       <c r="K258" t="str">
         <f t="shared" si="12"/>
-        <v>new OpCodeTable(0xFF,"",-1,"R/M","v","",""),</v>
+        <v>new OpCodeTable(0xFF,"{0} {1}",1,"R/M","v","",""),</v>
       </c>
     </row>
   </sheetData>
@@ -8527,8 +8603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P258"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8596,7 +8672,7 @@
         <v>180</v>
       </c>
       <c r="C3" s="1" t="str">
-        <f>DEC2HEX(B3)</f>
+        <f t="shared" ref="C3:C66" si="0">DEC2HEX(B3)</f>
         <v>B4</v>
       </c>
       <c r="D3" t="s">
@@ -8619,7 +8695,7 @@
         <v>12</v>
       </c>
       <c r="K3" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B3,2),",","""",E3,"""",",",F3,",","""",G3,"""",",","""",H3,"""",",","""",I3,"""",",","""",J3,"""","),")</f>
+        <f t="shared" ref="K3:K66" si="1">CONCATENATE("new OpCodeTable(0x",DEC2HEX(B3,2),",","""",E3,"""",",",F3,",","""",G3,"""",",","""",H3,"""",",","""",I3,"""",",","""",J3,"""","),")</f>
         <v>new OpCodeTable(0xB4,"mov {0},{1}",2,"AH","","I","v"),</v>
       </c>
       <c r="O3" s="7" t="s">
@@ -8634,7 +8710,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="str">
-        <f>DEC2HEX(B4)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D4" t="s">
@@ -8656,7 +8732,7 @@
         <v>11</v>
       </c>
       <c r="K4" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B4,2),",","""",E4,"""",",",F4,",","""",G4,"""",",","""",H4,"""",",","""",I4,"""",",","""",J4,"""","),")</f>
+        <f t="shared" si="1"/>
         <v>new OpCodeTable(0x04,"add {0},{1}",2,"AL","","I","b"),</v>
       </c>
       <c r="O4" s="7" t="s">
@@ -8671,7 +8747,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="1" t="str">
-        <f>DEC2HEX(B5)</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="D5" t="s">
@@ -8693,7 +8769,7 @@
         <v>11</v>
       </c>
       <c r="K5" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B5,2),",","""",E5,"""",",",F5,",","""",G5,"""",",","""",H5,"""",",","""",I5,"""",",","""",J5,"""","),")</f>
+        <f t="shared" si="1"/>
         <v>new OpCodeTable(0x0C,"or {0},{1}",2,"AL","","I","b"),</v>
       </c>
       <c r="O5" s="7"/>
@@ -8706,7 +8782,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="1" t="str">
-        <f>DEC2HEX(B6)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="D6" t="s">
@@ -8728,7 +8804,7 @@
         <v>11</v>
       </c>
       <c r="K6" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B6,2),",","""",E6,"""",",",F6,",","""",G6,"""",",","""",H6,"""",",","""",I6,"""",",","""",J6,"""","),")</f>
+        <f t="shared" si="1"/>
         <v>new OpCodeTable(0x14,"adc {0},{1}",2,"AL","","I","b"),</v>
       </c>
       <c r="O6" s="7" t="s">
@@ -8743,7 +8819,7 @@
         <v>28</v>
       </c>
       <c r="C7" s="1" t="str">
-        <f>DEC2HEX(B7)</f>
+        <f t="shared" si="0"/>
         <v>1C</v>
       </c>
       <c r="D7" t="s">
@@ -8765,7 +8841,7 @@
         <v>11</v>
       </c>
       <c r="K7" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B7,2),",","""",E7,"""",",",F7,",","""",G7,"""",",","""",H7,"""",",","""",I7,"""",",","""",J7,"""","),")</f>
+        <f t="shared" si="1"/>
         <v>new OpCodeTable(0x1C,"sbb {0},{1}",2,"AL","","I","b"),</v>
       </c>
       <c r="O7" s="7" t="s">
@@ -8780,7 +8856,7 @@
         <v>36</v>
       </c>
       <c r="C8" s="1" t="str">
-        <f>DEC2HEX(B8)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="D8" t="s">
@@ -8802,7 +8878,7 @@
         <v>11</v>
       </c>
       <c r="K8" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B8,2),",","""",E8,"""",",",F8,",","""",G8,"""",",","""",H8,"""",",","""",I8,"""",",","""",J8,"""","),")</f>
+        <f t="shared" si="1"/>
         <v>new OpCodeTable(0x24,"and {0},{1}",2,"AL","","I","b"),</v>
       </c>
       <c r="O8" s="7" t="s">
@@ -8817,7 +8893,7 @@
         <v>44</v>
       </c>
       <c r="C9" s="1" t="str">
-        <f>DEC2HEX(B9)</f>
+        <f t="shared" si="0"/>
         <v>2C</v>
       </c>
       <c r="D9" t="s">
@@ -8839,7 +8915,7 @@
         <v>11</v>
       </c>
       <c r="K9" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B9,2),",","""",E9,"""",",",F9,",","""",G9,"""",",","""",H9,"""",",","""",I9,"""",",","""",J9,"""","),")</f>
+        <f t="shared" si="1"/>
         <v>new OpCodeTable(0x2C,"sub {0},{1}",2,"AL","","I","b"),</v>
       </c>
       <c r="O9" s="7" t="s">
@@ -8854,7 +8930,7 @@
         <v>52</v>
       </c>
       <c r="C10" s="1" t="str">
-        <f>DEC2HEX(B10)</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="D10" t="s">
@@ -8876,7 +8952,7 @@
         <v>11</v>
       </c>
       <c r="K10" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B10,2),",","""",E10,"""",",",F10,",","""",G10,"""",",","""",H10,"""",",","""",I10,"""",",","""",J10,"""","),")</f>
+        <f t="shared" si="1"/>
         <v>new OpCodeTable(0x34,"xor {0},{1}",2,"AL","","I","b"),</v>
       </c>
       <c r="O10" s="7" t="s">
@@ -8888,7 +8964,7 @@
         <v>60</v>
       </c>
       <c r="C11" s="1" t="str">
-        <f>DEC2HEX(B11)</f>
+        <f t="shared" si="0"/>
         <v>3C</v>
       </c>
       <c r="D11" t="s">
@@ -8910,7 +8986,7 @@
         <v>11</v>
       </c>
       <c r="K11" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B11,2),",","""",E11,"""",",",F11,",","""",G11,"""",",","""",H11,"""",",","""",I11,"""",",","""",J11,"""","),")</f>
+        <f t="shared" si="1"/>
         <v>new OpCodeTable(0x3C,"cmp {0},{1}",2,"AL","","I","b"),</v>
       </c>
       <c r="O11" s="7" t="s">
@@ -8925,7 +9001,7 @@
         <v>168</v>
       </c>
       <c r="C12" s="1" t="str">
-        <f>DEC2HEX(B12)</f>
+        <f t="shared" si="0"/>
         <v>A8</v>
       </c>
       <c r="D12" t="s">
@@ -8948,7 +9024,7 @@
         <v>11</v>
       </c>
       <c r="K12" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B12,2),",","""",E12,"""",",",F12,",","""",G12,"""",",","""",H12,"""",",","""",I12,"""",",","""",J12,"""","),")</f>
+        <f t="shared" si="1"/>
         <v>new OpCodeTable(0xA8,"test {0},{1}",2,"AL","","I","b"),</v>
       </c>
     </row>
@@ -8957,7 +9033,7 @@
         <v>176</v>
       </c>
       <c r="C13" s="1" t="str">
-        <f>DEC2HEX(B13)</f>
+        <f t="shared" si="0"/>
         <v>B0</v>
       </c>
       <c r="D13" t="s">
@@ -8980,7 +9056,7 @@
         <v>12</v>
       </c>
       <c r="K13" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B13,2),",","""",E13,"""",",",F13,",","""",G13,"""",",","""",H13,"""",",","""",I13,"""",",","""",J13,"""","),")</f>
+        <f t="shared" si="1"/>
         <v>new OpCodeTable(0xB0,"mov {0},{1}",2,"AL","","I","v"),</v>
       </c>
       <c r="O13" s="7" t="s">
@@ -8995,7 +9071,7 @@
         <v>160</v>
       </c>
       <c r="C14" s="1" t="str">
-        <f>DEC2HEX(B14)</f>
+        <f t="shared" si="0"/>
         <v>A0</v>
       </c>
       <c r="D14" t="s">
@@ -9018,7 +9094,7 @@
         <v>11</v>
       </c>
       <c r="K14" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B14,2),",","""",E14,"""",",",F14,",","""",G14,"""",",","""",H14,"""",",","""",I14,"""",",","""",J14,"""","),")</f>
+        <f t="shared" si="1"/>
         <v>new OpCodeTable(0xA0,"mov {0},{1}",2,"AL","","O","b"),</v>
       </c>
       <c r="O14" s="7">
@@ -9033,7 +9109,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="1" t="str">
-        <f>DEC2HEX(B15)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D15" t="s">
@@ -9055,7 +9131,7 @@
         <v>12</v>
       </c>
       <c r="K15" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B15,2),",","""",E15,"""",",",F15,",","""",G15,"""",",","""",H15,"""",",","""",I15,"""",",","""",J15,"""","),")</f>
+        <f t="shared" si="1"/>
         <v>new OpCodeTable(0x05,"add {0},{1}",2,"AX","","I","v"),</v>
       </c>
       <c r="O15" s="7" t="s">
@@ -9070,7 +9146,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="1" t="str">
-        <f>DEC2HEX(B16)</f>
+        <f t="shared" si="0"/>
         <v>D</v>
       </c>
       <c r="D16" t="s">
@@ -9092,7 +9168,7 @@
         <v>12</v>
       </c>
       <c r="K16" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B16,2),",","""",E16,"""",",",F16,",","""",G16,"""",",","""",H16,"""",",","""",I16,"""",",","""",J16,"""","),")</f>
+        <f t="shared" si="1"/>
         <v>new OpCodeTable(0x0D,"or {0},{1}",2,"AX","","I","v"),</v>
       </c>
       <c r="O16" s="7" t="s">
@@ -9107,7 +9183,7 @@
         <v>21</v>
       </c>
       <c r="C17" s="1" t="str">
-        <f>DEC2HEX(B17)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="D17" t="s">
@@ -9129,7 +9205,7 @@
         <v>12</v>
       </c>
       <c r="K17" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B17,2),",","""",E17,"""",",",F17,",","""",G17,"""",",","""",H17,"""",",","""",I17,"""",",","""",J17,"""","),")</f>
+        <f t="shared" si="1"/>
         <v>new OpCodeTable(0x15,"adc {0},{1}",2,"AX","","I","v"),</v>
       </c>
       <c r="O17" s="7" t="s">
@@ -9144,7 +9220,7 @@
         <v>29</v>
       </c>
       <c r="C18" s="1" t="str">
-        <f>DEC2HEX(B18)</f>
+        <f t="shared" si="0"/>
         <v>1D</v>
       </c>
       <c r="D18" t="s">
@@ -9166,7 +9242,7 @@
         <v>12</v>
       </c>
       <c r="K18" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B18,2),",","""",E18,"""",",",F18,",","""",G18,"""",",","""",H18,"""",",","""",I18,"""",",","""",J18,"""","),")</f>
+        <f t="shared" si="1"/>
         <v>new OpCodeTable(0x1D,"sbb {0},{1}",2,"AX","","I","v"),</v>
       </c>
       <c r="O18" s="7" t="s">
@@ -9181,7 +9257,7 @@
         <v>37</v>
       </c>
       <c r="C19" s="1" t="str">
-        <f>DEC2HEX(B19)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D19" t="s">
@@ -9203,7 +9279,7 @@
         <v>12</v>
       </c>
       <c r="K19" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B19,2),",","""",E19,"""",",",F19,",","""",G19,"""",",","""",H19,"""",",","""",I19,"""",",","""",J19,"""","),")</f>
+        <f t="shared" si="1"/>
         <v>new OpCodeTable(0x25,"and {0},{1}",2,"AX","","I","v"),</v>
       </c>
     </row>
@@ -9212,7 +9288,7 @@
         <v>45</v>
       </c>
       <c r="C20" s="1" t="str">
-        <f>DEC2HEX(B20)</f>
+        <f t="shared" si="0"/>
         <v>2D</v>
       </c>
       <c r="D20" t="s">
@@ -9234,7 +9310,7 @@
         <v>12</v>
       </c>
       <c r="K20" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B20,2),",","""",E20,"""",",",F20,",","""",G20,"""",",","""",H20,"""",",","""",I20,"""",",","""",J20,"""","),")</f>
+        <f t="shared" si="1"/>
         <v>new OpCodeTable(0x2D,"sub {0},{1}",2,"AX","","I","v"),</v>
       </c>
     </row>
@@ -9243,7 +9319,7 @@
         <v>53</v>
       </c>
       <c r="C21" s="1" t="str">
-        <f>DEC2HEX(B21)</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="D21" t="s">
@@ -9265,7 +9341,7 @@
         <v>12</v>
       </c>
       <c r="K21" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B21,2),",","""",E21,"""",",",F21,",","""",G21,"""",",","""",H21,"""",",","""",I21,"""",",","""",J21,"""","),")</f>
+        <f t="shared" si="1"/>
         <v>new OpCodeTable(0x35,"xor {0},{1}",2,"AX","","I","v"),</v>
       </c>
     </row>
@@ -9274,7 +9350,7 @@
         <v>61</v>
       </c>
       <c r="C22" s="1" t="str">
-        <f>DEC2HEX(B22)</f>
+        <f t="shared" si="0"/>
         <v>3D</v>
       </c>
       <c r="D22" t="s">
@@ -9296,7 +9372,7 @@
         <v>12</v>
       </c>
       <c r="K22" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B22,2),",","""",E22,"""",",",F22,",","""",G22,"""",",","""",H22,"""",",","""",I22,"""",",","""",J22,"""","),")</f>
+        <f t="shared" si="1"/>
         <v>new OpCodeTable(0x3D,"cmp {0},{1}",2,"AX","","I","v"),</v>
       </c>
     </row>
@@ -9305,14 +9381,14 @@
         <v>169</v>
       </c>
       <c r="C23" s="1" t="str">
-        <f>DEC2HEX(B23)</f>
+        <f t="shared" si="0"/>
         <v>A9</v>
       </c>
       <c r="D23" t="s">
         <v>47</v>
       </c>
       <c r="E23" t="str">
-        <f>CONCATENATE(LOWER(D23)," {0},{1}")</f>
+        <f t="shared" ref="E23:E36" si="2">CONCATENATE(LOWER(D23)," {0},{1}")</f>
         <v>test {0},{1}</v>
       </c>
       <c r="F23" s="7">
@@ -9328,7 +9404,7 @@
         <v>12</v>
       </c>
       <c r="K23" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B23,2),",","""",E23,"""",",",F23,",","""",G23,"""",",","""",H23,"""",",","""",I23,"""",",","""",J23,"""","),")</f>
+        <f t="shared" si="1"/>
         <v>new OpCodeTable(0xA9,"test {0},{1}",2,"AX","","I","v"),</v>
       </c>
     </row>
@@ -9337,14 +9413,14 @@
         <v>184</v>
       </c>
       <c r="C24" s="1" t="str">
-        <f>DEC2HEX(B24)</f>
+        <f t="shared" si="0"/>
         <v>B8</v>
       </c>
       <c r="D24" t="s">
         <v>50</v>
       </c>
       <c r="E24" t="str">
-        <f>CONCATENATE(LOWER(D24)," {0},{1}")</f>
+        <f t="shared" si="2"/>
         <v>mov {0},{1}</v>
       </c>
       <c r="F24" s="7">
@@ -9360,7 +9436,7 @@
         <v>12</v>
       </c>
       <c r="K24" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B24,2),",","""",E24,"""",",",F24,",","""",G24,"""",",","""",H24,"""",",","""",I24,"""",",","""",J24,"""","),")</f>
+        <f t="shared" si="1"/>
         <v>new OpCodeTable(0xB8,"mov {0},{1}",2,"AX","","I","v"),</v>
       </c>
     </row>
@@ -9369,14 +9445,14 @@
         <v>161</v>
       </c>
       <c r="C25" s="1" t="str">
-        <f>DEC2HEX(B25)</f>
+        <f t="shared" si="0"/>
         <v>A1</v>
       </c>
       <c r="D25" t="s">
         <v>50</v>
       </c>
       <c r="E25" t="str">
-        <f>CONCATENATE(LOWER(D25)," {0},{1}")</f>
+        <f t="shared" si="2"/>
         <v>mov {0},{1}</v>
       </c>
       <c r="F25" s="7">
@@ -9392,7 +9468,7 @@
         <v>12</v>
       </c>
       <c r="K25" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B25,2),",","""",E25,"""",",",F25,",","""",G25,"""",",","""",H25,"""",",","""",I25,"""",",","""",J25,"""","),")</f>
+        <f t="shared" si="1"/>
         <v>new OpCodeTable(0xA1,"mov {0},{1}",2,"AX","","O","v"),</v>
       </c>
     </row>
@@ -9401,14 +9477,14 @@
         <v>183</v>
       </c>
       <c r="C26" s="1" t="str">
-        <f>DEC2HEX(B26)</f>
+        <f t="shared" si="0"/>
         <v>B7</v>
       </c>
       <c r="D26" t="s">
         <v>50</v>
       </c>
       <c r="E26" t="str">
-        <f>CONCATENATE(LOWER(D26)," {0},{1}")</f>
+        <f t="shared" si="2"/>
         <v>mov {0},{1}</v>
       </c>
       <c r="F26" s="7">
@@ -9424,7 +9500,7 @@
         <v>12</v>
       </c>
       <c r="K26" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B26,2),",","""",E26,"""",",",F26,",","""",G26,"""",",","""",H26,"""",",","""",I26,"""",",","""",J26,"""","),")</f>
+        <f t="shared" si="1"/>
         <v>new OpCodeTable(0xB7,"mov {0},{1}",2,"BH","","I","v"),</v>
       </c>
     </row>
@@ -9433,14 +9509,14 @@
         <v>179</v>
       </c>
       <c r="C27" s="1" t="str">
-        <f>DEC2HEX(B27)</f>
+        <f t="shared" si="0"/>
         <v>B3</v>
       </c>
       <c r="D27" t="s">
         <v>50</v>
       </c>
       <c r="E27" t="str">
-        <f>CONCATENATE(LOWER(D27)," {0},{1}")</f>
+        <f t="shared" si="2"/>
         <v>mov {0},{1}</v>
       </c>
       <c r="F27" s="7">
@@ -9456,7 +9532,7 @@
         <v>12</v>
       </c>
       <c r="K27" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B27,2),",","""",E27,"""",",",F27,",","""",G27,"""",",","""",H27,"""",",","""",I27,"""",",","""",J27,"""","),")</f>
+        <f t="shared" si="1"/>
         <v>new OpCodeTable(0xB3,"mov {0},{1}",2,"BL","","I","v"),</v>
       </c>
     </row>
@@ -9465,14 +9541,14 @@
         <v>189</v>
       </c>
       <c r="C28" s="1" t="str">
-        <f>DEC2HEX(B28)</f>
+        <f t="shared" si="0"/>
         <v>BD</v>
       </c>
       <c r="D28" t="s">
         <v>50</v>
       </c>
       <c r="E28" t="str">
-        <f>CONCATENATE(LOWER(D28)," {0},{1}")</f>
+        <f t="shared" si="2"/>
         <v>mov {0},{1}</v>
       </c>
       <c r="F28" s="7">
@@ -9488,7 +9564,7 @@
         <v>12</v>
       </c>
       <c r="K28" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B28,2),",","""",E28,"""",",",F28,",","""",G28,"""",",","""",H28,"""",",","""",I28,"""",",","""",J28,"""","),")</f>
+        <f t="shared" si="1"/>
         <v>new OpCodeTable(0xBD,"mov {0},{1}",2,"BP","","I","v"),</v>
       </c>
     </row>
@@ -9497,14 +9573,14 @@
         <v>187</v>
       </c>
       <c r="C29" s="1" t="str">
-        <f>DEC2HEX(B29)</f>
+        <f t="shared" si="0"/>
         <v>BB</v>
       </c>
       <c r="D29" t="s">
         <v>50</v>
       </c>
       <c r="E29" t="str">
-        <f>CONCATENATE(LOWER(D29)," {0},{1}")</f>
+        <f t="shared" si="2"/>
         <v>mov {0},{1}</v>
       </c>
       <c r="F29" s="7">
@@ -9520,7 +9596,7 @@
         <v>12</v>
       </c>
       <c r="K29" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B29,2),",","""",E29,"""",",",F29,",","""",G29,"""",",","""",H29,"""",",","""",I29,"""",",","""",J29,"""","),")</f>
+        <f t="shared" si="1"/>
         <v>new OpCodeTable(0xBB,"mov {0},{1}",2,"BX","","I","v"),</v>
       </c>
     </row>
@@ -9529,14 +9605,14 @@
         <v>181</v>
       </c>
       <c r="C30" s="1" t="str">
-        <f>DEC2HEX(B30)</f>
+        <f t="shared" si="0"/>
         <v>B5</v>
       </c>
       <c r="D30" t="s">
         <v>50</v>
       </c>
       <c r="E30" t="str">
-        <f>CONCATENATE(LOWER(D30)," {0},{1}")</f>
+        <f t="shared" si="2"/>
         <v>mov {0},{1}</v>
       </c>
       <c r="F30" s="7">
@@ -9552,7 +9628,7 @@
         <v>12</v>
       </c>
       <c r="K30" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B30,2),",","""",E30,"""",",",F30,",","""",G30,"""",",","""",H30,"""",",","""",I30,"""",",","""",J30,"""","),")</f>
+        <f t="shared" si="1"/>
         <v>new OpCodeTable(0xB5,"mov {0},{1}",2,"CH","","I","v"),</v>
       </c>
     </row>
@@ -9561,14 +9637,14 @@
         <v>177</v>
       </c>
       <c r="C31" s="1" t="str">
-        <f>DEC2HEX(B31)</f>
+        <f t="shared" si="0"/>
         <v>B1</v>
       </c>
       <c r="D31" t="s">
         <v>50</v>
       </c>
       <c r="E31" t="str">
-        <f>CONCATENATE(LOWER(D31)," {0},{1}")</f>
+        <f t="shared" si="2"/>
         <v>mov {0},{1}</v>
       </c>
       <c r="F31" s="7">
@@ -9584,7 +9660,7 @@
         <v>12</v>
       </c>
       <c r="K31" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B31,2),",","""",E31,"""",",",F31,",","""",G31,"""",",","""",H31,"""",",","""",I31,"""",",","""",J31,"""","),")</f>
+        <f t="shared" si="1"/>
         <v>new OpCodeTable(0xB1,"mov {0},{1}",2,"CL","","I","v"),</v>
       </c>
     </row>
@@ -9593,14 +9669,14 @@
         <v>185</v>
       </c>
       <c r="C32" s="1" t="str">
-        <f>DEC2HEX(B32)</f>
+        <f t="shared" si="0"/>
         <v>B9</v>
       </c>
       <c r="D32" t="s">
         <v>50</v>
       </c>
       <c r="E32" t="str">
-        <f>CONCATENATE(LOWER(D32)," {0},{1}")</f>
+        <f t="shared" si="2"/>
         <v>mov {0},{1}</v>
       </c>
       <c r="F32" s="7">
@@ -9616,7 +9692,7 @@
         <v>12</v>
       </c>
       <c r="K32" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B32,2),",","""",E32,"""",",",F32,",","""",G32,"""",",","""",H32,"""",",","""",I32,"""",",","""",J32,"""","),")</f>
+        <f t="shared" si="1"/>
         <v>new OpCodeTable(0xB9,"mov {0},{1}",2,"CX","","I","v"),</v>
       </c>
     </row>
@@ -9625,14 +9701,14 @@
         <v>182</v>
       </c>
       <c r="C33" s="1" t="str">
-        <f>DEC2HEX(B33)</f>
+        <f t="shared" si="0"/>
         <v>B6</v>
       </c>
       <c r="D33" t="s">
         <v>50</v>
       </c>
       <c r="E33" t="str">
-        <f>CONCATENATE(LOWER(D33)," {0},{1}")</f>
+        <f t="shared" si="2"/>
         <v>mov {0},{1}</v>
       </c>
       <c r="F33" s="7">
@@ -9648,7 +9724,7 @@
         <v>12</v>
       </c>
       <c r="K33" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B33,2),",","""",E33,"""",",",F33,",","""",G33,"""",",","""",H33,"""",",","""",I33,"""",",","""",J33,"""","),")</f>
+        <f t="shared" si="1"/>
         <v>new OpCodeTable(0xB6,"mov {0},{1}",2,"DH","","I","v"),</v>
       </c>
     </row>
@@ -9657,14 +9733,14 @@
         <v>191</v>
       </c>
       <c r="C34" s="1" t="str">
-        <f>DEC2HEX(B34)</f>
+        <f t="shared" si="0"/>
         <v>BF</v>
       </c>
       <c r="D34" t="s">
         <v>50</v>
       </c>
       <c r="E34" t="str">
-        <f>CONCATENATE(LOWER(D34)," {0},{1}")</f>
+        <f t="shared" si="2"/>
         <v>mov {0},{1}</v>
       </c>
       <c r="F34" s="7">
@@ -9680,7 +9756,7 @@
         <v>12</v>
       </c>
       <c r="K34" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B34,2),",","""",E34,"""",",",F34,",","""",G34,"""",",","""",H34,"""",",","""",I34,"""",",","""",J34,"""","),")</f>
+        <f t="shared" si="1"/>
         <v>new OpCodeTable(0xBF,"mov {0},{1}",2,"DI","","I","v"),</v>
       </c>
     </row>
@@ -9689,14 +9765,14 @@
         <v>178</v>
       </c>
       <c r="C35" s="1" t="str">
-        <f>DEC2HEX(B35)</f>
+        <f t="shared" si="0"/>
         <v>B2</v>
       </c>
       <c r="D35" t="s">
         <v>50</v>
       </c>
       <c r="E35" t="str">
-        <f>CONCATENATE(LOWER(D35)," {0},{1}")</f>
+        <f t="shared" si="2"/>
         <v>mov {0},{1}</v>
       </c>
       <c r="F35" s="7">
@@ -9712,7 +9788,7 @@
         <v>12</v>
       </c>
       <c r="K35" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B35,2),",","""",E35,"""",",",F35,",","""",G35,"""",",","""",H35,"""",",","""",I35,"""",",","""",J35,"""","),")</f>
+        <f t="shared" si="1"/>
         <v>new OpCodeTable(0xB2,"mov {0},{1}",2,"DL","","I","v"),</v>
       </c>
     </row>
@@ -9721,14 +9797,14 @@
         <v>186</v>
       </c>
       <c r="C36" s="1" t="str">
-        <f>DEC2HEX(B36)</f>
+        <f t="shared" si="0"/>
         <v>BA</v>
       </c>
       <c r="D36" t="s">
         <v>50</v>
       </c>
       <c r="E36" t="str">
-        <f>CONCATENATE(LOWER(D36)," {0},{1}")</f>
+        <f t="shared" si="2"/>
         <v>mov {0},{1}</v>
       </c>
       <c r="F36" s="7">
@@ -9744,7 +9820,7 @@
         <v>12</v>
       </c>
       <c r="K36" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B36,2),",","""",E36,"""",",",F36,",","""",G36,"""",",","""",H36,"""",",","""",I36,"""",",","""",J36,"""","),")</f>
+        <f t="shared" si="1"/>
         <v>new OpCodeTable(0xBA,"mov {0},{1}",2,"DX","","I","v"),</v>
       </c>
     </row>
@@ -9753,7 +9829,7 @@
         <v>230</v>
       </c>
       <c r="C37" s="1" t="str">
-        <f>DEC2HEX(B37)</f>
+        <f t="shared" si="0"/>
         <v>E6</v>
       </c>
       <c r="D37" t="s">
@@ -9775,7 +9851,7 @@
         <v>9</v>
       </c>
       <c r="K37" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B37,2),",","""",E37,"""",",",F37,",","""",G37,"""",",","""",H37,"""",",","""",I37,"""",",","""",J37,"""","),")</f>
+        <f t="shared" si="1"/>
         <v>new OpCodeTable(0xE6,"out {0},{1}",2,"I","b","AL",""),</v>
       </c>
     </row>
@@ -9784,7 +9860,7 @@
         <v>231</v>
       </c>
       <c r="C38" s="1" t="str">
-        <f>DEC2HEX(B38)</f>
+        <f t="shared" si="0"/>
         <v>E7</v>
       </c>
       <c r="D38" t="s">
@@ -9806,7 +9882,7 @@
         <v>10</v>
       </c>
       <c r="K38" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B38,2),",","""",E38,"""",",",F38,",","""",G38,"""",",","""",H38,"""",",","""",I38,"""",",","""",J38,"""","),")</f>
+        <f t="shared" si="1"/>
         <v>new OpCodeTable(0xE7,"out {0},{1}",2,"I","b","AX",""),</v>
       </c>
     </row>
@@ -9815,7 +9891,7 @@
         <v>162</v>
       </c>
       <c r="C39" s="1" t="str">
-        <f>DEC2HEX(B39)</f>
+        <f t="shared" si="0"/>
         <v>A2</v>
       </c>
       <c r="D39" t="s">
@@ -9838,7 +9914,7 @@
         <v>9</v>
       </c>
       <c r="K39" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B39,2),",","""",E39,"""",",",F39,",","""",G39,"""",",","""",H39,"""",",","""",I39,"""",",","""",J39,"""","),")</f>
+        <f t="shared" si="1"/>
         <v>new OpCodeTable(0xA2,"mov {0},{1}",2,"O","b","AL",""),</v>
       </c>
     </row>
@@ -9847,7 +9923,7 @@
         <v>163</v>
       </c>
       <c r="C40" s="1" t="str">
-        <f>DEC2HEX(B40)</f>
+        <f t="shared" si="0"/>
         <v>A3</v>
       </c>
       <c r="D40" t="s">
@@ -9870,7 +9946,7 @@
         <v>10</v>
       </c>
       <c r="K40" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B40,2),",","""",E40,"""",",",F40,",","""",G40,"""",",","""",H40,"""",",","""",I40,"""",",","""",J40,"""","),")</f>
+        <f t="shared" si="1"/>
         <v>new OpCodeTable(0xA3,"mov {0},{1}",2,"O","v","AX",""),</v>
       </c>
     </row>
@@ -9879,7 +9955,7 @@
         <v>198</v>
       </c>
       <c r="C41" s="1" t="str">
-        <f>DEC2HEX(B41)</f>
+        <f t="shared" si="0"/>
         <v>C6</v>
       </c>
       <c r="D41" t="s">
@@ -9905,7 +9981,7 @@
         <v>11</v>
       </c>
       <c r="K41" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B41,2),",","""",E41,"""",",",F41,",","""",G41,"""",",","""",H41,"""",",","""",I41,"""",",","""",J41,"""","),")</f>
+        <f t="shared" si="1"/>
         <v>new OpCodeTable(0xC6,"mov {0},{1}",2,"R/M","b","I","b"),</v>
       </c>
     </row>
@@ -9914,7 +9990,7 @@
         <v>199</v>
       </c>
       <c r="C42" s="1" t="str">
-        <f>DEC2HEX(B42)</f>
+        <f t="shared" si="0"/>
         <v>C7</v>
       </c>
       <c r="D42" t="s">
@@ -9940,7 +10016,7 @@
         <v>12</v>
       </c>
       <c r="K42" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B42,2),",","""",E42,"""",",",F42,",","""",G42,"""",",","""",H42,"""",",","""",I42,"""",",","""",J42,"""","),")</f>
+        <f t="shared" si="1"/>
         <v>new OpCodeTable(0xC7,"mov {0},{1}",2,"R/M","v","I","v"),</v>
       </c>
     </row>
@@ -9949,7 +10025,7 @@
         <v>0</v>
       </c>
       <c r="C43" s="1" t="str">
-        <f>DEC2HEX(B43)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D43" t="s">
@@ -9974,7 +10050,7 @@
         <v>11</v>
       </c>
       <c r="K43" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B43,2),",","""",E43,"""",",",F43,",","""",G43,"""",",","""",H43,"""",",","""",I43,"""",",","""",J43,"""","),")</f>
+        <f t="shared" si="1"/>
         <v>new OpCodeTable(0x00,"add {0},{1}",2,"R/M","b","REG","b"),</v>
       </c>
     </row>
@@ -9983,7 +10059,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="1" t="str">
-        <f>DEC2HEX(B44)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D44" t="s">
@@ -10008,7 +10084,7 @@
         <v>12</v>
       </c>
       <c r="K44" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B44,2),",","""",E44,"""",",",F44,",","""",G44,"""",",","""",H44,"""",",","""",I44,"""",",","""",J44,"""","),")</f>
+        <f t="shared" si="1"/>
         <v>new OpCodeTable(0x01,"add {0},{1}",2,"R/M","v","REG","v"),</v>
       </c>
     </row>
@@ -10017,7 +10093,7 @@
         <v>8</v>
       </c>
       <c r="C45" s="1" t="str">
-        <f>DEC2HEX(B45)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="D45" t="s">
@@ -10042,7 +10118,7 @@
         <v>11</v>
       </c>
       <c r="K45" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B45,2),",","""",E45,"""",",",F45,",","""",G45,"""",",","""",H45,"""",",","""",I45,"""",",","""",J45,"""","),")</f>
+        <f t="shared" si="1"/>
         <v>new OpCodeTable(0x08,"or {0},{1}",2,"R/M","b","REG","b"),</v>
       </c>
     </row>
@@ -10051,7 +10127,7 @@
         <v>9</v>
       </c>
       <c r="C46" s="1" t="str">
-        <f>DEC2HEX(B46)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D46" t="s">
@@ -10076,7 +10152,7 @@
         <v>12</v>
       </c>
       <c r="K46" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B46,2),",","""",E46,"""",",",F46,",","""",G46,"""",",","""",H46,"""",",","""",I46,"""",",","""",J46,"""","),")</f>
+        <f t="shared" si="1"/>
         <v>new OpCodeTable(0x09,"or {0},{1}",2,"R/M","v","REG","v"),</v>
       </c>
     </row>
@@ -10085,7 +10161,7 @@
         <v>16</v>
       </c>
       <c r="C47" s="1" t="str">
-        <f>DEC2HEX(B47)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D47" t="s">
@@ -10110,7 +10186,7 @@
         <v>11</v>
       </c>
       <c r="K47" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B47,2),",","""",E47,"""",",",F47,",","""",G47,"""",",","""",H47,"""",",","""",I47,"""",",","""",J47,"""","),")</f>
+        <f t="shared" si="1"/>
         <v>new OpCodeTable(0x10,"adc {0},{1}",2,"R/M","b","REG","b"),</v>
       </c>
     </row>
@@ -10119,7 +10195,7 @@
         <v>17</v>
       </c>
       <c r="C48" s="1" t="str">
-        <f>DEC2HEX(B48)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D48" t="s">
@@ -10144,7 +10220,7 @@
         <v>12</v>
       </c>
       <c r="K48" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B48,2),",","""",E48,"""",",",F48,",","""",G48,"""",",","""",H48,"""",",","""",I48,"""",",","""",J48,"""","),")</f>
+        <f t="shared" si="1"/>
         <v>new OpCodeTable(0x11,"adc {0},{1}",2,"R/M","v","REG","v"),</v>
       </c>
     </row>
@@ -10153,7 +10229,7 @@
         <v>24</v>
       </c>
       <c r="C49" s="1" t="str">
-        <f>DEC2HEX(B49)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="D49" t="s">
@@ -10178,7 +10254,7 @@
         <v>11</v>
       </c>
       <c r="K49" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B49,2),",","""",E49,"""",",",F49,",","""",G49,"""",",","""",H49,"""",",","""",I49,"""",",","""",J49,"""","),")</f>
+        <f t="shared" si="1"/>
         <v>new OpCodeTable(0x18,"sbb {0},{1}",2,"R/M","b","REG","b"),</v>
       </c>
     </row>
@@ -10187,7 +10263,7 @@
         <v>25</v>
       </c>
       <c r="C50" s="1" t="str">
-        <f>DEC2HEX(B50)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="D50" t="s">
@@ -10212,7 +10288,7 @@
         <v>12</v>
       </c>
       <c r="K50" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B50,2),",","""",E50,"""",",",F50,",","""",G50,"""",",","""",H50,"""",",","""",I50,"""",",","""",J50,"""","),")</f>
+        <f t="shared" si="1"/>
         <v>new OpCodeTable(0x19,"sbb {0},{1}",2,"R/M","v","REG","v"),</v>
       </c>
     </row>
@@ -10221,7 +10297,7 @@
         <v>32</v>
       </c>
       <c r="C51" s="1" t="str">
-        <f>DEC2HEX(B51)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="D51" t="s">
@@ -10246,7 +10322,7 @@
         <v>11</v>
       </c>
       <c r="K51" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B51,2),",","""",E51,"""",",",F51,",","""",G51,"""",",","""",H51,"""",",","""",I51,"""",",","""",J51,"""","),")</f>
+        <f t="shared" si="1"/>
         <v>new OpCodeTable(0x20,"and {0},{1}",2,"R/M","b","REG","b"),</v>
       </c>
     </row>
@@ -10255,7 +10331,7 @@
         <v>33</v>
       </c>
       <c r="C52" s="1" t="str">
-        <f>DEC2HEX(B52)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="D52" t="s">
@@ -10280,7 +10356,7 @@
         <v>12</v>
       </c>
       <c r="K52" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B52,2),",","""",E52,"""",",",F52,",","""",G52,"""",",","""",H52,"""",",","""",I52,"""",",","""",J52,"""","),")</f>
+        <f t="shared" si="1"/>
         <v>new OpCodeTable(0x21,"and {0},{1}",2,"R/M","v","REG","v"),</v>
       </c>
     </row>
@@ -10289,7 +10365,7 @@
         <v>40</v>
       </c>
       <c r="C53" s="1" t="str">
-        <f>DEC2HEX(B53)</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="D53" t="s">
@@ -10314,7 +10390,7 @@
         <v>11</v>
       </c>
       <c r="K53" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B53,2),",","""",E53,"""",",",F53,",","""",G53,"""",",","""",H53,"""",",","""",I53,"""",",","""",J53,"""","),")</f>
+        <f t="shared" si="1"/>
         <v>new OpCodeTable(0x28,"sub {0},{1}",2,"R/M","b","REG","b"),</v>
       </c>
     </row>
@@ -10323,7 +10399,7 @@
         <v>41</v>
       </c>
       <c r="C54" s="1" t="str">
-        <f>DEC2HEX(B54)</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="D54" t="s">
@@ -10348,7 +10424,7 @@
         <v>12</v>
       </c>
       <c r="K54" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B54,2),",","""",E54,"""",",",F54,",","""",G54,"""",",","""",H54,"""",",","""",I54,"""",",","""",J54,"""","),")</f>
+        <f t="shared" si="1"/>
         <v>new OpCodeTable(0x29,"sub {0},{1}",2,"R/M","v","REG","v"),</v>
       </c>
     </row>
@@ -10357,7 +10433,7 @@
         <v>48</v>
       </c>
       <c r="C55" s="1" t="str">
-        <f>DEC2HEX(B55)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="D55" t="s">
@@ -10382,7 +10458,7 @@
         <v>11</v>
       </c>
       <c r="K55" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B55,2),",","""",E55,"""",",",F55,",","""",G55,"""",",","""",H55,"""",",","""",I55,"""",",","""",J55,"""","),")</f>
+        <f t="shared" si="1"/>
         <v>new OpCodeTable(0x30,"xor {0},{1}",2,"R/M","b","REG","b"),</v>
       </c>
     </row>
@@ -10391,7 +10467,7 @@
         <v>49</v>
       </c>
       <c r="C56" s="1" t="str">
-        <f>DEC2HEX(B56)</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="D56" t="s">
@@ -10416,7 +10492,7 @@
         <v>12</v>
       </c>
       <c r="K56" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B56,2),",","""",E56,"""",",",F56,",","""",G56,"""",",","""",H56,"""",",","""",I56,"""",",","""",J56,"""","),")</f>
+        <f t="shared" si="1"/>
         <v>new OpCodeTable(0x31,"xor {0},{1}",2,"R/M","v","REG","v"),</v>
       </c>
     </row>
@@ -10425,7 +10501,7 @@
         <v>56</v>
       </c>
       <c r="C57" s="1" t="str">
-        <f>DEC2HEX(B57)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="D57" t="s">
@@ -10450,7 +10526,7 @@
         <v>11</v>
       </c>
       <c r="K57" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B57,2),",","""",E57,"""",",",F57,",","""",G57,"""",",","""",H57,"""",",","""",I57,"""",",","""",J57,"""","),")</f>
+        <f t="shared" si="1"/>
         <v>new OpCodeTable(0x38,"cmp {0},{1}",2,"R/M","b","REG","b"),</v>
       </c>
     </row>
@@ -10459,7 +10535,7 @@
         <v>57</v>
       </c>
       <c r="C58" s="1" t="str">
-        <f>DEC2HEX(B58)</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="D58" t="s">
@@ -10484,7 +10560,7 @@
         <v>12</v>
       </c>
       <c r="K58" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B58,2),",","""",E58,"""",",",F58,",","""",G58,"""",",","""",H58,"""",",","""",I58,"""",",","""",J58,"""","),")</f>
+        <f t="shared" si="1"/>
         <v>new OpCodeTable(0x39,"cmp {0},{1}",2,"R/M","v","REG","v"),</v>
       </c>
     </row>
@@ -10493,7 +10569,7 @@
         <v>96</v>
       </c>
       <c r="C59" s="1" t="str">
-        <f>DEC2HEX(B59)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="D59" t="s">
@@ -10518,7 +10594,7 @@
         <v>11</v>
       </c>
       <c r="K59" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B59,2),",","""",E59,"""",",",F59,",","""",G59,"""",",","""",H59,"""",",","""",I59,"""",",","""",J59,"""","),")</f>
+        <f t="shared" si="1"/>
         <v>new OpCodeTable(0x60,"mov {0},{1}",2,"R/M","b","REG","b"),</v>
       </c>
     </row>
@@ -10527,7 +10603,7 @@
         <v>97</v>
       </c>
       <c r="C60" s="1" t="str">
-        <f>DEC2HEX(B60)</f>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="D60" t="s">
@@ -10552,7 +10628,7 @@
         <v>12</v>
       </c>
       <c r="K60" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B60,2),",","""",E60,"""",",",F60,",","""",G60,"""",",","""",H60,"""",",","""",I60,"""",",","""",J60,"""","),")</f>
+        <f t="shared" si="1"/>
         <v>new OpCodeTable(0x61,"mov {0},{1}",2,"R/M","v","REG","v"),</v>
       </c>
     </row>
@@ -10561,14 +10637,14 @@
         <v>132</v>
       </c>
       <c r="C61" s="1" t="str">
-        <f>DEC2HEX(B61)</f>
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
       <c r="D61" t="s">
         <v>47</v>
       </c>
       <c r="E61" t="str">
-        <f>CONCATENATE(LOWER(D61)," {0},{1}")</f>
+        <f t="shared" ref="E61:E66" si="3">CONCATENATE(LOWER(D61)," {0},{1}")</f>
         <v>test {0},{1}</v>
       </c>
       <c r="F61" s="7">
@@ -10587,7 +10663,7 @@
         <v>11</v>
       </c>
       <c r="K61" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B61,2),",","""",E61,"""",",",F61,",","""",G61,"""",",","""",H61,"""",",","""",I61,"""",",","""",J61,"""","),")</f>
+        <f t="shared" si="1"/>
         <v>new OpCodeTable(0x84,"test {0},{1}",2,"R/M","b","REG","b"),</v>
       </c>
     </row>
@@ -10596,14 +10672,14 @@
         <v>133</v>
       </c>
       <c r="C62" s="1" t="str">
-        <f>DEC2HEX(B62)</f>
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
       <c r="D62" t="s">
         <v>47</v>
       </c>
       <c r="E62" t="str">
-        <f>CONCATENATE(LOWER(D62)," {0},{1}")</f>
+        <f t="shared" si="3"/>
         <v>test {0},{1}</v>
       </c>
       <c r="F62" s="7">
@@ -10622,7 +10698,7 @@
         <v>12</v>
       </c>
       <c r="K62" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B62,2),",","""",E62,"""",",",F62,",","""",G62,"""",",","""",H62,"""",",","""",I62,"""",",","""",J62,"""","),")</f>
+        <f t="shared" si="1"/>
         <v>new OpCodeTable(0x85,"test {0},{1}",2,"R/M","v","REG","v"),</v>
       </c>
     </row>
@@ -10631,14 +10707,14 @@
         <v>134</v>
       </c>
       <c r="C63" s="1" t="str">
-        <f>DEC2HEX(B63)</f>
+        <f t="shared" si="0"/>
         <v>86</v>
       </c>
       <c r="D63" t="s">
         <v>48</v>
       </c>
       <c r="E63" t="str">
-        <f>CONCATENATE(LOWER(D63)," {0},{1}")</f>
+        <f t="shared" si="3"/>
         <v>xchg {0},{1}</v>
       </c>
       <c r="F63" s="7">
@@ -10657,7 +10733,7 @@
         <v>11</v>
       </c>
       <c r="K63" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B63,2),",","""",E63,"""",",",F63,",","""",G63,"""",",","""",H63,"""",",","""",I63,"""",",","""",J63,"""","),")</f>
+        <f t="shared" si="1"/>
         <v>new OpCodeTable(0x86,"xchg {0},{1}",2,"R/M","b","REG","b"),</v>
       </c>
     </row>
@@ -10666,14 +10742,14 @@
         <v>135</v>
       </c>
       <c r="C64" s="1" t="str">
-        <f>DEC2HEX(B64)</f>
+        <f t="shared" si="0"/>
         <v>87</v>
       </c>
       <c r="D64" t="s">
         <v>48</v>
       </c>
       <c r="E64" t="str">
-        <f>CONCATENATE(LOWER(D64)," {0},{1}")</f>
+        <f t="shared" si="3"/>
         <v>xchg {0},{1}</v>
       </c>
       <c r="F64" s="7">
@@ -10692,7 +10768,7 @@
         <v>12</v>
       </c>
       <c r="K64" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B64,2),",","""",E64,"""",",",F64,",","""",G64,"""",",","""",H64,"""",",","""",I64,"""",",","""",J64,"""","),")</f>
+        <f t="shared" si="1"/>
         <v>new OpCodeTable(0x87,"xchg {0},{1}",2,"R/M","v","REG","v"),</v>
       </c>
     </row>
@@ -10701,14 +10777,14 @@
         <v>136</v>
       </c>
       <c r="C65" s="1" t="str">
-        <f>DEC2HEX(B65)</f>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="D65" t="s">
         <v>50</v>
       </c>
       <c r="E65" t="str">
-        <f>CONCATENATE(LOWER(D65)," {0},{1}")</f>
+        <f t="shared" si="3"/>
         <v>mov {0},{1}</v>
       </c>
       <c r="F65" s="7">
@@ -10727,7 +10803,7 @@
         <v>11</v>
       </c>
       <c r="K65" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B65,2),",","""",E65,"""",",",F65,",","""",G65,"""",",","""",H65,"""",",","""",I65,"""",",","""",J65,"""","),")</f>
+        <f t="shared" si="1"/>
         <v>new OpCodeTable(0x88,"mov {0},{1}",2,"R/M","b","REG","b"),</v>
       </c>
     </row>
@@ -10736,14 +10812,14 @@
         <v>137</v>
       </c>
       <c r="C66" s="1" t="str">
-        <f>DEC2HEX(B66)</f>
+        <f t="shared" si="0"/>
         <v>89</v>
       </c>
       <c r="D66" t="s">
         <v>50</v>
       </c>
       <c r="E66" t="str">
-        <f>CONCATENATE(LOWER(D66)," {0},{1}")</f>
+        <f t="shared" si="3"/>
         <v>mov {0},{1}</v>
       </c>
       <c r="F66" s="7">
@@ -10762,7 +10838,7 @@
         <v>12</v>
       </c>
       <c r="K66" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B66,2),",","""",E66,"""",",",F66,",","""",G66,"""",",","""",H66,"""",",","""",I66,"""",",","""",J66,"""","),")</f>
+        <f t="shared" si="1"/>
         <v>new OpCodeTable(0x89,"mov {0},{1}",2,"R/M","v","REG","v"),</v>
       </c>
     </row>
@@ -10771,7 +10847,7 @@
         <v>100</v>
       </c>
       <c r="C67" s="1" t="str">
-        <f>DEC2HEX(B67)</f>
+        <f t="shared" ref="C67:C130" si="4">DEC2HEX(B67)</f>
         <v>64</v>
       </c>
       <c r="D67" t="s">
@@ -10796,7 +10872,7 @@
         <v>66</v>
       </c>
       <c r="K67" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B67,2),",","""",E67,"""",",",F67,",","""",G67,"""",",","""",H67,"""",",","""",I67,"""",",","""",J67,"""","),")</f>
+        <f t="shared" ref="K67:K130" si="5">CONCATENATE("new OpCodeTable(0x",DEC2HEX(B67,2),",","""",E67,"""",",",F67,",","""",G67,"""",",","""",H67,"""",",","""",I67,"""",",","""",J67,"""","),")</f>
         <v>new OpCodeTable(0x64,"mov {0},{1}",2,"R/M","w","S","w"),</v>
       </c>
     </row>
@@ -10805,7 +10881,7 @@
         <v>140</v>
       </c>
       <c r="C68" s="1" t="str">
-        <f>DEC2HEX(B68)</f>
+        <f t="shared" si="4"/>
         <v>8C</v>
       </c>
       <c r="D68" t="s">
@@ -10831,7 +10907,7 @@
         <v>66</v>
       </c>
       <c r="K68" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B68,2),",","""",E68,"""",",",F68,",","""",G68,"""",",","""",H68,"""",",","""",I68,"""",",","""",J68,"""","),")</f>
+        <f t="shared" si="5"/>
         <v>new OpCodeTable(0x8C,"mov {0},{1}",2,"R/M","w","S","w"),</v>
       </c>
     </row>
@@ -10840,7 +10916,7 @@
         <v>101</v>
       </c>
       <c r="C69" s="1" t="str">
-        <f>DEC2HEX(B69)</f>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="D69" t="s">
@@ -10862,7 +10938,7 @@
         <v>67</v>
       </c>
       <c r="K69" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B69,2),",","""",E69,"""",",",F69,",","""",G69,"""",",","""",H69,"""",",","""",I69,"""",",","""",J69,"""","),")</f>
+        <f t="shared" si="5"/>
         <v>new OpCodeTable(0x65,"lea {0},{1}",2,"REG","v","M",""),</v>
       </c>
     </row>
@@ -10871,7 +10947,7 @@
         <v>141</v>
       </c>
       <c r="C70" s="1" t="str">
-        <f>DEC2HEX(B70)</f>
+        <f t="shared" si="4"/>
         <v>8D</v>
       </c>
       <c r="D70" t="s">
@@ -10894,7 +10970,7 @@
         <v>67</v>
       </c>
       <c r="K70" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B70,2),",","""",E70,"""",",",F70,",","""",G70,"""",",","""",H70,"""",",","""",I70,"""",",","""",J70,"""","),")</f>
+        <f t="shared" si="5"/>
         <v>new OpCodeTable(0x8D,"lea {0},{1}",2,"REG","v","M",""),</v>
       </c>
     </row>
@@ -10903,7 +10979,7 @@
         <v>196</v>
       </c>
       <c r="C71" s="1" t="str">
-        <f>DEC2HEX(B71)</f>
+        <f t="shared" si="4"/>
         <v>C4</v>
       </c>
       <c r="D71" t="s">
@@ -10929,7 +11005,7 @@
         <v>68</v>
       </c>
       <c r="K71" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B71,2),",","""",E71,"""",",",F71,",","""",G71,"""",",","""",H71,"""",",","""",I71,"""",",","""",J71,"""","),")</f>
+        <f t="shared" si="5"/>
         <v>new OpCodeTable(0xC4,"les {0},{1}",2,"REG","v","M","p"),</v>
       </c>
     </row>
@@ -10938,7 +11014,7 @@
         <v>197</v>
       </c>
       <c r="C72" s="1" t="str">
-        <f>DEC2HEX(B72)</f>
+        <f t="shared" si="4"/>
         <v>C5</v>
       </c>
       <c r="D72" t="s">
@@ -10964,7 +11040,7 @@
         <v>68</v>
       </c>
       <c r="K72" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B72,2),",","""",E72,"""",",",F72,",","""",G72,"""",",","""",H72,"""",",","""",I72,"""",",","""",J72,"""","),")</f>
+        <f t="shared" si="5"/>
         <v>new OpCodeTable(0xC5,"lds {0},{1}",2,"REG","v","M","p"),</v>
       </c>
     </row>
@@ -10973,7 +11049,7 @@
         <v>2</v>
       </c>
       <c r="C73" s="1" t="str">
-        <f>DEC2HEX(B73)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="D73" t="s">
@@ -10998,7 +11074,7 @@
         <v>11</v>
       </c>
       <c r="K73" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B73,2),",","""",E73,"""",",",F73,",","""",G73,"""",",","""",H73,"""",",","""",I73,"""",",","""",J73,"""","),")</f>
+        <f t="shared" si="5"/>
         <v>new OpCodeTable(0x02,"add {0},{1}",2,"REG","b","R/M","b"),</v>
       </c>
     </row>
@@ -11007,7 +11083,7 @@
         <v>3</v>
       </c>
       <c r="C74" s="1" t="str">
-        <f>DEC2HEX(B74)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="D74" t="s">
@@ -11032,7 +11108,7 @@
         <v>12</v>
       </c>
       <c r="K74" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B74,2),",","""",E74,"""",",",F74,",","""",G74,"""",",","""",H74,"""",",","""",I74,"""",",","""",J74,"""","),")</f>
+        <f t="shared" si="5"/>
         <v>new OpCodeTable(0x03,"add {0},{1}",2,"REG","v","R/M","v"),</v>
       </c>
     </row>
@@ -11041,7 +11117,7 @@
         <v>10</v>
       </c>
       <c r="C75" s="1" t="str">
-        <f>DEC2HEX(B75)</f>
+        <f t="shared" si="4"/>
         <v>A</v>
       </c>
       <c r="D75" t="s">
@@ -11066,7 +11142,7 @@
         <v>11</v>
       </c>
       <c r="K75" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B75,2),",","""",E75,"""",",",F75,",","""",G75,"""",",","""",H75,"""",",","""",I75,"""",",","""",J75,"""","),")</f>
+        <f t="shared" si="5"/>
         <v>new OpCodeTable(0x0A,"or {0},{1}",2,"REG","b","R/M","b"),</v>
       </c>
     </row>
@@ -11075,7 +11151,7 @@
         <v>11</v>
       </c>
       <c r="C76" s="1" t="str">
-        <f>DEC2HEX(B76)</f>
+        <f t="shared" si="4"/>
         <v>B</v>
       </c>
       <c r="D76" t="s">
@@ -11100,7 +11176,7 @@
         <v>12</v>
       </c>
       <c r="K76" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B76,2),",","""",E76,"""",",",F76,",","""",G76,"""",",","""",H76,"""",",","""",I76,"""",",","""",J76,"""","),")</f>
+        <f t="shared" si="5"/>
         <v>new OpCodeTable(0x0B,"or {0},{1}",2,"REG","v","R/M","v"),</v>
       </c>
     </row>
@@ -11109,7 +11185,7 @@
         <v>18</v>
       </c>
       <c r="C77" s="1" t="str">
-        <f>DEC2HEX(B77)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="D77" t="s">
@@ -11134,7 +11210,7 @@
         <v>11</v>
       </c>
       <c r="K77" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B77,2),",","""",E77,"""",",",F77,",","""",G77,"""",",","""",H77,"""",",","""",I77,"""",",","""",J77,"""","),")</f>
+        <f t="shared" si="5"/>
         <v>new OpCodeTable(0x12,"adc {0},{1}",2,"REG","b","R/M","b"),</v>
       </c>
     </row>
@@ -11143,7 +11219,7 @@
         <v>19</v>
       </c>
       <c r="C78" s="1" t="str">
-        <f>DEC2HEX(B78)</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="D78" t="s">
@@ -11168,7 +11244,7 @@
         <v>12</v>
       </c>
       <c r="K78" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B78,2),",","""",E78,"""",",",F78,",","""",G78,"""",",","""",H78,"""",",","""",I78,"""",",","""",J78,"""","),")</f>
+        <f t="shared" si="5"/>
         <v>new OpCodeTable(0x13,"adc {0},{1}",2,"REG","v","R/M","v"),</v>
       </c>
     </row>
@@ -11177,7 +11253,7 @@
         <v>26</v>
       </c>
       <c r="C79" s="1" t="str">
-        <f>DEC2HEX(B79)</f>
+        <f t="shared" si="4"/>
         <v>1A</v>
       </c>
       <c r="D79" t="s">
@@ -11202,7 +11278,7 @@
         <v>11</v>
       </c>
       <c r="K79" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B79,2),",","""",E79,"""",",",F79,",","""",G79,"""",",","""",H79,"""",",","""",I79,"""",",","""",J79,"""","),")</f>
+        <f t="shared" si="5"/>
         <v>new OpCodeTable(0x1A,"sbb {0},{1}",2,"REG","b","R/M","b"),</v>
       </c>
     </row>
@@ -11211,7 +11287,7 @@
         <v>27</v>
       </c>
       <c r="C80" s="1" t="str">
-        <f>DEC2HEX(B80)</f>
+        <f t="shared" si="4"/>
         <v>1B</v>
       </c>
       <c r="D80" t="s">
@@ -11236,7 +11312,7 @@
         <v>12</v>
       </c>
       <c r="K80" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B80,2),",","""",E80,"""",",",F80,",","""",G80,"""",",","""",H80,"""",",","""",I80,"""",",","""",J80,"""","),")</f>
+        <f t="shared" si="5"/>
         <v>new OpCodeTable(0x1B,"sbb {0},{1}",2,"REG","v","R/M","v"),</v>
       </c>
     </row>
@@ -11245,7 +11321,7 @@
         <v>34</v>
       </c>
       <c r="C81" s="1" t="str">
-        <f>DEC2HEX(B81)</f>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="D81" t="s">
@@ -11270,7 +11346,7 @@
         <v>11</v>
       </c>
       <c r="K81" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B81,2),",","""",E81,"""",",",F81,",","""",G81,"""",",","""",H81,"""",",","""",I81,"""",",","""",J81,"""","),")</f>
+        <f t="shared" si="5"/>
         <v>new OpCodeTable(0x22,"and {0},{1}",2,"REG","b","R/M","b"),</v>
       </c>
     </row>
@@ -11279,7 +11355,7 @@
         <v>35</v>
       </c>
       <c r="C82" s="1" t="str">
-        <f>DEC2HEX(B82)</f>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="D82" t="s">
@@ -11304,7 +11380,7 @@
         <v>12</v>
       </c>
       <c r="K82" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B82,2),",","""",E82,"""",",",F82,",","""",G82,"""",",","""",H82,"""",",","""",I82,"""",",","""",J82,"""","),")</f>
+        <f t="shared" si="5"/>
         <v>new OpCodeTable(0x23,"and {0},{1}",2,"REG","v","R/M","v"),</v>
       </c>
     </row>
@@ -11313,7 +11389,7 @@
         <v>42</v>
       </c>
       <c r="C83" s="1" t="str">
-        <f>DEC2HEX(B83)</f>
+        <f t="shared" si="4"/>
         <v>2A</v>
       </c>
       <c r="D83" t="s">
@@ -11338,7 +11414,7 @@
         <v>11</v>
       </c>
       <c r="K83" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B83,2),",","""",E83,"""",",",F83,",","""",G83,"""",",","""",H83,"""",",","""",I83,"""",",","""",J83,"""","),")</f>
+        <f t="shared" si="5"/>
         <v>new OpCodeTable(0x2A,"sub {0},{1}",2,"REG","b","R/M","b"),</v>
       </c>
     </row>
@@ -11347,7 +11423,7 @@
         <v>43</v>
       </c>
       <c r="C84" s="1" t="str">
-        <f>DEC2HEX(B84)</f>
+        <f t="shared" si="4"/>
         <v>2B</v>
       </c>
       <c r="D84" t="s">
@@ -11372,7 +11448,7 @@
         <v>12</v>
       </c>
       <c r="K84" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B84,2),",","""",E84,"""",",",F84,",","""",G84,"""",",","""",H84,"""",",","""",I84,"""",",","""",J84,"""","),")</f>
+        <f t="shared" si="5"/>
         <v>new OpCodeTable(0x2B,"sub {0},{1}",2,"REG","v","R/M","v"),</v>
       </c>
     </row>
@@ -11381,7 +11457,7 @@
         <v>50</v>
       </c>
       <c r="C85" s="1" t="str">
-        <f>DEC2HEX(B85)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="D85" t="s">
@@ -11406,7 +11482,7 @@
         <v>11</v>
       </c>
       <c r="K85" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B85,2),",","""",E85,"""",",",F85,",","""",G85,"""",",","""",H85,"""",",","""",I85,"""",",","""",J85,"""","),")</f>
+        <f t="shared" si="5"/>
         <v>new OpCodeTable(0x32,"xor {0},{1}",2,"REG","b","R/M","b"),</v>
       </c>
     </row>
@@ -11415,7 +11491,7 @@
         <v>51</v>
       </c>
       <c r="C86" s="1" t="str">
-        <f>DEC2HEX(B86)</f>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="D86" t="s">
@@ -11440,7 +11516,7 @@
         <v>12</v>
       </c>
       <c r="K86" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B86,2),",","""",E86,"""",",",F86,",","""",G86,"""",",","""",H86,"""",",","""",I86,"""",",","""",J86,"""","),")</f>
+        <f t="shared" si="5"/>
         <v>new OpCodeTable(0x33,"xor {0},{1}",2,"REG","v","R/M","v"),</v>
       </c>
     </row>
@@ -11449,7 +11525,7 @@
         <v>58</v>
       </c>
       <c r="C87" s="1" t="str">
-        <f>DEC2HEX(B87)</f>
+        <f t="shared" si="4"/>
         <v>3A</v>
       </c>
       <c r="D87" t="s">
@@ -11474,7 +11550,7 @@
         <v>11</v>
       </c>
       <c r="K87" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B87,2),",","""",E87,"""",",",F87,",","""",G87,"""",",","""",H87,"""",",","""",I87,"""",",","""",J87,"""","),")</f>
+        <f t="shared" si="5"/>
         <v>new OpCodeTable(0x3A,"cmp {0},{1}",2,"REG","b","R/M","b"),</v>
       </c>
     </row>
@@ -11483,7 +11559,7 @@
         <v>59</v>
       </c>
       <c r="C88" s="1" t="str">
-        <f>DEC2HEX(B88)</f>
+        <f t="shared" si="4"/>
         <v>3B</v>
       </c>
       <c r="D88" t="s">
@@ -11508,7 +11584,7 @@
         <v>12</v>
       </c>
       <c r="K88" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B88,2),",","""",E88,"""",",",F88,",","""",G88,"""",",","""",H88,"""",",","""",I88,"""",",","""",J88,"""","),")</f>
+        <f t="shared" si="5"/>
         <v>new OpCodeTable(0x3B,"cmp {0},{1}",2,"REG","v","R/M","v"),</v>
       </c>
     </row>
@@ -11517,7 +11593,7 @@
         <v>98</v>
       </c>
       <c r="C89" s="1" t="str">
-        <f>DEC2HEX(B89)</f>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="D89" t="s">
@@ -11542,7 +11618,7 @@
         <v>11</v>
       </c>
       <c r="K89" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B89,2),",","""",E89,"""",",",F89,",","""",G89,"""",",","""",H89,"""",",","""",I89,"""",",","""",J89,"""","),")</f>
+        <f t="shared" si="5"/>
         <v>new OpCodeTable(0x62,"mov {0},{1}",2,"REG","b","R/M","b"),</v>
       </c>
     </row>
@@ -11551,7 +11627,7 @@
         <v>99</v>
       </c>
       <c r="C90" s="1" t="str">
-        <f>DEC2HEX(B90)</f>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
       <c r="D90" t="s">
@@ -11576,7 +11652,7 @@
         <v>12</v>
       </c>
       <c r="K90" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B90,2),",","""",E90,"""",",",F90,",","""",G90,"""",",","""",H90,"""",",","""",I90,"""",",","""",J90,"""","),")</f>
+        <f t="shared" si="5"/>
         <v>new OpCodeTable(0x63,"mov {0},{1}",2,"REG","v","R/M","v"),</v>
       </c>
     </row>
@@ -11585,7 +11661,7 @@
         <v>138</v>
       </c>
       <c r="C91" s="1" t="str">
-        <f>DEC2HEX(B91)</f>
+        <f t="shared" si="4"/>
         <v>8A</v>
       </c>
       <c r="D91" t="s">
@@ -11611,7 +11687,7 @@
         <v>11</v>
       </c>
       <c r="K91" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B91,2),",","""",E91,"""",",",F91,",","""",G91,"""",",","""",H91,"""",",","""",I91,"""",",","""",J91,"""","),")</f>
+        <f t="shared" si="5"/>
         <v>new OpCodeTable(0x8A,"mov {0},{1}",2,"REG","b","R/M","b"),</v>
       </c>
     </row>
@@ -11620,7 +11696,7 @@
         <v>139</v>
       </c>
       <c r="C92" s="1" t="str">
-        <f>DEC2HEX(B92)</f>
+        <f t="shared" si="4"/>
         <v>8B</v>
       </c>
       <c r="D92" t="s">
@@ -11646,7 +11722,7 @@
         <v>12</v>
       </c>
       <c r="K92" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B92,2),",","""",E92,"""",",",F92,",","""",G92,"""",",","""",H92,"""",",","""",I92,"""",",","""",J92,"""","),")</f>
+        <f t="shared" si="5"/>
         <v>new OpCodeTable(0x8B,"mov {0},{1}",2,"REG","v","R/M","v"),</v>
       </c>
     </row>
@@ -11655,7 +11731,7 @@
         <v>102</v>
       </c>
       <c r="C93" s="3" t="str">
-        <f>DEC2HEX(B93)</f>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="D93" s="4" t="s">
@@ -11680,7 +11756,7 @@
         <v>66</v>
       </c>
       <c r="K93" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B93,2),",","""",E93,"""",",",F93,",","""",G93,"""",",","""",H93,"""",",","""",I93,"""",",","""",J93,"""","),")</f>
+        <f t="shared" si="5"/>
         <v>new OpCodeTable(0x66,"mov {0},{1}",2,"S","w","R/M","w"),</v>
       </c>
     </row>
@@ -11689,7 +11765,7 @@
         <v>142</v>
       </c>
       <c r="C94" s="1" t="str">
-        <f>DEC2HEX(B94)</f>
+        <f t="shared" si="4"/>
         <v>8E</v>
       </c>
       <c r="D94" t="s">
@@ -11715,7 +11791,7 @@
         <v>66</v>
       </c>
       <c r="K94" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B94,2),",","""",E94,"""",",",F94,",","""",G94,"""",",","""",H94,"""",",","""",I94,"""",",","""",J94,"""","),")</f>
+        <f t="shared" si="5"/>
         <v>new OpCodeTable(0x8E,"mov {0},{1}",2,"S","w","R/M","w"),</v>
       </c>
     </row>
@@ -11724,7 +11800,7 @@
         <v>190</v>
       </c>
       <c r="C95" s="1" t="str">
-        <f>DEC2HEX(B95)</f>
+        <f t="shared" si="4"/>
         <v>BE</v>
       </c>
       <c r="D95" t="s">
@@ -11747,7 +11823,7 @@
         <v>12</v>
       </c>
       <c r="K95" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B95,2),",","""",E95,"""",",",F95,",","""",G95,"""",",","""",H95,"""",",","""",I95,"""",",","""",J95,"""","),")</f>
+        <f t="shared" si="5"/>
         <v>new OpCodeTable(0xBE,"mov {0},{1}",2,"SI","","I","v"),</v>
       </c>
     </row>
@@ -11756,7 +11832,7 @@
         <v>188</v>
       </c>
       <c r="C96" s="1" t="str">
-        <f>DEC2HEX(B96)</f>
+        <f t="shared" si="4"/>
         <v>BC</v>
       </c>
       <c r="D96" t="s">
@@ -11779,7 +11855,7 @@
         <v>12</v>
       </c>
       <c r="K96" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B96,2),",","""",E96,"""",",",F96,",","""",G96,"""",",","""",H96,"""",",","""",I96,"""",",","""",J96,"""","),")</f>
+        <f t="shared" si="5"/>
         <v>new OpCodeTable(0xBC,"mov {0},{1}",2,"SP","","I","v"),</v>
       </c>
     </row>
@@ -11788,7 +11864,7 @@
         <v>154</v>
       </c>
       <c r="C97" s="1" t="str">
-        <f>DEC2HEX(B97)</f>
+        <f t="shared" si="4"/>
         <v>9A</v>
       </c>
       <c r="D97" t="s">
@@ -11807,7 +11883,7 @@
         <v>68</v>
       </c>
       <c r="K97" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B97,2),",","""",E97,"""",",",F97,",","""",G97,"""",",","""",H97,"""",",","""",I97,"""",",","""",J97,"""","),")</f>
+        <f t="shared" si="5"/>
         <v>new OpCodeTable(0x9A,"call {0}",1,"A","p","",""),</v>
       </c>
     </row>
@@ -11816,7 +11892,7 @@
         <v>234</v>
       </c>
       <c r="C98" s="1" t="str">
-        <f>DEC2HEX(B98)</f>
+        <f t="shared" si="4"/>
         <v>EA</v>
       </c>
       <c r="D98" t="s">
@@ -11836,7 +11912,7 @@
         <v>68</v>
       </c>
       <c r="K98" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B98,2),",","""",E98,"""",",",F98,",","""",G98,"""",",","""",H98,"""",",","""",I98,"""",",","""",J98,"""","),")</f>
+        <f t="shared" si="5"/>
         <v>new OpCodeTable(0xEA,"jmp {0}",1,"A","p","",""),</v>
       </c>
     </row>
@@ -11845,7 +11921,7 @@
         <v>194</v>
       </c>
       <c r="C99" s="1" t="str">
-        <f>DEC2HEX(B99)</f>
+        <f t="shared" si="4"/>
         <v>C2</v>
       </c>
       <c r="D99" t="s">
@@ -11864,7 +11940,7 @@
         <v>66</v>
       </c>
       <c r="K99" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B99,2),",","""",E99,"""",",",F99,",","""",G99,"""",",","""",H99,"""",",","""",I99,"""",",","""",J99,"""","),")</f>
+        <f t="shared" si="5"/>
         <v>new OpCodeTable(0xC2,"reg {0}",1,"I","w","",""),</v>
       </c>
     </row>
@@ -11873,7 +11949,7 @@
         <v>202</v>
       </c>
       <c r="C100" s="1" t="str">
-        <f>DEC2HEX(B100)</f>
+        <f t="shared" si="4"/>
         <v>CA</v>
       </c>
       <c r="D100" t="s">
@@ -11892,7 +11968,7 @@
         <v>66</v>
       </c>
       <c r="K100" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B100,2),",","""",E100,"""",",",F100,",","""",G100,"""",",","""",H100,"""",",","""",I100,"""",",","""",J100,"""","),")</f>
+        <f t="shared" si="5"/>
         <v>new OpCodeTable(0xCA,"retf {0}",1,"I","w","",""),</v>
       </c>
     </row>
@@ -11901,7 +11977,7 @@
         <v>205</v>
       </c>
       <c r="C101" s="1" t="str">
-        <f>DEC2HEX(B101)</f>
+        <f t="shared" si="4"/>
         <v>CD</v>
       </c>
       <c r="D101" t="s">
@@ -11920,7 +11996,7 @@
         <v>11</v>
       </c>
       <c r="K101" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B101,2),",","""",E101,"""",",",F101,",","""",G101,"""",",","""",H101,"""",",","""",I101,"""",",","""",J101,"""","),")</f>
+        <f t="shared" si="5"/>
         <v>new OpCodeTable(0xCD,"int {0}",1,"I","b","",""),</v>
       </c>
     </row>
@@ -11929,7 +12005,7 @@
         <v>212</v>
       </c>
       <c r="C102" s="1" t="str">
-        <f>DEC2HEX(B102)</f>
+        <f t="shared" si="4"/>
         <v>D4</v>
       </c>
       <c r="D102" t="s">
@@ -11948,7 +12024,7 @@
         <v>0</v>
       </c>
       <c r="K102" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B102,2),",","""",E102,"""",",",F102,",","""",G102,"""",",","""",H102,"""",",","""",I102,"""",",","""",J102,"""","),")</f>
+        <f t="shared" si="5"/>
         <v>new OpCodeTable(0xD4,"aam {0}",1,"I","0","",""),</v>
       </c>
     </row>
@@ -11957,7 +12033,7 @@
         <v>213</v>
       </c>
       <c r="C103" s="1" t="str">
-        <f>DEC2HEX(B103)</f>
+        <f t="shared" si="4"/>
         <v>D5</v>
       </c>
       <c r="D103" t="s">
@@ -11976,7 +12052,7 @@
         <v>0</v>
       </c>
       <c r="K103" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B103,2),",","""",E103,"""",",",F103,",","""",G103,"""",",","""",H103,"""",",","""",I103,"""",",","""",J103,"""","),")</f>
+        <f t="shared" si="5"/>
         <v>new OpCodeTable(0xD5,"aad {0}",1,"I","0","",""),</v>
       </c>
     </row>
@@ -11985,14 +12061,14 @@
         <v>112</v>
       </c>
       <c r="C104" s="1" t="str">
-        <f>DEC2HEX(B104)</f>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="D104" t="s">
         <v>34</v>
       </c>
       <c r="E104" t="str">
-        <f>CONCATENATE(LOWER(D104)," {0}")</f>
+        <f t="shared" ref="E104:E126" si="6">CONCATENATE(LOWER(D104)," {0}")</f>
         <v>jo {0}</v>
       </c>
       <c r="F104" s="7">
@@ -12005,7 +12081,7 @@
         <v>11</v>
       </c>
       <c r="K104" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B104,2),",","""",E104,"""",",",F104,",","""",G104,"""",",","""",H104,"""",",","""",I104,"""",",","""",J104,"""","),")</f>
+        <f t="shared" si="5"/>
         <v>new OpCodeTable(0x70,"jo {0}",1,"J","b","",""),</v>
       </c>
     </row>
@@ -12014,14 +12090,14 @@
         <v>113</v>
       </c>
       <c r="C105" s="1" t="str">
-        <f>DEC2HEX(B105)</f>
+        <f t="shared" si="4"/>
         <v>71</v>
       </c>
       <c r="D105" t="s">
         <v>35</v>
       </c>
       <c r="E105" t="str">
-        <f>CONCATENATE(LOWER(D105)," {0}")</f>
+        <f t="shared" si="6"/>
         <v>jno {0}</v>
       </c>
       <c r="F105" s="7">
@@ -12034,7 +12110,7 @@
         <v>11</v>
       </c>
       <c r="K105" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B105,2),",","""",E105,"""",",",F105,",","""",G105,"""",",","""",H105,"""",",","""",I105,"""",",","""",J105,"""","),")</f>
+        <f t="shared" si="5"/>
         <v>new OpCodeTable(0x71,"jno {0}",1,"J","b","",""),</v>
       </c>
     </row>
@@ -12043,14 +12119,14 @@
         <v>114</v>
       </c>
       <c r="C106" s="1" t="str">
-        <f>DEC2HEX(B106)</f>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
       <c r="D106" t="s">
         <v>36</v>
       </c>
       <c r="E106" t="str">
-        <f>CONCATENATE(LOWER(D106)," {0}")</f>
+        <f t="shared" si="6"/>
         <v>jb {0}</v>
       </c>
       <c r="F106" s="7">
@@ -12063,7 +12139,7 @@
         <v>11</v>
       </c>
       <c r="K106" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B106,2),",","""",E106,"""",",",F106,",","""",G106,"""",",","""",H106,"""",",","""",I106,"""",",","""",J106,"""","),")</f>
+        <f t="shared" si="5"/>
         <v>new OpCodeTable(0x72,"jb {0}",1,"J","b","",""),</v>
       </c>
     </row>
@@ -12072,14 +12148,14 @@
         <v>115</v>
       </c>
       <c r="C107" s="1" t="str">
-        <f>DEC2HEX(B107)</f>
+        <f t="shared" si="4"/>
         <v>73</v>
       </c>
       <c r="D107" t="s">
         <v>37</v>
       </c>
       <c r="E107" t="str">
-        <f>CONCATENATE(LOWER(D107)," {0}")</f>
+        <f t="shared" si="6"/>
         <v>jnb {0}</v>
       </c>
       <c r="F107" s="7">
@@ -12092,7 +12168,7 @@
         <v>11</v>
       </c>
       <c r="K107" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B107,2),",","""",E107,"""",",",F107,",","""",G107,"""",",","""",H107,"""",",","""",I107,"""",",","""",J107,"""","),")</f>
+        <f t="shared" si="5"/>
         <v>new OpCodeTable(0x73,"jnb {0}",1,"J","b","",""),</v>
       </c>
     </row>
@@ -12101,14 +12177,14 @@
         <v>116</v>
       </c>
       <c r="C108" s="1" t="str">
-        <f>DEC2HEX(B108)</f>
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
       <c r="D108" t="s">
         <v>38</v>
       </c>
       <c r="E108" t="str">
-        <f>CONCATENATE(LOWER(D108)," {0}")</f>
+        <f t="shared" si="6"/>
         <v>jz {0}</v>
       </c>
       <c r="F108" s="7">
@@ -12121,7 +12197,7 @@
         <v>11</v>
       </c>
       <c r="K108" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B108,2),",","""",E108,"""",",",F108,",","""",G108,"""",",","""",H108,"""",",","""",I108,"""",",","""",J108,"""","),")</f>
+        <f t="shared" si="5"/>
         <v>new OpCodeTable(0x74,"jz {0}",1,"J","b","",""),</v>
       </c>
     </row>
@@ -12130,14 +12206,14 @@
         <v>117</v>
       </c>
       <c r="C109" s="1" t="str">
-        <f>DEC2HEX(B109)</f>
+        <f t="shared" si="4"/>
         <v>75</v>
       </c>
       <c r="D109" t="s">
         <v>39</v>
       </c>
       <c r="E109" t="str">
-        <f>CONCATENATE(LOWER(D109)," {0}")</f>
+        <f t="shared" si="6"/>
         <v>jnz {0}</v>
       </c>
       <c r="F109" s="7">
@@ -12150,7 +12226,7 @@
         <v>11</v>
       </c>
       <c r="K109" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B109,2),",","""",E109,"""",",",F109,",","""",G109,"""",",","""",H109,"""",",","""",I109,"""",",","""",J109,"""","),")</f>
+        <f t="shared" si="5"/>
         <v>new OpCodeTable(0x75,"jnz {0}",1,"J","b","",""),</v>
       </c>
     </row>
@@ -12159,14 +12235,14 @@
         <v>118</v>
       </c>
       <c r="C110" s="1" t="str">
-        <f>DEC2HEX(B110)</f>
+        <f t="shared" si="4"/>
         <v>76</v>
       </c>
       <c r="D110" t="s">
         <v>40</v>
       </c>
       <c r="E110" t="str">
-        <f>CONCATENATE(LOWER(D110)," {0}")</f>
+        <f t="shared" si="6"/>
         <v>jbe {0}</v>
       </c>
       <c r="F110" s="7">
@@ -12179,7 +12255,7 @@
         <v>11</v>
       </c>
       <c r="K110" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B110,2),",","""",E110,"""",",",F110,",","""",G110,"""",",","""",H110,"""",",","""",I110,"""",",","""",J110,"""","),")</f>
+        <f t="shared" si="5"/>
         <v>new OpCodeTable(0x76,"jbe {0}",1,"J","b","",""),</v>
       </c>
     </row>
@@ -12188,14 +12264,14 @@
         <v>119</v>
       </c>
       <c r="C111" s="1" t="str">
-        <f>DEC2HEX(B111)</f>
+        <f t="shared" si="4"/>
         <v>77</v>
       </c>
       <c r="D111" t="s">
         <v>41</v>
       </c>
       <c r="E111" t="str">
-        <f>CONCATENATE(LOWER(D111)," {0}")</f>
+        <f t="shared" si="6"/>
         <v>ja {0}</v>
       </c>
       <c r="F111" s="7">
@@ -12208,7 +12284,7 @@
         <v>11</v>
       </c>
       <c r="K111" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B111,2),",","""",E111,"""",",",F111,",","""",G111,"""",",","""",H111,"""",",","""",I111,"""",",","""",J111,"""","),")</f>
+        <f t="shared" si="5"/>
         <v>new OpCodeTable(0x77,"ja {0}",1,"J","b","",""),</v>
       </c>
     </row>
@@ -12217,14 +12293,14 @@
         <v>120</v>
       </c>
       <c r="C112" s="1" t="str">
-        <f>DEC2HEX(B112)</f>
+        <f t="shared" si="4"/>
         <v>78</v>
       </c>
       <c r="D112" t="s">
         <v>97</v>
       </c>
       <c r="E112" t="str">
-        <f>CONCATENATE(LOWER(D112)," {0}")</f>
+        <f t="shared" si="6"/>
         <v>js {0}</v>
       </c>
       <c r="F112" s="7">
@@ -12237,7 +12313,7 @@
         <v>11</v>
       </c>
       <c r="K112" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B112,2),",","""",E112,"""",",",F112,",","""",G112,"""",",","""",H112,"""",",","""",I112,"""",",","""",J112,"""","),")</f>
+        <f t="shared" si="5"/>
         <v>new OpCodeTable(0x78,"js {0}",1,"J","b","",""),</v>
       </c>
     </row>
@@ -12246,14 +12322,14 @@
         <v>121</v>
       </c>
       <c r="C113" s="1" t="str">
-        <f>DEC2HEX(B113)</f>
+        <f t="shared" si="4"/>
         <v>79</v>
       </c>
       <c r="D113" t="s">
         <v>98</v>
       </c>
       <c r="E113" t="str">
-        <f>CONCATENATE(LOWER(D113)," {0}")</f>
+        <f t="shared" si="6"/>
         <v>jns {0}</v>
       </c>
       <c r="F113" s="7">
@@ -12266,7 +12342,7 @@
         <v>11</v>
       </c>
       <c r="K113" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B113,2),",","""",E113,"""",",",F113,",","""",G113,"""",",","""",H113,"""",",","""",I113,"""",",","""",J113,"""","),")</f>
+        <f t="shared" si="5"/>
         <v>new OpCodeTable(0x79,"jns {0}",1,"J","b","",""),</v>
       </c>
     </row>
@@ -12275,14 +12351,14 @@
         <v>122</v>
       </c>
       <c r="C114" s="1" t="str">
-        <f>DEC2HEX(B114)</f>
+        <f t="shared" si="4"/>
         <v>7A</v>
       </c>
       <c r="D114" t="s">
         <v>99</v>
       </c>
       <c r="E114" t="str">
-        <f>CONCATENATE(LOWER(D114)," {0}")</f>
+        <f t="shared" si="6"/>
         <v>jpe {0}</v>
       </c>
       <c r="F114" s="7">
@@ -12295,7 +12371,7 @@
         <v>11</v>
       </c>
       <c r="K114" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B114,2),",","""",E114,"""",",",F114,",","""",G114,"""",",","""",H114,"""",",","""",I114,"""",",","""",J114,"""","),")</f>
+        <f t="shared" si="5"/>
         <v>new OpCodeTable(0x7A,"jpe {0}",1,"J","b","",""),</v>
       </c>
     </row>
@@ -12304,14 +12380,14 @@
         <v>123</v>
       </c>
       <c r="C115" s="1" t="str">
-        <f>DEC2HEX(B115)</f>
+        <f t="shared" si="4"/>
         <v>7B</v>
       </c>
       <c r="D115" t="s">
         <v>100</v>
       </c>
       <c r="E115" t="str">
-        <f>CONCATENATE(LOWER(D115)," {0}")</f>
+        <f t="shared" si="6"/>
         <v>jpo {0}</v>
       </c>
       <c r="F115" s="7">
@@ -12324,7 +12400,7 @@
         <v>11</v>
       </c>
       <c r="K115" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B115,2),",","""",E115,"""",",",F115,",","""",G115,"""",",","""",H115,"""",",","""",I115,"""",",","""",J115,"""","),")</f>
+        <f t="shared" si="5"/>
         <v>new OpCodeTable(0x7B,"jpo {0}",1,"J","b","",""),</v>
       </c>
     </row>
@@ -12333,14 +12409,14 @@
         <v>124</v>
       </c>
       <c r="C116" s="1" t="str">
-        <f>DEC2HEX(B116)</f>
+        <f t="shared" si="4"/>
         <v>7C</v>
       </c>
       <c r="D116" t="s">
         <v>101</v>
       </c>
       <c r="E116" t="str">
-        <f>CONCATENATE(LOWER(D116)," {0}")</f>
+        <f t="shared" si="6"/>
         <v>jl {0}</v>
       </c>
       <c r="F116" s="7">
@@ -12353,7 +12429,7 @@
         <v>11</v>
       </c>
       <c r="K116" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B116,2),",","""",E116,"""",",",F116,",","""",G116,"""",",","""",H116,"""",",","""",I116,"""",",","""",J116,"""","),")</f>
+        <f t="shared" si="5"/>
         <v>new OpCodeTable(0x7C,"jl {0}",1,"J","b","",""),</v>
       </c>
     </row>
@@ -12362,14 +12438,14 @@
         <v>125</v>
       </c>
       <c r="C117" s="1" t="str">
-        <f>DEC2HEX(B117)</f>
+        <f t="shared" si="4"/>
         <v>7D</v>
       </c>
       <c r="D117" t="s">
         <v>102</v>
       </c>
       <c r="E117" t="str">
-        <f>CONCATENATE(LOWER(D117)," {0}")</f>
+        <f t="shared" si="6"/>
         <v>jge {0}</v>
       </c>
       <c r="F117" s="7">
@@ -12382,7 +12458,7 @@
         <v>11</v>
       </c>
       <c r="K117" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B117,2),",","""",E117,"""",",",F117,",","""",G117,"""",",","""",H117,"""",",","""",I117,"""",",","""",J117,"""","),")</f>
+        <f t="shared" si="5"/>
         <v>new OpCodeTable(0x7D,"jge {0}",1,"J","b","",""),</v>
       </c>
     </row>
@@ -12391,14 +12467,14 @@
         <v>126</v>
       </c>
       <c r="C118" s="1" t="str">
-        <f>DEC2HEX(B118)</f>
+        <f t="shared" si="4"/>
         <v>7E</v>
       </c>
       <c r="D118" t="s">
         <v>103</v>
       </c>
       <c r="E118" t="str">
-        <f>CONCATENATE(LOWER(D118)," {0}")</f>
+        <f t="shared" si="6"/>
         <v>jle {0}</v>
       </c>
       <c r="F118" s="7">
@@ -12411,7 +12487,7 @@
         <v>11</v>
       </c>
       <c r="K118" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B118,2),",","""",E118,"""",",",F118,",","""",G118,"""",",","""",H118,"""",",","""",I118,"""",",","""",J118,"""","),")</f>
+        <f t="shared" si="5"/>
         <v>new OpCodeTable(0x7E,"jle {0}",1,"J","b","",""),</v>
       </c>
     </row>
@@ -12420,14 +12496,14 @@
         <v>127</v>
       </c>
       <c r="C119" s="1" t="str">
-        <f>DEC2HEX(B119)</f>
+        <f t="shared" si="4"/>
         <v>7F</v>
       </c>
       <c r="D119" t="s">
         <v>102</v>
       </c>
       <c r="E119" t="str">
-        <f>CONCATENATE(LOWER(D119)," {0}")</f>
+        <f t="shared" si="6"/>
         <v>jge {0}</v>
       </c>
       <c r="F119" s="7">
@@ -12440,7 +12516,7 @@
         <v>11</v>
       </c>
       <c r="K119" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B119,2),",","""",E119,"""",",",F119,",","""",G119,"""",",","""",H119,"""",",","""",I119,"""",",","""",J119,"""","),")</f>
+        <f t="shared" si="5"/>
         <v>new OpCodeTable(0x7F,"jge {0}",1,"J","b","",""),</v>
       </c>
     </row>
@@ -12449,14 +12525,14 @@
         <v>224</v>
       </c>
       <c r="C120" s="1" t="str">
-        <f>DEC2HEX(B120)</f>
+        <f t="shared" si="4"/>
         <v>E0</v>
       </c>
       <c r="D120" t="s">
         <v>72</v>
       </c>
       <c r="E120" t="str">
-        <f>CONCATENATE(LOWER(D120)," {0}")</f>
+        <f t="shared" si="6"/>
         <v>loopnz {0}</v>
       </c>
       <c r="F120" s="7">
@@ -12469,7 +12545,7 @@
         <v>11</v>
       </c>
       <c r="K120" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B120,2),",","""",E120,"""",",",F120,",","""",G120,"""",",","""",H120,"""",",","""",I120,"""",",","""",J120,"""","),")</f>
+        <f t="shared" si="5"/>
         <v>new OpCodeTable(0xE0,"loopnz {0}",1,"J","b","",""),</v>
       </c>
     </row>
@@ -12478,14 +12554,14 @@
         <v>225</v>
       </c>
       <c r="C121" s="1" t="str">
-        <f>DEC2HEX(B121)</f>
+        <f t="shared" si="4"/>
         <v>E1</v>
       </c>
       <c r="D121" t="s">
         <v>73</v>
       </c>
       <c r="E121" t="str">
-        <f>CONCATENATE(LOWER(D121)," {0}")</f>
+        <f t="shared" si="6"/>
         <v>loopz {0}</v>
       </c>
       <c r="F121" s="7">
@@ -12498,7 +12574,7 @@
         <v>11</v>
       </c>
       <c r="K121" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B121,2),",","""",E121,"""",",",F121,",","""",G121,"""",",","""",H121,"""",",","""",I121,"""",",","""",J121,"""","),")</f>
+        <f t="shared" si="5"/>
         <v>new OpCodeTable(0xE1,"loopz {0}",1,"J","b","",""),</v>
       </c>
     </row>
@@ -12507,14 +12583,14 @@
         <v>226</v>
       </c>
       <c r="C122" s="1" t="str">
-        <f>DEC2HEX(B122)</f>
+        <f t="shared" si="4"/>
         <v>E2</v>
       </c>
       <c r="D122" t="s">
         <v>74</v>
       </c>
       <c r="E122" t="str">
-        <f>CONCATENATE(LOWER(D122)," {0}")</f>
+        <f t="shared" si="6"/>
         <v>loop {0}</v>
       </c>
       <c r="F122" s="7">
@@ -12527,7 +12603,7 @@
         <v>11</v>
       </c>
       <c r="K122" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B122,2),",","""",E122,"""",",",F122,",","""",G122,"""",",","""",H122,"""",",","""",I122,"""",",","""",J122,"""","),")</f>
+        <f t="shared" si="5"/>
         <v>new OpCodeTable(0xE2,"loop {0}",1,"J","b","",""),</v>
       </c>
     </row>
@@ -12536,14 +12612,14 @@
         <v>227</v>
       </c>
       <c r="C123" s="1" t="str">
-        <f>DEC2HEX(B123)</f>
+        <f t="shared" si="4"/>
         <v>E3</v>
       </c>
       <c r="D123" t="s">
         <v>75</v>
       </c>
       <c r="E123" t="str">
-        <f>CONCATENATE(LOWER(D123)," {0}")</f>
+        <f t="shared" si="6"/>
         <v>jcxz {0}</v>
       </c>
       <c r="F123" s="7">
@@ -12556,7 +12632,7 @@
         <v>11</v>
       </c>
       <c r="K123" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B123,2),",","""",E123,"""",",",F123,",","""",G123,"""",",","""",H123,"""",",","""",I123,"""",",","""",J123,"""","),")</f>
+        <f t="shared" si="5"/>
         <v>new OpCodeTable(0xE3,"jcxz {0}",1,"J","b","",""),</v>
       </c>
     </row>
@@ -12565,14 +12641,14 @@
         <v>232</v>
       </c>
       <c r="C124" s="1" t="str">
-        <f>DEC2HEX(B124)</f>
+        <f t="shared" si="4"/>
         <v>E8</v>
       </c>
       <c r="D124" t="s">
         <v>106</v>
       </c>
       <c r="E124" t="str">
-        <f>CONCATENATE(LOWER(D124)," {0}")</f>
+        <f t="shared" si="6"/>
         <v>call {0}</v>
       </c>
       <c r="F124" s="7">
@@ -12585,7 +12661,7 @@
         <v>12</v>
       </c>
       <c r="K124" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B124,2),",","""",E124,"""",",",F124,",","""",G124,"""",",","""",H124,"""",",","""",I124,"""",",","""",J124,"""","),")</f>
+        <f t="shared" si="5"/>
         <v>new OpCodeTable(0xE8,"call {0}",1,"J","v","",""),</v>
       </c>
     </row>
@@ -12594,14 +12670,14 @@
         <v>233</v>
       </c>
       <c r="C125" s="1" t="str">
-        <f>DEC2HEX(B125)</f>
+        <f t="shared" si="4"/>
         <v>E9</v>
       </c>
       <c r="D125" t="s">
         <v>124</v>
       </c>
       <c r="E125" t="str">
-        <f>CONCATENATE(LOWER(D125)," {0}")</f>
+        <f t="shared" si="6"/>
         <v>jmp {0}</v>
       </c>
       <c r="F125" s="7">
@@ -12614,7 +12690,7 @@
         <v>12</v>
       </c>
       <c r="K125" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B125,2),",","""",E125,"""",",",F125,",","""",G125,"""",",","""",H125,"""",",","""",I125,"""",",","""",J125,"""","),")</f>
+        <f t="shared" si="5"/>
         <v>new OpCodeTable(0xE9,"jmp {0}",1,"J","v","",""),</v>
       </c>
     </row>
@@ -12623,14 +12699,14 @@
         <v>235</v>
       </c>
       <c r="C126" s="1" t="str">
-        <f>DEC2HEX(B126)</f>
+        <f t="shared" si="4"/>
         <v>EB</v>
       </c>
       <c r="D126" t="s">
         <v>124</v>
       </c>
       <c r="E126" t="str">
-        <f>CONCATENATE(LOWER(D126)," {0}")</f>
+        <f t="shared" si="6"/>
         <v>jmp {0}</v>
       </c>
       <c r="F126" s="7">
@@ -12643,7 +12719,7 @@
         <v>11</v>
       </c>
       <c r="K126" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B126,2),",","""",E126,"""",",",F126,",","""",G126,"""",",","""",H126,"""",",","""",I126,"""",",","""",J126,"""","),")</f>
+        <f t="shared" si="5"/>
         <v>new OpCodeTable(0xEB,"jmp {0}",1,"J","b","",""),</v>
       </c>
     </row>
@@ -12652,7 +12728,7 @@
         <v>103</v>
       </c>
       <c r="C127" s="3" t="str">
-        <f>DEC2HEX(B127)</f>
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
       <c r="D127" s="4" t="s">
@@ -12673,7 +12749,7 @@
       <c r="I127" s="4"/>
       <c r="J127" s="4"/>
       <c r="K127" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B127,2),",","""",E127,"""",",",F127,",","""",G127,"""",",","""",H127,"""",",","""",I127,"""",",","""",J127,"""","),")</f>
+        <f t="shared" si="5"/>
         <v>new OpCodeTable(0x67,"pop {0}",1,"R/M","v","",""),</v>
       </c>
     </row>
@@ -12682,7 +12758,7 @@
         <v>143</v>
       </c>
       <c r="C128" s="1" t="str">
-        <f>DEC2HEX(B128)</f>
+        <f t="shared" si="4"/>
         <v>8F</v>
       </c>
       <c r="D128" t="s">
@@ -12701,7 +12777,7 @@
         <v>12</v>
       </c>
       <c r="K128" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B128,2),",","""",E128,"""",",",F128,",","""",G128,"""",",","""",H128,"""",",","""",I128,"""",",","""",J128,"""","),")</f>
+        <f t="shared" si="5"/>
         <v>new OpCodeTable(0x8F,"pop {0}",1,"R/M","v","",""),</v>
       </c>
     </row>
@@ -12710,7 +12786,7 @@
         <v>204</v>
       </c>
       <c r="C129" s="1" t="str">
-        <f>DEC2HEX(B129)</f>
+        <f t="shared" si="4"/>
         <v>CC</v>
       </c>
       <c r="D129" t="s">
@@ -12726,7 +12802,7 @@
         <v>3</v>
       </c>
       <c r="K129" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B129,2),",","""",E129,"""",",",F129,",","""",G129,"""",",","""",H129,"""",",","""",I129,"""",",","""",J129,"""","),")</f>
+        <f t="shared" si="5"/>
         <v>new OpCodeTable(0xCC,"int 3",0,"3","","",""),</v>
       </c>
     </row>
@@ -12735,7 +12811,7 @@
         <v>236</v>
       </c>
       <c r="C130" s="1" t="str">
-        <f>DEC2HEX(B130)</f>
+        <f t="shared" si="4"/>
         <v>EC</v>
       </c>
       <c r="D130" t="s">
@@ -12754,7 +12830,7 @@
         <v>27</v>
       </c>
       <c r="K130" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B130,2),",","""",E130,"""",",",F130,",","""",G130,"""",",","""",H130,"""",",","""",I130,"""",",","""",J130,"""","),")</f>
+        <f t="shared" si="5"/>
         <v>new OpCodeTable(0xEC,"in al,dx",0,"AL","","DX",""),</v>
       </c>
     </row>
@@ -12763,7 +12839,7 @@
         <v>228</v>
       </c>
       <c r="C131" s="1" t="str">
-        <f>DEC2HEX(B131)</f>
+        <f t="shared" ref="C131:C194" si="7">DEC2HEX(B131)</f>
         <v>E4</v>
       </c>
       <c r="D131" t="s">
@@ -12779,7 +12855,7 @@
         <v>9</v>
       </c>
       <c r="K131" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B131,2),",","""",E131,"""",",",F131,",","""",G131,"""",",","""",H131,"""",",","""",I131,"""",",","""",J131,"""","),")</f>
+        <f t="shared" ref="K131:K194" si="8">CONCATENATE("new OpCodeTable(0x",DEC2HEX(B131,2),",","""",E131,"""",",",F131,",","""",G131,"""",",","""",H131,"""",",","""",I131,"""",",","""",J131,"""","),")</f>
         <v>new OpCodeTable(0xE4,"in al",0,"AL","","",""),</v>
       </c>
     </row>
@@ -12788,7 +12864,7 @@
         <v>237</v>
       </c>
       <c r="C132" s="1" t="str">
-        <f>DEC2HEX(B132)</f>
+        <f t="shared" si="7"/>
         <v>ED</v>
       </c>
       <c r="D132" t="s">
@@ -12807,7 +12883,7 @@
         <v>27</v>
       </c>
       <c r="K132" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B132,2),",","""",E132,"""",",",F132,",","""",G132,"""",",","""",H132,"""",",","""",I132,"""",",","""",J132,"""","),")</f>
+        <f t="shared" si="8"/>
         <v>new OpCodeTable(0xED,"in ax,dx",0,"AX","","DX",""),</v>
       </c>
     </row>
@@ -12816,7 +12892,7 @@
         <v>64</v>
       </c>
       <c r="C133" s="1" t="str">
-        <f>DEC2HEX(B133)</f>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="D133" t="s">
@@ -12832,7 +12908,7 @@
         <v>10</v>
       </c>
       <c r="K133" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B133,2),",","""",E133,"""",",",F133,",","""",G133,"""",",","""",H133,"""",",","""",I133,"""",",","""",J133,"""","),")</f>
+        <f t="shared" si="8"/>
         <v>new OpCodeTable(0x40,"inc ax",0,"AX","","",""),</v>
       </c>
     </row>
@@ -12841,7 +12917,7 @@
         <v>72</v>
       </c>
       <c r="C134" s="1" t="str">
-        <f>DEC2HEX(B134)</f>
+        <f t="shared" si="7"/>
         <v>48</v>
       </c>
       <c r="D134" t="s">
@@ -12857,7 +12933,7 @@
         <v>10</v>
       </c>
       <c r="K134" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B134,2),",","""",E134,"""",",",F134,",","""",G134,"""",",","""",H134,"""",",","""",I134,"""",",","""",J134,"""","),")</f>
+        <f t="shared" si="8"/>
         <v>new OpCodeTable(0x48,"dec ax",0,"AX","","",""),</v>
       </c>
     </row>
@@ -12866,7 +12942,7 @@
         <v>80</v>
       </c>
       <c r="C135" s="1" t="str">
-        <f>DEC2HEX(B135)</f>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="D135" t="s">
@@ -12882,7 +12958,7 @@
         <v>10</v>
       </c>
       <c r="K135" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B135,2),",","""",E135,"""",",",F135,",","""",G135,"""",",","""",H135,"""",",","""",I135,"""",",","""",J135,"""","),")</f>
+        <f t="shared" si="8"/>
         <v>new OpCodeTable(0x50,"push ax",0,"AX","","",""),</v>
       </c>
       <c r="M135" t="s">
@@ -12894,7 +12970,7 @@
         <v>88</v>
       </c>
       <c r="C136" s="1" t="str">
-        <f>DEC2HEX(B136)</f>
+        <f t="shared" si="7"/>
         <v>58</v>
       </c>
       <c r="D136" t="s">
@@ -12910,7 +12986,7 @@
         <v>10</v>
       </c>
       <c r="K136" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B136,2),",","""",E136,"""",",",F136,",","""",G136,"""",",","""",H136,"""",",","""",I136,"""",",","""",J136,"""","),")</f>
+        <f t="shared" si="8"/>
         <v>new OpCodeTable(0x58,"pop ax",0,"AX","","",""),</v>
       </c>
       <c r="M136" t="s">
@@ -12922,7 +12998,7 @@
         <v>229</v>
       </c>
       <c r="C137" s="1" t="str">
-        <f>DEC2HEX(B137)</f>
+        <f t="shared" si="7"/>
         <v>E5</v>
       </c>
       <c r="D137" t="s">
@@ -12938,7 +13014,7 @@
         <v>10</v>
       </c>
       <c r="K137" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B137,2),",","""",E137,"""",",",F137,",","""",G137,"""",",","""",H137,"""",",","""",I137,"""",",","""",J137,"""","),")</f>
+        <f t="shared" si="8"/>
         <v>new OpCodeTable(0xE5,"in ax",0,"AX","","",""),</v>
       </c>
     </row>
@@ -12947,7 +13023,7 @@
         <v>69</v>
       </c>
       <c r="C138" s="1" t="str">
-        <f>DEC2HEX(B138)</f>
+        <f t="shared" si="7"/>
         <v>45</v>
       </c>
       <c r="D138" t="s">
@@ -12963,7 +13039,7 @@
         <v>31</v>
       </c>
       <c r="K138" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B138,2),",","""",E138,"""",",",F138,",","""",G138,"""",",","""",H138,"""",",","""",I138,"""",",","""",J138,"""","),")</f>
+        <f t="shared" si="8"/>
         <v>new OpCodeTable(0x45,"inc bp",0,"BP","","",""),</v>
       </c>
     </row>
@@ -12972,7 +13048,7 @@
         <v>77</v>
       </c>
       <c r="C139" s="1" t="str">
-        <f>DEC2HEX(B139)</f>
+        <f t="shared" si="7"/>
         <v>4D</v>
       </c>
       <c r="D139" t="s">
@@ -12988,7 +13064,7 @@
         <v>31</v>
       </c>
       <c r="K139" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B139,2),",","""",E139,"""",",",F139,",","""",G139,"""",",","""",H139,"""",",","""",I139,"""",",","""",J139,"""","),")</f>
+        <f t="shared" si="8"/>
         <v>new OpCodeTable(0x4D,"dec bp",0,"BP","","",""),</v>
       </c>
     </row>
@@ -12997,7 +13073,7 @@
         <v>85</v>
       </c>
       <c r="C140" s="1" t="str">
-        <f>DEC2HEX(B140)</f>
+        <f t="shared" si="7"/>
         <v>55</v>
       </c>
       <c r="D140" t="s">
@@ -13013,7 +13089,7 @@
         <v>31</v>
       </c>
       <c r="K140" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B140,2),",","""",E140,"""",",",F140,",","""",G140,"""",",","""",H140,"""",",","""",I140,"""",",","""",J140,"""","),")</f>
+        <f t="shared" si="8"/>
         <v>new OpCodeTable(0x55,"push bp",0,"BP","","",""),</v>
       </c>
     </row>
@@ -13022,7 +13098,7 @@
         <v>93</v>
       </c>
       <c r="C141" s="1" t="str">
-        <f>DEC2HEX(B141)</f>
+        <f t="shared" si="7"/>
         <v>5D</v>
       </c>
       <c r="D141" t="s">
@@ -13038,7 +13114,7 @@
         <v>31</v>
       </c>
       <c r="K141" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B141,2),",","""",E141,"""",",",F141,",","""",G141,"""",",","""",H141,"""",",","""",I141,"""",",","""",J141,"""","),")</f>
+        <f t="shared" si="8"/>
         <v>new OpCodeTable(0x5D,"pop bp",0,"BP","","",""),</v>
       </c>
     </row>
@@ -13047,7 +13123,7 @@
         <v>149</v>
       </c>
       <c r="C142" s="1" t="str">
-        <f>DEC2HEX(B142)</f>
+        <f t="shared" si="7"/>
         <v>95</v>
       </c>
       <c r="D142" t="s">
@@ -13067,7 +13143,7 @@
         <v>10</v>
       </c>
       <c r="K142" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B142,2),",","""",E142,"""",",",F142,",","""",G142,"""",",","""",H142,"""",",","""",I142,"""",",","""",J142,"""","),")</f>
+        <f t="shared" si="8"/>
         <v>new OpCodeTable(0x95,"xchg bp,ax",0,"BP","AX","",""),</v>
       </c>
     </row>
@@ -13076,7 +13152,7 @@
         <v>67</v>
       </c>
       <c r="C143" s="1" t="str">
-        <f>DEC2HEX(B143)</f>
+        <f t="shared" si="7"/>
         <v>43</v>
       </c>
       <c r="D143" t="s">
@@ -13092,7 +13168,7 @@
         <v>29</v>
       </c>
       <c r="K143" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B143,2),",","""",E143,"""",",",F143,",","""",G143,"""",",","""",H143,"""",",","""",I143,"""",",","""",J143,"""","),")</f>
+        <f t="shared" si="8"/>
         <v>new OpCodeTable(0x43,"inc bx",0,"BX","","",""),</v>
       </c>
     </row>
@@ -13101,7 +13177,7 @@
         <v>75</v>
       </c>
       <c r="C144" s="1" t="str">
-        <f>DEC2HEX(B144)</f>
+        <f t="shared" si="7"/>
         <v>4B</v>
       </c>
       <c r="D144" t="s">
@@ -13117,7 +13193,7 @@
         <v>29</v>
       </c>
       <c r="K144" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B144,2),",","""",E144,"""",",",F144,",","""",G144,"""",",","""",H144,"""",",","""",I144,"""",",","""",J144,"""","),")</f>
+        <f t="shared" si="8"/>
         <v>new OpCodeTable(0x4B,"dec bx",0,"BX","","",""),</v>
       </c>
     </row>
@@ -13126,7 +13202,7 @@
         <v>83</v>
       </c>
       <c r="C145" s="1" t="str">
-        <f>DEC2HEX(B145)</f>
+        <f t="shared" si="7"/>
         <v>53</v>
       </c>
       <c r="D145" t="s">
@@ -13142,7 +13218,7 @@
         <v>29</v>
       </c>
       <c r="K145" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B145,2),",","""",E145,"""",",",F145,",","""",G145,"""",",","""",H145,"""",",","""",I145,"""",",","""",J145,"""","),")</f>
+        <f t="shared" si="8"/>
         <v>new OpCodeTable(0x53,"push bx",0,"BX","","",""),</v>
       </c>
     </row>
@@ -13151,7 +13227,7 @@
         <v>91</v>
       </c>
       <c r="C146" s="1" t="str">
-        <f>DEC2HEX(B146)</f>
+        <f t="shared" si="7"/>
         <v>5B</v>
       </c>
       <c r="D146" t="s">
@@ -13167,7 +13243,7 @@
         <v>29</v>
       </c>
       <c r="K146" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B146,2),",","""",E146,"""",",",F146,",","""",G146,"""",",","""",H146,"""",",","""",I146,"""",",","""",J146,"""","),")</f>
+        <f t="shared" si="8"/>
         <v>new OpCodeTable(0x5B,"pop bx",0,"BX","","",""),</v>
       </c>
     </row>
@@ -13176,7 +13252,7 @@
         <v>147</v>
       </c>
       <c r="C147" s="1" t="str">
-        <f>DEC2HEX(B147)</f>
+        <f t="shared" si="7"/>
         <v>93</v>
       </c>
       <c r="D147" t="s">
@@ -13196,7 +13272,7 @@
         <v>10</v>
       </c>
       <c r="K147" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B147,2),",","""",E147,"""",",",F147,",","""",G147,"""",",","""",H147,"""",",","""",I147,"""",",","""",J147,"""","),")</f>
+        <f t="shared" si="8"/>
         <v>new OpCodeTable(0x93,"xchg bx,ax",0,"BX","AX","",""),</v>
       </c>
     </row>
@@ -13205,7 +13281,7 @@
         <v>14</v>
       </c>
       <c r="C148" s="1" t="str">
-        <f>DEC2HEX(B148)</f>
+        <f t="shared" si="7"/>
         <v>E</v>
       </c>
       <c r="D148" t="s">
@@ -13221,7 +13297,7 @@
         <v>26</v>
       </c>
       <c r="K148" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B148,2),",","""",E148,"""",",",F148,",","""",G148,"""",",","""",H148,"""",",","""",I148,"""",",","""",J148,"""","),")</f>
+        <f t="shared" si="8"/>
         <v>new OpCodeTable(0x0E,"push cs",0,"CS","","",""),</v>
       </c>
     </row>
@@ -13230,7 +13306,7 @@
         <v>15</v>
       </c>
       <c r="C149" s="8" t="str">
-        <f>DEC2HEX(B149)</f>
+        <f t="shared" si="7"/>
         <v>F</v>
       </c>
       <c r="D149" s="9" t="s">
@@ -13249,7 +13325,7 @@
       <c r="I149" s="9"/>
       <c r="J149" s="9"/>
       <c r="K149" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B149,2),",","""",E149,"""",",",F149,",","""",G149,"""",",","""",H149,"""",",","""",I149,"""",",","""",J149,"""","),")</f>
+        <f t="shared" si="8"/>
         <v>new OpCodeTable(0x0F,"pop cs",0,"CS","","",""),</v>
       </c>
     </row>
@@ -13258,7 +13334,7 @@
         <v>65</v>
       </c>
       <c r="C150" s="1" t="str">
-        <f>DEC2HEX(B150)</f>
+        <f t="shared" si="7"/>
         <v>41</v>
       </c>
       <c r="D150" t="s">
@@ -13274,7 +13350,7 @@
         <v>28</v>
       </c>
       <c r="K150" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B150,2),",","""",E150,"""",",",F150,",","""",G150,"""",",","""",H150,"""",",","""",I150,"""",",","""",J150,"""","),")</f>
+        <f t="shared" si="8"/>
         <v>new OpCodeTable(0x41,"inc cx",0,"CX","","",""),</v>
       </c>
     </row>
@@ -13283,7 +13359,7 @@
         <v>73</v>
       </c>
       <c r="C151" s="1" t="str">
-        <f>DEC2HEX(B151)</f>
+        <f t="shared" si="7"/>
         <v>49</v>
       </c>
       <c r="D151" t="s">
@@ -13299,7 +13375,7 @@
         <v>28</v>
       </c>
       <c r="K151" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B151,2),",","""",E151,"""",",",F151,",","""",G151,"""",",","""",H151,"""",",","""",I151,"""",",","""",J151,"""","),")</f>
+        <f t="shared" si="8"/>
         <v>new OpCodeTable(0x49,"dec cx",0,"CX","","",""),</v>
       </c>
     </row>
@@ -13308,7 +13384,7 @@
         <v>81</v>
       </c>
       <c r="C152" s="1" t="str">
-        <f>DEC2HEX(B152)</f>
+        <f t="shared" si="7"/>
         <v>51</v>
       </c>
       <c r="D152" t="s">
@@ -13324,7 +13400,7 @@
         <v>28</v>
       </c>
       <c r="K152" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B152,2),",","""",E152,"""",",",F152,",","""",G152,"""",",","""",H152,"""",",","""",I152,"""",",","""",J152,"""","),")</f>
+        <f t="shared" si="8"/>
         <v>new OpCodeTable(0x51,"push cx",0,"CX","","",""),</v>
       </c>
     </row>
@@ -13333,7 +13409,7 @@
         <v>89</v>
       </c>
       <c r="C153" s="1" t="str">
-        <f>DEC2HEX(B153)</f>
+        <f t="shared" si="7"/>
         <v>59</v>
       </c>
       <c r="D153" t="s">
@@ -13349,7 +13425,7 @@
         <v>28</v>
       </c>
       <c r="K153" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B153,2),",","""",E153,"""",",",F153,",","""",G153,"""",",","""",H153,"""",",","""",I153,"""",",","""",J153,"""","),")</f>
+        <f t="shared" si="8"/>
         <v>new OpCodeTable(0x59,"pop cx",0,"CX","","",""),</v>
       </c>
     </row>
@@ -13358,7 +13434,7 @@
         <v>145</v>
       </c>
       <c r="C154" s="1" t="str">
-        <f>DEC2HEX(B154)</f>
+        <f t="shared" si="7"/>
         <v>91</v>
       </c>
       <c r="D154" t="s">
@@ -13378,7 +13454,7 @@
         <v>10</v>
       </c>
       <c r="K154" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B154,2),",","""",E154,"""",",",F154,",","""",G154,"""",",","""",H154,"""",",","""",I154,"""",",","""",J154,"""","),")</f>
+        <f t="shared" si="8"/>
         <v>new OpCodeTable(0x91,"xchg cx,ax",0,"CX","AX","",""),</v>
       </c>
     </row>
@@ -13387,7 +13463,7 @@
         <v>71</v>
       </c>
       <c r="C155" s="1" t="str">
-        <f>DEC2HEX(B155)</f>
+        <f t="shared" si="7"/>
         <v>47</v>
       </c>
       <c r="D155" t="s">
@@ -13403,7 +13479,7 @@
         <v>33</v>
       </c>
       <c r="K155" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B155,2),",","""",E155,"""",",",F155,",","""",G155,"""",",","""",H155,"""",",","""",I155,"""",",","""",J155,"""","),")</f>
+        <f t="shared" si="8"/>
         <v>new OpCodeTable(0x47,"inc di",0,"DI","","",""),</v>
       </c>
     </row>
@@ -13412,7 +13488,7 @@
         <v>79</v>
       </c>
       <c r="C156" s="1" t="str">
-        <f>DEC2HEX(B156)</f>
+        <f t="shared" si="7"/>
         <v>4F</v>
       </c>
       <c r="D156" t="s">
@@ -13428,7 +13504,7 @@
         <v>33</v>
       </c>
       <c r="K156" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B156,2),",","""",E156,"""",",",F156,",","""",G156,"""",",","""",H156,"""",",","""",I156,"""",",","""",J156,"""","),")</f>
+        <f t="shared" si="8"/>
         <v>new OpCodeTable(0x4F,"dec di",0,"DI","","",""),</v>
       </c>
     </row>
@@ -13437,7 +13513,7 @@
         <v>87</v>
       </c>
       <c r="C157" s="1" t="str">
-        <f>DEC2HEX(B157)</f>
+        <f t="shared" si="7"/>
         <v>57</v>
       </c>
       <c r="D157" t="s">
@@ -13453,7 +13529,7 @@
         <v>33</v>
       </c>
       <c r="K157" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B157,2),",","""",E157,"""",",",F157,",","""",G157,"""",",","""",H157,"""",",","""",I157,"""",",","""",J157,"""","),")</f>
+        <f t="shared" si="8"/>
         <v>new OpCodeTable(0x57,"push di",0,"DI","","",""),</v>
       </c>
     </row>
@@ -13462,7 +13538,7 @@
         <v>95</v>
       </c>
       <c r="C158" s="1" t="str">
-        <f>DEC2HEX(B158)</f>
+        <f t="shared" si="7"/>
         <v>5F</v>
       </c>
       <c r="D158" t="s">
@@ -13478,7 +13554,7 @@
         <v>33</v>
       </c>
       <c r="K158" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B158,2),",","""",E158,"""",",",F158,",","""",G158,"""",",","""",H158,"""",",","""",I158,"""",",","""",J158,"""","),")</f>
+        <f t="shared" si="8"/>
         <v>new OpCodeTable(0x5F,"pop di",0,"DI","","",""),</v>
       </c>
     </row>
@@ -13487,7 +13563,7 @@
         <v>151</v>
       </c>
       <c r="C159" s="1" t="str">
-        <f>DEC2HEX(B159)</f>
+        <f t="shared" si="7"/>
         <v>97</v>
       </c>
       <c r="D159" t="s">
@@ -13507,7 +13583,7 @@
         <v>10</v>
       </c>
       <c r="K159" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B159,2),",","""",E159,"""",",",F159,",","""",G159,"""",",","""",H159,"""",",","""",I159,"""",",","""",J159,"""","),")</f>
+        <f t="shared" si="8"/>
         <v>new OpCodeTable(0x97,"xchg di,ax",0,"DI","AX","",""),</v>
       </c>
     </row>
@@ -13516,7 +13592,7 @@
         <v>30</v>
       </c>
       <c r="C160" s="1" t="str">
-        <f>DEC2HEX(B160)</f>
+        <f t="shared" si="7"/>
         <v>1E</v>
       </c>
       <c r="D160" t="s">
@@ -13532,7 +13608,7 @@
         <v>87</v>
       </c>
       <c r="K160" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B160,2),",","""",E160,"""",",",F160,",","""",G160,"""",",","""",H160,"""",",","""",I160,"""",",","""",J160,"""","),")</f>
+        <f t="shared" si="8"/>
         <v>new OpCodeTable(0x1E,"push ds",0,"DS","","",""),</v>
       </c>
     </row>
@@ -13541,7 +13617,7 @@
         <v>31</v>
       </c>
       <c r="C161" s="1" t="str">
-        <f>DEC2HEX(B161)</f>
+        <f t="shared" si="7"/>
         <v>1F</v>
       </c>
       <c r="D161" t="s">
@@ -13557,7 +13633,7 @@
         <v>87</v>
       </c>
       <c r="K161" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B161,2),",","""",E161,"""",",",F161,",","""",G161,"""",",","""",H161,"""",",","""",I161,"""",",","""",J161,"""","),")</f>
+        <f t="shared" si="8"/>
         <v>new OpCodeTable(0x1F,"pop ds",0,"DS","","",""),</v>
       </c>
     </row>
@@ -13566,7 +13642,7 @@
         <v>238</v>
       </c>
       <c r="C162" s="1" t="str">
-        <f>DEC2HEX(B162)</f>
+        <f t="shared" si="7"/>
         <v>EE</v>
       </c>
       <c r="D162" t="s">
@@ -13585,7 +13661,7 @@
         <v>9</v>
       </c>
       <c r="K162" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B162,2),",","""",E162,"""",",",F162,",","""",G162,"""",",","""",H162,"""",",","""",I162,"""",",","""",J162,"""","),")</f>
+        <f t="shared" si="8"/>
         <v>new OpCodeTable(0xEE,"out dx,al",0,"DX","","AL",""),</v>
       </c>
     </row>
@@ -13594,7 +13670,7 @@
         <v>239</v>
       </c>
       <c r="C163" s="1" t="str">
-        <f>DEC2HEX(B163)</f>
+        <f t="shared" si="7"/>
         <v>EF</v>
       </c>
       <c r="D163" t="s">
@@ -13613,7 +13689,7 @@
         <v>10</v>
       </c>
       <c r="K163" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B163,2),",","""",E163,"""",",",F163,",","""",G163,"""",",","""",H163,"""",",","""",I163,"""",",","""",J163,"""","),")</f>
+        <f t="shared" si="8"/>
         <v>new OpCodeTable(0xEF,"out dx,ax",0,"DX","","AX",""),</v>
       </c>
     </row>
@@ -13622,7 +13698,7 @@
         <v>66</v>
       </c>
       <c r="C164" s="1" t="str">
-        <f>DEC2HEX(B164)</f>
+        <f t="shared" si="7"/>
         <v>42</v>
       </c>
       <c r="D164" t="s">
@@ -13638,7 +13714,7 @@
         <v>27</v>
       </c>
       <c r="K164" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B164,2),",","""",E164,"""",",",F164,",","""",G164,"""",",","""",H164,"""",",","""",I164,"""",",","""",J164,"""","),")</f>
+        <f t="shared" si="8"/>
         <v>new OpCodeTable(0x42,"inc dx",0,"DX","","",""),</v>
       </c>
     </row>
@@ -13647,7 +13723,7 @@
         <v>74</v>
       </c>
       <c r="C165" s="1" t="str">
-        <f>DEC2HEX(B165)</f>
+        <f t="shared" si="7"/>
         <v>4A</v>
       </c>
       <c r="D165" t="s">
@@ -13663,7 +13739,7 @@
         <v>27</v>
       </c>
       <c r="K165" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B165,2),",","""",E165,"""",",",F165,",","""",G165,"""",",","""",H165,"""",",","""",I165,"""",",","""",J165,"""","),")</f>
+        <f t="shared" si="8"/>
         <v>new OpCodeTable(0x4A,"dec dx",0,"DX","","",""),</v>
       </c>
     </row>
@@ -13672,7 +13748,7 @@
         <v>82</v>
       </c>
       <c r="C166" s="1" t="str">
-        <f>DEC2HEX(B166)</f>
+        <f t="shared" si="7"/>
         <v>52</v>
       </c>
       <c r="D166" t="s">
@@ -13688,7 +13764,7 @@
         <v>27</v>
       </c>
       <c r="K166" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B166,2),",","""",E166,"""",",",F166,",","""",G166,"""",",","""",H166,"""",",","""",I166,"""",",","""",J166,"""","),")</f>
+        <f t="shared" si="8"/>
         <v>new OpCodeTable(0x52,"push dx",0,"DX","","",""),</v>
       </c>
     </row>
@@ -13697,7 +13773,7 @@
         <v>90</v>
       </c>
       <c r="C167" s="1" t="str">
-        <f>DEC2HEX(B167)</f>
+        <f t="shared" si="7"/>
         <v>5A</v>
       </c>
       <c r="D167" t="s">
@@ -13713,7 +13789,7 @@
         <v>27</v>
       </c>
       <c r="K167" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B167,2),",","""",E167,"""",",",F167,",","""",G167,"""",",","""",H167,"""",",","""",I167,"""",",","""",J167,"""","),")</f>
+        <f t="shared" si="8"/>
         <v>new OpCodeTable(0x5A,"pop dx",0,"DX","","",""),</v>
       </c>
     </row>
@@ -13722,7 +13798,7 @@
         <v>146</v>
       </c>
       <c r="C168" s="1" t="str">
-        <f>DEC2HEX(B168)</f>
+        <f t="shared" si="7"/>
         <v>92</v>
       </c>
       <c r="D168" t="s">
@@ -13742,7 +13818,7 @@
         <v>10</v>
       </c>
       <c r="K168" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B168,2),",","""",E168,"""",",",F168,",","""",G168,"""",",","""",H168,"""",",","""",I168,"""",",","""",J168,"""","),")</f>
+        <f t="shared" si="8"/>
         <v>new OpCodeTable(0x92,"xchg dx,ax",0,"DX","AX","",""),</v>
       </c>
     </row>
@@ -13751,7 +13827,7 @@
         <v>6</v>
       </c>
       <c r="C169" s="1" t="str">
-        <f>DEC2HEX(B169)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="D169" t="s">
@@ -13767,7 +13843,7 @@
         <v>15</v>
       </c>
       <c r="K169" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B169,2),",","""",E169,"""",",",F169,",","""",G169,"""",",","""",H169,"""",",","""",I169,"""",",","""",J169,"""","),")</f>
+        <f t="shared" si="8"/>
         <v>new OpCodeTable(0x06,"push es",0,"ES","","",""),</v>
       </c>
     </row>
@@ -13776,7 +13852,7 @@
         <v>7</v>
       </c>
       <c r="C170" s="1" t="str">
-        <f>DEC2HEX(B170)</f>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="D170" t="s">
@@ -13792,7 +13868,7 @@
         <v>15</v>
       </c>
       <c r="K170" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B170,2),",","""",E170,"""",",",F170,",","""",G170,"""",",","""",H170,"""",",","""",I170,"""",",","""",J170,"""","),")</f>
+        <f t="shared" si="8"/>
         <v>new OpCodeTable(0x07,"pop es",0,"ES","","",""),</v>
       </c>
     </row>
@@ -13801,7 +13877,7 @@
         <v>70</v>
       </c>
       <c r="C171" s="1" t="str">
-        <f>DEC2HEX(B171)</f>
+        <f t="shared" si="7"/>
         <v>46</v>
       </c>
       <c r="D171" t="s">
@@ -13817,7 +13893,7 @@
         <v>32</v>
       </c>
       <c r="K171" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B171,2),",","""",E171,"""",",",F171,",","""",G171,"""",",","""",H171,"""",",","""",I171,"""",",","""",J171,"""","),")</f>
+        <f t="shared" si="8"/>
         <v>new OpCodeTable(0x46,"inc si",0,"SI","","",""),</v>
       </c>
     </row>
@@ -13826,7 +13902,7 @@
         <v>78</v>
       </c>
       <c r="C172" s="1" t="str">
-        <f>DEC2HEX(B172)</f>
+        <f t="shared" si="7"/>
         <v>4E</v>
       </c>
       <c r="D172" t="s">
@@ -13842,7 +13918,7 @@
         <v>32</v>
       </c>
       <c r="K172" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B172,2),",","""",E172,"""",",",F172,",","""",G172,"""",",","""",H172,"""",",","""",I172,"""",",","""",J172,"""","),")</f>
+        <f t="shared" si="8"/>
         <v>new OpCodeTable(0x4E,"dec si",0,"SI","","",""),</v>
       </c>
     </row>
@@ -13851,7 +13927,7 @@
         <v>86</v>
       </c>
       <c r="C173" s="1" t="str">
-        <f>DEC2HEX(B173)</f>
+        <f t="shared" si="7"/>
         <v>56</v>
       </c>
       <c r="D173" t="s">
@@ -13867,7 +13943,7 @@
         <v>32</v>
       </c>
       <c r="K173" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B173,2),",","""",E173,"""",",",F173,",","""",G173,"""",",","""",H173,"""",",","""",I173,"""",",","""",J173,"""","),")</f>
+        <f t="shared" si="8"/>
         <v>new OpCodeTable(0x56,"push si",0,"SI","","",""),</v>
       </c>
     </row>
@@ -13876,7 +13952,7 @@
         <v>94</v>
       </c>
       <c r="C174" s="1" t="str">
-        <f>DEC2HEX(B174)</f>
+        <f t="shared" si="7"/>
         <v>5E</v>
       </c>
       <c r="D174" t="s">
@@ -13892,7 +13968,7 @@
         <v>32</v>
       </c>
       <c r="K174" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B174,2),",","""",E174,"""",",",F174,",","""",G174,"""",",","""",H174,"""",",","""",I174,"""",",","""",J174,"""","),")</f>
+        <f t="shared" si="8"/>
         <v>new OpCodeTable(0x5E,"pop si",0,"SI","","",""),</v>
       </c>
     </row>
@@ -13901,7 +13977,7 @@
         <v>150</v>
       </c>
       <c r="C175" s="1" t="str">
-        <f>DEC2HEX(B175)</f>
+        <f t="shared" si="7"/>
         <v>96</v>
       </c>
       <c r="D175" t="s">
@@ -13921,7 +13997,7 @@
         <v>10</v>
       </c>
       <c r="K175" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B175,2),",","""",E175,"""",",",F175,",","""",G175,"""",",","""",H175,"""",",","""",I175,"""",",","""",J175,"""","),")</f>
+        <f t="shared" si="8"/>
         <v>new OpCodeTable(0x96,"xchg si,ax",0,"SI","AX","",""),</v>
       </c>
     </row>
@@ -13930,7 +14006,7 @@
         <v>68</v>
       </c>
       <c r="C176" s="1" t="str">
-        <f>DEC2HEX(B176)</f>
+        <f t="shared" si="7"/>
         <v>44</v>
       </c>
       <c r="D176" t="s">
@@ -13946,7 +14022,7 @@
         <v>30</v>
       </c>
       <c r="K176" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B176,2),",","""",E176,"""",",",F176,",","""",G176,"""",",","""",H176,"""",",","""",I176,"""",",","""",J176,"""","),")</f>
+        <f t="shared" si="8"/>
         <v>new OpCodeTable(0x44,"inc sp",0,"SP","","",""),</v>
       </c>
     </row>
@@ -13955,7 +14031,7 @@
         <v>76</v>
       </c>
       <c r="C177" s="1" t="str">
-        <f>DEC2HEX(B177)</f>
+        <f t="shared" si="7"/>
         <v>4C</v>
       </c>
       <c r="D177" t="s">
@@ -13971,7 +14047,7 @@
         <v>30</v>
       </c>
       <c r="K177" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B177,2),",","""",E177,"""",",",F177,",","""",G177,"""",",","""",H177,"""",",","""",I177,"""",",","""",J177,"""","),")</f>
+        <f t="shared" si="8"/>
         <v>new OpCodeTable(0x4C,"dec sp",0,"SP","","",""),</v>
       </c>
     </row>
@@ -13980,7 +14056,7 @@
         <v>84</v>
       </c>
       <c r="C178" s="1" t="str">
-        <f>DEC2HEX(B178)</f>
+        <f t="shared" si="7"/>
         <v>54</v>
       </c>
       <c r="D178" t="s">
@@ -13996,7 +14072,7 @@
         <v>30</v>
       </c>
       <c r="K178" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B178,2),",","""",E178,"""",",",F178,",","""",G178,"""",",","""",H178,"""",",","""",I178,"""",",","""",J178,"""","),")</f>
+        <f t="shared" si="8"/>
         <v>new OpCodeTable(0x54,"push sp",0,"SP","","",""),</v>
       </c>
     </row>
@@ -14005,7 +14081,7 @@
         <v>92</v>
       </c>
       <c r="C179" s="1" t="str">
-        <f>DEC2HEX(B179)</f>
+        <f t="shared" si="7"/>
         <v>5C</v>
       </c>
       <c r="D179" t="s">
@@ -14021,7 +14097,7 @@
         <v>30</v>
       </c>
       <c r="K179" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B179,2),",","""",E179,"""",",",F179,",","""",G179,"""",",","""",H179,"""",",","""",I179,"""",",","""",J179,"""","),")</f>
+        <f t="shared" si="8"/>
         <v>new OpCodeTable(0x5C,"pop sp",0,"SP","","",""),</v>
       </c>
     </row>
@@ -14030,7 +14106,7 @@
         <v>148</v>
       </c>
       <c r="C180" s="1" t="str">
-        <f>DEC2HEX(B180)</f>
+        <f t="shared" si="7"/>
         <v>94</v>
       </c>
       <c r="D180" t="s">
@@ -14050,7 +14126,7 @@
         <v>10</v>
       </c>
       <c r="K180" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B180,2),",","""",E180,"""",",",F180,",","""",G180,"""",",","""",H180,"""",",","""",I180,"""",",","""",J180,"""","),")</f>
+        <f t="shared" si="8"/>
         <v>new OpCodeTable(0x94,"xchg sp,ax",0,"SP","AX","",""),</v>
       </c>
     </row>
@@ -14059,7 +14135,7 @@
         <v>22</v>
       </c>
       <c r="C181" s="1" t="str">
-        <f>DEC2HEX(B181)</f>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="D181" t="s">
@@ -14075,7 +14151,7 @@
         <v>18</v>
       </c>
       <c r="K181" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B181,2),",","""",E181,"""",",",F181,",","""",G181,"""",",","""",H181,"""",",","""",I181,"""",",","""",J181,"""","),")</f>
+        <f t="shared" si="8"/>
         <v>new OpCodeTable(0x16,"push ss",0,"SS","","",""),</v>
       </c>
     </row>
@@ -14084,7 +14160,7 @@
         <v>23</v>
       </c>
       <c r="C182" s="1" t="str">
-        <f>DEC2HEX(B182)</f>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="D182" t="s">
@@ -14100,7 +14176,7 @@
         <v>18</v>
       </c>
       <c r="K182" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B182,2),",","""",E182,"""",",",F182,",","""",G182,"""",",","""",H182,"""",",","""",I182,"""",",","""",J182,"""","),")</f>
+        <f t="shared" si="8"/>
         <v>new OpCodeTable(0x17,"pop ss",0,"SS","","",""),</v>
       </c>
     </row>
@@ -14109,7 +14185,7 @@
         <v>38</v>
       </c>
       <c r="C183" s="1" t="str">
-        <f>DEC2HEX(B183)</f>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="D183" t="s">
@@ -14122,7 +14198,7 @@
         <v>0</v>
       </c>
       <c r="K183" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B183,2),",","""",E183,"""",",",F183,",","""",G183,"""",",","""",H183,"""",",","""",I183,"""",",","""",J183,"""","),")</f>
+        <f t="shared" si="8"/>
         <v>new OpCodeTable(0x26,"es:",0,"","","",""),</v>
       </c>
     </row>
@@ -14131,7 +14207,7 @@
         <v>39</v>
       </c>
       <c r="C184" s="1" t="str">
-        <f>DEC2HEX(B184)</f>
+        <f t="shared" si="7"/>
         <v>27</v>
       </c>
       <c r="D184" t="s">
@@ -14144,7 +14220,7 @@
         <v>0</v>
       </c>
       <c r="K184" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B184,2),",","""",E184,"""",",",F184,",","""",G184,"""",",","""",H184,"""",",","""",I184,"""",",","""",J184,"""","),")</f>
+        <f t="shared" si="8"/>
         <v>new OpCodeTable(0x27,"daa",0,"","","",""),</v>
       </c>
     </row>
@@ -14153,7 +14229,7 @@
         <v>46</v>
       </c>
       <c r="C185" s="1" t="str">
-        <f>DEC2HEX(B185)</f>
+        <f t="shared" si="7"/>
         <v>2E</v>
       </c>
       <c r="D185" t="s">
@@ -14166,7 +14242,7 @@
         <v>0</v>
       </c>
       <c r="K185" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B185,2),",","""",E185,"""",",",F185,",","""",G185,"""",",","""",H185,"""",",","""",I185,"""",",","""",J185,"""","),")</f>
+        <f t="shared" si="8"/>
         <v>new OpCodeTable(0x2E,"cs:",0,"","","",""),</v>
       </c>
     </row>
@@ -14175,7 +14251,7 @@
         <v>47</v>
       </c>
       <c r="C186" s="1" t="str">
-        <f>DEC2HEX(B186)</f>
+        <f t="shared" si="7"/>
         <v>2F</v>
       </c>
       <c r="D186" t="s">
@@ -14188,7 +14264,7 @@
         <v>0</v>
       </c>
       <c r="K186" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B186,2),",","""",E186,"""",",",F186,",","""",G186,"""",",","""",H186,"""",",","""",I186,"""",",","""",J186,"""","),")</f>
+        <f t="shared" si="8"/>
         <v>new OpCodeTable(0x2F,"das",0,"","","",""),</v>
       </c>
     </row>
@@ -14197,7 +14273,7 @@
         <v>54</v>
       </c>
       <c r="C187" s="1" t="str">
-        <f>DEC2HEX(B187)</f>
+        <f t="shared" si="7"/>
         <v>36</v>
       </c>
       <c r="D187" t="s">
@@ -14210,7 +14286,7 @@
         <v>0</v>
       </c>
       <c r="K187" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B187,2),",","""",E187,"""",",",F187,",","""",G187,"""",",","""",H187,"""",",","""",I187,"""",",","""",J187,"""","),")</f>
+        <f t="shared" si="8"/>
         <v>new OpCodeTable(0x36,"ss:",0,"","","",""),</v>
       </c>
     </row>
@@ -14219,7 +14295,7 @@
         <v>55</v>
       </c>
       <c r="C188" s="1" t="str">
-        <f>DEC2HEX(B188)</f>
+        <f t="shared" si="7"/>
         <v>37</v>
       </c>
       <c r="D188" t="s">
@@ -14232,7 +14308,7 @@
         <v>0</v>
       </c>
       <c r="K188" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B188,2),",","""",E188,"""",",",F188,",","""",G188,"""",",","""",H188,"""",",","""",I188,"""",",","""",J188,"""","),")</f>
+        <f t="shared" si="8"/>
         <v>new OpCodeTable(0x37,"aaa",0,"","","",""),</v>
       </c>
     </row>
@@ -14241,7 +14317,7 @@
         <v>62</v>
       </c>
       <c r="C189" s="1" t="str">
-        <f>DEC2HEX(B189)</f>
+        <f t="shared" si="7"/>
         <v>3E</v>
       </c>
       <c r="D189" t="s">
@@ -14254,7 +14330,7 @@
         <v>0</v>
       </c>
       <c r="K189" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B189,2),",","""",E189,"""",",",F189,",","""",G189,"""",",","""",H189,"""",",","""",I189,"""",",","""",J189,"""","),")</f>
+        <f t="shared" si="8"/>
         <v>new OpCodeTable(0x3E,"ds:",0,"","","",""),</v>
       </c>
     </row>
@@ -14263,7 +14339,7 @@
         <v>63</v>
       </c>
       <c r="C190" s="1" t="str">
-        <f>DEC2HEX(B190)</f>
+        <f t="shared" si="7"/>
         <v>3F</v>
       </c>
       <c r="D190" t="s">
@@ -14276,7 +14352,7 @@
         <v>0</v>
       </c>
       <c r="K190" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B190,2),",","""",E190,"""",",",F190,",","""",G190,"""",",","""",H190,"""",",","""",I190,"""",",","""",J190,"""","),")</f>
+        <f t="shared" si="8"/>
         <v>new OpCodeTable(0x3F,"aas",0,"","","",""),</v>
       </c>
     </row>
@@ -14285,7 +14361,7 @@
         <v>144</v>
       </c>
       <c r="C191" s="1" t="str">
-        <f>DEC2HEX(B191)</f>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
       <c r="D191" t="s">
@@ -14295,7 +14371,7 @@
         <v>0</v>
       </c>
       <c r="K191" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B191,2),",","""",E191,"""",",",F191,",","""",G191,"""",",","""",H191,"""",",","""",I191,"""",",","""",J191,"""","),")</f>
+        <f t="shared" si="8"/>
         <v>new OpCodeTable(0x90,"",0,"","","",""),</v>
       </c>
     </row>
@@ -14304,7 +14380,7 @@
         <v>152</v>
       </c>
       <c r="C192" s="1" t="str">
-        <f>DEC2HEX(B192)</f>
+        <f t="shared" si="7"/>
         <v>98</v>
       </c>
       <c r="D192" t="s">
@@ -14317,7 +14393,7 @@
         <v>0</v>
       </c>
       <c r="K192" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B192,2),",","""",E192,"""",",",F192,",","""",G192,"""",",","""",H192,"""",",","""",I192,"""",",","""",J192,"""","),")</f>
+        <f t="shared" si="8"/>
         <v>new OpCodeTable(0x98,"cbw",0,"","","",""),</v>
       </c>
     </row>
@@ -14326,7 +14402,7 @@
         <v>153</v>
       </c>
       <c r="C193" s="1" t="str">
-        <f>DEC2HEX(B193)</f>
+        <f t="shared" si="7"/>
         <v>99</v>
       </c>
       <c r="D193" t="s">
@@ -14339,7 +14415,7 @@
         <v>0</v>
       </c>
       <c r="K193" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B193,2),",","""",E193,"""",",",F193,",","""",G193,"""",",","""",H193,"""",",","""",I193,"""",",","""",J193,"""","),")</f>
+        <f t="shared" si="8"/>
         <v>new OpCodeTable(0x99,"cwd",0,"","","",""),</v>
       </c>
     </row>
@@ -14348,7 +14424,7 @@
         <v>155</v>
       </c>
       <c r="C194" s="1" t="str">
-        <f>DEC2HEX(B194)</f>
+        <f t="shared" si="7"/>
         <v>9B</v>
       </c>
       <c r="D194" t="s">
@@ -14361,7 +14437,7 @@
         <v>0</v>
       </c>
       <c r="K194" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B194,2),",","""",E194,"""",",",F194,",","""",G194,"""",",","""",H194,"""",",","""",I194,"""",",","""",J194,"""","),")</f>
+        <f t="shared" si="8"/>
         <v>new OpCodeTable(0x9B,"wait",0,"","","",""),</v>
       </c>
     </row>
@@ -14370,7 +14446,7 @@
         <v>156</v>
       </c>
       <c r="C195" s="1" t="str">
-        <f>DEC2HEX(B195)</f>
+        <f t="shared" ref="C195:C258" si="9">DEC2HEX(B195)</f>
         <v>9C</v>
       </c>
       <c r="D195" t="s">
@@ -14383,7 +14459,7 @@
         <v>0</v>
       </c>
       <c r="K195" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B195,2),",","""",E195,"""",",",F195,",","""",G195,"""",",","""",H195,"""",",","""",I195,"""",",","""",J195,"""","),")</f>
+        <f t="shared" ref="K195:K258" si="10">CONCATENATE("new OpCodeTable(0x",DEC2HEX(B195,2),",","""",E195,"""",",",F195,",","""",G195,"""",",","""",H195,"""",",","""",I195,"""",",","""",J195,"""","),")</f>
         <v>new OpCodeTable(0x9C,"pushf",0,"","","",""),</v>
       </c>
     </row>
@@ -14392,7 +14468,7 @@
         <v>157</v>
       </c>
       <c r="C196" s="1" t="str">
-        <f>DEC2HEX(B196)</f>
+        <f t="shared" si="9"/>
         <v>9D</v>
       </c>
       <c r="D196" t="s">
@@ -14405,7 +14481,7 @@
         <v>0</v>
       </c>
       <c r="K196" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B196,2),",","""",E196,"""",",",F196,",","""",G196,"""",",","""",H196,"""",",","""",I196,"""",",","""",J196,"""","),")</f>
+        <f t="shared" si="10"/>
         <v>new OpCodeTable(0x9D,"popf",0,"","","",""),</v>
       </c>
     </row>
@@ -14414,7 +14490,7 @@
         <v>158</v>
       </c>
       <c r="C197" s="1" t="str">
-        <f>DEC2HEX(B197)</f>
+        <f t="shared" si="9"/>
         <v>9E</v>
       </c>
       <c r="D197" t="s">
@@ -14427,7 +14503,7 @@
         <v>0</v>
       </c>
       <c r="K197" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B197,2),",","""",E197,"""",",",F197,",","""",G197,"""",",","""",H197,"""",",","""",I197,"""",",","""",J197,"""","),")</f>
+        <f t="shared" si="10"/>
         <v>new OpCodeTable(0x9E,"sahf",0,"","","",""),</v>
       </c>
     </row>
@@ -14436,7 +14512,7 @@
         <v>159</v>
       </c>
       <c r="C198" s="1" t="str">
-        <f>DEC2HEX(B198)</f>
+        <f t="shared" si="9"/>
         <v>9F</v>
       </c>
       <c r="D198" t="s">
@@ -14449,7 +14525,7 @@
         <v>0</v>
       </c>
       <c r="K198" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B198,2),",","""",E198,"""",",",F198,",","""",G198,"""",",","""",H198,"""",",","""",I198,"""",",","""",J198,"""","),")</f>
+        <f t="shared" si="10"/>
         <v>new OpCodeTable(0x9F,"lahf",0,"","","",""),</v>
       </c>
     </row>
@@ -14458,7 +14534,7 @@
         <v>164</v>
       </c>
       <c r="C199" s="1" t="str">
-        <f>DEC2HEX(B199)</f>
+        <f t="shared" si="9"/>
         <v>A4</v>
       </c>
       <c r="D199" t="s">
@@ -14471,7 +14547,7 @@
         <v>0</v>
       </c>
       <c r="K199" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B199,2),",","""",E199,"""",",",F199,",","""",G199,"""",",","""",H199,"""",",","""",I199,"""",",","""",J199,"""","),")</f>
+        <f t="shared" si="10"/>
         <v>new OpCodeTable(0xA4,"movsb",0,"","","",""),</v>
       </c>
     </row>
@@ -14480,7 +14556,7 @@
         <v>165</v>
       </c>
       <c r="C200" s="1" t="str">
-        <f>DEC2HEX(B200)</f>
+        <f t="shared" si="9"/>
         <v>A5</v>
       </c>
       <c r="D200" t="s">
@@ -14493,7 +14569,7 @@
         <v>0</v>
       </c>
       <c r="K200" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B200,2),",","""",E200,"""",",",F200,",","""",G200,"""",",","""",H200,"""",",","""",I200,"""",",","""",J200,"""","),")</f>
+        <f t="shared" si="10"/>
         <v>new OpCodeTable(0xA5,"movsw",0,"","","",""),</v>
       </c>
     </row>
@@ -14502,7 +14578,7 @@
         <v>166</v>
       </c>
       <c r="C201" s="1" t="str">
-        <f>DEC2HEX(B201)</f>
+        <f t="shared" si="9"/>
         <v>A6</v>
       </c>
       <c r="D201" t="s">
@@ -14515,7 +14591,7 @@
         <v>0</v>
       </c>
       <c r="K201" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B201,2),",","""",E201,"""",",",F201,",","""",G201,"""",",","""",H201,"""",",","""",I201,"""",",","""",J201,"""","),")</f>
+        <f t="shared" si="10"/>
         <v>new OpCodeTable(0xA6,"cmpsb",0,"","","",""),</v>
       </c>
     </row>
@@ -14524,7 +14600,7 @@
         <v>167</v>
       </c>
       <c r="C202" s="1" t="str">
-        <f>DEC2HEX(B202)</f>
+        <f t="shared" si="9"/>
         <v>A7</v>
       </c>
       <c r="D202" t="s">
@@ -14537,7 +14613,7 @@
         <v>0</v>
       </c>
       <c r="K202" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B202,2),",","""",E202,"""",",",F202,",","""",G202,"""",",","""",H202,"""",",","""",I202,"""",",","""",J202,"""","),")</f>
+        <f t="shared" si="10"/>
         <v>new OpCodeTable(0xA7,"cmpsw",0,"","","",""),</v>
       </c>
     </row>
@@ -14546,7 +14622,7 @@
         <v>170</v>
       </c>
       <c r="C203" s="1" t="str">
-        <f>DEC2HEX(B203)</f>
+        <f t="shared" si="9"/>
         <v>AA</v>
       </c>
       <c r="D203" t="s">
@@ -14559,7 +14635,7 @@
         <v>0</v>
       </c>
       <c r="K203" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B203,2),",","""",E203,"""",",",F203,",","""",G203,"""",",","""",H203,"""",",","""",I203,"""",",","""",J203,"""","),")</f>
+        <f t="shared" si="10"/>
         <v>new OpCodeTable(0xAA,"stosb",0,"","","",""),</v>
       </c>
     </row>
@@ -14568,7 +14644,7 @@
         <v>171</v>
       </c>
       <c r="C204" s="1" t="str">
-        <f>DEC2HEX(B204)</f>
+        <f t="shared" si="9"/>
         <v>AB</v>
       </c>
       <c r="D204" t="s">
@@ -14581,7 +14657,7 @@
         <v>0</v>
       </c>
       <c r="K204" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B204,2),",","""",E204,"""",",",F204,",","""",G204,"""",",","""",H204,"""",",","""",I204,"""",",","""",J204,"""","),")</f>
+        <f t="shared" si="10"/>
         <v>new OpCodeTable(0xAB,"stosw",0,"","","",""),</v>
       </c>
     </row>
@@ -14590,7 +14666,7 @@
         <v>172</v>
       </c>
       <c r="C205" s="1" t="str">
-        <f>DEC2HEX(B205)</f>
+        <f t="shared" si="9"/>
         <v>AC</v>
       </c>
       <c r="D205" t="s">
@@ -14603,7 +14679,7 @@
         <v>0</v>
       </c>
       <c r="K205" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B205,2),",","""",E205,"""",",",F205,",","""",G205,"""",",","""",H205,"""",",","""",I205,"""",",","""",J205,"""","),")</f>
+        <f t="shared" si="10"/>
         <v>new OpCodeTable(0xAC,"lodsb",0,"","","",""),</v>
       </c>
     </row>
@@ -14612,7 +14688,7 @@
         <v>173</v>
       </c>
       <c r="C206" s="1" t="str">
-        <f>DEC2HEX(B206)</f>
+        <f t="shared" si="9"/>
         <v>AD</v>
       </c>
       <c r="D206" t="s">
@@ -14625,7 +14701,7 @@
         <v>0</v>
       </c>
       <c r="K206" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B206,2),",","""",E206,"""",",",F206,",","""",G206,"""",",","""",H206,"""",",","""",I206,"""",",","""",J206,"""","),")</f>
+        <f t="shared" si="10"/>
         <v>new OpCodeTable(0xAD,"lodsw",0,"","","",""),</v>
       </c>
     </row>
@@ -14634,7 +14710,7 @@
         <v>174</v>
       </c>
       <c r="C207" s="1" t="str">
-        <f>DEC2HEX(B207)</f>
+        <f t="shared" si="9"/>
         <v>AE</v>
       </c>
       <c r="D207" t="s">
@@ -14647,7 +14723,7 @@
         <v>0</v>
       </c>
       <c r="K207" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B207,2),",","""",E207,"""",",",F207,",","""",G207,"""",",","""",H207,"""",",","""",I207,"""",",","""",J207,"""","),")</f>
+        <f t="shared" si="10"/>
         <v>new OpCodeTable(0xAE,"scasb",0,"","","",""),</v>
       </c>
     </row>
@@ -14656,7 +14732,7 @@
         <v>175</v>
       </c>
       <c r="C208" s="1" t="str">
-        <f>DEC2HEX(B208)</f>
+        <f t="shared" si="9"/>
         <v>AF</v>
       </c>
       <c r="D208" t="s">
@@ -14669,7 +14745,7 @@
         <v>0</v>
       </c>
       <c r="K208" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B208,2),",","""",E208,"""",",",F208,",","""",G208,"""",",","""",H208,"""",",","""",I208,"""",",","""",J208,"""","),")</f>
+        <f t="shared" si="10"/>
         <v>new OpCodeTable(0xAF,"scasw",0,"","","",""),</v>
       </c>
     </row>
@@ -14678,7 +14754,7 @@
         <v>195</v>
       </c>
       <c r="C209" s="1" t="str">
-        <f>DEC2HEX(B209)</f>
+        <f t="shared" si="9"/>
         <v>C3</v>
       </c>
       <c r="D209" t="s">
@@ -14691,7 +14767,7 @@
         <v>0</v>
       </c>
       <c r="K209" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B209,2),",","""",E209,"""",",",F209,",","""",G209,"""",",","""",H209,"""",",","""",I209,"""",",","""",J209,"""","),")</f>
+        <f t="shared" si="10"/>
         <v>new OpCodeTable(0xC3,"ret",0,"","","",""),</v>
       </c>
     </row>
@@ -14700,7 +14776,7 @@
         <v>203</v>
       </c>
       <c r="C210" s="1" t="str">
-        <f>DEC2HEX(B210)</f>
+        <f t="shared" si="9"/>
         <v>CB</v>
       </c>
       <c r="D210" t="s">
@@ -14713,7 +14789,7 @@
         <v>0</v>
       </c>
       <c r="K210" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B210,2),",","""",E210,"""",",",F210,",","""",G210,"""",",","""",H210,"""",",","""",I210,"""",",","""",J210,"""","),")</f>
+        <f t="shared" si="10"/>
         <v>new OpCodeTable(0xCB,"retf {0}",0,"","","",""),</v>
       </c>
     </row>
@@ -14722,7 +14798,7 @@
         <v>206</v>
       </c>
       <c r="C211" s="1" t="str">
-        <f>DEC2HEX(B211)</f>
+        <f t="shared" si="9"/>
         <v>CE</v>
       </c>
       <c r="D211" t="s">
@@ -14735,7 +14811,7 @@
         <v>0</v>
       </c>
       <c r="K211" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B211,2),",","""",E211,"""",",",F211,",","""",G211,"""",",","""",H211,"""",",","""",I211,"""",",","""",J211,"""","),")</f>
+        <f t="shared" si="10"/>
         <v>new OpCodeTable(0xCE,"into",0,"","","",""),</v>
       </c>
     </row>
@@ -14744,7 +14820,7 @@
         <v>207</v>
       </c>
       <c r="C212" s="1" t="str">
-        <f>DEC2HEX(B212)</f>
+        <f t="shared" si="9"/>
         <v>CF</v>
       </c>
       <c r="D212" t="s">
@@ -14757,7 +14833,7 @@
         <v>0</v>
       </c>
       <c r="K212" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B212,2),",","""",E212,"""",",",F212,",","""",G212,"""",",","""",H212,"""",",","""",I212,"""",",","""",J212,"""","),")</f>
+        <f t="shared" si="10"/>
         <v>new OpCodeTable(0xCF,"iret",0,"","","",""),</v>
       </c>
     </row>
@@ -14766,7 +14842,7 @@
         <v>215</v>
       </c>
       <c r="C213" s="1" t="str">
-        <f>DEC2HEX(B213)</f>
+        <f t="shared" si="9"/>
         <v>D7</v>
       </c>
       <c r="D213" t="s">
@@ -14779,7 +14855,7 @@
         <v>0</v>
       </c>
       <c r="K213" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B213,2),",","""",E213,"""",",",F213,",","""",G213,"""",",","""",H213,"""",",","""",I213,"""",",","""",J213,"""","),")</f>
+        <f t="shared" si="10"/>
         <v>new OpCodeTable(0xD7,"xlat",0,"","","",""),</v>
       </c>
     </row>
@@ -14788,7 +14864,7 @@
         <v>240</v>
       </c>
       <c r="C214" s="1" t="str">
-        <f>DEC2HEX(B214)</f>
+        <f t="shared" si="9"/>
         <v>F0</v>
       </c>
       <c r="D214" t="s">
@@ -14801,7 +14877,7 @@
         <v>0</v>
       </c>
       <c r="K214" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B214,2),",","""",E214,"""",",",F214,",","""",G214,"""",",","""",H214,"""",",","""",I214,"""",",","""",J214,"""","),")</f>
+        <f t="shared" si="10"/>
         <v>new OpCodeTable(0xF0,"lock",0,"","","",""),</v>
       </c>
     </row>
@@ -14810,7 +14886,7 @@
         <v>242</v>
       </c>
       <c r="C215" s="1" t="str">
-        <f>DEC2HEX(B215)</f>
+        <f t="shared" si="9"/>
         <v>F2</v>
       </c>
       <c r="D215" t="s">
@@ -14823,7 +14899,7 @@
         <v>0</v>
       </c>
       <c r="K215" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B215,2),",","""",E215,"""",",",F215,",","""",G215,"""",",","""",H215,"""",",","""",I215,"""",",","""",J215,"""","),")</f>
+        <f t="shared" si="10"/>
         <v>new OpCodeTable(0xF2,"repnx",0,"","","",""),</v>
       </c>
     </row>
@@ -14832,7 +14908,7 @@
         <v>243</v>
       </c>
       <c r="C216" s="1" t="str">
-        <f>DEC2HEX(B216)</f>
+        <f t="shared" si="9"/>
         <v>F3</v>
       </c>
       <c r="D216" t="s">
@@ -14845,7 +14921,7 @@
         <v>0</v>
       </c>
       <c r="K216" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B216,2),",","""",E216,"""",",",F216,",","""",G216,"""",",","""",H216,"""",",","""",I216,"""",",","""",J216,"""","),")</f>
+        <f t="shared" si="10"/>
         <v>new OpCodeTable(0xF3,"repz",0,"","","",""),</v>
       </c>
     </row>
@@ -14854,7 +14930,7 @@
         <v>244</v>
       </c>
       <c r="C217" s="1" t="str">
-        <f>DEC2HEX(B217)</f>
+        <f t="shared" si="9"/>
         <v>F4</v>
       </c>
       <c r="D217" t="s">
@@ -14867,7 +14943,7 @@
         <v>0</v>
       </c>
       <c r="K217" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B217,2),",","""",E217,"""",",",F217,",","""",G217,"""",",","""",H217,"""",",","""",I217,"""",",","""",J217,"""","),")</f>
+        <f t="shared" si="10"/>
         <v>new OpCodeTable(0xF4,"hlt",0,"","","",""),</v>
       </c>
     </row>
@@ -14876,7 +14952,7 @@
         <v>245</v>
       </c>
       <c r="C218" s="1" t="str">
-        <f>DEC2HEX(B218)</f>
+        <f t="shared" si="9"/>
         <v>F5</v>
       </c>
       <c r="D218" t="s">
@@ -14889,7 +14965,7 @@
         <v>0</v>
       </c>
       <c r="K218" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B218,2),",","""",E218,"""",",",F218,",","""",G218,"""",",","""",H218,"""",",","""",I218,"""",",","""",J218,"""","),")</f>
+        <f t="shared" si="10"/>
         <v>new OpCodeTable(0xF5,"cmc",0,"","","",""),</v>
       </c>
     </row>
@@ -14898,7 +14974,7 @@
         <v>248</v>
       </c>
       <c r="C219" s="1" t="str">
-        <f>DEC2HEX(B219)</f>
+        <f t="shared" si="9"/>
         <v>F8</v>
       </c>
       <c r="D219" t="s">
@@ -14911,7 +14987,7 @@
         <v>0</v>
       </c>
       <c r="K219" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B219,2),",","""",E219,"""",",",F219,",","""",G219,"""",",","""",H219,"""",",","""",I219,"""",",","""",J219,"""","),")</f>
+        <f t="shared" si="10"/>
         <v>new OpCodeTable(0xF8,"clc",0,"","","",""),</v>
       </c>
     </row>
@@ -14920,7 +14996,7 @@
         <v>249</v>
       </c>
       <c r="C220" s="1" t="str">
-        <f>DEC2HEX(B220)</f>
+        <f t="shared" si="9"/>
         <v>F9</v>
       </c>
       <c r="D220" t="s">
@@ -14933,7 +15009,7 @@
         <v>0</v>
       </c>
       <c r="K220" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B220,2),",","""",E220,"""",",",F220,",","""",G220,"""",",","""",H220,"""",",","""",I220,"""",",","""",J220,"""","),")</f>
+        <f t="shared" si="10"/>
         <v>new OpCodeTable(0xF9,"stc",0,"","","",""),</v>
       </c>
     </row>
@@ -14942,7 +15018,7 @@
         <v>250</v>
       </c>
       <c r="C221" s="1" t="str">
-        <f>DEC2HEX(B221)</f>
+        <f t="shared" si="9"/>
         <v>FA</v>
       </c>
       <c r="D221" t="s">
@@ -14955,7 +15031,7 @@
         <v>0</v>
       </c>
       <c r="K221" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B221,2),",","""",E221,"""",",",F221,",","""",G221,"""",",","""",H221,"""",",","""",I221,"""",",","""",J221,"""","),")</f>
+        <f t="shared" si="10"/>
         <v>new OpCodeTable(0xFA,"cli",0,"","","",""),</v>
       </c>
     </row>
@@ -14964,7 +15040,7 @@
         <v>251</v>
       </c>
       <c r="C222" s="1" t="str">
-        <f>DEC2HEX(B222)</f>
+        <f t="shared" si="9"/>
         <v>FB</v>
       </c>
       <c r="D222" t="s">
@@ -14977,7 +15053,7 @@
         <v>0</v>
       </c>
       <c r="K222" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B222,2),",","""",E222,"""",",",F222,",","""",G222,"""",",","""",H222,"""",",","""",I222,"""",",","""",J222,"""","),")</f>
+        <f t="shared" si="10"/>
         <v>new OpCodeTable(0xFB,"sti",0,"","","",""),</v>
       </c>
       <c r="M222" t="s">
@@ -14989,7 +15065,7 @@
         <v>252</v>
       </c>
       <c r="C223" s="1" t="str">
-        <f>DEC2HEX(B223)</f>
+        <f t="shared" si="9"/>
         <v>FC</v>
       </c>
       <c r="D223" t="s">
@@ -15002,7 +15078,7 @@
         <v>0</v>
       </c>
       <c r="K223" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B223,2),",","""",E223,"""",",",F223,",","""",G223,"""",",","""",H223,"""",",","""",I223,"""",",","""",J223,"""","),")</f>
+        <f t="shared" si="10"/>
         <v>new OpCodeTable(0xFC,"cld",0,"","","",""),</v>
       </c>
     </row>
@@ -15011,7 +15087,7 @@
         <v>253</v>
       </c>
       <c r="C224" s="1" t="str">
-        <f>DEC2HEX(B224)</f>
+        <f t="shared" si="9"/>
         <v>FD</v>
       </c>
       <c r="D224" t="s">
@@ -15024,7 +15100,7 @@
         <v>0</v>
       </c>
       <c r="K224" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B224,2),",","""",E224,"""",",",F224,",","""",G224,"""",",","""",H224,"""",",","""",I224,"""",",","""",J224,"""","),")</f>
+        <f t="shared" si="10"/>
         <v>new OpCodeTable(0xFD,"std",0,"","","",""),</v>
       </c>
     </row>
@@ -15033,7 +15109,7 @@
         <v>208</v>
       </c>
       <c r="C225" s="1" t="str">
-        <f>DEC2HEX(B225)</f>
+        <f t="shared" si="9"/>
         <v>D0</v>
       </c>
       <c r="D225" t="s">
@@ -15052,7 +15128,7 @@
         <v>1</v>
       </c>
       <c r="K225" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B225,2),",","""",E225,"""",",",F225,",","""",G225,"""",",","""",H225,"""",",","""",I225,"""",",","""",J225,"""","),")</f>
+        <f t="shared" si="10"/>
         <v>new OpCodeTable(0xD0,"",-1,"R/M","b","1",""),</v>
       </c>
     </row>
@@ -15061,7 +15137,7 @@
         <v>209</v>
       </c>
       <c r="C226" s="1" t="str">
-        <f>DEC2HEX(B226)</f>
+        <f t="shared" si="9"/>
         <v>D1</v>
       </c>
       <c r="D226" t="s">
@@ -15080,7 +15156,7 @@
         <v>1</v>
       </c>
       <c r="K226" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B226,2),",","""",E226,"""",",",F226,",","""",G226,"""",",","""",H226,"""",",","""",I226,"""",",","""",J226,"""","),")</f>
+        <f t="shared" si="10"/>
         <v>new OpCodeTable(0xD1,"",-1,"R/M","v","1",""),</v>
       </c>
     </row>
@@ -15089,7 +15165,7 @@
         <v>210</v>
       </c>
       <c r="C227" s="1" t="str">
-        <f>DEC2HEX(B227)</f>
+        <f t="shared" si="9"/>
         <v>D2</v>
       </c>
       <c r="D227" t="s">
@@ -15108,7 +15184,7 @@
         <v>56</v>
       </c>
       <c r="K227" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B227,2),",","""",E227,"""",",",F227,",","""",G227,"""",",","""",H227,"""",",","""",I227,"""",",","""",J227,"""","),")</f>
+        <f t="shared" si="10"/>
         <v>new OpCodeTable(0xD2,"",-1,"R/M","b","CL",""),</v>
       </c>
     </row>
@@ -15117,7 +15193,7 @@
         <v>211</v>
       </c>
       <c r="C228" s="1" t="str">
-        <f>DEC2HEX(B228)</f>
+        <f t="shared" si="9"/>
         <v>D3</v>
       </c>
       <c r="D228" t="s">
@@ -15136,7 +15212,7 @@
         <v>56</v>
       </c>
       <c r="K228" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B228,2),",","""",E228,"""",",",F228,",","""",G228,"""",",","""",H228,"""",",","""",I228,"""",",","""",J228,"""","),")</f>
+        <f t="shared" si="10"/>
         <v>new OpCodeTable(0xD3,"",-1,"R/M","v","CL",""),</v>
       </c>
     </row>
@@ -15145,7 +15221,7 @@
         <v>128</v>
       </c>
       <c r="C229" s="1" t="str">
-        <f>DEC2HEX(B229)</f>
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
       <c r="D229" t="s">
@@ -15167,7 +15243,7 @@
         <v>11</v>
       </c>
       <c r="K229" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B229,2),",","""",E229,"""",",",F229,",","""",G229,"""",",","""",H229,"""",",","""",I229,"""",",","""",J229,"""","),")</f>
+        <f t="shared" si="10"/>
         <v>new OpCodeTable(0x80,"",-1,"R/M","b","I","b"),</v>
       </c>
     </row>
@@ -15176,7 +15252,7 @@
         <v>129</v>
       </c>
       <c r="C230" s="1" t="str">
-        <f>DEC2HEX(B230)</f>
+        <f t="shared" si="9"/>
         <v>81</v>
       </c>
       <c r="D230" t="s">
@@ -15198,7 +15274,7 @@
         <v>12</v>
       </c>
       <c r="K230" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B230,2),",","""",E230,"""",",",F230,",","""",G230,"""",",","""",H230,"""",",","""",I230,"""",",","""",J230,"""","),")</f>
+        <f t="shared" si="10"/>
         <v>new OpCodeTable(0x81,"",-1,"R/M","v","I","v"),</v>
       </c>
     </row>
@@ -15207,7 +15283,7 @@
         <v>130</v>
       </c>
       <c r="C231" s="1" t="str">
-        <f>DEC2HEX(B231)</f>
+        <f t="shared" si="9"/>
         <v>82</v>
       </c>
       <c r="D231" t="s">
@@ -15229,7 +15305,7 @@
         <v>11</v>
       </c>
       <c r="K231" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B231,2),",","""",E231,"""",",",F231,",","""",G231,"""",",","""",H231,"""",",","""",I231,"""",",","""",J231,"""","),")</f>
+        <f t="shared" si="10"/>
         <v>new OpCodeTable(0x82,"",-1,"R/M","b","I","b"),</v>
       </c>
     </row>
@@ -15238,7 +15314,7 @@
         <v>131</v>
       </c>
       <c r="C232" s="1" t="str">
-        <f>DEC2HEX(B232)</f>
+        <f t="shared" si="9"/>
         <v>83</v>
       </c>
       <c r="D232" t="s">
@@ -15260,7 +15336,7 @@
         <v>11</v>
       </c>
       <c r="K232" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B232,2),",","""",E232,"""",",",F232,",","""",G232,"""",",","""",H232,"""",",","""",I232,"""",",","""",J232,"""","),")</f>
+        <f t="shared" si="10"/>
         <v>new OpCodeTable(0x83,"",-1,"R/M","v","I","b"),</v>
       </c>
     </row>
@@ -15269,7 +15345,7 @@
         <v>246</v>
       </c>
       <c r="C233" s="1" t="str">
-        <f>DEC2HEX(B233)</f>
+        <f t="shared" si="9"/>
         <v>F6</v>
       </c>
       <c r="D233" t="s">
@@ -15285,7 +15361,7 @@
         <v>11</v>
       </c>
       <c r="K233" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B233,2),",","""",E233,"""",",",F233,",","""",G233,"""",",","""",H233,"""",",","""",I233,"""",",","""",J233,"""","),")</f>
+        <f t="shared" si="10"/>
         <v>new OpCodeTable(0xF6,"",-1,"R/M","b","",""),</v>
       </c>
     </row>
@@ -15294,7 +15370,7 @@
         <v>247</v>
       </c>
       <c r="C234" s="1" t="str">
-        <f>DEC2HEX(B234)</f>
+        <f t="shared" si="9"/>
         <v>F7</v>
       </c>
       <c r="D234" t="s">
@@ -15310,7 +15386,7 @@
         <v>12</v>
       </c>
       <c r="K234" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B234,2),",","""",E234,"""",",",F234,",","""",G234,"""",",","""",H234,"""",",","""",I234,"""",",","""",J234,"""","),")</f>
+        <f t="shared" si="10"/>
         <v>new OpCodeTable(0xF7,"",-1,"R/M","v","",""),</v>
       </c>
     </row>
@@ -15319,7 +15395,7 @@
         <v>254</v>
       </c>
       <c r="C235" s="1" t="str">
-        <f>DEC2HEX(B235)</f>
+        <f t="shared" si="9"/>
         <v>FE</v>
       </c>
       <c r="D235" t="s">
@@ -15335,7 +15411,7 @@
         <v>11</v>
       </c>
       <c r="K235" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B235,2),",","""",E235,"""",",",F235,",","""",G235,"""",",","""",H235,"""",",","""",I235,"""",",","""",J235,"""","),")</f>
+        <f t="shared" si="10"/>
         <v>new OpCodeTable(0xFE,"",-1,"R/M","b","",""),</v>
       </c>
     </row>
@@ -15344,7 +15420,7 @@
         <v>255</v>
       </c>
       <c r="C236" s="1" t="str">
-        <f>DEC2HEX(B236)</f>
+        <f t="shared" si="9"/>
         <v>FF</v>
       </c>
       <c r="D236" t="s">
@@ -15360,7 +15436,7 @@
         <v>12</v>
       </c>
       <c r="K236" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B236,2),",","""",E236,"""",",",F236,",","""",G236,"""",",","""",H236,"""",",","""",I236,"""",",","""",J236,"""","),")</f>
+        <f t="shared" si="10"/>
         <v>new OpCodeTable(0xFF,"",-1,"R/M","v","",""),</v>
       </c>
     </row>
@@ -15369,7 +15445,7 @@
         <v>104</v>
       </c>
       <c r="C237" s="5" t="str">
-        <f>DEC2HEX(B237)</f>
+        <f t="shared" si="9"/>
         <v>68</v>
       </c>
       <c r="D237" s="6"/>
@@ -15382,7 +15458,7 @@
       <c r="I237" s="6"/>
       <c r="J237" s="6"/>
       <c r="K237" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B237,2),",","""",E237,"""",",",F237,",","""",G237,"""",",","""",H237,"""",",","""",I237,"""",",","""",J237,"""","),")</f>
+        <f t="shared" si="10"/>
         <v>new OpCodeTable(0x68,"",-1,"","","",""),</v>
       </c>
     </row>
@@ -15391,7 +15467,7 @@
         <v>105</v>
       </c>
       <c r="C238" s="5" t="str">
-        <f>DEC2HEX(B238)</f>
+        <f t="shared" si="9"/>
         <v>69</v>
       </c>
       <c r="D238" s="6"/>
@@ -15404,7 +15480,7 @@
       <c r="I238" s="6"/>
       <c r="J238" s="6"/>
       <c r="K238" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B238,2),",","""",E238,"""",",",F238,",","""",G238,"""",",","""",H238,"""",",","""",I238,"""",",","""",J238,"""","),")</f>
+        <f t="shared" si="10"/>
         <v>new OpCodeTable(0x69,"",-1,"","","",""),</v>
       </c>
     </row>
@@ -15413,7 +15489,7 @@
         <v>106</v>
       </c>
       <c r="C239" s="5" t="str">
-        <f>DEC2HEX(B239)</f>
+        <f t="shared" si="9"/>
         <v>6A</v>
       </c>
       <c r="D239" s="6"/>
@@ -15426,7 +15502,7 @@
       <c r="I239" s="6"/>
       <c r="J239" s="6"/>
       <c r="K239" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B239,2),",","""",E239,"""",",",F239,",","""",G239,"""",",","""",H239,"""",",","""",I239,"""",",","""",J239,"""","),")</f>
+        <f t="shared" si="10"/>
         <v>new OpCodeTable(0x6A,"",-1,"","","",""),</v>
       </c>
     </row>
@@ -15435,7 +15511,7 @@
         <v>107</v>
       </c>
       <c r="C240" s="5" t="str">
-        <f>DEC2HEX(B240)</f>
+        <f t="shared" si="9"/>
         <v>6B</v>
       </c>
       <c r="D240" s="6"/>
@@ -15448,7 +15524,7 @@
       <c r="I240" s="6"/>
       <c r="J240" s="6"/>
       <c r="K240" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B240,2),",","""",E240,"""",",",F240,",","""",G240,"""",",","""",H240,"""",",","""",I240,"""",",","""",J240,"""","),")</f>
+        <f t="shared" si="10"/>
         <v>new OpCodeTable(0x6B,"",-1,"","","",""),</v>
       </c>
     </row>
@@ -15457,7 +15533,7 @@
         <v>108</v>
       </c>
       <c r="C241" s="5" t="str">
-        <f>DEC2HEX(B241)</f>
+        <f t="shared" si="9"/>
         <v>6C</v>
       </c>
       <c r="D241" s="6"/>
@@ -15470,7 +15546,7 @@
       <c r="I241" s="6"/>
       <c r="J241" s="6"/>
       <c r="K241" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B241,2),",","""",E241,"""",",",F241,",","""",G241,"""",",","""",H241,"""",",","""",I241,"""",",","""",J241,"""","),")</f>
+        <f t="shared" si="10"/>
         <v>new OpCodeTable(0x6C,"",-1,"","","",""),</v>
       </c>
     </row>
@@ -15479,7 +15555,7 @@
         <v>109</v>
       </c>
       <c r="C242" s="5" t="str">
-        <f>DEC2HEX(B242)</f>
+        <f t="shared" si="9"/>
         <v>6D</v>
       </c>
       <c r="D242" s="6"/>
@@ -15492,7 +15568,7 @@
       <c r="I242" s="6"/>
       <c r="J242" s="6"/>
       <c r="K242" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B242,2),",","""",E242,"""",",",F242,",","""",G242,"""",",","""",H242,"""",",","""",I242,"""",",","""",J242,"""","),")</f>
+        <f t="shared" si="10"/>
         <v>new OpCodeTable(0x6D,"",-1,"","","",""),</v>
       </c>
     </row>
@@ -15501,7 +15577,7 @@
         <v>110</v>
       </c>
       <c r="C243" s="5" t="str">
-        <f>DEC2HEX(B243)</f>
+        <f t="shared" si="9"/>
         <v>6E</v>
       </c>
       <c r="D243" s="6"/>
@@ -15514,7 +15590,7 @@
       <c r="I243" s="6"/>
       <c r="J243" s="6"/>
       <c r="K243" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B243,2),",","""",E243,"""",",",F243,",","""",G243,"""",",","""",H243,"""",",","""",I243,"""",",","""",J243,"""","),")</f>
+        <f t="shared" si="10"/>
         <v>new OpCodeTable(0x6E,"",-1,"","","",""),</v>
       </c>
     </row>
@@ -15523,7 +15599,7 @@
         <v>111</v>
       </c>
       <c r="C244" s="5" t="str">
-        <f>DEC2HEX(B244)</f>
+        <f t="shared" si="9"/>
         <v>6F</v>
       </c>
       <c r="D244" s="6"/>
@@ -15536,7 +15612,7 @@
       <c r="I244" s="6"/>
       <c r="J244" s="6"/>
       <c r="K244" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B244,2),",","""",E244,"""",",",F244,",","""",G244,"""",",","""",H244,"""",",","""",I244,"""",",","""",J244,"""","),")</f>
+        <f t="shared" si="10"/>
         <v>new OpCodeTable(0x6F,"",-1,"","","",""),</v>
       </c>
     </row>
@@ -15545,7 +15621,7 @@
         <v>192</v>
       </c>
       <c r="C245" s="5" t="str">
-        <f>DEC2HEX(B245)</f>
+        <f t="shared" si="9"/>
         <v>C0</v>
       </c>
       <c r="D245" s="6"/>
@@ -15558,7 +15634,7 @@
       <c r="I245" s="6"/>
       <c r="J245" s="6"/>
       <c r="K245" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B245,2),",","""",E245,"""",",",F245,",","""",G245,"""",",","""",H245,"""",",","""",I245,"""",",","""",J245,"""","),")</f>
+        <f t="shared" si="10"/>
         <v>new OpCodeTable(0xC0,"",-1,"","","",""),</v>
       </c>
     </row>
@@ -15567,7 +15643,7 @@
         <v>193</v>
       </c>
       <c r="C246" s="5" t="str">
-        <f>DEC2HEX(B246)</f>
+        <f t="shared" si="9"/>
         <v>C1</v>
       </c>
       <c r="D246" s="6"/>
@@ -15580,7 +15656,7 @@
       <c r="I246" s="6"/>
       <c r="J246" s="6"/>
       <c r="K246" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B246,2),",","""",E246,"""",",",F246,",","""",G246,"""",",","""",H246,"""",",","""",I246,"""",",","""",J246,"""","),")</f>
+        <f t="shared" si="10"/>
         <v>new OpCodeTable(0xC1,"",-1,"","","",""),</v>
       </c>
     </row>
@@ -15589,7 +15665,7 @@
         <v>200</v>
       </c>
       <c r="C247" s="5" t="str">
-        <f>DEC2HEX(B247)</f>
+        <f t="shared" si="9"/>
         <v>C8</v>
       </c>
       <c r="D247" s="6"/>
@@ -15602,7 +15678,7 @@
       <c r="I247" s="6"/>
       <c r="J247" s="6"/>
       <c r="K247" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B247,2),",","""",E247,"""",",",F247,",","""",G247,"""",",","""",H247,"""",",","""",I247,"""",",","""",J247,"""","),")</f>
+        <f t="shared" si="10"/>
         <v>new OpCodeTable(0xC8,"",-1,"","","",""),</v>
       </c>
     </row>
@@ -15611,7 +15687,7 @@
         <v>201</v>
       </c>
       <c r="C248" s="5" t="str">
-        <f>DEC2HEX(B248)</f>
+        <f t="shared" si="9"/>
         <v>C9</v>
       </c>
       <c r="D248" s="6"/>
@@ -15624,7 +15700,7 @@
       <c r="I248" s="6"/>
       <c r="J248" s="6"/>
       <c r="K248" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B248,2),",","""",E248,"""",",",F248,",","""",G248,"""",",","""",H248,"""",",","""",I248,"""",",","""",J248,"""","),")</f>
+        <f t="shared" si="10"/>
         <v>new OpCodeTable(0xC9,"",-1,"","","",""),</v>
       </c>
     </row>
@@ -15633,7 +15709,7 @@
         <v>214</v>
       </c>
       <c r="C249" s="5" t="str">
-        <f>DEC2HEX(B249)</f>
+        <f t="shared" si="9"/>
         <v>D6</v>
       </c>
       <c r="D249" s="6"/>
@@ -15646,7 +15722,7 @@
       <c r="I249" s="6"/>
       <c r="J249" s="6"/>
       <c r="K249" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B249,2),",","""",E249,"""",",",F249,",","""",G249,"""",",","""",H249,"""",",","""",I249,"""",",","""",J249,"""","),")</f>
+        <f t="shared" si="10"/>
         <v>new OpCodeTable(0xD6,"",-1,"","","",""),</v>
       </c>
     </row>
@@ -15655,7 +15731,7 @@
         <v>216</v>
       </c>
       <c r="C250" s="3" t="str">
-        <f>DEC2HEX(B250)</f>
+        <f t="shared" si="9"/>
         <v>D8</v>
       </c>
       <c r="D250" s="4"/>
@@ -15667,7 +15743,7 @@
       <c r="H250" s="4"/>
       <c r="I250" s="4"/>
       <c r="K250" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B250,2),",","""",E250,"""",",",F250,",","""",G250,"""",",","""",H250,"""",",","""",I250,"""",",","""",J250,"""","),")</f>
+        <f t="shared" si="10"/>
         <v>new OpCodeTable(0xD8,"",-1,"","","",""),</v>
       </c>
     </row>
@@ -15676,7 +15752,7 @@
         <v>217</v>
       </c>
       <c r="C251" s="3" t="str">
-        <f>DEC2HEX(B251)</f>
+        <f t="shared" si="9"/>
         <v>D9</v>
       </c>
       <c r="D251" s="4"/>
@@ -15688,7 +15764,7 @@
       <c r="H251" s="4"/>
       <c r="I251" s="4"/>
       <c r="K251" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B251,2),",","""",E251,"""",",",F251,",","""",G251,"""",",","""",H251,"""",",","""",I251,"""",",","""",J251,"""","),")</f>
+        <f t="shared" si="10"/>
         <v>new OpCodeTable(0xD9,"",-1,"","","",""),</v>
       </c>
     </row>
@@ -15697,7 +15773,7 @@
         <v>218</v>
       </c>
       <c r="C252" s="3" t="str">
-        <f>DEC2HEX(B252)</f>
+        <f t="shared" si="9"/>
         <v>DA</v>
       </c>
       <c r="D252" s="4"/>
@@ -15709,7 +15785,7 @@
       <c r="H252" s="4"/>
       <c r="I252" s="4"/>
       <c r="K252" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B252,2),",","""",E252,"""",",",F252,",","""",G252,"""",",","""",H252,"""",",","""",I252,"""",",","""",J252,"""","),")</f>
+        <f t="shared" si="10"/>
         <v>new OpCodeTable(0xDA,"",-1,"","","",""),</v>
       </c>
     </row>
@@ -15718,7 +15794,7 @@
         <v>219</v>
       </c>
       <c r="C253" s="3" t="str">
-        <f>DEC2HEX(B253)</f>
+        <f t="shared" si="9"/>
         <v>DB</v>
       </c>
       <c r="D253" s="4"/>
@@ -15730,7 +15806,7 @@
       <c r="H253" s="4"/>
       <c r="I253" s="4"/>
       <c r="K253" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B253,2),",","""",E253,"""",",",F253,",","""",G253,"""",",","""",H253,"""",",","""",I253,"""",",","""",J253,"""","),")</f>
+        <f t="shared" si="10"/>
         <v>new OpCodeTable(0xDB,"",-1,"","","",""),</v>
       </c>
     </row>
@@ -15739,7 +15815,7 @@
         <v>220</v>
       </c>
       <c r="C254" s="3" t="str">
-        <f>DEC2HEX(B254)</f>
+        <f t="shared" si="9"/>
         <v>DC</v>
       </c>
       <c r="D254" s="4"/>
@@ -15751,7 +15827,7 @@
       <c r="H254" s="4"/>
       <c r="I254" s="4"/>
       <c r="K254" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B254,2),",","""",E254,"""",",",F254,",","""",G254,"""",",","""",H254,"""",",","""",I254,"""",",","""",J254,"""","),")</f>
+        <f t="shared" si="10"/>
         <v>new OpCodeTable(0xDC,"",-1,"","","",""),</v>
       </c>
     </row>
@@ -15760,7 +15836,7 @@
         <v>221</v>
       </c>
       <c r="C255" s="3" t="str">
-        <f>DEC2HEX(B255)</f>
+        <f t="shared" si="9"/>
         <v>DD</v>
       </c>
       <c r="D255" s="4"/>
@@ -15772,7 +15848,7 @@
       <c r="H255" s="4"/>
       <c r="I255" s="4"/>
       <c r="K255" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B255,2),",","""",E255,"""",",",F255,",","""",G255,"""",",","""",H255,"""",",","""",I255,"""",",","""",J255,"""","),")</f>
+        <f t="shared" si="10"/>
         <v>new OpCodeTable(0xDD,"",-1,"","","",""),</v>
       </c>
     </row>
@@ -15781,7 +15857,7 @@
         <v>222</v>
       </c>
       <c r="C256" s="3" t="str">
-        <f>DEC2HEX(B256)</f>
+        <f t="shared" si="9"/>
         <v>DE</v>
       </c>
       <c r="D256" s="4"/>
@@ -15793,7 +15869,7 @@
       <c r="H256" s="4"/>
       <c r="I256" s="4"/>
       <c r="K256" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B256,2),",","""",E256,"""",",",F256,",","""",G256,"""",",","""",H256,"""",",","""",I256,"""",",","""",J256,"""","),")</f>
+        <f t="shared" si="10"/>
         <v>new OpCodeTable(0xDE,"",-1,"","","",""),</v>
       </c>
     </row>
@@ -15802,7 +15878,7 @@
         <v>223</v>
       </c>
       <c r="C257" s="3" t="str">
-        <f>DEC2HEX(B257)</f>
+        <f t="shared" si="9"/>
         <v>DF</v>
       </c>
       <c r="D257" s="4"/>
@@ -15814,7 +15890,7 @@
       <c r="H257" s="4"/>
       <c r="I257" s="4"/>
       <c r="K257" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B257,2),",","""",E257,"""",",",F257,",","""",G257,"""",",","""",H257,"""",",","""",I257,"""",",","""",J257,"""","),")</f>
+        <f t="shared" si="10"/>
         <v>new OpCodeTable(0xDF,"",-1,"","","",""),</v>
       </c>
     </row>
@@ -15823,7 +15899,7 @@
         <v>241</v>
       </c>
       <c r="C258" s="5" t="str">
-        <f>DEC2HEX(B258)</f>
+        <f t="shared" si="9"/>
         <v>F1</v>
       </c>
       <c r="D258" s="6"/>
@@ -15836,7 +15912,7 @@
       <c r="I258" s="6"/>
       <c r="J258" s="6"/>
       <c r="K258" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(B258,2),",","""",E258,"""",",",F258,",","""",G258,"""",",","""",H258,"""",",","""",I258,"""",",","""",J258,"""","),")</f>
+        <f t="shared" si="10"/>
         <v>new OpCodeTable(0xF1,"",-1,"","","",""),</v>
       </c>
     </row>

--- a/Resources/8086 op code list.xlsx
+++ b/Resources/8086 op code list.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="23955" windowHeight="12090"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="23955" windowHeight="12090" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Op Code List" sheetId="1" r:id="rId1"/>
     <sheet name="Sorted Op Code List" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="New Op Code List" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1869" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2531" uniqueCount="367">
   <si>
     <t>Op Code</t>
   </si>
@@ -820,6 +820,303 @@
   </si>
   <si>
     <t>{0} {1}</t>
+  </si>
+  <si>
+    <t>2nd Byte</t>
+  </si>
+  <si>
+    <t>MRR</t>
+  </si>
+  <si>
+    <t>D-8</t>
+  </si>
+  <si>
+    <t>D-LO</t>
+  </si>
+  <si>
+    <t>Bytes 3-6</t>
+  </si>
+  <si>
+    <t>FMT 1</t>
+  </si>
+  <si>
+    <t>FMT 2</t>
+  </si>
+  <si>
+    <t>FMT 3</t>
+  </si>
+  <si>
+    <t>DISP</t>
+  </si>
+  <si>
+    <t>D-HI</t>
+  </si>
+  <si>
+    <t>PUSH ES</t>
+  </si>
+  <si>
+    <t>POP ES</t>
+  </si>
+  <si>
+    <t>RM-8</t>
+  </si>
+  <si>
+    <t>R-8</t>
+  </si>
+  <si>
+    <t>RM-16</t>
+  </si>
+  <si>
+    <t>R-16</t>
+  </si>
+  <si>
+    <t>I-8</t>
+  </si>
+  <si>
+    <t>I-16</t>
+  </si>
+  <si>
+    <t>PUSH CS</t>
+  </si>
+  <si>
+    <t>POP CS</t>
+  </si>
+  <si>
+    <t>PUSH SS</t>
+  </si>
+  <si>
+    <t>POP SS</t>
+  </si>
+  <si>
+    <t>PUSH DS</t>
+  </si>
+  <si>
+    <t>POP DS</t>
+  </si>
+  <si>
+    <t>INC AX</t>
+  </si>
+  <si>
+    <t>INC CX</t>
+  </si>
+  <si>
+    <t>INC DX</t>
+  </si>
+  <si>
+    <t>INC BX</t>
+  </si>
+  <si>
+    <t>INC SP</t>
+  </si>
+  <si>
+    <t>INC BP</t>
+  </si>
+  <si>
+    <t>INC SI</t>
+  </si>
+  <si>
+    <t>INC DI</t>
+  </si>
+  <si>
+    <t>DEC AX</t>
+  </si>
+  <si>
+    <t>DEC CX</t>
+  </si>
+  <si>
+    <t>DEC DX</t>
+  </si>
+  <si>
+    <t>DEC BX</t>
+  </si>
+  <si>
+    <t>DEC SP</t>
+  </si>
+  <si>
+    <t>DEC BP</t>
+  </si>
+  <si>
+    <t>DEC SI</t>
+  </si>
+  <si>
+    <t>DEC DI</t>
+  </si>
+  <si>
+    <t>PUSH AX</t>
+  </si>
+  <si>
+    <t>PUSH CX</t>
+  </si>
+  <si>
+    <t>PUSH DX</t>
+  </si>
+  <si>
+    <t>PUSH BX</t>
+  </si>
+  <si>
+    <t>PUSH SP</t>
+  </si>
+  <si>
+    <t>PUSH BP</t>
+  </si>
+  <si>
+    <t>PUSH SI</t>
+  </si>
+  <si>
+    <t>PUSH DI</t>
+  </si>
+  <si>
+    <t>POP AX</t>
+  </si>
+  <si>
+    <t>POP CX</t>
+  </si>
+  <si>
+    <t>POP DX</t>
+  </si>
+  <si>
+    <t>POP BX</t>
+  </si>
+  <si>
+    <t>POP SP</t>
+  </si>
+  <si>
+    <t>POP BP</t>
+  </si>
+  <si>
+    <t>POP SI</t>
+  </si>
+  <si>
+    <t>POP DI</t>
+  </si>
+  <si>
+    <t>IP-INC8</t>
+  </si>
+  <si>
+    <t>SHORT-LABEL</t>
+  </si>
+  <si>
+    <t>SEG</t>
+  </si>
+  <si>
+    <t>M-16</t>
+  </si>
+  <si>
+    <t>MMR</t>
+  </si>
+  <si>
+    <t>XCHG AX,CX</t>
+  </si>
+  <si>
+    <t>XCHG AX,DX</t>
+  </si>
+  <si>
+    <t>XCHG AX,BX</t>
+  </si>
+  <si>
+    <t>XCHG AX,SP</t>
+  </si>
+  <si>
+    <t>XCHG AX,BP</t>
+  </si>
+  <si>
+    <t>XCHG AX,SI</t>
+  </si>
+  <si>
+    <t>XCHG AX,DI</t>
+  </si>
+  <si>
+    <t>D-HI,S-LO,S-HI</t>
+  </si>
+  <si>
+    <t>FAR</t>
+  </si>
+  <si>
+    <t>A-LO</t>
+  </si>
+  <si>
+    <t>A-HI</t>
+  </si>
+  <si>
+    <t>M-8</t>
+  </si>
+  <si>
+    <t>*** is this a typo, should it be AX?</t>
+  </si>
+  <si>
+    <t>MOVS</t>
+  </si>
+  <si>
+    <t>DS-8: byte string addressed by DI</t>
+  </si>
+  <si>
+    <t>DS-16: word string addressed by DI</t>
+  </si>
+  <si>
+    <t>SS-8: byte string addressed by SI</t>
+  </si>
+  <si>
+    <t>SS-16: word string addressed by SI</t>
+  </si>
+  <si>
+    <t>DS-8</t>
+  </si>
+  <si>
+    <t>SS-8</t>
+  </si>
+  <si>
+    <t>DS-16</t>
+  </si>
+  <si>
+    <t>SS-16</t>
+  </si>
+  <si>
+    <t>CMPS</t>
+  </si>
+  <si>
+    <t>STOS</t>
+  </si>
+  <si>
+    <t>LODS</t>
+  </si>
+  <si>
+    <t>SCAS</t>
+  </si>
+  <si>
+    <t>not used</t>
+  </si>
+  <si>
+    <t>instraseg</t>
+  </si>
+  <si>
+    <t>GRP6</t>
+  </si>
+  <si>
+    <t>ESC</t>
+  </si>
+  <si>
+    <t>OPCODE</t>
+  </si>
+  <si>
+    <t>SOURCE</t>
+  </si>
+  <si>
+    <t>??????</t>
+  </si>
+  <si>
+    <t>IP-INC-8</t>
+  </si>
+  <si>
+    <t>IP-INC-LO</t>
+  </si>
+  <si>
+    <t>IP-INC-HI</t>
+  </si>
+  <si>
+    <t>NEAR</t>
+  </si>
+  <si>
+    <t>IP-</t>
   </si>
 </sst>
 </file>
@@ -898,7 +1195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -932,6 +1229,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1235,8 +1536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="B257" sqref="B257:B258"/>
+    <sheetView topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="E148" sqref="E148:E154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15929,12 +16230,4455 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:H258"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B202" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C237" sqref="C237"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="str">
+        <f>DEC2HEX(0,2)</f>
+        <v>00</v>
+      </c>
+      <c r="C3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="str">
+        <f>DEC2HEX(A4,2)</f>
+        <v>01</v>
+      </c>
+      <c r="C4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D4" t="s">
+        <v>276</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7" t="str">
+        <f t="shared" ref="B5:B68" si="0">DEC2HEX(A5,2)</f>
+        <v>02</v>
+      </c>
+      <c r="C5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>281</v>
+      </c>
+      <c r="G5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>03</v>
+      </c>
+      <c r="C6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D6" t="s">
+        <v>276</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>283</v>
+      </c>
+      <c r="G6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>04</v>
+      </c>
+      <c r="C7" t="s">
+        <v>270</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>05</v>
+      </c>
+      <c r="C8" t="s">
+        <v>271</v>
+      </c>
+      <c r="D8" t="s">
+        <v>277</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>06</v>
+      </c>
+      <c r="E9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>07</v>
+      </c>
+      <c r="E10" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>08</v>
+      </c>
+      <c r="C11" t="s">
+        <v>269</v>
+      </c>
+      <c r="D11" t="s">
+        <v>276</v>
+      </c>
+      <c r="E11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" t="s">
+        <v>280</v>
+      </c>
+      <c r="G11" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>09</v>
+      </c>
+      <c r="C12" t="s">
+        <v>269</v>
+      </c>
+      <c r="D12" t="s">
+        <v>276</v>
+      </c>
+      <c r="E12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" t="s">
+        <v>282</v>
+      </c>
+      <c r="G12" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0A</v>
+      </c>
+      <c r="C13" t="s">
+        <v>269</v>
+      </c>
+      <c r="D13" t="s">
+        <v>276</v>
+      </c>
+      <c r="E13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" t="s">
+        <v>281</v>
+      </c>
+      <c r="G13" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0B</v>
+      </c>
+      <c r="C14" t="s">
+        <v>269</v>
+      </c>
+      <c r="D14" t="s">
+        <v>276</v>
+      </c>
+      <c r="E14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" t="s">
+        <v>283</v>
+      </c>
+      <c r="G14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0C</v>
+      </c>
+      <c r="C15" t="s">
+        <v>270</v>
+      </c>
+      <c r="E15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0D</v>
+      </c>
+      <c r="C16" t="s">
+        <v>271</v>
+      </c>
+      <c r="D16" t="s">
+        <v>277</v>
+      </c>
+      <c r="E16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0E</v>
+      </c>
+      <c r="E17" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0F</v>
+      </c>
+      <c r="E18" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>269</v>
+      </c>
+      <c r="D19" t="s">
+        <v>276</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>280</v>
+      </c>
+      <c r="G19" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D20" t="s">
+        <v>276</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>282</v>
+      </c>
+      <c r="G20" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>269</v>
+      </c>
+      <c r="D21" t="s">
+        <v>276</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
+        <v>281</v>
+      </c>
+      <c r="G21" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>269</v>
+      </c>
+      <c r="D22" t="s">
+        <v>276</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" t="s">
+        <v>283</v>
+      </c>
+      <c r="G22" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>270</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D24" t="s">
+        <v>277</v>
+      </c>
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="E26" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C27" t="s">
+        <v>269</v>
+      </c>
+      <c r="D27" t="s">
+        <v>276</v>
+      </c>
+      <c r="E27" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" t="s">
+        <v>280</v>
+      </c>
+      <c r="G27" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>269</v>
+      </c>
+      <c r="D28" t="s">
+        <v>276</v>
+      </c>
+      <c r="E28" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" t="s">
+        <v>282</v>
+      </c>
+      <c r="G28" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>1A</v>
+      </c>
+      <c r="C29" t="s">
+        <v>269</v>
+      </c>
+      <c r="D29" t="s">
+        <v>276</v>
+      </c>
+      <c r="E29" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" t="s">
+        <v>281</v>
+      </c>
+      <c r="G29" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>1B</v>
+      </c>
+      <c r="C30" t="s">
+        <v>269</v>
+      </c>
+      <c r="D30" t="s">
+        <v>276</v>
+      </c>
+      <c r="E30" t="s">
+        <v>86</v>
+      </c>
+      <c r="F30" t="s">
+        <v>283</v>
+      </c>
+      <c r="G30" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>1C</v>
+      </c>
+      <c r="C31" t="s">
+        <v>270</v>
+      </c>
+      <c r="E31" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>1D</v>
+      </c>
+      <c r="C32" t="s">
+        <v>271</v>
+      </c>
+      <c r="D32" t="s">
+        <v>277</v>
+      </c>
+      <c r="E32" t="s">
+        <v>86</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>1E</v>
+      </c>
+      <c r="E33" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>1F</v>
+      </c>
+      <c r="E34" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C35" t="s">
+        <v>269</v>
+      </c>
+      <c r="D35" t="s">
+        <v>276</v>
+      </c>
+      <c r="E35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" t="s">
+        <v>280</v>
+      </c>
+      <c r="G35" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C36" t="s">
+        <v>269</v>
+      </c>
+      <c r="D36" t="s">
+        <v>276</v>
+      </c>
+      <c r="E36" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" t="s">
+        <v>282</v>
+      </c>
+      <c r="G36" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D37" t="s">
+        <v>276</v>
+      </c>
+      <c r="E37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" t="s">
+        <v>281</v>
+      </c>
+      <c r="G37" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C38" t="s">
+        <v>269</v>
+      </c>
+      <c r="D38" t="s">
+        <v>276</v>
+      </c>
+      <c r="E38" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" t="s">
+        <v>283</v>
+      </c>
+      <c r="G38" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C39" t="s">
+        <v>270</v>
+      </c>
+      <c r="E39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C40" t="s">
+        <v>271</v>
+      </c>
+      <c r="D40" t="s">
+        <v>277</v>
+      </c>
+      <c r="E40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="E41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="E42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C43" t="s">
+        <v>269</v>
+      </c>
+      <c r="D43" t="s">
+        <v>276</v>
+      </c>
+      <c r="E43" t="s">
+        <v>88</v>
+      </c>
+      <c r="F43" t="s">
+        <v>280</v>
+      </c>
+      <c r="G43" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C44" t="s">
+        <v>269</v>
+      </c>
+      <c r="D44" t="s">
+        <v>276</v>
+      </c>
+      <c r="E44" t="s">
+        <v>88</v>
+      </c>
+      <c r="F44" t="s">
+        <v>282</v>
+      </c>
+      <c r="G44" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>2A</v>
+      </c>
+      <c r="C45" t="s">
+        <v>269</v>
+      </c>
+      <c r="D45" t="s">
+        <v>276</v>
+      </c>
+      <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
+        <v>281</v>
+      </c>
+      <c r="G45" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>2B</v>
+      </c>
+      <c r="C46" t="s">
+        <v>269</v>
+      </c>
+      <c r="D46" t="s">
+        <v>276</v>
+      </c>
+      <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
+        <v>283</v>
+      </c>
+      <c r="G46" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>2C</v>
+      </c>
+      <c r="C47" t="s">
+        <v>270</v>
+      </c>
+      <c r="E47" t="s">
+        <v>88</v>
+      </c>
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>2D</v>
+      </c>
+      <c r="C48" t="s">
+        <v>271</v>
+      </c>
+      <c r="D48" t="s">
+        <v>277</v>
+      </c>
+      <c r="E48" t="s">
+        <v>88</v>
+      </c>
+      <c r="F48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="B49" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>2E</v>
+      </c>
+      <c r="E49" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>2F</v>
+      </c>
+      <c r="E50" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C51" t="s">
+        <v>269</v>
+      </c>
+      <c r="D51" t="s">
+        <v>276</v>
+      </c>
+      <c r="E51" t="s">
+        <v>22</v>
+      </c>
+      <c r="F51" t="s">
+        <v>280</v>
+      </c>
+      <c r="G51" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="B52" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C52" t="s">
+        <v>269</v>
+      </c>
+      <c r="D52" t="s">
+        <v>276</v>
+      </c>
+      <c r="E52" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" t="s">
+        <v>282</v>
+      </c>
+      <c r="G52" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C53" t="s">
+        <v>269</v>
+      </c>
+      <c r="D53" t="s">
+        <v>276</v>
+      </c>
+      <c r="E53" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53" t="s">
+        <v>281</v>
+      </c>
+      <c r="G53" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="B54" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C54" t="s">
+        <v>269</v>
+      </c>
+      <c r="D54" t="s">
+        <v>276</v>
+      </c>
+      <c r="E54" t="s">
+        <v>22</v>
+      </c>
+      <c r="F54" t="s">
+        <v>283</v>
+      </c>
+      <c r="G54" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>52</v>
+      </c>
+      <c r="B55" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="C55" t="s">
+        <v>270</v>
+      </c>
+      <c r="E55" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>53</v>
+      </c>
+      <c r="B56" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C56" t="s">
+        <v>271</v>
+      </c>
+      <c r="D56" t="s">
+        <v>277</v>
+      </c>
+      <c r="E56" t="s">
+        <v>22</v>
+      </c>
+      <c r="F56" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>54</v>
+      </c>
+      <c r="B57" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="E57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="E58" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>56</v>
+      </c>
+      <c r="B59" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="C59" t="s">
+        <v>269</v>
+      </c>
+      <c r="D59" t="s">
+        <v>276</v>
+      </c>
+      <c r="E59" t="s">
+        <v>91</v>
+      </c>
+      <c r="F59" t="s">
+        <v>280</v>
+      </c>
+      <c r="G59" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>57</v>
+      </c>
+      <c r="B60" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="C60" t="s">
+        <v>269</v>
+      </c>
+      <c r="D60" t="s">
+        <v>276</v>
+      </c>
+      <c r="E60" t="s">
+        <v>91</v>
+      </c>
+      <c r="F60" t="s">
+        <v>282</v>
+      </c>
+      <c r="G60" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>58</v>
+      </c>
+      <c r="B61" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>3A</v>
+      </c>
+      <c r="C61" t="s">
+        <v>269</v>
+      </c>
+      <c r="D61" t="s">
+        <v>276</v>
+      </c>
+      <c r="E61" t="s">
+        <v>91</v>
+      </c>
+      <c r="F61" t="s">
+        <v>281</v>
+      </c>
+      <c r="G61" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>59</v>
+      </c>
+      <c r="B62" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>3B</v>
+      </c>
+      <c r="C62" t="s">
+        <v>269</v>
+      </c>
+      <c r="D62" t="s">
+        <v>276</v>
+      </c>
+      <c r="E62" t="s">
+        <v>91</v>
+      </c>
+      <c r="F62" t="s">
+        <v>283</v>
+      </c>
+      <c r="G62" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>60</v>
+      </c>
+      <c r="B63" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>3C</v>
+      </c>
+      <c r="C63" t="s">
+        <v>270</v>
+      </c>
+      <c r="E63" t="s">
+        <v>91</v>
+      </c>
+      <c r="F63" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>61</v>
+      </c>
+      <c r="B64" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>3D</v>
+      </c>
+      <c r="C64" t="s">
+        <v>271</v>
+      </c>
+      <c r="D64" t="s">
+        <v>277</v>
+      </c>
+      <c r="E64" t="s">
+        <v>91</v>
+      </c>
+      <c r="F64" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>62</v>
+      </c>
+      <c r="B65" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>3E</v>
+      </c>
+      <c r="E65" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>63</v>
+      </c>
+      <c r="B66" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>3F</v>
+      </c>
+      <c r="E66" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>64</v>
+      </c>
+      <c r="B67" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="E67" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>65</v>
+      </c>
+      <c r="B68" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="E68" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>66</v>
+      </c>
+      <c r="B69" s="7" t="str">
+        <f t="shared" ref="B69:B132" si="1">DEC2HEX(A69,2)</f>
+        <v>42</v>
+      </c>
+      <c r="E69" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>67</v>
+      </c>
+      <c r="B70" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="E70" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>68</v>
+      </c>
+      <c r="B71" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="E71" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>69</v>
+      </c>
+      <c r="B72" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="E72" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>70</v>
+      </c>
+      <c r="B73" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="E73" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>71</v>
+      </c>
+      <c r="B74" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="E74" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>72</v>
+      </c>
+      <c r="B75" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="E75" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>73</v>
+      </c>
+      <c r="B76" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="E76" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>74</v>
+      </c>
+      <c r="B77" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>4A</v>
+      </c>
+      <c r="E77" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>75</v>
+      </c>
+      <c r="B78" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>4B</v>
+      </c>
+      <c r="E78" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>76</v>
+      </c>
+      <c r="B79" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>4C</v>
+      </c>
+      <c r="E79" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>77</v>
+      </c>
+      <c r="B80" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>4D</v>
+      </c>
+      <c r="E80" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>78</v>
+      </c>
+      <c r="B81" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>4E</v>
+      </c>
+      <c r="E81" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>79</v>
+      </c>
+      <c r="B82" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>4F</v>
+      </c>
+      <c r="E82" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>80</v>
+      </c>
+      <c r="B83" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E83" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>81</v>
+      </c>
+      <c r="B84" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="E84" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>82</v>
+      </c>
+      <c r="B85" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="E85" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>83</v>
+      </c>
+      <c r="B86" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="E86" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>84</v>
+      </c>
+      <c r="B87" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="E87" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>85</v>
+      </c>
+      <c r="B88" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="E88" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>86</v>
+      </c>
+      <c r="B89" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="E89" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>87</v>
+      </c>
+      <c r="B90" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="E90" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>88</v>
+      </c>
+      <c r="B91" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="E91" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>89</v>
+      </c>
+      <c r="B92" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="E92" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>90</v>
+      </c>
+      <c r="B93" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>5A</v>
+      </c>
+      <c r="E93" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>91</v>
+      </c>
+      <c r="B94" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>5B</v>
+      </c>
+      <c r="E94" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>92</v>
+      </c>
+      <c r="B95" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>5C</v>
+      </c>
+      <c r="E95" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>93</v>
+      </c>
+      <c r="B96" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>5D</v>
+      </c>
+      <c r="E96" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>94</v>
+      </c>
+      <c r="B97" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>5E</v>
+      </c>
+      <c r="E97" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>95</v>
+      </c>
+      <c r="B98" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>5F</v>
+      </c>
+      <c r="E98" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>96</v>
+      </c>
+      <c r="B99" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>97</v>
+      </c>
+      <c r="B100" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>98</v>
+      </c>
+      <c r="B101" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>99</v>
+      </c>
+      <c r="B102" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>100</v>
+      </c>
+      <c r="B103" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>101</v>
+      </c>
+      <c r="B104" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>102</v>
+      </c>
+      <c r="B105" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>103</v>
+      </c>
+      <c r="B106" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>104</v>
+      </c>
+      <c r="B107" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>105</v>
+      </c>
+      <c r="B108" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>106</v>
+      </c>
+      <c r="B109" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>6A</v>
+      </c>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>107</v>
+      </c>
+      <c r="B110" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>6B</v>
+      </c>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>108</v>
+      </c>
+      <c r="B111" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>6C</v>
+      </c>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>109</v>
+      </c>
+      <c r="B112" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>6D</v>
+      </c>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>110</v>
+      </c>
+      <c r="B113" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>6E</v>
+      </c>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>111</v>
+      </c>
+      <c r="B114" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>6F</v>
+      </c>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>112</v>
+      </c>
+      <c r="B115" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="C115" t="s">
+        <v>324</v>
+      </c>
+      <c r="E115" t="s">
+        <v>34</v>
+      </c>
+      <c r="F115" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>113</v>
+      </c>
+      <c r="B116" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="C116" t="s">
+        <v>324</v>
+      </c>
+      <c r="E116" t="s">
+        <v>35</v>
+      </c>
+      <c r="F116" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>114</v>
+      </c>
+      <c r="B117" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="C117" t="s">
+        <v>324</v>
+      </c>
+      <c r="E117" t="s">
+        <v>36</v>
+      </c>
+      <c r="F117" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>115</v>
+      </c>
+      <c r="B118" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="C118" t="s">
+        <v>324</v>
+      </c>
+      <c r="E118" t="s">
+        <v>37</v>
+      </c>
+      <c r="F118" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>116</v>
+      </c>
+      <c r="B119" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="C119" t="s">
+        <v>324</v>
+      </c>
+      <c r="E119" t="s">
+        <v>38</v>
+      </c>
+      <c r="F119" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>117</v>
+      </c>
+      <c r="B120" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="C120" t="s">
+        <v>324</v>
+      </c>
+      <c r="E120" t="s">
+        <v>39</v>
+      </c>
+      <c r="F120" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>118</v>
+      </c>
+      <c r="B121" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="C121" t="s">
+        <v>324</v>
+      </c>
+      <c r="E121" t="s">
+        <v>40</v>
+      </c>
+      <c r="F121" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>119</v>
+      </c>
+      <c r="B122" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="C122" t="s">
+        <v>324</v>
+      </c>
+      <c r="E122" t="s">
+        <v>41</v>
+      </c>
+      <c r="F122" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>120</v>
+      </c>
+      <c r="B123" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="C123" t="s">
+        <v>324</v>
+      </c>
+      <c r="E123" t="s">
+        <v>97</v>
+      </c>
+      <c r="F123" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>121</v>
+      </c>
+      <c r="B124" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="C124" t="s">
+        <v>324</v>
+      </c>
+      <c r="E124" t="s">
+        <v>98</v>
+      </c>
+      <c r="F124" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>122</v>
+      </c>
+      <c r="B125" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>7A</v>
+      </c>
+      <c r="C125" t="s">
+        <v>324</v>
+      </c>
+      <c r="E125" t="s">
+        <v>99</v>
+      </c>
+      <c r="F125" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>123</v>
+      </c>
+      <c r="B126" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>7B</v>
+      </c>
+      <c r="C126" t="s">
+        <v>324</v>
+      </c>
+      <c r="E126" t="s">
+        <v>100</v>
+      </c>
+      <c r="F126" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>124</v>
+      </c>
+      <c r="B127" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>7C</v>
+      </c>
+      <c r="C127" t="s">
+        <v>324</v>
+      </c>
+      <c r="E127" t="s">
+        <v>101</v>
+      </c>
+      <c r="F127" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>125</v>
+      </c>
+      <c r="B128" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>7D</v>
+      </c>
+      <c r="C128" t="s">
+        <v>324</v>
+      </c>
+      <c r="E128" t="s">
+        <v>102</v>
+      </c>
+      <c r="F128" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>126</v>
+      </c>
+      <c r="B129" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>7E</v>
+      </c>
+      <c r="C129" t="s">
+        <v>324</v>
+      </c>
+      <c r="E129" t="s">
+        <v>103</v>
+      </c>
+      <c r="F129" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>127</v>
+      </c>
+      <c r="B130" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>7F</v>
+      </c>
+      <c r="C130" t="s">
+        <v>324</v>
+      </c>
+      <c r="E130" t="s">
+        <v>102</v>
+      </c>
+      <c r="F130" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>128</v>
+      </c>
+      <c r="B131" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="C131" t="s">
+        <v>43</v>
+      </c>
+      <c r="E131" t="s">
+        <v>43</v>
+      </c>
+      <c r="F131" t="s">
+        <v>280</v>
+      </c>
+      <c r="G131" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>129</v>
+      </c>
+      <c r="B132" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="C132" t="s">
+        <v>44</v>
+      </c>
+      <c r="E132" t="s">
+        <v>44</v>
+      </c>
+      <c r="F132" t="s">
+        <v>282</v>
+      </c>
+      <c r="G132" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>130</v>
+      </c>
+      <c r="B133" s="7" t="str">
+        <f t="shared" ref="B133:B196" si="2">DEC2HEX(A133,2)</f>
+        <v>82</v>
+      </c>
+      <c r="C133" t="s">
+        <v>45</v>
+      </c>
+      <c r="E133" t="s">
+        <v>45</v>
+      </c>
+      <c r="F133" t="s">
+        <v>280</v>
+      </c>
+      <c r="G133" s="18" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>131</v>
+      </c>
+      <c r="B134" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="C134" t="s">
+        <v>46</v>
+      </c>
+      <c r="E134" t="s">
+        <v>46</v>
+      </c>
+      <c r="F134" t="s">
+        <v>282</v>
+      </c>
+      <c r="G134" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>132</v>
+      </c>
+      <c r="B135" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="C135" t="s">
+        <v>269</v>
+      </c>
+      <c r="D135" t="s">
+        <v>276</v>
+      </c>
+      <c r="E135" t="s">
+        <v>47</v>
+      </c>
+      <c r="F135" t="s">
+        <v>280</v>
+      </c>
+      <c r="G135" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>133</v>
+      </c>
+      <c r="B136" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="C136" t="s">
+        <v>269</v>
+      </c>
+      <c r="D136" t="s">
+        <v>276</v>
+      </c>
+      <c r="E136" t="s">
+        <v>47</v>
+      </c>
+      <c r="F136" t="s">
+        <v>282</v>
+      </c>
+      <c r="G136" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>134</v>
+      </c>
+      <c r="B137" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="C137" t="s">
+        <v>269</v>
+      </c>
+      <c r="D137" t="s">
+        <v>276</v>
+      </c>
+      <c r="E137" t="s">
+        <v>48</v>
+      </c>
+      <c r="F137" t="s">
+        <v>281</v>
+      </c>
+      <c r="G137" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>135</v>
+      </c>
+      <c r="B138" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="C138" t="s">
+        <v>269</v>
+      </c>
+      <c r="D138" t="s">
+        <v>276</v>
+      </c>
+      <c r="E138" t="s">
+        <v>48</v>
+      </c>
+      <c r="F138" t="s">
+        <v>283</v>
+      </c>
+      <c r="G138" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>136</v>
+      </c>
+      <c r="B139" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="C139" t="s">
+        <v>269</v>
+      </c>
+      <c r="D139" t="s">
+        <v>276</v>
+      </c>
+      <c r="E139" t="s">
+        <v>50</v>
+      </c>
+      <c r="F139" t="s">
+        <v>280</v>
+      </c>
+      <c r="G139" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>137</v>
+      </c>
+      <c r="B140" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="C140" t="s">
+        <v>269</v>
+      </c>
+      <c r="D140" t="s">
+        <v>276</v>
+      </c>
+      <c r="E140" t="s">
+        <v>50</v>
+      </c>
+      <c r="F140" t="s">
+        <v>282</v>
+      </c>
+      <c r="G140" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>138</v>
+      </c>
+      <c r="B141" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>8A</v>
+      </c>
+      <c r="C141" t="s">
+        <v>269</v>
+      </c>
+      <c r="D141" t="s">
+        <v>276</v>
+      </c>
+      <c r="E141" t="s">
+        <v>50</v>
+      </c>
+      <c r="F141" t="s">
+        <v>281</v>
+      </c>
+      <c r="G141" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>139</v>
+      </c>
+      <c r="B142" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>8B</v>
+      </c>
+      <c r="C142" t="s">
+        <v>269</v>
+      </c>
+      <c r="D142" t="s">
+        <v>276</v>
+      </c>
+      <c r="E142" t="s">
+        <v>50</v>
+      </c>
+      <c r="F142" t="s">
+        <v>283</v>
+      </c>
+      <c r="G142" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>140</v>
+      </c>
+      <c r="B143" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>8C</v>
+      </c>
+      <c r="C143" t="s">
+        <v>269</v>
+      </c>
+      <c r="D143" t="s">
+        <v>276</v>
+      </c>
+      <c r="E143" t="s">
+        <v>50</v>
+      </c>
+      <c r="F143" t="s">
+        <v>282</v>
+      </c>
+      <c r="G143" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>141</v>
+      </c>
+      <c r="B144" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>8D</v>
+      </c>
+      <c r="C144" t="s">
+        <v>269</v>
+      </c>
+      <c r="D144" t="s">
+        <v>276</v>
+      </c>
+      <c r="E144" t="s">
+        <v>96</v>
+      </c>
+      <c r="F144" t="s">
+        <v>283</v>
+      </c>
+      <c r="G144" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>142</v>
+      </c>
+      <c r="B145" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>8E</v>
+      </c>
+      <c r="C145" t="s">
+        <v>269</v>
+      </c>
+      <c r="D145" t="s">
+        <v>276</v>
+      </c>
+      <c r="E145" t="s">
+        <v>50</v>
+      </c>
+      <c r="F145" t="s">
+        <v>326</v>
+      </c>
+      <c r="G145" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>143</v>
+      </c>
+      <c r="B146" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>8F</v>
+      </c>
+      <c r="C146" t="s">
+        <v>328</v>
+      </c>
+      <c r="D146" t="s">
+        <v>276</v>
+      </c>
+      <c r="E146" t="s">
+        <v>16</v>
+      </c>
+      <c r="F146" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>144</v>
+      </c>
+      <c r="B147" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="E147" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>145</v>
+      </c>
+      <c r="B148" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="E148" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>146</v>
+      </c>
+      <c r="B149" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="E149" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>147</v>
+      </c>
+      <c r="B150" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="E150" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>148</v>
+      </c>
+      <c r="B151" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="E151" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>149</v>
+      </c>
+      <c r="B152" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="E152" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>150</v>
+      </c>
+      <c r="B153" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="E153" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>151</v>
+      </c>
+      <c r="B154" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="E154" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>152</v>
+      </c>
+      <c r="B155" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="E155" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>153</v>
+      </c>
+      <c r="B156" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="E156" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>154</v>
+      </c>
+      <c r="B157" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>9A</v>
+      </c>
+      <c r="C157" t="s">
+        <v>271</v>
+      </c>
+      <c r="D157" t="s">
+        <v>336</v>
+      </c>
+      <c r="E157" t="s">
+        <v>106</v>
+      </c>
+      <c r="F157" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>155</v>
+      </c>
+      <c r="B158" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>9B</v>
+      </c>
+      <c r="E158" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>156</v>
+      </c>
+      <c r="B159" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>9C</v>
+      </c>
+      <c r="E159" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>157</v>
+      </c>
+      <c r="B160" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>9D</v>
+      </c>
+      <c r="E160" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>158</v>
+      </c>
+      <c r="B161" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>9E</v>
+      </c>
+      <c r="E161" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>159</v>
+      </c>
+      <c r="B162" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>9F</v>
+      </c>
+      <c r="E162" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>160</v>
+      </c>
+      <c r="B163" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>A0</v>
+      </c>
+      <c r="C163" t="s">
+        <v>338</v>
+      </c>
+      <c r="D163" t="s">
+        <v>339</v>
+      </c>
+      <c r="E163" t="s">
+        <v>50</v>
+      </c>
+      <c r="F163" t="s">
+        <v>9</v>
+      </c>
+      <c r="G163" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>161</v>
+      </c>
+      <c r="B164" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>A1</v>
+      </c>
+      <c r="C164" t="s">
+        <v>338</v>
+      </c>
+      <c r="D164" t="s">
+        <v>339</v>
+      </c>
+      <c r="E164" t="s">
+        <v>50</v>
+      </c>
+      <c r="F164" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>162</v>
+      </c>
+      <c r="B165" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>A2</v>
+      </c>
+      <c r="C165" t="s">
+        <v>338</v>
+      </c>
+      <c r="D165" t="s">
+        <v>339</v>
+      </c>
+      <c r="E165" t="s">
+        <v>50</v>
+      </c>
+      <c r="F165" t="s">
+        <v>340</v>
+      </c>
+      <c r="G165" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>163</v>
+      </c>
+      <c r="B166" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>A3</v>
+      </c>
+      <c r="C166" t="s">
+        <v>338</v>
+      </c>
+      <c r="D166" t="s">
+        <v>339</v>
+      </c>
+      <c r="E166" t="s">
+        <v>50</v>
+      </c>
+      <c r="F166" t="s">
+        <v>327</v>
+      </c>
+      <c r="G166" t="s">
+        <v>9</v>
+      </c>
+      <c r="H166" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>164</v>
+      </c>
+      <c r="B167" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>A4</v>
+      </c>
+      <c r="E167" t="s">
+        <v>342</v>
+      </c>
+      <c r="F167" t="s">
+        <v>347</v>
+      </c>
+      <c r="G167" t="s">
+        <v>348</v>
+      </c>
+      <c r="H167" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>165</v>
+      </c>
+      <c r="B168" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>A5</v>
+      </c>
+      <c r="E168" t="s">
+        <v>342</v>
+      </c>
+      <c r="F168" t="s">
+        <v>349</v>
+      </c>
+      <c r="G168" t="s">
+        <v>350</v>
+      </c>
+      <c r="H168" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>166</v>
+      </c>
+      <c r="B169" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>A6</v>
+      </c>
+      <c r="E169" t="s">
+        <v>351</v>
+      </c>
+      <c r="F169" t="s">
+        <v>347</v>
+      </c>
+      <c r="G169" t="s">
+        <v>348</v>
+      </c>
+      <c r="H169" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>167</v>
+      </c>
+      <c r="B170" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>A7</v>
+      </c>
+      <c r="E170" t="s">
+        <v>351</v>
+      </c>
+      <c r="F170" t="s">
+        <v>349</v>
+      </c>
+      <c r="G170" t="s">
+        <v>350</v>
+      </c>
+      <c r="H170" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>168</v>
+      </c>
+      <c r="B171" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>A8</v>
+      </c>
+      <c r="C171" t="s">
+        <v>270</v>
+      </c>
+      <c r="E171" t="s">
+        <v>47</v>
+      </c>
+      <c r="F171" t="s">
+        <v>9</v>
+      </c>
+      <c r="G171" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>169</v>
+      </c>
+      <c r="B172" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>A9</v>
+      </c>
+      <c r="C172" t="s">
+        <v>271</v>
+      </c>
+      <c r="D172" t="s">
+        <v>277</v>
+      </c>
+      <c r="E172" t="s">
+        <v>47</v>
+      </c>
+      <c r="F172" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>170</v>
+      </c>
+      <c r="B173" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>AA</v>
+      </c>
+      <c r="E173" t="s">
+        <v>352</v>
+      </c>
+      <c r="F173" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>171</v>
+      </c>
+      <c r="B174" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>AB</v>
+      </c>
+      <c r="E174" t="s">
+        <v>352</v>
+      </c>
+      <c r="F174" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>172</v>
+      </c>
+      <c r="B175" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>AC</v>
+      </c>
+      <c r="E175" t="s">
+        <v>353</v>
+      </c>
+      <c r="F175" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>173</v>
+      </c>
+      <c r="B176" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>AD</v>
+      </c>
+      <c r="E176" t="s">
+        <v>353</v>
+      </c>
+      <c r="F176" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>174</v>
+      </c>
+      <c r="B177" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>AE</v>
+      </c>
+      <c r="E177" t="s">
+        <v>354</v>
+      </c>
+      <c r="F177" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>175</v>
+      </c>
+      <c r="B178" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>AF</v>
+      </c>
+      <c r="E178" t="s">
+        <v>354</v>
+      </c>
+      <c r="F178" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>176</v>
+      </c>
+      <c r="B179" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>B0</v>
+      </c>
+      <c r="C179" t="s">
+        <v>270</v>
+      </c>
+      <c r="E179" t="s">
+        <v>50</v>
+      </c>
+      <c r="F179" t="s">
+        <v>9</v>
+      </c>
+      <c r="G179" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>177</v>
+      </c>
+      <c r="B180" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>B1</v>
+      </c>
+      <c r="C180" t="s">
+        <v>270</v>
+      </c>
+      <c r="E180" t="s">
+        <v>50</v>
+      </c>
+      <c r="F180" t="s">
+        <v>56</v>
+      </c>
+      <c r="G180" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>178</v>
+      </c>
+      <c r="B181" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>B2</v>
+      </c>
+      <c r="C181" t="s">
+        <v>270</v>
+      </c>
+      <c r="E181" t="s">
+        <v>50</v>
+      </c>
+      <c r="F181" t="s">
+        <v>57</v>
+      </c>
+      <c r="G181" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>179</v>
+      </c>
+      <c r="B182" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>B3</v>
+      </c>
+      <c r="C182" t="s">
+        <v>270</v>
+      </c>
+      <c r="E182" t="s">
+        <v>50</v>
+      </c>
+      <c r="F182" t="s">
+        <v>58</v>
+      </c>
+      <c r="G182" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>180</v>
+      </c>
+      <c r="B183" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>B4</v>
+      </c>
+      <c r="C183" t="s">
+        <v>270</v>
+      </c>
+      <c r="E183" t="s">
+        <v>50</v>
+      </c>
+      <c r="F183" t="s">
+        <v>59</v>
+      </c>
+      <c r="G183" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>181</v>
+      </c>
+      <c r="B184" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>B5</v>
+      </c>
+      <c r="C184" t="s">
+        <v>270</v>
+      </c>
+      <c r="E184" t="s">
+        <v>50</v>
+      </c>
+      <c r="F184" t="s">
+        <v>60</v>
+      </c>
+      <c r="G184" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>182</v>
+      </c>
+      <c r="B185" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>B6</v>
+      </c>
+      <c r="C185" t="s">
+        <v>270</v>
+      </c>
+      <c r="E185" t="s">
+        <v>50</v>
+      </c>
+      <c r="F185" t="s">
+        <v>61</v>
+      </c>
+      <c r="G185" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>183</v>
+      </c>
+      <c r="B186" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>B7</v>
+      </c>
+      <c r="C186" t="s">
+        <v>270</v>
+      </c>
+      <c r="E186" t="s">
+        <v>50</v>
+      </c>
+      <c r="F186" t="s">
+        <v>62</v>
+      </c>
+      <c r="G186" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>184</v>
+      </c>
+      <c r="B187" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>B8</v>
+      </c>
+      <c r="C187" t="s">
+        <v>271</v>
+      </c>
+      <c r="D187" t="s">
+        <v>277</v>
+      </c>
+      <c r="E187" t="s">
+        <v>50</v>
+      </c>
+      <c r="F187" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>185</v>
+      </c>
+      <c r="B188" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>B9</v>
+      </c>
+      <c r="C188" t="s">
+        <v>271</v>
+      </c>
+      <c r="D188" t="s">
+        <v>277</v>
+      </c>
+      <c r="E188" t="s">
+        <v>50</v>
+      </c>
+      <c r="F188" t="s">
+        <v>28</v>
+      </c>
+      <c r="G188" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>186</v>
+      </c>
+      <c r="B189" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>BA</v>
+      </c>
+      <c r="C189" t="s">
+        <v>271</v>
+      </c>
+      <c r="D189" t="s">
+        <v>277</v>
+      </c>
+      <c r="E189" t="s">
+        <v>50</v>
+      </c>
+      <c r="F189" t="s">
+        <v>27</v>
+      </c>
+      <c r="G189" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>187</v>
+      </c>
+      <c r="B190" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>BB</v>
+      </c>
+      <c r="C190" t="s">
+        <v>271</v>
+      </c>
+      <c r="D190" t="s">
+        <v>277</v>
+      </c>
+      <c r="E190" t="s">
+        <v>50</v>
+      </c>
+      <c r="F190" t="s">
+        <v>29</v>
+      </c>
+      <c r="G190" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>188</v>
+      </c>
+      <c r="B191" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>BC</v>
+      </c>
+      <c r="C191" t="s">
+        <v>271</v>
+      </c>
+      <c r="D191" t="s">
+        <v>277</v>
+      </c>
+      <c r="E191" t="s">
+        <v>50</v>
+      </c>
+      <c r="F191" t="s">
+        <v>30</v>
+      </c>
+      <c r="G191" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>189</v>
+      </c>
+      <c r="B192" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>BD</v>
+      </c>
+      <c r="C192" t="s">
+        <v>271</v>
+      </c>
+      <c r="D192" t="s">
+        <v>277</v>
+      </c>
+      <c r="E192" t="s">
+        <v>50</v>
+      </c>
+      <c r="F192" t="s">
+        <v>31</v>
+      </c>
+      <c r="G192" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>190</v>
+      </c>
+      <c r="B193" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>BE</v>
+      </c>
+      <c r="C193" t="s">
+        <v>271</v>
+      </c>
+      <c r="D193" t="s">
+        <v>277</v>
+      </c>
+      <c r="E193" t="s">
+        <v>50</v>
+      </c>
+      <c r="F193" t="s">
+        <v>32</v>
+      </c>
+      <c r="G193" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>191</v>
+      </c>
+      <c r="B194" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>BF</v>
+      </c>
+      <c r="C194" t="s">
+        <v>271</v>
+      </c>
+      <c r="D194" t="s">
+        <v>277</v>
+      </c>
+      <c r="E194" t="s">
+        <v>50</v>
+      </c>
+      <c r="F194" t="s">
+        <v>33</v>
+      </c>
+      <c r="G194" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>192</v>
+      </c>
+      <c r="B195" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>C0</v>
+      </c>
+      <c r="C195" s="4"/>
+      <c r="D195" s="4"/>
+      <c r="E195" s="4"/>
+      <c r="F195" s="4"/>
+      <c r="G195" s="4"/>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>193</v>
+      </c>
+      <c r="B196" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>C1</v>
+      </c>
+      <c r="C196" s="4"/>
+      <c r="D196" s="4"/>
+      <c r="E196" s="4"/>
+      <c r="F196" s="4"/>
+      <c r="G196" s="4"/>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>194</v>
+      </c>
+      <c r="B197" s="7" t="str">
+        <f t="shared" ref="B197:B258" si="3">DEC2HEX(A197,2)</f>
+        <v>C2</v>
+      </c>
+      <c r="C197" t="s">
+        <v>271</v>
+      </c>
+      <c r="D197" t="s">
+        <v>277</v>
+      </c>
+      <c r="E197" t="s">
+        <v>63</v>
+      </c>
+      <c r="F197" t="s">
+        <v>285</v>
+      </c>
+      <c r="H197" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>195</v>
+      </c>
+      <c r="B198" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>C3</v>
+      </c>
+      <c r="E198" t="s">
+        <v>63</v>
+      </c>
+      <c r="H198" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>196</v>
+      </c>
+      <c r="B199" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>C4</v>
+      </c>
+      <c r="C199" t="s">
+        <v>269</v>
+      </c>
+      <c r="D199" t="s">
+        <v>276</v>
+      </c>
+      <c r="E199" t="s">
+        <v>64</v>
+      </c>
+      <c r="F199" t="s">
+        <v>283</v>
+      </c>
+      <c r="G199" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>197</v>
+      </c>
+      <c r="B200" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>C5</v>
+      </c>
+      <c r="C200" t="s">
+        <v>269</v>
+      </c>
+      <c r="D200" t="s">
+        <v>276</v>
+      </c>
+      <c r="E200" t="s">
+        <v>65</v>
+      </c>
+      <c r="F200" t="s">
+        <v>283</v>
+      </c>
+      <c r="G200" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>198</v>
+      </c>
+      <c r="B201" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>C6</v>
+      </c>
+      <c r="C201" t="s">
+        <v>269</v>
+      </c>
+      <c r="D201" t="s">
+        <v>276</v>
+      </c>
+      <c r="E201" t="s">
+        <v>50</v>
+      </c>
+      <c r="F201" t="s">
+        <v>340</v>
+      </c>
+      <c r="G201" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>199</v>
+      </c>
+      <c r="B202" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>C7</v>
+      </c>
+      <c r="C202" t="s">
+        <v>269</v>
+      </c>
+      <c r="D202" t="s">
+        <v>276</v>
+      </c>
+      <c r="E202" t="s">
+        <v>50</v>
+      </c>
+      <c r="F202" t="s">
+        <v>327</v>
+      </c>
+      <c r="G202" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>200</v>
+      </c>
+      <c r="B203" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>C8</v>
+      </c>
+      <c r="C203" s="4"/>
+      <c r="D203" s="4"/>
+      <c r="E203" s="4"/>
+      <c r="F203" s="4"/>
+      <c r="G203" s="4"/>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>201</v>
+      </c>
+      <c r="B204" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>C9</v>
+      </c>
+      <c r="C204" s="4"/>
+      <c r="D204" s="4"/>
+      <c r="E204" s="4"/>
+      <c r="F204" s="4"/>
+      <c r="G204" s="4"/>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>202</v>
+      </c>
+      <c r="B205" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>CA</v>
+      </c>
+      <c r="C205" t="s">
+        <v>271</v>
+      </c>
+      <c r="D205" t="s">
+        <v>277</v>
+      </c>
+      <c r="E205" t="s">
+        <v>63</v>
+      </c>
+      <c r="F205" t="s">
+        <v>285</v>
+      </c>
+      <c r="H205" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>203</v>
+      </c>
+      <c r="B206" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>CB</v>
+      </c>
+      <c r="E206" t="s">
+        <v>63</v>
+      </c>
+      <c r="H206" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>204</v>
+      </c>
+      <c r="B207" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>CC</v>
+      </c>
+      <c r="E207" t="s">
+        <v>120</v>
+      </c>
+      <c r="F207">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>205</v>
+      </c>
+      <c r="B208" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>CD</v>
+      </c>
+      <c r="C208" t="s">
+        <v>270</v>
+      </c>
+      <c r="E208" t="s">
+        <v>120</v>
+      </c>
+      <c r="F208" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>206</v>
+      </c>
+      <c r="B209" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>CE</v>
+      </c>
+      <c r="E209" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>207</v>
+      </c>
+      <c r="B210" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>CF</v>
+      </c>
+      <c r="E210" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>208</v>
+      </c>
+      <c r="B211" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>D0</v>
+      </c>
+      <c r="C211" t="s">
+        <v>269</v>
+      </c>
+      <c r="D211" t="s">
+        <v>276</v>
+      </c>
+      <c r="E211" t="s">
+        <v>131</v>
+      </c>
+      <c r="F211" t="s">
+        <v>281</v>
+      </c>
+      <c r="G211" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>209</v>
+      </c>
+      <c r="B212" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>D1</v>
+      </c>
+      <c r="C212" t="s">
+        <v>269</v>
+      </c>
+      <c r="D212" t="s">
+        <v>276</v>
+      </c>
+      <c r="E212" t="s">
+        <v>357</v>
+      </c>
+      <c r="F212" t="s">
+        <v>283</v>
+      </c>
+      <c r="G212" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>210</v>
+      </c>
+      <c r="B213" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>D2</v>
+      </c>
+      <c r="C213" t="s">
+        <v>269</v>
+      </c>
+      <c r="D213" t="s">
+        <v>276</v>
+      </c>
+      <c r="E213" t="s">
+        <v>131</v>
+      </c>
+      <c r="F213" t="s">
+        <v>281</v>
+      </c>
+      <c r="G213" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>211</v>
+      </c>
+      <c r="B214" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>D3</v>
+      </c>
+      <c r="C214" t="s">
+        <v>269</v>
+      </c>
+      <c r="D214" t="s">
+        <v>276</v>
+      </c>
+      <c r="E214" t="s">
+        <v>357</v>
+      </c>
+      <c r="F214" t="s">
+        <v>283</v>
+      </c>
+      <c r="G214" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>212</v>
+      </c>
+      <c r="B215" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>D4</v>
+      </c>
+      <c r="E215" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>213</v>
+      </c>
+      <c r="B216" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>D5</v>
+      </c>
+      <c r="E216" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>214</v>
+      </c>
+      <c r="B217" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>D6</v>
+      </c>
+      <c r="C217" s="4"/>
+      <c r="D217" s="4"/>
+      <c r="E217" s="4"/>
+      <c r="F217" s="4"/>
+      <c r="G217" s="4"/>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>215</v>
+      </c>
+      <c r="B218" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>D7</v>
+      </c>
+      <c r="E218" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>216</v>
+      </c>
+      <c r="B219" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>D8</v>
+      </c>
+      <c r="C219" t="s">
+        <v>269</v>
+      </c>
+      <c r="D219" t="s">
+        <v>276</v>
+      </c>
+      <c r="E219" t="s">
+        <v>358</v>
+      </c>
+      <c r="F219" t="s">
+        <v>359</v>
+      </c>
+      <c r="G219" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>217</v>
+      </c>
+      <c r="B220" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>D9</v>
+      </c>
+      <c r="C220" s="4"/>
+      <c r="D220" s="4"/>
+      <c r="E220" s="4"/>
+      <c r="F220" s="4"/>
+      <c r="G220" s="4"/>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>218</v>
+      </c>
+      <c r="B221" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>DA</v>
+      </c>
+      <c r="C221" s="4"/>
+      <c r="D221" s="4"/>
+      <c r="E221" s="4"/>
+      <c r="F221" s="4"/>
+      <c r="G221" s="4"/>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>219</v>
+      </c>
+      <c r="B222" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>DB</v>
+      </c>
+      <c r="C222" s="4"/>
+      <c r="D222" s="4"/>
+      <c r="E222" s="4"/>
+      <c r="F222" s="4"/>
+      <c r="G222" s="4"/>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>220</v>
+      </c>
+      <c r="B223" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>DC</v>
+      </c>
+      <c r="C223" s="4"/>
+      <c r="D223" s="4"/>
+      <c r="E223" s="4"/>
+      <c r="F223" s="4"/>
+      <c r="G223" s="4"/>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>221</v>
+      </c>
+      <c r="B224" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>DD</v>
+      </c>
+      <c r="C224" s="4"/>
+      <c r="D224" s="4"/>
+      <c r="E224" s="4"/>
+      <c r="F224" s="4"/>
+      <c r="G224" s="4"/>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>222</v>
+      </c>
+      <c r="B225" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>DE</v>
+      </c>
+      <c r="C225" s="4"/>
+      <c r="D225" s="4"/>
+      <c r="E225" s="4"/>
+      <c r="F225" s="4"/>
+      <c r="G225" s="4"/>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>223</v>
+      </c>
+      <c r="B226" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>DF</v>
+      </c>
+      <c r="C226" t="s">
+        <v>269</v>
+      </c>
+      <c r="H226" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>224</v>
+      </c>
+      <c r="B227" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>E0</v>
+      </c>
+      <c r="C227" t="s">
+        <v>362</v>
+      </c>
+      <c r="E227" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>225</v>
+      </c>
+      <c r="B228" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>E1</v>
+      </c>
+      <c r="C228" t="s">
+        <v>362</v>
+      </c>
+      <c r="E228" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>226</v>
+      </c>
+      <c r="B229" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>E2</v>
+      </c>
+      <c r="C229" t="s">
+        <v>362</v>
+      </c>
+      <c r="E229" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>227</v>
+      </c>
+      <c r="B230" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>E3</v>
+      </c>
+      <c r="C230" t="s">
+        <v>362</v>
+      </c>
+      <c r="E230" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>228</v>
+      </c>
+      <c r="B231" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>E4</v>
+      </c>
+      <c r="C231" t="s">
+        <v>270</v>
+      </c>
+      <c r="E231" t="s">
+        <v>76</v>
+      </c>
+      <c r="F231" t="s">
+        <v>9</v>
+      </c>
+      <c r="G231" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>229</v>
+      </c>
+      <c r="B232" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>E5</v>
+      </c>
+      <c r="C232" t="s">
+        <v>270</v>
+      </c>
+      <c r="E232" t="s">
+        <v>76</v>
+      </c>
+      <c r="F232" t="s">
+        <v>10</v>
+      </c>
+      <c r="G232" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>230</v>
+      </c>
+      <c r="B233" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>E6</v>
+      </c>
+      <c r="C233" t="s">
+        <v>270</v>
+      </c>
+      <c r="E233" t="s">
+        <v>77</v>
+      </c>
+      <c r="F233" t="s">
+        <v>9</v>
+      </c>
+      <c r="G233" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>231</v>
+      </c>
+      <c r="B234" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>E7</v>
+      </c>
+      <c r="C234" t="s">
+        <v>270</v>
+      </c>
+      <c r="E234" t="s">
+        <v>77</v>
+      </c>
+      <c r="F234" t="s">
+        <v>10</v>
+      </c>
+      <c r="G234" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>232</v>
+      </c>
+      <c r="B235" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>E8</v>
+      </c>
+      <c r="C235" t="s">
+        <v>363</v>
+      </c>
+      <c r="D235" t="s">
+        <v>364</v>
+      </c>
+      <c r="E235" t="s">
+        <v>106</v>
+      </c>
+      <c r="F235" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>233</v>
+      </c>
+      <c r="B236" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>E9</v>
+      </c>
+      <c r="C236" t="s">
+        <v>363</v>
+      </c>
+      <c r="D236" t="s">
+        <v>364</v>
+      </c>
+      <c r="E236" t="s">
+        <v>124</v>
+      </c>
+      <c r="F236" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>234</v>
+      </c>
+      <c r="B237" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>EA</v>
+      </c>
+      <c r="C237" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>235</v>
+      </c>
+      <c r="B238" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>EB</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>236</v>
+      </c>
+      <c r="B239" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>EC</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>237</v>
+      </c>
+      <c r="B240" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>ED</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>238</v>
+      </c>
+      <c r="B241" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>EE</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>239</v>
+      </c>
+      <c r="B242" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>EF</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>240</v>
+      </c>
+      <c r="B243" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>F0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>241</v>
+      </c>
+      <c r="B244" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>F1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>242</v>
+      </c>
+      <c r="B245" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>F2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>243</v>
+      </c>
+      <c r="B246" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>F3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>244</v>
+      </c>
+      <c r="B247" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>F4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>245</v>
+      </c>
+      <c r="B248" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>F5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>246</v>
+      </c>
+      <c r="B249" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>F6</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>247</v>
+      </c>
+      <c r="B250" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>F7</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>248</v>
+      </c>
+      <c r="B251" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>F8</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>249</v>
+      </c>
+      <c r="B252" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>F9</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>250</v>
+      </c>
+      <c r="B253" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>FA</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>251</v>
+      </c>
+      <c r="B254" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>FB</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>252</v>
+      </c>
+      <c r="B255" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>FC</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>253</v>
+      </c>
+      <c r="B256" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>FD</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>254</v>
+      </c>
+      <c r="B257" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>FE</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>255</v>
+      </c>
+      <c r="B258" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>FF</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Resources/8086 op code list.xlsx
+++ b/Resources/8086 op code list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="23955" windowHeight="12090" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="23955" windowHeight="12090" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Op Code List" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3233" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3243" uniqueCount="367">
   <si>
     <t>Op Code</t>
   </si>
@@ -1115,6 +1115,9 @@
   </si>
   <si>
     <t>INT3</t>
+  </si>
+  <si>
+    <t>DISP-SX</t>
   </si>
 </sst>
 </file>
@@ -1193,7 +1196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1231,6 +1234,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1534,8 +1546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P258"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="I144" sqref="I144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16231,10 +16243,10 @@
   <dimension ref="A2:I258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B223" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B237" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B234" sqref="B234"/>
+      <selection pane="bottomRight" activeCell="C259" sqref="C259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16242,7 +16254,8 @@
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="19"/>
     <col min="8" max="8" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16259,10 +16272,10 @@
       <c r="E2" t="s">
         <v>273</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="19" t="s">
         <v>275</v>
       </c>
       <c r="I2" t="s">
@@ -16286,10 +16299,10 @@
       <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="19" t="s">
         <v>281</v>
       </c>
       <c r="I3" t="str">
@@ -16314,10 +16327,10 @@
       <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="19" t="s">
         <v>283</v>
       </c>
       <c r="I4" t="str">
@@ -16342,10 +16355,10 @@
       <c r="E5" t="s">
         <v>6</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="19" t="s">
         <v>280</v>
       </c>
       <c r="I5" t="str">
@@ -16370,10 +16383,10 @@
       <c r="E6" t="s">
         <v>6</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="19" t="s">
         <v>282</v>
       </c>
       <c r="I6" t="str">
@@ -16395,10 +16408,10 @@
       <c r="E7" t="s">
         <v>6</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="19" t="s">
         <v>284</v>
       </c>
       <c r="I7" t="str">
@@ -16423,10 +16436,10 @@
       <c r="E8" t="s">
         <v>6</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="19" t="s">
         <v>285</v>
       </c>
       <c r="I8" t="str">
@@ -16483,10 +16496,10 @@
       <c r="E11" t="s">
         <v>85</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="19" t="s">
         <v>281</v>
       </c>
       <c r="I11" t="str">
@@ -16511,10 +16524,10 @@
       <c r="E12" t="s">
         <v>85</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="19" t="s">
         <v>283</v>
       </c>
       <c r="I12" t="str">
@@ -16539,10 +16552,10 @@
       <c r="E13" t="s">
         <v>85</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="19" t="s">
         <v>280</v>
       </c>
       <c r="I13" t="str">
@@ -16567,10 +16580,10 @@
       <c r="E14" t="s">
         <v>85</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="19" t="s">
         <v>282</v>
       </c>
       <c r="I14" t="str">
@@ -16592,10 +16605,10 @@
       <c r="E15" t="s">
         <v>85</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="19" t="s">
         <v>284</v>
       </c>
       <c r="I15" t="str">
@@ -16620,10 +16633,10 @@
       <c r="E16" t="s">
         <v>85</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="19" t="s">
         <v>285</v>
       </c>
       <c r="I16" t="str">
@@ -16680,10 +16693,10 @@
       <c r="E19" t="s">
         <v>17</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="19" t="s">
         <v>281</v>
       </c>
       <c r="I19" t="str">
@@ -16708,10 +16721,10 @@
       <c r="E20" t="s">
         <v>17</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="19" t="s">
         <v>283</v>
       </c>
       <c r="I20" t="str">
@@ -16736,10 +16749,10 @@
       <c r="E21" t="s">
         <v>17</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="19" t="s">
         <v>280</v>
       </c>
       <c r="I21" t="str">
@@ -16764,10 +16777,10 @@
       <c r="E22" t="s">
         <v>17</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="19" t="s">
         <v>282</v>
       </c>
       <c r="I22" t="str">
@@ -16789,10 +16802,10 @@
       <c r="E23" t="s">
         <v>17</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="19" t="s">
         <v>284</v>
       </c>
       <c r="I23" t="str">
@@ -16817,10 +16830,10 @@
       <c r="E24" t="s">
         <v>17</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="19" t="s">
         <v>285</v>
       </c>
       <c r="I24" t="str">
@@ -16877,10 +16890,10 @@
       <c r="E27" t="s">
         <v>86</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="19" t="s">
         <v>281</v>
       </c>
       <c r="I27" t="str">
@@ -16905,10 +16918,10 @@
       <c r="E28" t="s">
         <v>86</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="19" t="s">
         <v>283</v>
       </c>
       <c r="I28" t="str">
@@ -16933,10 +16946,10 @@
       <c r="E29" t="s">
         <v>86</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="19" t="s">
         <v>280</v>
       </c>
       <c r="I29" t="str">
@@ -16961,10 +16974,10 @@
       <c r="E30" t="s">
         <v>86</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="19" t="s">
         <v>282</v>
       </c>
       <c r="I30" t="str">
@@ -16986,10 +16999,10 @@
       <c r="E31" t="s">
         <v>86</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="19" t="s">
         <v>284</v>
       </c>
       <c r="I31" t="str">
@@ -17014,10 +17027,10 @@
       <c r="E32" t="s">
         <v>86</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="19" t="s">
         <v>285</v>
       </c>
       <c r="I32" t="str">
@@ -17074,10 +17087,10 @@
       <c r="E35" t="s">
         <v>19</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="19" t="s">
         <v>281</v>
       </c>
       <c r="I35" t="str">
@@ -17102,10 +17115,10 @@
       <c r="E36" t="s">
         <v>19</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="19" t="s">
         <v>283</v>
       </c>
       <c r="I36" t="str">
@@ -17130,10 +17143,10 @@
       <c r="E37" t="s">
         <v>19</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="19" t="s">
         <v>280</v>
       </c>
       <c r="I37" t="str">
@@ -17158,10 +17171,10 @@
       <c r="E38" t="s">
         <v>19</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="19" t="s">
         <v>282</v>
       </c>
       <c r="I38" t="str">
@@ -17183,10 +17196,10 @@
       <c r="E39" t="s">
         <v>19</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="19" t="s">
         <v>284</v>
       </c>
       <c r="I39" t="str">
@@ -17211,10 +17224,10 @@
       <c r="E40" t="s">
         <v>19</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="19" t="s">
         <v>285</v>
       </c>
       <c r="I40" t="str">
@@ -17271,10 +17284,10 @@
       <c r="E43" t="s">
         <v>88</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="19" t="s">
         <v>281</v>
       </c>
       <c r="I43" t="str">
@@ -17299,10 +17312,10 @@
       <c r="E44" t="s">
         <v>88</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="19" t="s">
         <v>283</v>
       </c>
       <c r="I44" t="str">
@@ -17327,10 +17340,10 @@
       <c r="E45" t="s">
         <v>88</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="19" t="s">
         <v>280</v>
       </c>
       <c r="I45" t="str">
@@ -17355,10 +17368,10 @@
       <c r="E46" t="s">
         <v>88</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="19" t="s">
         <v>282</v>
       </c>
       <c r="I46" t="str">
@@ -17380,10 +17393,10 @@
       <c r="E47" t="s">
         <v>88</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="19" t="s">
         <v>284</v>
       </c>
       <c r="I47" t="str">
@@ -17408,10 +17421,10 @@
       <c r="E48" t="s">
         <v>88</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="19" t="s">
         <v>285</v>
       </c>
       <c r="I48" t="str">
@@ -17468,10 +17481,10 @@
       <c r="E51" t="s">
         <v>22</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="19" t="s">
         <v>281</v>
       </c>
       <c r="I51" t="str">
@@ -17496,10 +17509,10 @@
       <c r="E52" t="s">
         <v>22</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="19" t="s">
         <v>283</v>
       </c>
       <c r="I52" t="str">
@@ -17524,10 +17537,10 @@
       <c r="E53" t="s">
         <v>22</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="19" t="s">
         <v>280</v>
       </c>
       <c r="I53" t="str">
@@ -17552,10 +17565,10 @@
       <c r="E54" t="s">
         <v>22</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="19" t="s">
         <v>282</v>
       </c>
       <c r="I54" t="str">
@@ -17577,10 +17590,10 @@
       <c r="E55" t="s">
         <v>22</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="19" t="s">
         <v>284</v>
       </c>
       <c r="I55" t="str">
@@ -17605,10 +17618,10 @@
       <c r="E56" t="s">
         <v>22</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="19" t="s">
         <v>285</v>
       </c>
       <c r="I56" t="str">
@@ -17665,10 +17678,10 @@
       <c r="E59" t="s">
         <v>91</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="19" t="s">
         <v>281</v>
       </c>
       <c r="I59" t="str">
@@ -17693,10 +17706,10 @@
       <c r="E60" t="s">
         <v>91</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="19" t="s">
         <v>283</v>
       </c>
       <c r="I60" t="str">
@@ -17721,10 +17734,10 @@
       <c r="E61" t="s">
         <v>91</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="19" t="s">
         <v>280</v>
       </c>
       <c r="I61" t="str">
@@ -17749,10 +17762,10 @@
       <c r="E62" t="s">
         <v>91</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" s="19" t="s">
         <v>282</v>
       </c>
       <c r="I62" t="str">
@@ -17774,10 +17787,10 @@
       <c r="E63" t="s">
         <v>91</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" s="19" t="s">
         <v>284</v>
       </c>
       <c r="I63" t="str">
@@ -17802,10 +17815,10 @@
       <c r="E64" t="s">
         <v>91</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" s="19" t="s">
         <v>285</v>
       </c>
       <c r="I64" t="str">
@@ -18368,8 +18381,8 @@
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
+      <c r="F99" s="20"/>
+      <c r="G99" s="20"/>
       <c r="I99" t="str">
         <f t="shared" si="2"/>
         <v>new OpCodeTable(0x60,"","","","",""),</v>
@@ -18386,8 +18399,8 @@
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
+      <c r="F100" s="20"/>
+      <c r="G100" s="20"/>
       <c r="I100" t="str">
         <f t="shared" si="2"/>
         <v>new OpCodeTable(0x61,"","","","",""),</v>
@@ -18404,8 +18417,8 @@
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
+      <c r="F101" s="20"/>
+      <c r="G101" s="20"/>
       <c r="I101" t="str">
         <f t="shared" si="2"/>
         <v>new OpCodeTable(0x62,"","","","",""),</v>
@@ -18422,8 +18435,8 @@
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
-      <c r="F102" s="4"/>
-      <c r="G102" s="4"/>
+      <c r="F102" s="20"/>
+      <c r="G102" s="20"/>
       <c r="I102" t="str">
         <f t="shared" si="2"/>
         <v>new OpCodeTable(0x63,"","","","",""),</v>
@@ -18440,8 +18453,8 @@
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
-      <c r="G103" s="4"/>
+      <c r="F103" s="20"/>
+      <c r="G103" s="20"/>
       <c r="I103" t="str">
         <f t="shared" si="2"/>
         <v>new OpCodeTable(0x64,"","","","",""),</v>
@@ -18458,8 +18471,8 @@
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
-      <c r="F104" s="4"/>
-      <c r="G104" s="4"/>
+      <c r="F104" s="20"/>
+      <c r="G104" s="20"/>
       <c r="I104" t="str">
         <f t="shared" si="2"/>
         <v>new OpCodeTable(0x65,"","","","",""),</v>
@@ -18476,8 +18489,8 @@
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
-      <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
+      <c r="F105" s="20"/>
+      <c r="G105" s="20"/>
       <c r="H105" t="s">
         <v>342</v>
       </c>
@@ -18497,8 +18510,8 @@
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
-      <c r="F106" s="4"/>
-      <c r="G106" s="4"/>
+      <c r="F106" s="20"/>
+      <c r="G106" s="20"/>
       <c r="I106" t="str">
         <f t="shared" si="2"/>
         <v>new OpCodeTable(0x67,"","","","",""),</v>
@@ -18515,8 +18528,8 @@
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
-      <c r="F107" s="4"/>
-      <c r="G107" s="4"/>
+      <c r="F107" s="20"/>
+      <c r="G107" s="20"/>
       <c r="I107" t="str">
         <f t="shared" si="2"/>
         <v>new OpCodeTable(0x68,"","","","",""),</v>
@@ -18533,8 +18546,8 @@
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
-      <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
+      <c r="F108" s="20"/>
+      <c r="G108" s="20"/>
       <c r="I108" t="str">
         <f t="shared" si="2"/>
         <v>new OpCodeTable(0x69,"","","","",""),</v>
@@ -18551,8 +18564,8 @@
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
-      <c r="F109" s="4"/>
-      <c r="G109" s="4"/>
+      <c r="F109" s="20"/>
+      <c r="G109" s="20"/>
       <c r="I109" t="str">
         <f t="shared" si="2"/>
         <v>new OpCodeTable(0x6A,"","","","",""),</v>
@@ -18569,8 +18582,8 @@
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
-      <c r="F110" s="4"/>
-      <c r="G110" s="4"/>
+      <c r="F110" s="20"/>
+      <c r="G110" s="20"/>
       <c r="I110" t="str">
         <f t="shared" si="2"/>
         <v>new OpCodeTable(0x6B,"","","","",""),</v>
@@ -18587,8 +18600,8 @@
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
-      <c r="F111" s="4"/>
-      <c r="G111" s="4"/>
+      <c r="F111" s="20"/>
+      <c r="G111" s="20"/>
       <c r="I111" t="str">
         <f t="shared" si="2"/>
         <v>new OpCodeTable(0x6C,"","","","",""),</v>
@@ -18605,8 +18618,8 @@
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
-      <c r="F112" s="4"/>
-      <c r="G112" s="4"/>
+      <c r="F112" s="20"/>
+      <c r="G112" s="20"/>
       <c r="I112" t="str">
         <f t="shared" si="2"/>
         <v>new OpCodeTable(0x6D,"","","","",""),</v>
@@ -18623,8 +18636,8 @@
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
-      <c r="F113" s="4"/>
-      <c r="G113" s="4"/>
+      <c r="F113" s="20"/>
+      <c r="G113" s="20"/>
       <c r="I113" t="str">
         <f t="shared" si="2"/>
         <v>new OpCodeTable(0x6E,"","","","",""),</v>
@@ -18641,8 +18654,8 @@
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
-      <c r="F114" s="4"/>
-      <c r="G114" s="4"/>
+      <c r="F114" s="20"/>
+      <c r="G114" s="20"/>
       <c r="I114" t="str">
         <f t="shared" si="2"/>
         <v>new OpCodeTable(0x6F,"","","","",""),</v>
@@ -18662,7 +18675,7 @@
       <c r="E115" t="s">
         <v>34</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F115" s="19" t="s">
         <v>355</v>
       </c>
       <c r="I115" t="str">
@@ -18684,7 +18697,7 @@
       <c r="E116" t="s">
         <v>35</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F116" s="19" t="s">
         <v>355</v>
       </c>
       <c r="I116" t="str">
@@ -18706,7 +18719,7 @@
       <c r="E117" t="s">
         <v>36</v>
       </c>
-      <c r="F117" t="s">
+      <c r="F117" s="19" t="s">
         <v>355</v>
       </c>
       <c r="I117" t="str">
@@ -18728,7 +18741,7 @@
       <c r="E118" t="s">
         <v>37</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F118" s="19" t="s">
         <v>355</v>
       </c>
       <c r="I118" t="str">
@@ -18750,7 +18763,7 @@
       <c r="E119" t="s">
         <v>38</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F119" s="19" t="s">
         <v>355</v>
       </c>
       <c r="I119" t="str">
@@ -18772,7 +18785,7 @@
       <c r="E120" t="s">
         <v>39</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F120" s="19" t="s">
         <v>355</v>
       </c>
       <c r="I120" t="str">
@@ -18794,7 +18807,7 @@
       <c r="E121" t="s">
         <v>40</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F121" s="19" t="s">
         <v>355</v>
       </c>
       <c r="I121" t="str">
@@ -18816,7 +18829,7 @@
       <c r="E122" t="s">
         <v>41</v>
       </c>
-      <c r="F122" t="s">
+      <c r="F122" s="19" t="s">
         <v>355</v>
       </c>
       <c r="I122" t="str">
@@ -18838,7 +18851,7 @@
       <c r="E123" t="s">
         <v>97</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F123" s="19" t="s">
         <v>355</v>
       </c>
       <c r="I123" t="str">
@@ -18860,7 +18873,7 @@
       <c r="E124" t="s">
         <v>98</v>
       </c>
-      <c r="F124" t="s">
+      <c r="F124" s="19" t="s">
         <v>355</v>
       </c>
       <c r="I124" t="str">
@@ -18882,7 +18895,7 @@
       <c r="E125" t="s">
         <v>99</v>
       </c>
-      <c r="F125" t="s">
+      <c r="F125" s="19" t="s">
         <v>355</v>
       </c>
       <c r="I125" t="str">
@@ -18904,7 +18917,7 @@
       <c r="E126" t="s">
         <v>100</v>
       </c>
-      <c r="F126" t="s">
+      <c r="F126" s="19" t="s">
         <v>355</v>
       </c>
       <c r="I126" t="str">
@@ -18926,7 +18939,7 @@
       <c r="E127" t="s">
         <v>101</v>
       </c>
-      <c r="F127" t="s">
+      <c r="F127" s="19" t="s">
         <v>355</v>
       </c>
       <c r="I127" t="str">
@@ -18948,7 +18961,7 @@
       <c r="E128" t="s">
         <v>102</v>
       </c>
-      <c r="F128" t="s">
+      <c r="F128" s="19" t="s">
         <v>355</v>
       </c>
       <c r="I128" t="str">
@@ -18970,7 +18983,7 @@
       <c r="E129" t="s">
         <v>103</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F129" s="19" t="s">
         <v>355</v>
       </c>
       <c r="I129" t="str">
@@ -18992,7 +19005,7 @@
       <c r="E130" t="s">
         <v>102</v>
       </c>
-      <c r="F130" t="s">
+      <c r="F130" s="19" t="s">
         <v>355</v>
       </c>
       <c r="I130" t="str">
@@ -19009,20 +19022,23 @@
         <v>80</v>
       </c>
       <c r="C131" t="s">
-        <v>43</v>
+        <v>269</v>
+      </c>
+      <c r="D131" t="s">
+        <v>276</v>
       </c>
       <c r="E131" t="s">
         <v>43</v>
       </c>
-      <c r="F131" t="s">
+      <c r="F131" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="G131" t="s">
+      <c r="G131" s="19" t="s">
         <v>284</v>
       </c>
       <c r="I131" t="str">
         <f t="shared" ref="I131:I194" si="4">CONCATENATE("new OpCodeTable(0x",DEC2HEX(A131,2),",","""",C131,"""",",","""",D131,"""",",","""",E131,"""",",","""",F131,"""",",","""",G131,"""),")</f>
-        <v>new OpCodeTable(0x80,"GRP1","","GRP1","RM-8","I-8"),</v>
+        <v>new OpCodeTable(0x80,"MRR","DISP","GRP1","RM-8","I-8"),</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -19034,20 +19050,23 @@
         <v>81</v>
       </c>
       <c r="C132" t="s">
-        <v>44</v>
+        <v>269</v>
+      </c>
+      <c r="D132" t="s">
+        <v>276</v>
       </c>
       <c r="E132" t="s">
-        <v>44</v>
-      </c>
-      <c r="F132" t="s">
+        <v>43</v>
+      </c>
+      <c r="F132" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="G132" t="s">
+      <c r="G132" s="19" t="s">
         <v>285</v>
       </c>
       <c r="I132" t="str">
         <f t="shared" si="4"/>
-        <v>new OpCodeTable(0x81,"GRP2","","GRP2","RM-16","I-16"),</v>
+        <v>new OpCodeTable(0x81,"MRR","DISP","GRP1","RM-16","I-16"),</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -19059,20 +19078,23 @@
         <v>82</v>
       </c>
       <c r="C133" t="s">
-        <v>45</v>
+        <v>269</v>
+      </c>
+      <c r="D133" t="s">
+        <v>276</v>
       </c>
       <c r="E133" t="s">
-        <v>45</v>
-      </c>
-      <c r="F133" t="s">
+        <v>43</v>
+      </c>
+      <c r="F133" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="G133" s="18" t="s">
+      <c r="G133" s="21" t="s">
         <v>284</v>
       </c>
       <c r="I133" t="str">
         <f t="shared" si="4"/>
-        <v>new OpCodeTable(0x82,"GRP3","","GRP3","RM-8","I-8"),</v>
+        <v>new OpCodeTable(0x82,"MRR","DISP","GRP1","RM-8","I-8"),</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -19084,20 +19106,23 @@
         <v>83</v>
       </c>
       <c r="C134" t="s">
-        <v>46</v>
+        <v>269</v>
+      </c>
+      <c r="D134" t="s">
+        <v>366</v>
       </c>
       <c r="E134" t="s">
-        <v>46</v>
-      </c>
-      <c r="F134" t="s">
+        <v>43</v>
+      </c>
+      <c r="F134" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="G134" t="s">
+      <c r="G134" s="19" t="s">
         <v>284</v>
       </c>
       <c r="I134" t="str">
         <f t="shared" si="4"/>
-        <v>new OpCodeTable(0x83,"GRP4","","GRP4","RM-16","I-8"),</v>
+        <v>new OpCodeTable(0x83,"MRR","DISP-SX","GRP1","RM-16","I-8"),</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -19117,10 +19142,10 @@
       <c r="E135" t="s">
         <v>47</v>
       </c>
-      <c r="F135" t="s">
+      <c r="F135" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="G135" t="s">
+      <c r="G135" s="19" t="s">
         <v>281</v>
       </c>
       <c r="I135" t="str">
@@ -19145,10 +19170,10 @@
       <c r="E136" t="s">
         <v>47</v>
       </c>
-      <c r="F136" t="s">
+      <c r="F136" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="G136" t="s">
+      <c r="G136" s="19" t="s">
         <v>283</v>
       </c>
       <c r="I136" t="str">
@@ -19173,10 +19198,10 @@
       <c r="E137" t="s">
         <v>48</v>
       </c>
-      <c r="F137" t="s">
+      <c r="F137" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="G137" t="s">
+      <c r="G137" s="19" t="s">
         <v>280</v>
       </c>
       <c r="I137" t="str">
@@ -19201,10 +19226,10 @@
       <c r="E138" t="s">
         <v>48</v>
       </c>
-      <c r="F138" t="s">
+      <c r="F138" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="G138" t="s">
+      <c r="G138" s="19" t="s">
         <v>282</v>
       </c>
       <c r="I138" t="str">
@@ -19229,10 +19254,10 @@
       <c r="E139" t="s">
         <v>50</v>
       </c>
-      <c r="F139" t="s">
+      <c r="F139" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="G139" t="s">
+      <c r="G139" s="19" t="s">
         <v>281</v>
       </c>
       <c r="I139" t="str">
@@ -19257,10 +19282,10 @@
       <c r="E140" t="s">
         <v>50</v>
       </c>
-      <c r="F140" t="s">
+      <c r="F140" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="G140" t="s">
+      <c r="G140" s="19" t="s">
         <v>283</v>
       </c>
       <c r="I140" t="str">
@@ -19285,10 +19310,10 @@
       <c r="E141" t="s">
         <v>50</v>
       </c>
-      <c r="F141" t="s">
+      <c r="F141" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="G141" t="s">
+      <c r="G141" s="19" t="s">
         <v>280</v>
       </c>
       <c r="I141" t="str">
@@ -19313,10 +19338,10 @@
       <c r="E142" t="s">
         <v>50</v>
       </c>
-      <c r="F142" t="s">
+      <c r="F142" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="G142" t="s">
+      <c r="G142" s="19" t="s">
         <v>282</v>
       </c>
       <c r="I142" t="str">
@@ -19341,10 +19366,10 @@
       <c r="E143" t="s">
         <v>50</v>
       </c>
-      <c r="F143" t="s">
+      <c r="F143" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="G143" t="s">
+      <c r="G143" s="19" t="s">
         <v>324</v>
       </c>
       <c r="I143" t="str">
@@ -19369,10 +19394,10 @@
       <c r="E144" t="s">
         <v>96</v>
       </c>
-      <c r="F144" t="s">
+      <c r="F144" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="G144" t="s">
+      <c r="G144" s="19" t="s">
         <v>325</v>
       </c>
       <c r="I144" t="str">
@@ -19397,10 +19422,10 @@
       <c r="E145" t="s">
         <v>50</v>
       </c>
-      <c r="F145" t="s">
+      <c r="F145" s="19" t="s">
         <v>324</v>
       </c>
-      <c r="G145" t="s">
+      <c r="G145" s="19" t="s">
         <v>282</v>
       </c>
       <c r="I145" t="str">
@@ -19425,7 +19450,7 @@
       <c r="E146" t="s">
         <v>16</v>
       </c>
-      <c r="F146" t="s">
+      <c r="F146" s="19" t="s">
         <v>282</v>
       </c>
       <c r="I146" t="str">
@@ -19610,7 +19635,7 @@
       <c r="E157" t="s">
         <v>106</v>
       </c>
-      <c r="F157" t="s">
+      <c r="F157" s="19" t="s">
         <v>334</v>
       </c>
       <c r="I157" t="str">
@@ -19715,10 +19740,10 @@
       <c r="E163" t="s">
         <v>50</v>
       </c>
-      <c r="F163" t="s">
+      <c r="F163" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G163" t="s">
+      <c r="G163" s="19" t="s">
         <v>337</v>
       </c>
       <c r="I163" t="str">
@@ -19743,10 +19768,10 @@
       <c r="E164" t="s">
         <v>50</v>
       </c>
-      <c r="F164" t="s">
+      <c r="F164" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G164" t="s">
+      <c r="G164" s="19" t="s">
         <v>325</v>
       </c>
       <c r="I164" t="str">
@@ -19771,10 +19796,10 @@
       <c r="E165" t="s">
         <v>50</v>
       </c>
-      <c r="F165" t="s">
+      <c r="F165" s="19" t="s">
         <v>337</v>
       </c>
-      <c r="G165" t="s">
+      <c r="G165" s="19" t="s">
         <v>9</v>
       </c>
       <c r="I165" t="str">
@@ -19799,10 +19824,10 @@
       <c r="E166" t="s">
         <v>50</v>
       </c>
-      <c r="F166" t="s">
+      <c r="F166" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="G166" t="s">
+      <c r="G166" s="19" t="s">
         <v>10</v>
       </c>
       <c r="H166" t="s">
@@ -19891,10 +19916,10 @@
       <c r="E171" t="s">
         <v>47</v>
       </c>
-      <c r="F171" t="s">
+      <c r="F171" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G171" t="s">
+      <c r="G171" s="19" t="s">
         <v>284</v>
       </c>
       <c r="I171" t="str">
@@ -19919,10 +19944,10 @@
       <c r="E172" t="s">
         <v>47</v>
       </c>
-      <c r="F172" t="s">
+      <c r="F172" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G172" t="s">
+      <c r="G172" s="19" t="s">
         <v>285</v>
       </c>
       <c r="I172" t="str">
@@ -20040,10 +20065,10 @@
       <c r="E179" t="s">
         <v>50</v>
       </c>
-      <c r="F179" t="s">
+      <c r="F179" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G179" t="s">
+      <c r="G179" s="19" t="s">
         <v>284</v>
       </c>
       <c r="I179" t="str">
@@ -20065,10 +20090,10 @@
       <c r="E180" t="s">
         <v>50</v>
       </c>
-      <c r="F180" t="s">
+      <c r="F180" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="G180" t="s">
+      <c r="G180" s="19" t="s">
         <v>284</v>
       </c>
       <c r="I180" t="str">
@@ -20090,10 +20115,10 @@
       <c r="E181" t="s">
         <v>50</v>
       </c>
-      <c r="F181" t="s">
+      <c r="F181" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="G181" t="s">
+      <c r="G181" s="19" t="s">
         <v>284</v>
       </c>
       <c r="I181" t="str">
@@ -20115,10 +20140,10 @@
       <c r="E182" t="s">
         <v>50</v>
       </c>
-      <c r="F182" t="s">
+      <c r="F182" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="G182" t="s">
+      <c r="G182" s="19" t="s">
         <v>284</v>
       </c>
       <c r="I182" t="str">
@@ -20140,10 +20165,10 @@
       <c r="E183" t="s">
         <v>50</v>
       </c>
-      <c r="F183" t="s">
+      <c r="F183" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="G183" t="s">
+      <c r="G183" s="19" t="s">
         <v>284</v>
       </c>
       <c r="I183" t="str">
@@ -20165,10 +20190,10 @@
       <c r="E184" t="s">
         <v>50</v>
       </c>
-      <c r="F184" t="s">
+      <c r="F184" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="G184" t="s">
+      <c r="G184" s="19" t="s">
         <v>284</v>
       </c>
       <c r="I184" t="str">
@@ -20190,10 +20215,10 @@
       <c r="E185" t="s">
         <v>50</v>
       </c>
-      <c r="F185" t="s">
+      <c r="F185" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="G185" t="s">
+      <c r="G185" s="19" t="s">
         <v>284</v>
       </c>
       <c r="I185" t="str">
@@ -20215,10 +20240,10 @@
       <c r="E186" t="s">
         <v>50</v>
       </c>
-      <c r="F186" t="s">
+      <c r="F186" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="G186" t="s">
+      <c r="G186" s="19" t="s">
         <v>284</v>
       </c>
       <c r="I186" t="str">
@@ -20243,10 +20268,10 @@
       <c r="E187" t="s">
         <v>50</v>
       </c>
-      <c r="F187" t="s">
+      <c r="F187" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G187" t="s">
+      <c r="G187" s="19" t="s">
         <v>285</v>
       </c>
       <c r="I187" t="str">
@@ -20271,10 +20296,10 @@
       <c r="E188" t="s">
         <v>50</v>
       </c>
-      <c r="F188" t="s">
+      <c r="F188" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G188" t="s">
+      <c r="G188" s="19" t="s">
         <v>285</v>
       </c>
       <c r="I188" t="str">
@@ -20299,10 +20324,10 @@
       <c r="E189" t="s">
         <v>50</v>
       </c>
-      <c r="F189" t="s">
+      <c r="F189" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G189" t="s">
+      <c r="G189" s="19" t="s">
         <v>285</v>
       </c>
       <c r="I189" t="str">
@@ -20327,10 +20352,10 @@
       <c r="E190" t="s">
         <v>50</v>
       </c>
-      <c r="F190" t="s">
+      <c r="F190" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="G190" t="s">
+      <c r="G190" s="19" t="s">
         <v>285</v>
       </c>
       <c r="I190" t="str">
@@ -20355,10 +20380,10 @@
       <c r="E191" t="s">
         <v>50</v>
       </c>
-      <c r="F191" t="s">
+      <c r="F191" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G191" t="s">
+      <c r="G191" s="19" t="s">
         <v>285</v>
       </c>
       <c r="I191" t="str">
@@ -20383,10 +20408,10 @@
       <c r="E192" t="s">
         <v>50</v>
       </c>
-      <c r="F192" t="s">
+      <c r="F192" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="G192" t="s">
+      <c r="G192" s="19" t="s">
         <v>285</v>
       </c>
       <c r="I192" t="str">
@@ -20411,10 +20436,10 @@
       <c r="E193" t="s">
         <v>50</v>
       </c>
-      <c r="F193" t="s">
+      <c r="F193" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="G193" t="s">
+      <c r="G193" s="19" t="s">
         <v>285</v>
       </c>
       <c r="I193" t="str">
@@ -20439,10 +20464,10 @@
       <c r="E194" t="s">
         <v>50</v>
       </c>
-      <c r="F194" t="s">
+      <c r="F194" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="G194" t="s">
+      <c r="G194" s="19" t="s">
         <v>285</v>
       </c>
       <c r="I194" t="str">
@@ -20461,8 +20486,8 @@
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
       <c r="E195" s="4"/>
-      <c r="F195" s="4"/>
-      <c r="G195" s="4"/>
+      <c r="F195" s="20"/>
+      <c r="G195" s="20"/>
       <c r="I195" t="str">
         <f t="shared" ref="I195:I258" si="6">CONCATENATE("new OpCodeTable(0x",DEC2HEX(A195,2),",","""",C195,"""",",","""",D195,"""",",","""",E195,"""",",","""",F195,"""",",","""",G195,"""),")</f>
         <v>new OpCodeTable(0xC0,"","","","",""),</v>
@@ -20479,8 +20504,8 @@
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
       <c r="E196" s="4"/>
-      <c r="F196" s="4"/>
-      <c r="G196" s="4"/>
+      <c r="F196" s="20"/>
+      <c r="G196" s="20"/>
       <c r="I196" t="str">
         <f t="shared" si="6"/>
         <v>new OpCodeTable(0xC1,"","","","",""),</v>
@@ -20503,7 +20528,7 @@
       <c r="E197" t="s">
         <v>63</v>
       </c>
-      <c r="F197" t="s">
+      <c r="F197" s="19" t="s">
         <v>285</v>
       </c>
       <c r="H197" t="s">
@@ -20550,10 +20575,10 @@
       <c r="E199" t="s">
         <v>64</v>
       </c>
-      <c r="F199" t="s">
+      <c r="F199" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="G199" t="s">
+      <c r="G199" s="19" t="s">
         <v>325</v>
       </c>
       <c r="I199" t="str">
@@ -20578,10 +20603,10 @@
       <c r="E200" t="s">
         <v>65</v>
       </c>
-      <c r="F200" t="s">
+      <c r="F200" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="G200" t="s">
+      <c r="G200" s="19" t="s">
         <v>325</v>
       </c>
       <c r="I200" t="str">
@@ -20606,10 +20631,10 @@
       <c r="E201" t="s">
         <v>50</v>
       </c>
-      <c r="F201" t="s">
+      <c r="F201" s="19" t="s">
         <v>337</v>
       </c>
-      <c r="G201" t="s">
+      <c r="G201" s="19" t="s">
         <v>284</v>
       </c>
       <c r="I201" t="str">
@@ -20634,10 +20659,10 @@
       <c r="E202" t="s">
         <v>50</v>
       </c>
-      <c r="F202" t="s">
+      <c r="F202" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="G202" t="s">
+      <c r="G202" s="19" t="s">
         <v>285</v>
       </c>
       <c r="I202" t="str">
@@ -20656,8 +20681,8 @@
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
       <c r="E203" s="4"/>
-      <c r="F203" s="4"/>
-      <c r="G203" s="4"/>
+      <c r="F203" s="20"/>
+      <c r="G203" s="20"/>
       <c r="I203" t="str">
         <f t="shared" si="6"/>
         <v>new OpCodeTable(0xC8,"","","","",""),</v>
@@ -20674,8 +20699,8 @@
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
       <c r="E204" s="4"/>
-      <c r="F204" s="4"/>
-      <c r="G204" s="4"/>
+      <c r="F204" s="20"/>
+      <c r="G204" s="20"/>
       <c r="I204" t="str">
         <f t="shared" si="6"/>
         <v>new OpCodeTable(0xC9,"","","","",""),</v>
@@ -20698,7 +20723,7 @@
       <c r="E205" t="s">
         <v>63</v>
       </c>
-      <c r="F205" t="s">
+      <c r="F205" s="19" t="s">
         <v>285</v>
       </c>
       <c r="H205" t="s">
@@ -20758,7 +20783,7 @@
       <c r="E208" t="s">
         <v>120</v>
       </c>
-      <c r="F208" t="s">
+      <c r="F208" s="19" t="s">
         <v>284</v>
       </c>
       <c r="I208" t="str">
@@ -20813,17 +20838,17 @@
         <v>276</v>
       </c>
       <c r="E211" t="s">
-        <v>131</v>
-      </c>
-      <c r="F211" t="s">
-        <v>281</v>
-      </c>
-      <c r="G211" t="s">
-        <v>337</v>
+        <v>44</v>
+      </c>
+      <c r="F211" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="G211" s="19">
+        <v>1</v>
       </c>
       <c r="I211" t="str">
         <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xD0,"MRR","DISP","GRP5","R-8","M-8"),</v>
+        <v>new OpCodeTable(0xD0,"MRR","DISP","GRP2","RM-8","1"),</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
@@ -20841,17 +20866,17 @@
         <v>276</v>
       </c>
       <c r="E212" t="s">
-        <v>344</v>
-      </c>
-      <c r="F212" t="s">
-        <v>283</v>
-      </c>
-      <c r="G212" t="s">
-        <v>325</v>
+        <v>44</v>
+      </c>
+      <c r="F212" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="G212" s="19">
+        <v>1</v>
       </c>
       <c r="I212" t="str">
         <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xD1,"MRR","DISP","GRP6","R-16","M-16"),</v>
+        <v>new OpCodeTable(0xD1,"MRR","DISP","GRP2","RM-16","1"),</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
@@ -20869,17 +20894,17 @@
         <v>276</v>
       </c>
       <c r="E213" t="s">
-        <v>131</v>
-      </c>
-      <c r="F213" t="s">
-        <v>281</v>
-      </c>
-      <c r="G213" t="s">
-        <v>337</v>
+        <v>44</v>
+      </c>
+      <c r="F213" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="G213" s="19" t="s">
+        <v>56</v>
       </c>
       <c r="I213" t="str">
         <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xD2,"MRR","DISP","GRP5","R-8","M-8"),</v>
+        <v>new OpCodeTable(0xD2,"MRR","DISP","GRP2","RM-8","CL"),</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
@@ -20897,17 +20922,17 @@
         <v>276</v>
       </c>
       <c r="E214" t="s">
-        <v>344</v>
-      </c>
-      <c r="F214" t="s">
-        <v>283</v>
-      </c>
-      <c r="G214" t="s">
-        <v>325</v>
+        <v>44</v>
+      </c>
+      <c r="F214" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="G214" s="19" t="s">
+        <v>56</v>
       </c>
       <c r="I214" t="str">
         <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xD3,"MRR","DISP","GRP6","R-16","M-16"),</v>
+        <v>new OpCodeTable(0xD3,"MRR","DISP","GRP2","RM-16","CL"),</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
@@ -20918,12 +20943,18 @@
         <f t="shared" si="7"/>
         <v>D4</v>
       </c>
+      <c r="C215" t="s">
+        <v>270</v>
+      </c>
       <c r="E215" t="s">
         <v>69</v>
       </c>
+      <c r="F215" s="19" t="s">
+        <v>284</v>
+      </c>
       <c r="I215" t="str">
         <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xD4,"","","AAM","",""),</v>
+        <v>new OpCodeTable(0xD4,"D-8","","AAM","I-8",""),</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
@@ -20934,12 +20965,18 @@
         <f t="shared" si="7"/>
         <v>D5</v>
       </c>
+      <c r="C216" t="s">
+        <v>270</v>
+      </c>
       <c r="E216" t="s">
         <v>70</v>
       </c>
+      <c r="F216" s="19" t="s">
+        <v>284</v>
+      </c>
       <c r="I216" t="str">
         <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xD5,"","","AAD","",""),</v>
+        <v>new OpCodeTable(0xD5,"D-8","","AAD","I-8",""),</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
@@ -20953,8 +20990,8 @@
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
       <c r="E217" s="4"/>
-      <c r="F217" s="4"/>
-      <c r="G217" s="4"/>
+      <c r="F217" s="20"/>
+      <c r="G217" s="20"/>
       <c r="I217" t="str">
         <f t="shared" si="6"/>
         <v>new OpCodeTable(0xD6,"","","","",""),</v>
@@ -20993,10 +21030,10 @@
       <c r="E219" t="s">
         <v>345</v>
       </c>
-      <c r="F219" t="s">
+      <c r="F219" s="19" t="s">
         <v>346</v>
       </c>
-      <c r="G219" t="s">
+      <c r="G219" s="19" t="s">
         <v>347</v>
       </c>
       <c r="I219" t="str">
@@ -21015,8 +21052,8 @@
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
       <c r="E220" s="4"/>
-      <c r="F220" s="4"/>
-      <c r="G220" s="4"/>
+      <c r="F220" s="20"/>
+      <c r="G220" s="20"/>
       <c r="I220" t="str">
         <f t="shared" si="6"/>
         <v>new OpCodeTable(0xD9,"","","","",""),</v>
@@ -21033,8 +21070,8 @@
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
-      <c r="F221" s="4"/>
-      <c r="G221" s="4"/>
+      <c r="F221" s="20"/>
+      <c r="G221" s="20"/>
       <c r="I221" t="str">
         <f t="shared" si="6"/>
         <v>new OpCodeTable(0xDA,"","","","",""),</v>
@@ -21051,8 +21088,8 @@
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
       <c r="E222" s="4"/>
-      <c r="F222" s="4"/>
-      <c r="G222" s="4"/>
+      <c r="F222" s="20"/>
+      <c r="G222" s="20"/>
       <c r="I222" t="str">
         <f t="shared" si="6"/>
         <v>new OpCodeTable(0xDB,"","","","",""),</v>
@@ -21069,8 +21106,8 @@
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
       <c r="E223" s="4"/>
-      <c r="F223" s="4"/>
-      <c r="G223" s="4"/>
+      <c r="F223" s="20"/>
+      <c r="G223" s="20"/>
       <c r="I223" t="str">
         <f t="shared" si="6"/>
         <v>new OpCodeTable(0xDC,"","","","",""),</v>
@@ -21087,8 +21124,8 @@
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
       <c r="E224" s="4"/>
-      <c r="F224" s="4"/>
-      <c r="G224" s="4"/>
+      <c r="F224" s="20"/>
+      <c r="G224" s="20"/>
       <c r="I224" t="str">
         <f t="shared" si="6"/>
         <v>new OpCodeTable(0xDD,"","","","",""),</v>
@@ -21105,8 +21142,8 @@
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
-      <c r="F225" s="4"/>
-      <c r="G225" s="4"/>
+      <c r="F225" s="20"/>
+      <c r="G225" s="20"/>
       <c r="I225" t="str">
         <f t="shared" si="6"/>
         <v>new OpCodeTable(0xDE,"","","","",""),</v>
@@ -21145,7 +21182,7 @@
       <c r="E227" t="s">
         <v>72</v>
       </c>
-      <c r="F227" t="s">
+      <c r="F227" s="19" t="s">
         <v>355</v>
       </c>
       <c r="I227" t="str">
@@ -21167,7 +21204,7 @@
       <c r="E228" t="s">
         <v>73</v>
       </c>
-      <c r="F228" t="s">
+      <c r="F228" s="19" t="s">
         <v>355</v>
       </c>
       <c r="I228" t="str">
@@ -21189,7 +21226,7 @@
       <c r="E229" t="s">
         <v>74</v>
       </c>
-      <c r="F229" t="s">
+      <c r="F229" s="19" t="s">
         <v>355</v>
       </c>
       <c r="I229" t="str">
@@ -21211,7 +21248,7 @@
       <c r="E230" t="s">
         <v>75</v>
       </c>
-      <c r="F230" t="s">
+      <c r="F230" s="19" t="s">
         <v>355</v>
       </c>
       <c r="I230" t="str">
@@ -21233,10 +21270,10 @@
       <c r="E231" t="s">
         <v>76</v>
       </c>
-      <c r="F231" t="s">
+      <c r="F231" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G231" t="s">
+      <c r="G231" s="19" t="s">
         <v>284</v>
       </c>
       <c r="I231" t="str">
@@ -21258,10 +21295,10 @@
       <c r="E232" t="s">
         <v>76</v>
       </c>
-      <c r="F232" t="s">
+      <c r="F232" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G232" t="s">
+      <c r="G232" s="19" t="s">
         <v>284</v>
       </c>
       <c r="I232" t="str">
@@ -21283,10 +21320,10 @@
       <c r="E233" t="s">
         <v>77</v>
       </c>
-      <c r="F233" t="s">
+      <c r="F233" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="G233" t="s">
+      <c r="G233" s="19" t="s">
         <v>9</v>
       </c>
       <c r="I233" t="str">
@@ -21308,10 +21345,10 @@
       <c r="E234" t="s">
         <v>77</v>
       </c>
-      <c r="F234" t="s">
+      <c r="F234" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="G234" t="s">
+      <c r="G234" s="19" t="s">
         <v>10</v>
       </c>
       <c r="I234" t="str">
@@ -21336,7 +21373,7 @@
       <c r="E235" t="s">
         <v>106</v>
       </c>
-      <c r="F235" t="s">
+      <c r="F235" s="19" t="s">
         <v>352</v>
       </c>
       <c r="I235" t="str">
@@ -21361,7 +21398,7 @@
       <c r="E236" t="s">
         <v>124</v>
       </c>
-      <c r="F236" t="s">
+      <c r="F236" s="19" t="s">
         <v>352</v>
       </c>
       <c r="I236" t="str">
@@ -21386,7 +21423,7 @@
       <c r="E237" t="s">
         <v>124</v>
       </c>
-      <c r="F237" t="s">
+      <c r="F237" s="19" t="s">
         <v>334</v>
       </c>
       <c r="I237" t="str">
@@ -21408,7 +21445,7 @@
       <c r="E238" t="s">
         <v>124</v>
       </c>
-      <c r="F238" t="s">
+      <c r="F238" s="19" t="s">
         <v>355</v>
       </c>
       <c r="I238" t="str">
@@ -21507,8 +21544,8 @@
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
       <c r="E244" s="4"/>
-      <c r="F244" s="4"/>
-      <c r="G244" s="4"/>
+      <c r="F244" s="20"/>
+      <c r="G244" s="20"/>
       <c r="I244" t="str">
         <f t="shared" si="6"/>
         <v>new OpCodeTable(0xF1,"","","","",""),</v>
@@ -21593,17 +21630,17 @@
         <v>276</v>
       </c>
       <c r="E249" t="s">
-        <v>361</v>
-      </c>
-      <c r="F249" t="s">
+        <v>45</v>
+      </c>
+      <c r="F249" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="G249" t="s">
+      <c r="G249" s="19" t="s">
         <v>284</v>
       </c>
       <c r="I249" t="str">
         <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xF6,"MRR","DISP","GRP7","RM-8","I-8"),</v>
+        <v>new OpCodeTable(0xF6,"MRR","DISP","GRP3","RM-8","I-8"),</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
@@ -21621,14 +21658,14 @@
         <v>276</v>
       </c>
       <c r="E250" t="s">
-        <v>362</v>
-      </c>
-      <c r="F250" t="s">
+        <v>45</v>
+      </c>
+      <c r="F250" s="19" t="s">
         <v>282</v>
       </c>
       <c r="I250" t="str">
         <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xF7,"MRR","DISP","GRP8","RM-16",""),</v>
+        <v>new OpCodeTable(0xF7,"MRR","DISP","GRP3","RM-16",""),</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
@@ -21742,14 +21779,14 @@
         <v>276</v>
       </c>
       <c r="E257" t="s">
-        <v>363</v>
-      </c>
-      <c r="F257" t="s">
+        <v>46</v>
+      </c>
+      <c r="F257" s="19" t="s">
         <v>280</v>
       </c>
       <c r="I257" t="str">
         <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xFE,"MRR","DISP","GRP9","RM-8",""),</v>
+        <v>new OpCodeTable(0xFE,"MRR","DISP","GRP4","RM-8",""),</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
@@ -21760,9 +21797,21 @@
         <f t="shared" si="7"/>
         <v>FF</v>
       </c>
+      <c r="C258" t="s">
+        <v>269</v>
+      </c>
+      <c r="D258" t="s">
+        <v>276</v>
+      </c>
+      <c r="E258" t="s">
+        <v>131</v>
+      </c>
+      <c r="F258" s="19" t="s">
+        <v>282</v>
+      </c>
       <c r="I258" t="str">
         <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xFF,"","","","",""),</v>
+        <v>new OpCodeTable(0xFF,"MRR","DISP","GRP5","RM-16",""),</v>
       </c>
     </row>
   </sheetData>
@@ -21775,8 +21824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H257"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="F134" sqref="F134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23882,7 +23931,7 @@
         <v>18</v>
       </c>
       <c r="B98" s="7" t="str">
-        <f t="shared" ref="B98:B129" si="3">DEC2HEX(A98,2)</f>
+        <f t="shared" ref="B98:B119" si="3">DEC2HEX(A98,2)</f>
         <v>12</v>
       </c>
       <c r="C98" t="s">
@@ -26173,7 +26222,7 @@
         <v>244</v>
       </c>
       <c r="B249" s="7" t="str">
-        <f t="shared" ref="B249:B280" si="8">DEC2HEX(A249,2)</f>
+        <f t="shared" ref="B249:B257" si="8">DEC2HEX(A249,2)</f>
         <v>F4</v>
       </c>
       <c r="E249" t="s">

--- a/Resources/8086 op code list.xlsx
+++ b/Resources/8086 op code list.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3243" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3244" uniqueCount="367">
   <si>
     <t>Op Code</t>
   </si>
@@ -16243,10 +16243,10 @@
   <dimension ref="A2:I258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B237" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B234" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C259" sqref="C259"/>
+      <selection pane="bottomRight" activeCell="G251" sqref="G251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21663,9 +21663,12 @@
       <c r="F250" s="19" t="s">
         <v>282</v>
       </c>
+      <c r="G250" s="19" t="s">
+        <v>285</v>
+      </c>
       <c r="I250" t="str">
         <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xF7,"MRR","DISP","GRP3","RM-16",""),</v>
+        <v>new OpCodeTable(0xF7,"MRR","DISP","GRP3","RM-16","I-16"),</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">

--- a/Resources/8086 op code list.xlsx
+++ b/Resources/8086 op code list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="23955" windowHeight="12090" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="23955" windowHeight="12090" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Op Code List" sheetId="1" r:id="rId1"/>
@@ -1546,8 +1546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P258"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="I144" sqref="I144"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8914,8 +8914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P258"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="G85" sqref="G85"/>
+    <sheetView topLeftCell="A260" workbookViewId="0">
+      <selection activeCell="E267" sqref="E267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16243,10 +16243,10 @@
   <dimension ref="A2:I258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B234" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B111" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G251" sqref="G251"/>
+      <selection pane="bottomRight" activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16284,265 +16284,253 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>55</v>
+      </c>
+      <c r="B3" s="7" t="str">
+        <f>DEC2HEX(A3,2)</f>
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="str">
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A3,2),",","""",C3,"""",",","""",D3,"""",",","""",E3,"""",",","""",F3,"""",",","""",G3,"""),")</f>
+        <v>new OpCodeTable(0x37,"","","AAA","",""),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>213</v>
+      </c>
+      <c r="B4" s="7" t="str">
+        <f>DEC2HEX(A4,2)</f>
+        <v>D5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>270</v>
+      </c>
+      <c r="E4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="I4" t="str">
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A4,2),",","""",C4,"""",",","""",D4,"""",",","""",E4,"""",",","""",F4,"""",",","""",G4,"""),")</f>
+        <v>new OpCodeTable(0xD5,"D-8","","AAD","I-8",""),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>212</v>
+      </c>
+      <c r="B5" s="7" t="str">
+        <f>DEC2HEX(A5,2)</f>
+        <v>D4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="I5" t="str">
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A5,2),",","""",C5,"""",",","""",D5,"""",",","""",E5,"""",",","""",F5,"""",",","""",G5,"""),")</f>
+        <v>new OpCodeTable(0xD4,"D-8","","AAM","I-8",""),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>63</v>
+      </c>
+      <c r="B6" s="7" t="str">
+        <f>DEC2HEX(A6,2)</f>
+        <v>3F</v>
+      </c>
+      <c r="E6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I6" t="str">
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A6,2),",","""",C6,"""",",","""",D6,"""",",","""",E6,"""",",","""",F6,"""",",","""",G6,"""),")</f>
+        <v>new OpCodeTable(0x3F,"","","AAS","",""),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>16</v>
+      </c>
+      <c r="B7" s="7" t="str">
+        <f>DEC2HEX(A7,2)</f>
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D7" t="s">
+        <v>276</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="I7" t="str">
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A7,2),",","""",C7,"""",",","""",D7,"""",",","""",E7,"""",",","""",F7,"""",",","""",G7,"""),")</f>
+        <v>new OpCodeTable(0x10,"MRR","DISP","ADC","RM-8","R-8"),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>17</v>
+      </c>
+      <c r="B8" s="7" t="str">
+        <f>DEC2HEX(A8,2)</f>
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>269</v>
+      </c>
+      <c r="D8" t="s">
+        <v>276</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="I8" t="str">
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A8,2),",","""",C8,"""",",","""",D8,"""",",","""",E8,"""",",","""",F8,"""",",","""",G8,"""),")</f>
+        <v>new OpCodeTable(0x11,"MRR","DISP","ADC","RM-16","R-16"),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>18</v>
+      </c>
+      <c r="B9" s="7" t="str">
+        <f>DEC2HEX(A9,2)</f>
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>269</v>
+      </c>
+      <c r="D9" t="s">
+        <v>276</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="I9" t="str">
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A9,2),",","""",C9,"""",",","""",D9,"""",",","""",E9,"""",",","""",F9,"""",",","""",G9,"""),")</f>
+        <v>new OpCodeTable(0x12,"MRR","DISP","ADC","R-8","RM-8"),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>19</v>
+      </c>
+      <c r="B10" s="7" t="str">
+        <f>DEC2HEX(A10,2)</f>
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>269</v>
+      </c>
+      <c r="D10" t="s">
+        <v>276</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="I10" t="str">
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A10,2),",","""",C10,"""",",","""",D10,"""",",","""",E10,"""",",","""",F10,"""",",","""",G10,"""),")</f>
+        <v>new OpCodeTable(0x13,"MRR","DISP","ADC","R-16","RM-16"),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>20</v>
+      </c>
+      <c r="B11" s="7" t="str">
+        <f>DEC2HEX(A11,2)</f>
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="I11" t="str">
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A11,2),",","""",C11,"""",",","""",D11,"""",",","""",E11,"""",",","""",F11,"""",",","""",G11,"""),")</f>
+        <v>new OpCodeTable(0x14,"D-8","","ADC","AL","I-8"),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>21</v>
+      </c>
+      <c r="B12" s="7" t="str">
+        <f>DEC2HEX(A12,2)</f>
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>271</v>
+      </c>
+      <c r="D12" t="s">
+        <v>277</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="I12" t="str">
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A12,2),",","""",C12,"""",",","""",D12,"""",",","""",E12,"""",",","""",F12,"""",",","""",G12,"""),")</f>
+        <v>new OpCodeTable(0x15,"D-LO","D-HI","ADC","AX","I-16"),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="str">
+      <c r="B13" s="7" t="str">
         <f>DEC2HEX(0,2)</f>
         <v>00</v>
       </c>
-      <c r="C3" t="s">
-        <v>269</v>
-      </c>
-      <c r="D3" t="s">
-        <v>276</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="I3" t="str">
-        <f t="shared" ref="I3:I66" si="0">CONCATENATE("new OpCodeTable(0x",DEC2HEX(A3,2),",","""",C3,"""",",","""",D3,"""",",","""",E3,"""",",","""",F3,"""",",","""",G3,"""),")</f>
-        <v>new OpCodeTable(0x00,"MRR","DISP","ADD","RM-8","R-8"),</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7" t="str">
-        <f>DEC2HEX(A4,2)</f>
-        <v>01</v>
-      </c>
-      <c r="C4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D4" t="s">
-        <v>276</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="I4" t="str">
-        <f t="shared" si="0"/>
-        <v>new OpCodeTable(0x01,"MRR","DISP","ADD","RM-16","R-16"),</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="7" t="str">
-        <f t="shared" ref="B5:B68" si="1">DEC2HEX(A5,2)</f>
-        <v>02</v>
-      </c>
-      <c r="C5" t="s">
-        <v>269</v>
-      </c>
-      <c r="D5" t="s">
-        <v>276</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="I5" t="str">
-        <f t="shared" si="0"/>
-        <v>new OpCodeTable(0x02,"MRR","DISP","ADD","R-8","RM-8"),</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>03</v>
-      </c>
-      <c r="C6" t="s">
-        <v>269</v>
-      </c>
-      <c r="D6" t="s">
-        <v>276</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="I6" t="str">
-        <f t="shared" si="0"/>
-        <v>new OpCodeTable(0x03,"MRR","DISP","ADD","R-16","RM-16"),</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>04</v>
-      </c>
-      <c r="C7" t="s">
-        <v>270</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="I7" t="str">
-        <f t="shared" si="0"/>
-        <v>new OpCodeTable(0x04,"D-8","","ADD","AL","I-8"),</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>05</v>
-      </c>
-      <c r="C8" t="s">
-        <v>271</v>
-      </c>
-      <c r="D8" t="s">
-        <v>277</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>285</v>
-      </c>
-      <c r="I8" t="str">
-        <f t="shared" si="0"/>
-        <v>new OpCodeTable(0x05,"D-LO","D-HI","ADD","AX","I-16"),</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>06</v>
-      </c>
-      <c r="E9" t="s">
-        <v>278</v>
-      </c>
-      <c r="I9" t="str">
-        <f t="shared" si="0"/>
-        <v>new OpCodeTable(0x06,"","","PUSH ES","",""),</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>07</v>
-      </c>
-      <c r="E10" t="s">
-        <v>279</v>
-      </c>
-      <c r="I10" t="str">
-        <f t="shared" si="0"/>
-        <v>new OpCodeTable(0x07,"","","POP ES","",""),</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>08</v>
-      </c>
-      <c r="C11" t="s">
-        <v>269</v>
-      </c>
-      <c r="D11" t="s">
-        <v>276</v>
-      </c>
-      <c r="E11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="I11" t="str">
-        <f t="shared" si="0"/>
-        <v>new OpCodeTable(0x08,"MRR","DISP","OR","RM-8","R-8"),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>09</v>
-      </c>
-      <c r="C12" t="s">
-        <v>269</v>
-      </c>
-      <c r="D12" t="s">
-        <v>276</v>
-      </c>
-      <c r="E12" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="I12" t="str">
-        <f t="shared" si="0"/>
-        <v>new OpCodeTable(0x09,"MRR","DISP","OR","RM-16","R-16"),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>0A</v>
-      </c>
       <c r="C13" t="s">
         <v>269</v>
       </c>
@@ -16550,26 +16538,26 @@
         <v>276</v>
       </c>
       <c r="E13" t="s">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="F13" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="G13" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="G13" s="19" t="s">
-        <v>280</v>
-      </c>
       <c r="I13" t="str">
-        <f t="shared" si="0"/>
-        <v>new OpCodeTable(0x0A,"MRR","DISP","OR","R-8","RM-8"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A13,2),",","""",C13,"""",",","""",D13,"""",",","""",E13,"""",",","""",F13,"""",",","""",G13,"""),")</f>
+        <v>new OpCodeTable(0x00,"MRR","DISP","ADD","RM-8","R-8"),</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B14" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>0B</v>
+        <f>DEC2HEX(A14,2)</f>
+        <v>01</v>
       </c>
       <c r="C14" t="s">
         <v>269</v>
@@ -16578,111 +16566,135 @@
         <v>276</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="F14" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="G14" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="G14" s="19" t="s">
-        <v>282</v>
-      </c>
       <c r="I14" t="str">
-        <f t="shared" si="0"/>
-        <v>new OpCodeTable(0x0B,"MRR","DISP","OR","R-16","RM-16"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A14,2),",","""",C14,"""",",","""",D14,"""",",","""",E14,"""",",","""",F14,"""",",","""",G14,"""),")</f>
+        <v>new OpCodeTable(0x01,"MRR","DISP","ADD","RM-16","R-16"),</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B15" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>0C</v>
+        <f>DEC2HEX(A15,2)</f>
+        <v>02</v>
       </c>
       <c r="C15" t="s">
-        <v>270</v>
+        <v>269</v>
+      </c>
+      <c r="D15" t="s">
+        <v>276</v>
       </c>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>9</v>
+        <v>281</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="0"/>
-        <v>new OpCodeTable(0x0C,"D-8","","OR","AL","I-8"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A15,2),",","""",C15,"""",",","""",D15,"""",",","""",E15,"""",",","""",F15,"""",",","""",G15,"""),")</f>
+        <v>new OpCodeTable(0x02,"MRR","DISP","ADD","R-8","RM-8"),</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B16" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>0D</v>
+        <f>DEC2HEX(A16,2)</f>
+        <v>03</v>
       </c>
       <c r="C16" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E16" t="s">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>10</v>
+        <v>283</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="0"/>
-        <v>new OpCodeTable(0x0D,"D-LO","D-HI","OR","AX","I-16"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A16,2),",","""",C16,"""",",","""",D16,"""",",","""",E16,"""",",","""",F16,"""",",","""",G16,"""),")</f>
+        <v>new OpCodeTable(0x03,"MRR","DISP","ADD","R-16","RM-16"),</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B17" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>0E</v>
+        <f>DEC2HEX(A17,2)</f>
+        <v>04</v>
+      </c>
+      <c r="C17" t="s">
+        <v>270</v>
       </c>
       <c r="E17" t="s">
-        <v>286</v>
+        <v>6</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>284</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="0"/>
-        <v>new OpCodeTable(0x0E,"","","PUSH CS","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A17,2),",","""",C17,"""",",","""",D17,"""",",","""",E17,"""",",","""",F17,"""",",","""",G17,"""),")</f>
+        <v>new OpCodeTable(0x04,"D-8","","ADD","AL","I-8"),</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B18" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>0F</v>
+        <f>DEC2HEX(A18,2)</f>
+        <v>05</v>
+      </c>
+      <c r="C18" t="s">
+        <v>271</v>
+      </c>
+      <c r="D18" t="s">
+        <v>277</v>
       </c>
       <c r="E18" t="s">
-        <v>287</v>
+        <v>6</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>285</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="0"/>
-        <v>new OpCodeTable(0x0F,"","","POP CS","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A18,2),",","""",C18,"""",",","""",D18,"""",",","""",E18,"""",",","""",F18,"""",",","""",G18,"""),")</f>
+        <v>new OpCodeTable(0x05,"D-LO","D-HI","ADD","AX","I-16"),</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B19" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f>DEC2HEX(A19,2)</f>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
         <v>269</v>
@@ -16691,7 +16703,7 @@
         <v>276</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F19" s="19" t="s">
         <v>280</v>
@@ -16700,17 +16712,17 @@
         <v>281</v>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="0"/>
-        <v>new OpCodeTable(0x10,"MRR","DISP","ADC","RM-8","R-8"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A19,2),",","""",C19,"""",",","""",D19,"""",",","""",E19,"""",",","""",F19,"""",",","""",G19,"""),")</f>
+        <v>new OpCodeTable(0x20,"MRR","DISP","AND","RM-8","R-8"),</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B20" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>11</v>
+        <f>DEC2HEX(A20,2)</f>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
         <v>269</v>
@@ -16719,7 +16731,7 @@
         <v>276</v>
       </c>
       <c r="E20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F20" s="19" t="s">
         <v>282</v>
@@ -16728,17 +16740,17 @@
         <v>283</v>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="0"/>
-        <v>new OpCodeTable(0x11,"MRR","DISP","ADC","RM-16","R-16"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A20,2),",","""",C20,"""",",","""",D20,"""",",","""",E20,"""",",","""",F20,"""",",","""",G20,"""),")</f>
+        <v>new OpCodeTable(0x21,"MRR","DISP","AND","RM-16","R-16"),</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B21" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f>DEC2HEX(A21,2)</f>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
         <v>269</v>
@@ -16747,7 +16759,7 @@
         <v>276</v>
       </c>
       <c r="E21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F21" s="19" t="s">
         <v>281</v>
@@ -16756,17 +16768,17 @@
         <v>280</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="0"/>
-        <v>new OpCodeTable(0x12,"MRR","DISP","ADC","R-8","RM-8"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A21,2),",","""",C21,"""",",","""",D21,"""",",","""",E21,"""",",","""",F21,"""",",","""",G21,"""),")</f>
+        <v>new OpCodeTable(0x22,"MRR","DISP","AND","R-8","RM-8"),</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B22" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <f>DEC2HEX(A22,2)</f>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
         <v>269</v>
@@ -16775,7 +16787,7 @@
         <v>276</v>
       </c>
       <c r="E22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F22" s="19" t="s">
         <v>283</v>
@@ -16784,23 +16796,23 @@
         <v>282</v>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="0"/>
-        <v>new OpCodeTable(0x13,"MRR","DISP","ADC","R-16","RM-16"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A22,2),",","""",C22,"""",",","""",D22,"""",",","""",E22,"""",",","""",F22,"""",",","""",G22,"""),")</f>
+        <v>new OpCodeTable(0x23,"MRR","DISP","AND","R-16","RM-16"),</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B23" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>14</v>
+        <f>DEC2HEX(A23,2)</f>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
         <v>270</v>
       </c>
       <c r="E23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F23" s="19" t="s">
         <v>9</v>
@@ -16809,17 +16821,17 @@
         <v>284</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="0"/>
-        <v>new OpCodeTable(0x14,"D-8","","ADC","AL","I-8"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A23,2),",","""",C23,"""",",","""",D23,"""",",","""",E23,"""",",","""",F23,"""",",","""",G23,"""),")</f>
+        <v>new OpCodeTable(0x24,"D-8","","AND","AL","I-8"),</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B24" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <f>DEC2HEX(A24,2)</f>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
         <v>271</v>
@@ -16828,7 +16840,7 @@
         <v>277</v>
       </c>
       <c r="E24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F24" s="19" t="s">
         <v>10</v>
@@ -16837,246 +16849,231 @@
         <v>285</v>
       </c>
       <c r="I24" t="str">
-        <f t="shared" si="0"/>
-        <v>new OpCodeTable(0x15,"D-LO","D-HI","ADC","AX","I-16"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A24,2),",","""",C24,"""",",","""",D24,"""",",","""",E24,"""",",","""",F24,"""",",","""",G24,"""),")</f>
+        <v>new OpCodeTable(0x25,"D-LO","D-HI","AND","AX","I-16"),</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>22</v>
+        <v>154</v>
       </c>
       <c r="B25" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f>DEC2HEX(A25,2)</f>
+        <v>9A</v>
+      </c>
+      <c r="C25" t="s">
+        <v>271</v>
+      </c>
+      <c r="D25" t="s">
+        <v>333</v>
       </c>
       <c r="E25" t="s">
-        <v>288</v>
+        <v>106</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>334</v>
       </c>
       <c r="I25" t="str">
-        <f t="shared" si="0"/>
-        <v>new OpCodeTable(0x16,"","","PUSH SS","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A25,2),",","""",C25,"""",",","""",D25,"""",",","""",E25,"""",",","""",F25,"""",",","""",G25,"""),")</f>
+        <v>new OpCodeTable(0x9A,"D-LO","D-HI,S-LO,S-HI","CALL","FAR",""),</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>23</v>
+        <v>232</v>
       </c>
       <c r="B26" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>17</v>
+        <f>DEC2HEX(A26,2)</f>
+        <v>E8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>350</v>
+      </c>
+      <c r="D26" t="s">
+        <v>351</v>
       </c>
       <c r="E26" t="s">
-        <v>289</v>
+        <v>106</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>352</v>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="0"/>
-        <v>new OpCodeTable(0x17,"","","POP SS","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A26,2),",","""",C26,"""",",","""",D26,"""",",","""",E26,"""",",","""",F26,"""",",","""",G26,"""),")</f>
+        <v>new OpCodeTable(0xE8,"IP-INC-LO","IP-INC-HI","CALL","NEAR",""),</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="B27" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="C27" t="s">
-        <v>269</v>
-      </c>
-      <c r="D27" t="s">
-        <v>276</v>
+        <f>DEC2HEX(A27,2)</f>
+        <v>98</v>
       </c>
       <c r="E27" t="s">
-        <v>86</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>281</v>
+        <v>104</v>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="0"/>
-        <v>new OpCodeTable(0x18,"MRR","DISP","SBB","RM-8","R-8"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A27,2),",","""",C27,"""",",","""",D27,"""",",","""",E27,"""",",","""",F27,"""",",","""",G27,"""),")</f>
+        <v>new OpCodeTable(0x98,"","","CBW","",""),</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>25</v>
+        <v>248</v>
       </c>
       <c r="B28" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="C28" t="s">
-        <v>269</v>
-      </c>
-      <c r="D28" t="s">
-        <v>276</v>
+        <f>DEC2HEX(A28,2)</f>
+        <v>F8</v>
       </c>
       <c r="E28" t="s">
-        <v>86</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="G28" s="19" t="s">
-        <v>283</v>
+        <v>125</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="0"/>
-        <v>new OpCodeTable(0x19,"MRR","DISP","SBB","RM-16","R-16"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A28,2),",","""",C28,"""",",","""",D28,"""",",","""",E28,"""",",","""",F28,"""",",","""",G28,"""),")</f>
+        <v>new OpCodeTable(0xF8,"","","CLC","",""),</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>26</v>
+        <v>252</v>
       </c>
       <c r="B29" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>1A</v>
-      </c>
-      <c r="C29" t="s">
-        <v>269</v>
-      </c>
-      <c r="D29" t="s">
-        <v>276</v>
+        <f>DEC2HEX(A29,2)</f>
+        <v>FC</v>
       </c>
       <c r="E29" t="s">
-        <v>86</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>280</v>
+        <v>129</v>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="0"/>
-        <v>new OpCodeTable(0x1A,"MRR","DISP","SBB","R-8","RM-8"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A29,2),",","""",C29,"""",",","""",D29,"""",",","""",E29,"""",",","""",F29,"""",",","""",G29,"""),")</f>
+        <v>new OpCodeTable(0xFC,"","","CLD","",""),</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>27</v>
+        <v>250</v>
       </c>
       <c r="B30" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>1B</v>
-      </c>
-      <c r="C30" t="s">
-        <v>269</v>
-      </c>
-      <c r="D30" t="s">
-        <v>276</v>
+        <f>DEC2HEX(A30,2)</f>
+        <v>FA</v>
       </c>
       <c r="E30" t="s">
-        <v>86</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>282</v>
+        <v>127</v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="0"/>
-        <v>new OpCodeTable(0x1B,"MRR","DISP","SBB","R-16","RM-16"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A30,2),",","""",C30,"""",",","""",D30,"""",",","""",E30,"""",",","""",F30,"""",",","""",G30,"""),")</f>
+        <v>new OpCodeTable(0xFA,"","","CLI","",""),</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>28</v>
+        <v>245</v>
       </c>
       <c r="B31" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>1C</v>
-      </c>
-      <c r="C31" t="s">
-        <v>270</v>
+        <f>DEC2HEX(A31,2)</f>
+        <v>F5</v>
       </c>
       <c r="E31" t="s">
-        <v>86</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G31" s="19" t="s">
-        <v>284</v>
+        <v>82</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" si="0"/>
-        <v>new OpCodeTable(0x1C,"D-8","","SBB","AL","I-8"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A31,2),",","""",C31,"""",",","""",D31,"""",",","""",E31,"""",",","""",F31,"""",",","""",G31,"""),")</f>
+        <v>new OpCodeTable(0xF5,"","","CMC","",""),</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="B32" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>1D</v>
+        <f>DEC2HEX(A32,2)</f>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E32" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>10</v>
+        <v>280</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="0"/>
-        <v>new OpCodeTable(0x1D,"D-LO","D-HI","SBB","AX","I-16"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A32,2),",","""",C32,"""",",","""",D32,"""",",","""",E32,"""",",","""",F32,"""",",","""",G32,"""),")</f>
+        <v>new OpCodeTable(0x38,"MRR","DISP","CMP","RM-8","R-8"),</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B33" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>1E</v>
+        <f>DEC2HEX(A33,2)</f>
+        <v>39</v>
+      </c>
+      <c r="C33" t="s">
+        <v>269</v>
+      </c>
+      <c r="D33" t="s">
+        <v>276</v>
       </c>
       <c r="E33" t="s">
-        <v>290</v>
+        <v>91</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>283</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="0"/>
-        <v>new OpCodeTable(0x1E,"","","PUSH DS","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A33,2),",","""",C33,"""",",","""",D33,"""",",","""",E33,"""",",","""",F33,"""",",","""",G33,"""),")</f>
+        <v>new OpCodeTable(0x39,"MRR","DISP","CMP","RM-16","R-16"),</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="B34" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>1F</v>
+        <f>DEC2HEX(A34,2)</f>
+        <v>3A</v>
+      </c>
+      <c r="C34" t="s">
+        <v>269</v>
+      </c>
+      <c r="D34" t="s">
+        <v>276</v>
       </c>
       <c r="E34" t="s">
-        <v>291</v>
+        <v>91</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>280</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="0"/>
-        <v>new OpCodeTable(0x1F,"","","POP DS","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A34,2),",","""",C34,"""",",","""",D34,"""",",","""",E34,"""",",","""",F34,"""",",","""",G34,"""),")</f>
+        <v>new OpCodeTable(0x3A,"MRR","DISP","CMP","R-8","RM-8"),</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="B35" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f>DEC2HEX(A35,2)</f>
+        <v>3B</v>
       </c>
       <c r="C35" t="s">
         <v>269</v>
@@ -17085,170 +17082,134 @@
         <v>276</v>
       </c>
       <c r="E35" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I35" t="str">
-        <f t="shared" si="0"/>
-        <v>new OpCodeTable(0x20,"MRR","DISP","AND","RM-8","R-8"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A35,2),",","""",C35,"""",",","""",D35,"""",",","""",E35,"""",",","""",F35,"""",",","""",G35,"""),")</f>
+        <v>new OpCodeTable(0x3B,"MRR","DISP","CMP","R-16","RM-16"),</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="B36" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>21</v>
+        <f>DEC2HEX(A36,2)</f>
+        <v>3C</v>
       </c>
       <c r="C36" t="s">
-        <v>269</v>
-      </c>
-      <c r="D36" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E36" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>282</v>
+        <v>9</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I36" t="str">
-        <f t="shared" si="0"/>
-        <v>new OpCodeTable(0x21,"MRR","DISP","AND","RM-16","R-16"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A36,2),",","""",C36,"""",",","""",D36,"""",",","""",E36,"""",",","""",F36,"""",",","""",G36,"""),")</f>
+        <v>new OpCodeTable(0x3C,"D-8","","CMP","AL","I-8"),</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B37" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>22</v>
+        <f>DEC2HEX(A37,2)</f>
+        <v>3D</v>
       </c>
       <c r="C37" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D37" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E37" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>281</v>
+        <v>10</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="I37" t="str">
-        <f t="shared" si="0"/>
-        <v>new OpCodeTable(0x22,"MRR","DISP","AND","R-8","RM-8"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A37,2),",","""",C37,"""",",","""",D37,"""",",","""",E37,"""",",","""",F37,"""",",","""",G37,"""),")</f>
+        <v>new OpCodeTable(0x3D,"D-LO","D-HI","CMP","AX","I-16"),</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>35</v>
+        <v>166</v>
       </c>
       <c r="B38" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="C38" t="s">
-        <v>269</v>
-      </c>
-      <c r="D38" t="s">
-        <v>276</v>
+        <f>DEC2HEX(A38,2)</f>
+        <v>A6</v>
       </c>
       <c r="E38" t="s">
-        <v>19</v>
-      </c>
-      <c r="F38" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="G38" s="19" t="s">
-        <v>282</v>
+        <v>54</v>
       </c>
       <c r="I38" t="str">
-        <f t="shared" si="0"/>
-        <v>new OpCodeTable(0x23,"MRR","DISP","AND","R-16","RM-16"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A38,2),",","""",C38,"""",",","""",D38,"""",",","""",E38,"""",",","""",F38,"""",",","""",G38,"""),")</f>
+        <v>new OpCodeTable(0xA6,"","","CMPSB","",""),</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>36</v>
+        <v>167</v>
       </c>
       <c r="B39" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="C39" t="s">
-        <v>270</v>
+        <f>DEC2HEX(A39,2)</f>
+        <v>A7</v>
       </c>
       <c r="E39" t="s">
-        <v>19</v>
-      </c>
-      <c r="F39" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G39" s="19" t="s">
-        <v>284</v>
+        <v>55</v>
       </c>
       <c r="I39" t="str">
-        <f t="shared" si="0"/>
-        <v>new OpCodeTable(0x24,"D-8","","AND","AL","I-8"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A39,2),",","""",C39,"""",",","""",D39,"""",",","""",E39,"""",",","""",F39,"""",",","""",G39,"""),")</f>
+        <v>new OpCodeTable(0xA7,"","","CMPSW","",""),</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B40" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="C40" t="s">
-        <v>271</v>
-      </c>
-      <c r="D40" t="s">
-        <v>277</v>
+        <f>DEC2HEX(A40,2)</f>
+        <v>2E</v>
       </c>
       <c r="E40" t="s">
-        <v>19</v>
-      </c>
-      <c r="F40" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G40" s="19" t="s">
-        <v>285</v>
+        <v>90</v>
       </c>
       <c r="I40" t="str">
-        <f t="shared" si="0"/>
-        <v>new OpCodeTable(0x25,"D-LO","D-HI","AND","AX","I-16"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A40,2),",","""",C40,"""",",","""",D40,"""",",","""",E40,"""",",","""",F40,"""",",","""",G40,"""),")</f>
+        <v>new OpCodeTable(0x2E,"","","CS:","",""),</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>38</v>
+        <v>153</v>
       </c>
       <c r="B41" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>26</v>
+        <f>DEC2HEX(A41,2)</f>
+        <v>99</v>
       </c>
       <c r="E41" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="I41" t="str">
-        <f t="shared" si="0"/>
-        <v>new OpCodeTable(0x26,"","","ES:","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A41,2),",","""",C41,"""",",","""",D41,"""",",","""",E41,"""",",","""",F41,"""",",","""",G41,"""),")</f>
+        <v>new OpCodeTable(0x99,"","","CWD","",""),</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -17256,305 +17217,200 @@
         <v>39</v>
       </c>
       <c r="B42" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2HEX(A42,2)</f>
         <v>27</v>
       </c>
       <c r="E42" t="s">
         <v>21</v>
       </c>
       <c r="I42" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A42,2),",","""",C42,"""",",","""",D42,"""",",","""",E42,"""",",","""",F42,"""",",","""",G42,"""),")</f>
         <v>new OpCodeTable(0x27,"","","DAA","",""),</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B43" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="C43" t="s">
-        <v>269</v>
-      </c>
-      <c r="D43" t="s">
-        <v>276</v>
+        <f>DEC2HEX(A43,2)</f>
+        <v>2F</v>
       </c>
       <c r="E43" t="s">
-        <v>88</v>
-      </c>
-      <c r="F43" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="G43" s="19" t="s">
-        <v>281</v>
+        <v>89</v>
       </c>
       <c r="I43" t="str">
-        <f t="shared" si="0"/>
-        <v>new OpCodeTable(0x28,"MRR","DISP","SUB","RM-8","R-8"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A43,2),",","""",C43,"""",",","""",D43,"""",",","""",E43,"""",",","""",F43,"""",",","""",G43,"""),")</f>
+        <v>new OpCodeTable(0x2F,"","","DAS","",""),</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="B44" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="C44" t="s">
-        <v>269</v>
-      </c>
-      <c r="D44" t="s">
-        <v>276</v>
+        <f>DEC2HEX(A44,2)</f>
+        <v>48</v>
       </c>
       <c r="E44" t="s">
-        <v>88</v>
-      </c>
-      <c r="F44" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="G44" s="19" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="I44" t="str">
-        <f t="shared" si="0"/>
-        <v>new OpCodeTable(0x29,"MRR","DISP","SUB","RM-16","R-16"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A44,2),",","""",C44,"""",",","""",D44,"""",",","""",E44,"""",",","""",F44,"""",",","""",G44,"""),")</f>
+        <v>new OpCodeTable(0x48,"","","DEC AX","",""),</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="B45" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>2A</v>
-      </c>
-      <c r="C45" t="s">
-        <v>269</v>
-      </c>
-      <c r="D45" t="s">
-        <v>276</v>
+        <f>DEC2HEX(A45,2)</f>
+        <v>4D</v>
       </c>
       <c r="E45" t="s">
-        <v>88</v>
-      </c>
-      <c r="F45" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="G45" s="19" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="I45" t="str">
-        <f t="shared" si="0"/>
-        <v>new OpCodeTable(0x2A,"MRR","DISP","SUB","R-8","RM-8"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A45,2),",","""",C45,"""",",","""",D45,"""",",","""",E45,"""",",","""",F45,"""",",","""",G45,"""),")</f>
+        <v>new OpCodeTable(0x4D,"","","DEC BP","",""),</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="B46" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>2B</v>
-      </c>
-      <c r="C46" t="s">
-        <v>269</v>
-      </c>
-      <c r="D46" t="s">
-        <v>276</v>
+        <f>DEC2HEX(A46,2)</f>
+        <v>4B</v>
       </c>
       <c r="E46" t="s">
-        <v>88</v>
-      </c>
-      <c r="F46" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="G46" s="19" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="I46" t="str">
-        <f t="shared" si="0"/>
-        <v>new OpCodeTable(0x2B,"MRR","DISP","SUB","R-16","RM-16"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A46,2),",","""",C46,"""",",","""",D46,"""",",","""",E46,"""",",","""",F46,"""",",","""",G46,"""),")</f>
+        <v>new OpCodeTable(0x4B,"","","DEC BX","",""),</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="B47" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>2C</v>
-      </c>
-      <c r="C47" t="s">
-        <v>270</v>
+        <f>DEC2HEX(A47,2)</f>
+        <v>49</v>
       </c>
       <c r="E47" t="s">
-        <v>88</v>
-      </c>
-      <c r="F47" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G47" s="19" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="I47" t="str">
-        <f t="shared" si="0"/>
-        <v>new OpCodeTable(0x2C,"D-8","","SUB","AL","I-8"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A47,2),",","""",C47,"""",",","""",D47,"""",",","""",E47,"""",",","""",F47,"""",",","""",G47,"""),")</f>
+        <v>new OpCodeTable(0x49,"","","DEC CX","",""),</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="B48" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>2D</v>
-      </c>
-      <c r="C48" t="s">
-        <v>271</v>
-      </c>
-      <c r="D48" t="s">
-        <v>277</v>
+        <f>DEC2HEX(A48,2)</f>
+        <v>4F</v>
       </c>
       <c r="E48" t="s">
-        <v>88</v>
-      </c>
-      <c r="F48" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48" s="19" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="I48" t="str">
-        <f t="shared" si="0"/>
-        <v>new OpCodeTable(0x2D,"D-LO","D-HI","SUB","AX","I-16"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A48,2),",","""",C48,"""",",","""",D48,"""",",","""",E48,"""",",","""",F48,"""",",","""",G48,"""),")</f>
+        <v>new OpCodeTable(0x4F,"","","DEC DI","",""),</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="B49" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>2E</v>
+        <f>DEC2HEX(A49,2)</f>
+        <v>4A</v>
       </c>
       <c r="E49" t="s">
-        <v>90</v>
+        <v>302</v>
       </c>
       <c r="I49" t="str">
-        <f t="shared" si="0"/>
-        <v>new OpCodeTable(0x2E,"","","CS:","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A49,2),",","""",C49,"""",",","""",D49,"""",",","""",E49,"""",",","""",F49,"""",",","""",G49,"""),")</f>
+        <v>new OpCodeTable(0x4A,"","","DEC DX","",""),</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="B50" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>2F</v>
+        <f>DEC2HEX(A50,2)</f>
+        <v>4E</v>
       </c>
       <c r="E50" t="s">
-        <v>89</v>
+        <v>306</v>
       </c>
       <c r="I50" t="str">
-        <f t="shared" si="0"/>
-        <v>new OpCodeTable(0x2F,"","","DAS","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A50,2),",","""",C50,"""",",","""",D50,"""",",","""",E50,"""",",","""",F50,"""",",","""",G50,"""),")</f>
+        <v>new OpCodeTable(0x4E,"","","DEC SI","",""),</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="B51" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="C51" t="s">
-        <v>269</v>
-      </c>
-      <c r="D51" t="s">
-        <v>276</v>
+        <f>DEC2HEX(A51,2)</f>
+        <v>4C</v>
       </c>
       <c r="E51" t="s">
-        <v>22</v>
-      </c>
-      <c r="F51" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="G51" s="19" t="s">
-        <v>281</v>
+        <v>304</v>
       </c>
       <c r="I51" t="str">
-        <f t="shared" si="0"/>
-        <v>new OpCodeTable(0x30,"MRR","DISP","XOR","RM-8","R-8"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A51,2),",","""",C51,"""",",","""",D51,"""",",","""",E51,"""",",","""",F51,"""",",","""",G51,"""),")</f>
+        <v>new OpCodeTable(0x4C,"","","DEC SP","",""),</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B52" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="C52" t="s">
-        <v>269</v>
-      </c>
-      <c r="D52" t="s">
-        <v>276</v>
+        <f>DEC2HEX(A52,2)</f>
+        <v>3E</v>
       </c>
       <c r="E52" t="s">
-        <v>22</v>
-      </c>
-      <c r="F52" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="G52" s="19" t="s">
-        <v>283</v>
+        <v>92</v>
       </c>
       <c r="I52" t="str">
-        <f t="shared" si="0"/>
-        <v>new OpCodeTable(0x31,"MRR","DISP","XOR","RM-16","R-16"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A52,2),",","""",C52,"""",",","""",D52,"""",",","""",E52,"""",",","""",F52,"""",",","""",G52,"""),")</f>
+        <v>new OpCodeTable(0x3E,"","","DS:","",""),</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B53" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="C53" t="s">
-        <v>269</v>
-      </c>
-      <c r="D53" t="s">
-        <v>276</v>
+        <f>DEC2HEX(A53,2)</f>
+        <v>26</v>
       </c>
       <c r="E53" t="s">
-        <v>22</v>
-      </c>
-      <c r="F53" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="G53" s="19" t="s">
-        <v>280</v>
+        <v>20</v>
       </c>
       <c r="I53" t="str">
-        <f t="shared" si="0"/>
-        <v>new OpCodeTable(0x32,"MRR","DISP","XOR","R-8","RM-8"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A53,2),",","""",C53,"""",",","""",D53,"""",",","""",E53,"""",",","""",F53,"""",",","""",G53,"""),")</f>
+        <v>new OpCodeTable(0x26,"","","ES:","",""),</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>51</v>
+        <v>216</v>
       </c>
       <c r="B54" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>33</v>
+        <f>DEC2HEX(A54,2)</f>
+        <v>D8</v>
       </c>
       <c r="C54" t="s">
         <v>269</v>
@@ -17563,111 +17419,138 @@
         <v>276</v>
       </c>
       <c r="E54" t="s">
-        <v>22</v>
+        <v>345</v>
       </c>
       <c r="F54" s="19" t="s">
-        <v>283</v>
+        <v>346</v>
       </c>
       <c r="G54" s="19" t="s">
-        <v>282</v>
+        <v>347</v>
       </c>
       <c r="I54" t="str">
-        <f t="shared" si="0"/>
-        <v>new OpCodeTable(0x33,"MRR","DISP","XOR","R-16","RM-16"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A54,2),",","""",C54,"""",",","""",D54,"""",",","""",E54,"""",",","""",F54,"""",",","""",G54,"""),")</f>
+        <v>new OpCodeTable(0xD8,"MRR","DISP","ESC","OPCODE","SOURCE"),</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="B55" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>34</v>
+        <f>DEC2HEX(A55,2)</f>
+        <v>80</v>
       </c>
       <c r="C55" t="s">
-        <v>270</v>
+        <v>269</v>
+      </c>
+      <c r="D55" t="s">
+        <v>276</v>
       </c>
       <c r="E55" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="F55" s="19" t="s">
-        <v>9</v>
+        <v>280</v>
       </c>
       <c r="G55" s="19" t="s">
         <v>284</v>
       </c>
       <c r="I55" t="str">
-        <f t="shared" si="0"/>
-        <v>new OpCodeTable(0x34,"D-8","","XOR","AL","I-8"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A55,2),",","""",C55,"""",",","""",D55,"""",",","""",E55,"""",",","""",F55,"""",",","""",G55,"""),")</f>
+        <v>new OpCodeTable(0x80,"MRR","DISP","GRP1","RM-8","I-8"),</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="B56" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>35</v>
+        <f>DEC2HEX(A56,2)</f>
+        <v>81</v>
       </c>
       <c r="C56" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D56" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E56" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="F56" s="19" t="s">
-        <v>10</v>
+        <v>282</v>
       </c>
       <c r="G56" s="19" t="s">
         <v>285</v>
       </c>
       <c r="I56" t="str">
-        <f t="shared" si="0"/>
-        <v>new OpCodeTable(0x35,"D-LO","D-HI","XOR","AX","I-16"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A56,2),",","""",C56,"""",",","""",D56,"""",",","""",E56,"""",",","""",F56,"""",",","""",G56,"""),")</f>
+        <v>new OpCodeTable(0x81,"MRR","DISP","GRP1","RM-16","I-16"),</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="B57" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>36</v>
+        <f>DEC2HEX(A57,2)</f>
+        <v>82</v>
+      </c>
+      <c r="C57" t="s">
+        <v>269</v>
+      </c>
+      <c r="D57" t="s">
+        <v>276</v>
       </c>
       <c r="E57" t="s">
-        <v>23</v>
+        <v>43</v>
+      </c>
+      <c r="F57" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="G57" s="21" t="s">
+        <v>284</v>
       </c>
       <c r="I57" t="str">
-        <f t="shared" si="0"/>
-        <v>new OpCodeTable(0x36,"","","SS:","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A57,2),",","""",C57,"""",",","""",D57,"""",",","""",E57,"""",",","""",F57,"""",",","""",G57,"""),")</f>
+        <v>new OpCodeTable(0x82,"MRR","DISP","GRP1","RM-8","I-8"),</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="B58" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>37</v>
+        <f>DEC2HEX(A58,2)</f>
+        <v>83</v>
+      </c>
+      <c r="C58" t="s">
+        <v>269</v>
+      </c>
+      <c r="D58" t="s">
+        <v>366</v>
       </c>
       <c r="E58" t="s">
-        <v>24</v>
+        <v>43</v>
+      </c>
+      <c r="F58" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="G58" s="19" t="s">
+        <v>284</v>
       </c>
       <c r="I58" t="str">
-        <f t="shared" si="0"/>
-        <v>new OpCodeTable(0x37,"","","AAA","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A58,2),",","""",C58,"""",",","""",D58,"""",",","""",E58,"""",",","""",F58,"""",",","""",G58,"""),")</f>
+        <v>new OpCodeTable(0x83,"MRR","DISP-SX","GRP1","RM-16","I-8"),</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>56</v>
+        <v>208</v>
       </c>
       <c r="B59" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>38</v>
+        <f>DEC2HEX(A59,2)</f>
+        <v>D0</v>
       </c>
       <c r="C59" t="s">
         <v>269</v>
@@ -17676,26 +17559,26 @@
         <v>276</v>
       </c>
       <c r="E59" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="F59" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="G59" s="19" t="s">
-        <v>281</v>
+      <c r="G59" s="19">
+        <v>1</v>
       </c>
       <c r="I59" t="str">
-        <f t="shared" si="0"/>
-        <v>new OpCodeTable(0x38,"MRR","DISP","CMP","RM-8","R-8"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A59,2),",","""",C59,"""",",","""",D59,"""",",","""",E59,"""",",","""",F59,"""",",","""",G59,"""),")</f>
+        <v>new OpCodeTable(0xD0,"MRR","DISP","GRP2","RM-8","1"),</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>57</v>
+        <v>209</v>
       </c>
       <c r="B60" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>39</v>
+        <f>DEC2HEX(A60,2)</f>
+        <v>D1</v>
       </c>
       <c r="C60" t="s">
         <v>269</v>
@@ -17704,26 +17587,26 @@
         <v>276</v>
       </c>
       <c r="E60" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="F60" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="G60" s="19" t="s">
-        <v>283</v>
+      <c r="G60" s="19">
+        <v>1</v>
       </c>
       <c r="I60" t="str">
-        <f t="shared" si="0"/>
-        <v>new OpCodeTable(0x39,"MRR","DISP","CMP","RM-16","R-16"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A60,2),",","""",C60,"""",",","""",D60,"""",",","""",E60,"""",",","""",F60,"""",",","""",G60,"""),")</f>
+        <v>new OpCodeTable(0xD1,"MRR","DISP","GRP2","RM-16","1"),</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>58</v>
+        <v>210</v>
       </c>
       <c r="B61" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>3A</v>
+        <f>DEC2HEX(A61,2)</f>
+        <v>D2</v>
       </c>
       <c r="C61" t="s">
         <v>269</v>
@@ -17732,26 +17615,26 @@
         <v>276</v>
       </c>
       <c r="E61" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="F61" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G61" s="19" t="s">
-        <v>280</v>
+        <v>56</v>
       </c>
       <c r="I61" t="str">
-        <f t="shared" si="0"/>
-        <v>new OpCodeTable(0x3A,"MRR","DISP","CMP","R-8","RM-8"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A61,2),",","""",C61,"""",",","""",D61,"""",",","""",E61,"""",",","""",F61,"""",",","""",G61,"""),")</f>
+        <v>new OpCodeTable(0xD2,"MRR","DISP","GRP2","RM-8","CL"),</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>59</v>
+        <v>211</v>
       </c>
       <c r="B62" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>3B</v>
+        <f>DEC2HEX(A62,2)</f>
+        <v>D3</v>
       </c>
       <c r="C62" t="s">
         <v>269</v>
@@ -17760,1518 +17643,1795 @@
         <v>276</v>
       </c>
       <c r="E62" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="F62" s="19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G62" s="19" t="s">
-        <v>282</v>
+        <v>56</v>
       </c>
       <c r="I62" t="str">
-        <f t="shared" si="0"/>
-        <v>new OpCodeTable(0x3B,"MRR","DISP","CMP","R-16","RM-16"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A62,2),",","""",C62,"""",",","""",D62,"""",",","""",E62,"""",",","""",F62,"""",",","""",G62,"""),")</f>
+        <v>new OpCodeTable(0xD3,"MRR","DISP","GRP2","RM-16","CL"),</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>60</v>
+        <v>246</v>
       </c>
       <c r="B63" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>3C</v>
+        <f>DEC2HEX(A63,2)</f>
+        <v>F6</v>
       </c>
       <c r="C63" t="s">
-        <v>270</v>
+        <v>269</v>
+      </c>
+      <c r="D63" t="s">
+        <v>276</v>
       </c>
       <c r="E63" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>9</v>
+        <v>280</v>
       </c>
       <c r="G63" s="19" t="s">
         <v>284</v>
       </c>
       <c r="I63" t="str">
-        <f t="shared" si="0"/>
-        <v>new OpCodeTable(0x3C,"D-8","","CMP","AL","I-8"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A63,2),",","""",C63,"""",",","""",D63,"""",",","""",E63,"""",",","""",F63,"""",",","""",G63,"""),")</f>
+        <v>new OpCodeTable(0xF6,"MRR","DISP","GRP3","RM-8","I-8"),</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>61</v>
+        <v>247</v>
       </c>
       <c r="B64" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>3D</v>
+        <f>DEC2HEX(A64,2)</f>
+        <v>F7</v>
       </c>
       <c r="C64" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D64" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E64" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="F64" s="19" t="s">
-        <v>10</v>
+        <v>282</v>
       </c>
       <c r="G64" s="19" t="s">
         <v>285</v>
       </c>
       <c r="I64" t="str">
-        <f t="shared" si="0"/>
-        <v>new OpCodeTable(0x3D,"D-LO","D-HI","CMP","AX","I-16"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A64,2),",","""",C64,"""",",","""",D64,"""",",","""",E64,"""",",","""",F64,"""",",","""",G64,"""),")</f>
+        <v>new OpCodeTable(0xF7,"MRR","DISP","GRP3","RM-16","I-16"),</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>62</v>
+        <v>254</v>
       </c>
       <c r="B65" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>3E</v>
+        <f>DEC2HEX(A65,2)</f>
+        <v>FE</v>
+      </c>
+      <c r="C65" t="s">
+        <v>269</v>
+      </c>
+      <c r="D65" t="s">
+        <v>276</v>
       </c>
       <c r="E65" t="s">
-        <v>92</v>
+        <v>46</v>
+      </c>
+      <c r="F65" s="19" t="s">
+        <v>280</v>
       </c>
       <c r="I65" t="str">
-        <f t="shared" si="0"/>
-        <v>new OpCodeTable(0x3E,"","","DS:","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A65,2),",","""",C65,"""",",","""",D65,"""",",","""",E65,"""",",","""",F65,"""",",","""",G65,"""),")</f>
+        <v>new OpCodeTable(0xFE,"MRR","DISP","GRP4","RM-8",""),</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>63</v>
+        <v>255</v>
       </c>
       <c r="B66" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>3F</v>
+        <f>DEC2HEX(A66,2)</f>
+        <v>FF</v>
+      </c>
+      <c r="C66" t="s">
+        <v>269</v>
+      </c>
+      <c r="D66" t="s">
+        <v>276</v>
       </c>
       <c r="E66" t="s">
-        <v>93</v>
+        <v>131</v>
+      </c>
+      <c r="F66" s="19" t="s">
+        <v>282</v>
       </c>
       <c r="I66" t="str">
-        <f t="shared" si="0"/>
-        <v>new OpCodeTable(0x3F,"","","AAS","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A66,2),",","""",C66,"""",",","""",D66,"""",",","""",E66,"""",",","""",F66,"""",",","""",G66,"""),")</f>
+        <v>new OpCodeTable(0xFF,"MRR","DISP","GRP5","RM-16",""),</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>64</v>
+        <v>244</v>
       </c>
       <c r="B67" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <f>DEC2HEX(A67,2)</f>
+        <v>F4</v>
       </c>
       <c r="E67" t="s">
-        <v>292</v>
+        <v>81</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I130" si="2">CONCATENATE("new OpCodeTable(0x",DEC2HEX(A67,2),",","""",C67,"""",",","""",D67,"""",",","""",E67,"""",",","""",F67,"""",",","""",G67,"""),")</f>
-        <v>new OpCodeTable(0x40,"","","INC AX","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A67,2),",","""",C67,"""",",","""",D67,"""",",","""",E67,"""",",","""",F67,"""",",","""",G67,"""),")</f>
+        <v>new OpCodeTable(0xF4,"","","HLT","",""),</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>65</v>
+        <v>228</v>
       </c>
       <c r="B68" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>41</v>
+        <f>DEC2HEX(A68,2)</f>
+        <v>E4</v>
+      </c>
+      <c r="C68" t="s">
+        <v>270</v>
       </c>
       <c r="E68" t="s">
-        <v>293</v>
+        <v>76</v>
+      </c>
+      <c r="F68" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" s="19" t="s">
+        <v>284</v>
       </c>
       <c r="I68" t="str">
-        <f t="shared" si="2"/>
-        <v>new OpCodeTable(0x41,"","","INC CX","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A68,2),",","""",C68,"""",",","""",D68,"""",",","""",E68,"""",",","""",F68,"""",",","""",G68,"""),")</f>
+        <v>new OpCodeTable(0xE4,"D-8","","IN","AL","I-8"),</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>66</v>
+        <v>229</v>
       </c>
       <c r="B69" s="7" t="str">
-        <f t="shared" ref="B69:B132" si="3">DEC2HEX(A69,2)</f>
-        <v>42</v>
+        <f>DEC2HEX(A69,2)</f>
+        <v>E5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>270</v>
       </c>
       <c r="E69" t="s">
-        <v>294</v>
+        <v>76</v>
+      </c>
+      <c r="F69" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="19" t="s">
+        <v>284</v>
       </c>
       <c r="I69" t="str">
-        <f t="shared" si="2"/>
-        <v>new OpCodeTable(0x42,"","","INC DX","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A69,2),",","""",C69,"""",",","""",D69,"""",",","""",E69,"""",",","""",F69,"""",",","""",G69,"""),")</f>
+        <v>new OpCodeTable(0xE5,"D-8","","IN","AX","I-8"),</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>67</v>
+        <v>236</v>
       </c>
       <c r="B70" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>43</v>
+        <f>DEC2HEX(A70,2)</f>
+        <v>EC</v>
       </c>
       <c r="E70" t="s">
-        <v>295</v>
+        <v>356</v>
       </c>
       <c r="I70" t="str">
-        <f t="shared" si="2"/>
-        <v>new OpCodeTable(0x43,"","","INC BX","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A70,2),",","""",C70,"""",",","""",D70,"""",",","""",E70,"""",",","""",F70,"""",",","""",G70,"""),")</f>
+        <v>new OpCodeTable(0xEC,"","","IN AL,DX","",""),</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>68</v>
+        <v>237</v>
       </c>
       <c r="B71" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>44</v>
+        <f>DEC2HEX(A71,2)</f>
+        <v>ED</v>
       </c>
       <c r="E71" t="s">
-        <v>296</v>
+        <v>357</v>
       </c>
       <c r="I71" t="str">
-        <f t="shared" si="2"/>
-        <v>new OpCodeTable(0x44,"","","INC SP","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A71,2),",","""",C71,"""",",","""",D71,"""",",","""",E71,"""",",","""",F71,"""",",","""",G71,"""),")</f>
+        <v>new OpCodeTable(0xED,"","","IN AX,DX","",""),</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B72" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>45</v>
+        <f>DEC2HEX(A72,2)</f>
+        <v>40</v>
       </c>
       <c r="E72" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="I72" t="str">
-        <f t="shared" si="2"/>
-        <v>new OpCodeTable(0x45,"","","INC BP","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A72,2),",","""",C72,"""",",","""",D72,"""",",","""",E72,"""",",","""",F72,"""",",","""",G72,"""),")</f>
+        <v>new OpCodeTable(0x40,"","","INC AX","",""),</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B73" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>46</v>
+        <f>DEC2HEX(A73,2)</f>
+        <v>45</v>
       </c>
       <c r="E73" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I73" t="str">
-        <f t="shared" si="2"/>
-        <v>new OpCodeTable(0x46,"","","INC SI","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A73,2),",","""",C73,"""",",","""",D73,"""",",","""",E73,"""",",","""",F73,"""",",","""",G73,"""),")</f>
+        <v>new OpCodeTable(0x45,"","","INC BP","",""),</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B74" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>47</v>
+        <f>DEC2HEX(A74,2)</f>
+        <v>43</v>
       </c>
       <c r="E74" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="I74" t="str">
-        <f t="shared" si="2"/>
-        <v>new OpCodeTable(0x47,"","","INC DI","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A74,2),",","""",C74,"""",",","""",D74,"""",",","""",E74,"""",",","""",F74,"""",",","""",G74,"""),")</f>
+        <v>new OpCodeTable(0x43,"","","INC BX","",""),</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B75" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>48</v>
+        <f>DEC2HEX(A75,2)</f>
+        <v>41</v>
       </c>
       <c r="E75" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="I75" t="str">
-        <f t="shared" si="2"/>
-        <v>new OpCodeTable(0x48,"","","DEC AX","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A75,2),",","""",C75,"""",",","""",D75,"""",",","""",E75,"""",",","""",F75,"""",",","""",G75,"""),")</f>
+        <v>new OpCodeTable(0x41,"","","INC CX","",""),</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B76" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>49</v>
+        <f>DEC2HEX(A76,2)</f>
+        <v>47</v>
       </c>
       <c r="E76" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I76" t="str">
-        <f t="shared" si="2"/>
-        <v>new OpCodeTable(0x49,"","","DEC CX","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A76,2),",","""",C76,"""",",","""",D76,"""",",","""",E76,"""",",","""",F76,"""",",","""",G76,"""),")</f>
+        <v>new OpCodeTable(0x47,"","","INC DI","",""),</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B77" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>4A</v>
+        <f>DEC2HEX(A77,2)</f>
+        <v>42</v>
       </c>
       <c r="E77" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="I77" t="str">
-        <f t="shared" si="2"/>
-        <v>new OpCodeTable(0x4A,"","","DEC DX","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A77,2),",","""",C77,"""",",","""",D77,"""",",","""",E77,"""",",","""",F77,"""",",","""",G77,"""),")</f>
+        <v>new OpCodeTable(0x42,"","","INC DX","",""),</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B78" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>4B</v>
+        <f>DEC2HEX(A78,2)</f>
+        <v>46</v>
       </c>
       <c r="E78" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="I78" t="str">
-        <f t="shared" si="2"/>
-        <v>new OpCodeTable(0x4B,"","","DEC BX","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A78,2),",","""",C78,"""",",","""",D78,"""",",","""",E78,"""",",","""",F78,"""",",","""",G78,"""),")</f>
+        <v>new OpCodeTable(0x46,"","","INC SI","",""),</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B79" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>4C</v>
+        <f>DEC2HEX(A79,2)</f>
+        <v>44</v>
       </c>
       <c r="E79" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="I79" t="str">
-        <f t="shared" si="2"/>
-        <v>new OpCodeTable(0x4C,"","","DEC SP","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A79,2),",","""",C79,"""",",","""",D79,"""",",","""",E79,"""",",","""",F79,"""",",","""",G79,"""),")</f>
+        <v>new OpCodeTable(0x44,"","","INC SP","",""),</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="B80" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>4D</v>
+        <f>DEC2HEX(A80,2)</f>
+        <v>CD</v>
+      </c>
+      <c r="C80" t="s">
+        <v>270</v>
       </c>
       <c r="E80" t="s">
-        <v>305</v>
+        <v>120</v>
+      </c>
+      <c r="F80" s="19" t="s">
+        <v>284</v>
       </c>
       <c r="I80" t="str">
-        <f t="shared" si="2"/>
-        <v>new OpCodeTable(0x4D,"","","DEC BP","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A80,2),",","""",C80,"""",",","""",D80,"""",",","""",E80,"""",",","""",F80,"""",",","""",G80,"""),")</f>
+        <v>new OpCodeTable(0xCD,"D-8","","INT","I-8",""),</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>78</v>
+        <v>204</v>
       </c>
       <c r="B81" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>4E</v>
+        <f>DEC2HEX(A81,2)</f>
+        <v>CC</v>
       </c>
       <c r="E81" t="s">
-        <v>306</v>
+        <v>365</v>
       </c>
       <c r="I81" t="str">
-        <f t="shared" si="2"/>
-        <v>new OpCodeTable(0x4E,"","","DEC SI","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A81,2),",","""",C81,"""",",","""",D81,"""",",","""",E81,"""",",","""",F81,"""",",","""",G81,"""),")</f>
+        <v>new OpCodeTable(0xCC,"","","INT3","",""),</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="B82" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>4F</v>
+        <f>DEC2HEX(A82,2)</f>
+        <v>CE</v>
       </c>
       <c r="E82" t="s">
-        <v>307</v>
+        <v>121</v>
       </c>
       <c r="I82" t="str">
-        <f t="shared" si="2"/>
-        <v>new OpCodeTable(0x4F,"","","DEC DI","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A82,2),",","""",C82,"""",",","""",D82,"""",",","""",E82,"""",",","""",F82,"""",",","""",G82,"""),")</f>
+        <v>new OpCodeTable(0xCE,"","","INTO","",""),</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>80</v>
+        <v>207</v>
       </c>
       <c r="B83" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>50</v>
+        <f>DEC2HEX(A83,2)</f>
+        <v>CF</v>
       </c>
       <c r="E83" t="s">
-        <v>308</v>
+        <v>122</v>
       </c>
       <c r="I83" t="str">
-        <f t="shared" si="2"/>
-        <v>new OpCodeTable(0x50,"","","PUSH AX","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A83,2),",","""",C83,"""",",","""",D83,"""",",","""",E83,"""",",","""",F83,"""",",","""",G83,"""),")</f>
+        <v>new OpCodeTable(0xCF,"","","IRET","",""),</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="B84" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>51</v>
+        <f>DEC2HEX(A84,2)</f>
+        <v>77</v>
+      </c>
+      <c r="C84" t="s">
+        <v>349</v>
       </c>
       <c r="E84" t="s">
-        <v>309</v>
+        <v>41</v>
+      </c>
+      <c r="F84" s="19" t="s">
+        <v>355</v>
       </c>
       <c r="I84" t="str">
-        <f t="shared" si="2"/>
-        <v>new OpCodeTable(0x51,"","","PUSH CX","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A84,2),",","""",C84,"""",",","""",D84,"""",",","""",E84,"""",",","""",F84,"""",",","""",G84,"""),")</f>
+        <v>new OpCodeTable(0x77,"IP-INC-8","","JA","SHORT",""),</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="B85" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>52</v>
+        <f>DEC2HEX(A85,2)</f>
+        <v>72</v>
+      </c>
+      <c r="C85" t="s">
+        <v>349</v>
       </c>
       <c r="E85" t="s">
-        <v>310</v>
+        <v>36</v>
+      </c>
+      <c r="F85" s="19" t="s">
+        <v>355</v>
       </c>
       <c r="I85" t="str">
-        <f t="shared" si="2"/>
-        <v>new OpCodeTable(0x52,"","","PUSH DX","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A85,2),",","""",C85,"""",",","""",D85,"""",",","""",E85,"""",",","""",F85,"""",",","""",G85,"""),")</f>
+        <v>new OpCodeTable(0x72,"IP-INC-8","","JB","SHORT",""),</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="B86" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>53</v>
+        <f>DEC2HEX(A86,2)</f>
+        <v>76</v>
+      </c>
+      <c r="C86" t="s">
+        <v>349</v>
       </c>
       <c r="E86" t="s">
-        <v>311</v>
+        <v>40</v>
+      </c>
+      <c r="F86" s="19" t="s">
+        <v>355</v>
       </c>
       <c r="I86" t="str">
-        <f t="shared" si="2"/>
-        <v>new OpCodeTable(0x53,"","","PUSH BX","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A86,2),",","""",C86,"""",",","""",D86,"""",",","""",E86,"""",",","""",F86,"""",",","""",G86,"""),")</f>
+        <v>new OpCodeTable(0x76,"IP-INC-8","","JBE","SHORT",""),</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>84</v>
+        <v>227</v>
       </c>
       <c r="B87" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>54</v>
+        <f>DEC2HEX(A87,2)</f>
+        <v>E3</v>
+      </c>
+      <c r="C87" t="s">
+        <v>349</v>
       </c>
       <c r="E87" t="s">
-        <v>312</v>
+        <v>75</v>
+      </c>
+      <c r="F87" s="19" t="s">
+        <v>355</v>
       </c>
       <c r="I87" t="str">
-        <f t="shared" si="2"/>
-        <v>new OpCodeTable(0x54,"","","PUSH SP","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A87,2),",","""",C87,"""",",","""",D87,"""",",","""",E87,"""",",","""",F87,"""",",","""",G87,"""),")</f>
+        <v>new OpCodeTable(0xE3,"IP-INC-8","","JCXZ","SHORT",""),</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="B88" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>55</v>
+        <f>DEC2HEX(A88,2)</f>
+        <v>7D</v>
+      </c>
+      <c r="C88" t="s">
+        <v>349</v>
       </c>
       <c r="E88" t="s">
-        <v>313</v>
+        <v>102</v>
+      </c>
+      <c r="F88" s="19" t="s">
+        <v>355</v>
       </c>
       <c r="I88" t="str">
-        <f t="shared" si="2"/>
-        <v>new OpCodeTable(0x55,"","","PUSH BP","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A88,2),",","""",C88,"""",",","""",D88,"""",",","""",E88,"""",",","""",F88,"""",",","""",G88,"""),")</f>
+        <v>new OpCodeTable(0x7D,"IP-INC-8","","JGE","SHORT",""),</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="B89" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>56</v>
+        <f>DEC2HEX(A89,2)</f>
+        <v>7F</v>
+      </c>
+      <c r="C89" t="s">
+        <v>349</v>
       </c>
       <c r="E89" t="s">
-        <v>314</v>
+        <v>102</v>
+      </c>
+      <c r="F89" s="19" t="s">
+        <v>355</v>
       </c>
       <c r="I89" t="str">
-        <f t="shared" si="2"/>
-        <v>new OpCodeTable(0x56,"","","PUSH SI","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A89,2),",","""",C89,"""",",","""",D89,"""",",","""",E89,"""",",","""",F89,"""",",","""",G89,"""),")</f>
+        <v>new OpCodeTable(0x7F,"IP-INC-8","","JGE","SHORT",""),</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="B90" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>57</v>
+        <f>DEC2HEX(A90,2)</f>
+        <v>7C</v>
+      </c>
+      <c r="C90" t="s">
+        <v>349</v>
       </c>
       <c r="E90" t="s">
-        <v>315</v>
+        <v>101</v>
+      </c>
+      <c r="F90" s="19" t="s">
+        <v>355</v>
       </c>
       <c r="I90" t="str">
-        <f t="shared" si="2"/>
-        <v>new OpCodeTable(0x57,"","","PUSH DI","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A90,2),",","""",C90,"""",",","""",D90,"""",",","""",E90,"""",",","""",F90,"""",",","""",G90,"""),")</f>
+        <v>new OpCodeTable(0x7C,"IP-INC-8","","JL","SHORT",""),</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="B91" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>58</v>
+        <f>DEC2HEX(A91,2)</f>
+        <v>7E</v>
+      </c>
+      <c r="C91" t="s">
+        <v>349</v>
       </c>
       <c r="E91" t="s">
-        <v>316</v>
+        <v>103</v>
+      </c>
+      <c r="F91" s="19" t="s">
+        <v>355</v>
       </c>
       <c r="I91" t="str">
-        <f t="shared" si="2"/>
-        <v>new OpCodeTable(0x58,"","","POP AX","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A91,2),",","""",C91,"""",",","""",D91,"""",",","""",E91,"""",",","""",F91,"""",",","""",G91,"""),")</f>
+        <v>new OpCodeTable(0x7E,"IP-INC-8","","JLE","SHORT",""),</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>89</v>
+        <v>233</v>
       </c>
       <c r="B92" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>59</v>
+        <f>DEC2HEX(A92,2)</f>
+        <v>E9</v>
+      </c>
+      <c r="C92" t="s">
+        <v>350</v>
+      </c>
+      <c r="D92" t="s">
+        <v>351</v>
       </c>
       <c r="E92" t="s">
-        <v>317</v>
+        <v>124</v>
+      </c>
+      <c r="F92" s="19" t="s">
+        <v>352</v>
       </c>
       <c r="I92" t="str">
-        <f t="shared" si="2"/>
-        <v>new OpCodeTable(0x59,"","","POP CX","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A92,2),",","""",C92,"""",",","""",D92,"""",",","""",E92,"""",",","""",F92,"""",",","""",G92,"""),")</f>
+        <v>new OpCodeTable(0xE9,"IP-INC-LO","IP-INC-HI","JMP","NEAR",""),</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>90</v>
+        <v>234</v>
       </c>
       <c r="B93" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>5A</v>
+        <f>DEC2HEX(A93,2)</f>
+        <v>EA</v>
+      </c>
+      <c r="C93" t="s">
+        <v>353</v>
+      </c>
+      <c r="D93" t="s">
+        <v>354</v>
       </c>
       <c r="E93" t="s">
-        <v>318</v>
+        <v>124</v>
+      </c>
+      <c r="F93" s="19" t="s">
+        <v>334</v>
       </c>
       <c r="I93" t="str">
-        <f t="shared" si="2"/>
-        <v>new OpCodeTable(0x5A,"","","POP DX","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A93,2),",","""",C93,"""",",","""",D93,"""",",","""",E93,"""",",","""",F93,"""",",","""",G93,"""),")</f>
+        <v>new OpCodeTable(0xEA,"IP-LO","IP-HI,CS-LO,CS-HI","JMP","FAR",""),</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>91</v>
+        <v>235</v>
       </c>
       <c r="B94" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>5B</v>
+        <f>DEC2HEX(A94,2)</f>
+        <v>EB</v>
+      </c>
+      <c r="C94" t="s">
+        <v>349</v>
       </c>
       <c r="E94" t="s">
-        <v>319</v>
+        <v>124</v>
+      </c>
+      <c r="F94" s="19" t="s">
+        <v>355</v>
       </c>
       <c r="I94" t="str">
-        <f t="shared" si="2"/>
-        <v>new OpCodeTable(0x5B,"","","POP BX","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A94,2),",","""",C94,"""",",","""",D94,"""",",","""",E94,"""",",","""",F94,"""",",","""",G94,"""),")</f>
+        <v>new OpCodeTable(0xEB,"IP-INC-8","","JMP","SHORT",""),</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="B95" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>5C</v>
+        <f>DEC2HEX(A95,2)</f>
+        <v>73</v>
+      </c>
+      <c r="C95" t="s">
+        <v>349</v>
       </c>
       <c r="E95" t="s">
-        <v>320</v>
+        <v>37</v>
+      </c>
+      <c r="F95" s="19" t="s">
+        <v>355</v>
       </c>
       <c r="I95" t="str">
-        <f t="shared" si="2"/>
-        <v>new OpCodeTable(0x5C,"","","POP SP","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A95,2),",","""",C95,"""",",","""",D95,"""",",","""",E95,"""",",","""",F95,"""",",","""",G95,"""),")</f>
+        <v>new OpCodeTable(0x73,"IP-INC-8","","JNB","SHORT",""),</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="B96" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>5D</v>
+        <f>DEC2HEX(A96,2)</f>
+        <v>71</v>
+      </c>
+      <c r="C96" t="s">
+        <v>349</v>
       </c>
       <c r="E96" t="s">
-        <v>321</v>
+        <v>35</v>
+      </c>
+      <c r="F96" s="19" t="s">
+        <v>355</v>
       </c>
       <c r="I96" t="str">
-        <f t="shared" si="2"/>
-        <v>new OpCodeTable(0x5D,"","","POP BP","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A96,2),",","""",C96,"""",",","""",D96,"""",",","""",E96,"""",",","""",F96,"""",",","""",G96,"""),")</f>
+        <v>new OpCodeTable(0x71,"IP-INC-8","","JNO","SHORT",""),</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="B97" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>5E</v>
+        <f>DEC2HEX(A97,2)</f>
+        <v>79</v>
+      </c>
+      <c r="C97" t="s">
+        <v>349</v>
       </c>
       <c r="E97" t="s">
-        <v>322</v>
+        <v>98</v>
+      </c>
+      <c r="F97" s="19" t="s">
+        <v>355</v>
       </c>
       <c r="I97" t="str">
-        <f t="shared" si="2"/>
-        <v>new OpCodeTable(0x5E,"","","POP SI","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A97,2),",","""",C97,"""",",","""",D97,"""",",","""",E97,"""",",","""",F97,"""",",","""",G97,"""),")</f>
+        <v>new OpCodeTable(0x79,"IP-INC-8","","JNS","SHORT",""),</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="B98" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>5F</v>
+        <f>DEC2HEX(A98,2)</f>
+        <v>75</v>
+      </c>
+      <c r="C98" t="s">
+        <v>349</v>
       </c>
       <c r="E98" t="s">
-        <v>323</v>
+        <v>39</v>
+      </c>
+      <c r="F98" s="19" t="s">
+        <v>355</v>
       </c>
       <c r="I98" t="str">
-        <f t="shared" si="2"/>
-        <v>new OpCodeTable(0x5F,"","","POP DI","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A98,2),",","""",C98,"""",",","""",D98,"""",",","""",E98,"""",",","""",F98,"""",",","""",G98,"""),")</f>
+        <v>new OpCodeTable(0x75,"IP-INC-8","","JNZ","SHORT",""),</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>96</v>
-      </c>
-      <c r="B99" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="20"/>
-      <c r="G99" s="20"/>
+        <v>112</v>
+      </c>
+      <c r="B99" s="17" t="str">
+        <f>DEC2HEX(A99,2)</f>
+        <v>70</v>
+      </c>
+      <c r="C99" t="s">
+        <v>349</v>
+      </c>
+      <c r="E99" t="s">
+        <v>34</v>
+      </c>
+      <c r="F99" s="19" t="s">
+        <v>355</v>
+      </c>
       <c r="I99" t="str">
-        <f t="shared" si="2"/>
-        <v>new OpCodeTable(0x60,"","","","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A99,2),",","""",C99,"""",",","""",D99,"""",",","""",E99,"""",",","""",F99,"""",",","""",G99,"""),")</f>
+        <v>new OpCodeTable(0x70,"IP-INC-8","","JO","SHORT",""),</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>97</v>
-      </c>
-      <c r="B100" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>61</v>
-      </c>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="20"/>
-      <c r="G100" s="20"/>
+        <v>122</v>
+      </c>
+      <c r="B100" s="7" t="str">
+        <f>DEC2HEX(A100,2)</f>
+        <v>7A</v>
+      </c>
+      <c r="C100" t="s">
+        <v>349</v>
+      </c>
+      <c r="E100" t="s">
+        <v>99</v>
+      </c>
+      <c r="F100" s="19" t="s">
+        <v>355</v>
+      </c>
       <c r="I100" t="str">
-        <f t="shared" si="2"/>
-        <v>new OpCodeTable(0x61,"","","","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A100,2),",","""",C100,"""",",","""",D100,"""",",","""",E100,"""",",","""",F100,"""",",","""",G100,"""),")</f>
+        <v>new OpCodeTable(0x7A,"IP-INC-8","","JPE","SHORT",""),</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>98</v>
-      </c>
-      <c r="B101" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>62</v>
-      </c>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="4"/>
-      <c r="F101" s="20"/>
-      <c r="G101" s="20"/>
+        <v>123</v>
+      </c>
+      <c r="B101" s="7" t="str">
+        <f>DEC2HEX(A101,2)</f>
+        <v>7B</v>
+      </c>
+      <c r="C101" t="s">
+        <v>349</v>
+      </c>
+      <c r="E101" t="s">
+        <v>100</v>
+      </c>
+      <c r="F101" s="19" t="s">
+        <v>355</v>
+      </c>
       <c r="I101" t="str">
-        <f t="shared" si="2"/>
-        <v>new OpCodeTable(0x62,"","","","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A101,2),",","""",C101,"""",",","""",D101,"""",",","""",E101,"""",",","""",F101,"""",",","""",G101,"""),")</f>
+        <v>new OpCodeTable(0x7B,"IP-INC-8","","JPO","SHORT",""),</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>99</v>
-      </c>
-      <c r="B102" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>63</v>
-      </c>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
-      <c r="F102" s="20"/>
-      <c r="G102" s="20"/>
+        <v>120</v>
+      </c>
+      <c r="B102" s="7" t="str">
+        <f>DEC2HEX(A102,2)</f>
+        <v>78</v>
+      </c>
+      <c r="C102" t="s">
+        <v>349</v>
+      </c>
+      <c r="E102" t="s">
+        <v>97</v>
+      </c>
+      <c r="F102" s="19" t="s">
+        <v>355</v>
+      </c>
       <c r="I102" t="str">
-        <f t="shared" si="2"/>
-        <v>new OpCodeTable(0x63,"","","","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A102,2),",","""",C102,"""",",","""",D102,"""",",","""",E102,"""",",","""",F102,"""",",","""",G102,"""),")</f>
+        <v>new OpCodeTable(0x78,"IP-INC-8","","JS","SHORT",""),</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>100</v>
-      </c>
-      <c r="B103" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>64</v>
-      </c>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
-      <c r="F103" s="20"/>
-      <c r="G103" s="20"/>
+        <v>116</v>
+      </c>
+      <c r="B103" s="7" t="str">
+        <f>DEC2HEX(A103,2)</f>
+        <v>74</v>
+      </c>
+      <c r="C103" t="s">
+        <v>349</v>
+      </c>
+      <c r="E103" t="s">
+        <v>38</v>
+      </c>
+      <c r="F103" s="19" t="s">
+        <v>355</v>
+      </c>
       <c r="I103" t="str">
-        <f t="shared" si="2"/>
-        <v>new OpCodeTable(0x64,"","","","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A103,2),",","""",C103,"""",",","""",D103,"""",",","""",E103,"""",",","""",F103,"""",",","""",G103,"""),")</f>
+        <v>new OpCodeTable(0x74,"IP-INC-8","","JZ","SHORT",""),</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>101</v>
-      </c>
-      <c r="B104" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>65</v>
-      </c>
-      <c r="C104" s="4"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="4"/>
-      <c r="F104" s="20"/>
-      <c r="G104" s="20"/>
+        <v>159</v>
+      </c>
+      <c r="B104" s="7" t="str">
+        <f>DEC2HEX(A104,2)</f>
+        <v>9F</v>
+      </c>
+      <c r="E104" t="s">
+        <v>112</v>
+      </c>
       <c r="I104" t="str">
-        <f t="shared" si="2"/>
-        <v>new OpCodeTable(0x65,"","","","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A104,2),",","""",C104,"""",",","""",D104,"""",",","""",E104,"""",",","""",F104,"""",",","""",G104,"""),")</f>
+        <v>new OpCodeTable(0x9F,"","","LAHF","",""),</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>102</v>
-      </c>
-      <c r="B105" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>66</v>
-      </c>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
-      <c r="F105" s="20"/>
-      <c r="G105" s="20"/>
-      <c r="H105" t="s">
-        <v>342</v>
+        <v>197</v>
+      </c>
+      <c r="B105" s="7" t="str">
+        <f>DEC2HEX(A105,2)</f>
+        <v>C5</v>
+      </c>
+      <c r="C105" t="s">
+        <v>269</v>
+      </c>
+      <c r="D105" t="s">
+        <v>276</v>
+      </c>
+      <c r="E105" t="s">
+        <v>65</v>
+      </c>
+      <c r="F105" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="G105" s="19" t="s">
+        <v>325</v>
       </c>
       <c r="I105" t="str">
-        <f t="shared" si="2"/>
-        <v>new OpCodeTable(0x66,"","","","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A105,2),",","""",C105,"""",",","""",D105,"""",",","""",E105,"""",",","""",F105,"""",",","""",G105,"""),")</f>
+        <v>new OpCodeTable(0xC5,"MRR","DISP","LDS","R-16","M-16"),</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>103</v>
-      </c>
-      <c r="B106" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>67</v>
-      </c>
-      <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
-      <c r="E106" s="4"/>
-      <c r="F106" s="20"/>
-      <c r="G106" s="20"/>
+        <v>141</v>
+      </c>
+      <c r="B106" s="7" t="str">
+        <f>DEC2HEX(A106,2)</f>
+        <v>8D</v>
+      </c>
+      <c r="C106" t="s">
+        <v>269</v>
+      </c>
+      <c r="D106" t="s">
+        <v>276</v>
+      </c>
+      <c r="E106" t="s">
+        <v>96</v>
+      </c>
+      <c r="F106" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="G106" s="19" t="s">
+        <v>325</v>
+      </c>
       <c r="I106" t="str">
-        <f t="shared" si="2"/>
-        <v>new OpCodeTable(0x67,"","","","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A106,2),",","""",C106,"""",",","""",D106,"""",",","""",E106,"""",",","""",F106,"""",",","""",G106,"""),")</f>
+        <v>new OpCodeTable(0x8D,"MRR","DISP","LEA","R-16","M-16"),</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>104</v>
-      </c>
-      <c r="B107" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>68</v>
-      </c>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="4"/>
-      <c r="F107" s="20"/>
-      <c r="G107" s="20"/>
+        <v>196</v>
+      </c>
+      <c r="B107" s="7" t="str">
+        <f>DEC2HEX(A107,2)</f>
+        <v>C4</v>
+      </c>
+      <c r="C107" t="s">
+        <v>269</v>
+      </c>
+      <c r="D107" t="s">
+        <v>276</v>
+      </c>
+      <c r="E107" t="s">
+        <v>64</v>
+      </c>
+      <c r="F107" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="G107" s="19" t="s">
+        <v>325</v>
+      </c>
       <c r="I107" t="str">
-        <f t="shared" si="2"/>
-        <v>new OpCodeTable(0x68,"","","","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A107,2),",","""",C107,"""",",","""",D107,"""",",","""",E107,"""",",","""",F107,"""",",","""",G107,"""),")</f>
+        <v>new OpCodeTable(0xC4,"MRR","DISP","LES","R-16","M-16"),</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>105</v>
-      </c>
-      <c r="B108" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>69</v>
-      </c>
-      <c r="C108" s="4"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="4"/>
-      <c r="F108" s="20"/>
-      <c r="G108" s="20"/>
+        <v>240</v>
+      </c>
+      <c r="B108" s="7" t="str">
+        <f>DEC2HEX(A108,2)</f>
+        <v>F0</v>
+      </c>
+      <c r="E108" t="s">
+        <v>78</v>
+      </c>
       <c r="I108" t="str">
-        <f t="shared" si="2"/>
-        <v>new OpCodeTable(0x69,"","","","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A108,2),",","""",C108,"""",",","""",D108,"""",",","""",E108,"""",",","""",F108,"""",",","""",G108,"""),")</f>
+        <v>new OpCodeTable(0xF0,"","","LOCK","",""),</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>106</v>
-      </c>
-      <c r="B109" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>6A</v>
-      </c>
-      <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="4"/>
-      <c r="F109" s="20"/>
-      <c r="G109" s="20"/>
+        <v>172</v>
+      </c>
+      <c r="B109" s="7" t="str">
+        <f>DEC2HEX(A109,2)</f>
+        <v>AC</v>
+      </c>
+      <c r="E109" t="s">
+        <v>115</v>
+      </c>
       <c r="I109" t="str">
-        <f t="shared" si="2"/>
-        <v>new OpCodeTable(0x6A,"","","","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A109,2),",","""",C109,"""",",","""",D109,"""",",","""",E109,"""",",","""",F109,"""",",","""",G109,"""),")</f>
+        <v>new OpCodeTable(0xAC,"","","LODSB","",""),</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>107</v>
-      </c>
-      <c r="B110" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>6B</v>
-      </c>
-      <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="4"/>
-      <c r="F110" s="20"/>
-      <c r="G110" s="20"/>
+        <v>173</v>
+      </c>
+      <c r="B110" s="7" t="str">
+        <f>DEC2HEX(A110,2)</f>
+        <v>AD</v>
+      </c>
+      <c r="E110" t="s">
+        <v>116</v>
+      </c>
       <c r="I110" t="str">
-        <f t="shared" si="2"/>
-        <v>new OpCodeTable(0x6B,"","","","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A110,2),",","""",C110,"""",",","""",D110,"""",",","""",E110,"""",",","""",F110,"""",",","""",G110,"""),")</f>
+        <v>new OpCodeTable(0xAD,"","","LODSW","",""),</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>108</v>
-      </c>
-      <c r="B111" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>6C</v>
-      </c>
-      <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="4"/>
-      <c r="F111" s="20"/>
-      <c r="G111" s="20"/>
+        <v>226</v>
+      </c>
+      <c r="B111" s="7" t="str">
+        <f>DEC2HEX(A111,2)</f>
+        <v>E2</v>
+      </c>
+      <c r="C111" t="s">
+        <v>349</v>
+      </c>
+      <c r="E111" t="s">
+        <v>74</v>
+      </c>
+      <c r="F111" s="19" t="s">
+        <v>355</v>
+      </c>
       <c r="I111" t="str">
-        <f t="shared" si="2"/>
-        <v>new OpCodeTable(0x6C,"","","","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A111,2),",","""",C111,"""",",","""",D111,"""",",","""",E111,"""",",","""",F111,"""",",","""",G111,"""),")</f>
+        <v>new OpCodeTable(0xE2,"IP-INC-8","","LOOP","SHORT",""),</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>109</v>
-      </c>
-      <c r="B112" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>6D</v>
-      </c>
-      <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="4"/>
-      <c r="F112" s="20"/>
-      <c r="G112" s="20"/>
+        <v>224</v>
+      </c>
+      <c r="B112" s="7" t="str">
+        <f>DEC2HEX(A112,2)</f>
+        <v>E0</v>
+      </c>
+      <c r="C112" t="s">
+        <v>349</v>
+      </c>
+      <c r="E112" t="s">
+        <v>72</v>
+      </c>
+      <c r="F112" s="19" t="s">
+        <v>355</v>
+      </c>
       <c r="I112" t="str">
-        <f t="shared" si="2"/>
-        <v>new OpCodeTable(0x6D,"","","","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A112,2),",","""",C112,"""",",","""",D112,"""",",","""",E112,"""",",","""",F112,"""",",","""",G112,"""),")</f>
+        <v>new OpCodeTable(0xE0,"IP-INC-8","","LOOPNZ","SHORT",""),</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>110</v>
-      </c>
-      <c r="B113" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>6E</v>
-      </c>
-      <c r="C113" s="4"/>
-      <c r="D113" s="4"/>
-      <c r="E113" s="4"/>
-      <c r="F113" s="20"/>
-      <c r="G113" s="20"/>
+        <v>225</v>
+      </c>
+      <c r="B113" s="7" t="str">
+        <f>DEC2HEX(A113,2)</f>
+        <v>E1</v>
+      </c>
+      <c r="C113" t="s">
+        <v>349</v>
+      </c>
+      <c r="E113" t="s">
+        <v>73</v>
+      </c>
+      <c r="F113" s="19" t="s">
+        <v>355</v>
+      </c>
       <c r="I113" t="str">
-        <f t="shared" si="2"/>
-        <v>new OpCodeTable(0x6E,"","","","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A113,2),",","""",C113,"""",",","""",D113,"""",",","""",E113,"""",",","""",F113,"""",",","""",G113,"""),")</f>
+        <v>new OpCodeTable(0xE1,"IP-INC-8","","LOOPZ","SHORT",""),</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>111</v>
-      </c>
-      <c r="B114" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>6F</v>
-      </c>
-      <c r="C114" s="4"/>
-      <c r="D114" s="4"/>
-      <c r="E114" s="4"/>
-      <c r="F114" s="20"/>
-      <c r="G114" s="20"/>
+        <v>136</v>
+      </c>
+      <c r="B114" s="7" t="str">
+        <f>DEC2HEX(A114,2)</f>
+        <v>88</v>
+      </c>
+      <c r="C114" t="s">
+        <v>269</v>
+      </c>
+      <c r="D114" t="s">
+        <v>276</v>
+      </c>
+      <c r="E114" t="s">
+        <v>50</v>
+      </c>
+      <c r="F114" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="G114" s="19" t="s">
+        <v>281</v>
+      </c>
       <c r="I114" t="str">
-        <f t="shared" si="2"/>
-        <v>new OpCodeTable(0x6F,"","","","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A114,2),",","""",C114,"""",",","""",D114,"""",",","""",E114,"""",",","""",F114,"""",",","""",G114,"""),")</f>
+        <v>new OpCodeTable(0x88,"MRR","DISP","MOV","RM-8","R-8"),</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>112</v>
-      </c>
-      <c r="B115" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>70</v>
+        <v>137</v>
+      </c>
+      <c r="B115" s="7" t="str">
+        <f>DEC2HEX(A115,2)</f>
+        <v>89</v>
       </c>
       <c r="C115" t="s">
-        <v>349</v>
+        <v>269</v>
+      </c>
+      <c r="D115" t="s">
+        <v>276</v>
       </c>
       <c r="E115" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="F115" s="19" t="s">
-        <v>355</v>
+        <v>282</v>
+      </c>
+      <c r="G115" s="19" t="s">
+        <v>283</v>
       </c>
       <c r="I115" t="str">
-        <f t="shared" si="2"/>
-        <v>new OpCodeTable(0x70,"IP-INC-8","","JO","SHORT",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A115,2),",","""",C115,"""",",","""",D115,"""",",","""",E115,"""",",","""",F115,"""",",","""",G115,"""),")</f>
+        <v>new OpCodeTable(0x89,"MRR","DISP","MOV","RM-16","R-16"),</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="B116" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>71</v>
+        <f>DEC2HEX(A116,2)</f>
+        <v>8A</v>
       </c>
       <c r="C116" t="s">
-        <v>349</v>
+        <v>269</v>
+      </c>
+      <c r="D116" t="s">
+        <v>276</v>
       </c>
       <c r="E116" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F116" s="19" t="s">
-        <v>355</v>
+        <v>281</v>
+      </c>
+      <c r="G116" s="19" t="s">
+        <v>280</v>
       </c>
       <c r="I116" t="str">
-        <f t="shared" si="2"/>
-        <v>new OpCodeTable(0x71,"IP-INC-8","","JNO","SHORT",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A116,2),",","""",C116,"""",",","""",D116,"""",",","""",E116,"""",",","""",F116,"""",",","""",G116,"""),")</f>
+        <v>new OpCodeTable(0x8A,"MRR","DISP","MOV","R-8","RM-8"),</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="B117" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>72</v>
+        <f>DEC2HEX(A117,2)</f>
+        <v>8B</v>
       </c>
       <c r="C117" t="s">
-        <v>349</v>
+        <v>269</v>
+      </c>
+      <c r="D117" t="s">
+        <v>276</v>
       </c>
       <c r="E117" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F117" s="19" t="s">
-        <v>355</v>
+        <v>283</v>
+      </c>
+      <c r="G117" s="19" t="s">
+        <v>282</v>
       </c>
       <c r="I117" t="str">
-        <f t="shared" si="2"/>
-        <v>new OpCodeTable(0x72,"IP-INC-8","","JB","SHORT",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A117,2),",","""",C117,"""",",","""",D117,"""",",","""",E117,"""",",","""",F117,"""",",","""",G117,"""),")</f>
+        <v>new OpCodeTable(0x8B,"MRR","DISP","MOV","R-16","RM-16"),</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="B118" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>73</v>
+        <f>DEC2HEX(A118,2)</f>
+        <v>8C</v>
       </c>
       <c r="C118" t="s">
-        <v>349</v>
+        <v>269</v>
+      </c>
+      <c r="D118" t="s">
+        <v>276</v>
       </c>
       <c r="E118" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="F118" s="19" t="s">
-        <v>355</v>
+        <v>282</v>
+      </c>
+      <c r="G118" s="19" t="s">
+        <v>324</v>
       </c>
       <c r="I118" t="str">
-        <f t="shared" si="2"/>
-        <v>new OpCodeTable(0x73,"IP-INC-8","","JNB","SHORT",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A118,2),",","""",C118,"""",",","""",D118,"""",",","""",E118,"""",",","""",F118,"""",",","""",G118,"""),")</f>
+        <v>new OpCodeTable(0x8C,"MRR","DISP","MOV","RM-16","SEG"),</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="B119" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>74</v>
+        <f>DEC2HEX(A119,2)</f>
+        <v>8E</v>
       </c>
       <c r="C119" t="s">
-        <v>349</v>
+        <v>269</v>
+      </c>
+      <c r="D119" t="s">
+        <v>276</v>
       </c>
       <c r="E119" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="F119" s="19" t="s">
-        <v>355</v>
+        <v>324</v>
+      </c>
+      <c r="G119" s="19" t="s">
+        <v>282</v>
       </c>
       <c r="I119" t="str">
-        <f t="shared" si="2"/>
-        <v>new OpCodeTable(0x74,"IP-INC-8","","JZ","SHORT",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A119,2),",","""",C119,"""",",","""",D119,"""",",","""",E119,"""",",","""",F119,"""",",","""",G119,"""),")</f>
+        <v>new OpCodeTable(0x8E,"MRR","DISP","MOV","SEG","RM-16"),</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>117</v>
+        <v>160</v>
       </c>
       <c r="B120" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>75</v>
+        <f>DEC2HEX(A120,2)</f>
+        <v>A0</v>
       </c>
       <c r="C120" t="s">
-        <v>349</v>
+        <v>335</v>
+      </c>
+      <c r="D120" t="s">
+        <v>336</v>
       </c>
       <c r="E120" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F120" s="19" t="s">
-        <v>355</v>
+        <v>9</v>
+      </c>
+      <c r="G120" s="19" t="s">
+        <v>337</v>
       </c>
       <c r="I120" t="str">
-        <f t="shared" si="2"/>
-        <v>new OpCodeTable(0x75,"IP-INC-8","","JNZ","SHORT",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A120,2),",","""",C120,"""",",","""",D120,"""",",","""",E120,"""",",","""",F120,"""",",","""",G120,"""),")</f>
+        <v>new OpCodeTable(0xA0,"A-LO","A-HI","MOV","AL","M-8"),</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="B121" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>76</v>
+        <f>DEC2HEX(A121,2)</f>
+        <v>A1</v>
       </c>
       <c r="C121" t="s">
-        <v>349</v>
+        <v>335</v>
+      </c>
+      <c r="D121" t="s">
+        <v>336</v>
       </c>
       <c r="E121" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F121" s="19" t="s">
-        <v>355</v>
+        <v>10</v>
+      </c>
+      <c r="G121" s="19" t="s">
+        <v>325</v>
       </c>
       <c r="I121" t="str">
-        <f t="shared" si="2"/>
-        <v>new OpCodeTable(0x76,"IP-INC-8","","JBE","SHORT",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A121,2),",","""",C121,"""",",","""",D121,"""",",","""",E121,"""",",","""",F121,"""",",","""",G121,"""),")</f>
+        <v>new OpCodeTable(0xA1,"A-LO","A-HI","MOV","AX","M-16"),</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>119</v>
+        <v>162</v>
       </c>
       <c r="B122" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>77</v>
+        <f>DEC2HEX(A122,2)</f>
+        <v>A2</v>
       </c>
       <c r="C122" t="s">
-        <v>349</v>
+        <v>335</v>
+      </c>
+      <c r="D122" t="s">
+        <v>336</v>
       </c>
       <c r="E122" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F122" s="19" t="s">
-        <v>355</v>
+        <v>337</v>
+      </c>
+      <c r="G122" s="19" t="s">
+        <v>9</v>
       </c>
       <c r="I122" t="str">
-        <f t="shared" si="2"/>
-        <v>new OpCodeTable(0x77,"IP-INC-8","","JA","SHORT",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A122,2),",","""",C122,"""",",","""",D122,"""",",","""",E122,"""",",","""",F122,"""",",","""",G122,"""),")</f>
+        <v>new OpCodeTable(0xA2,"A-LO","A-HI","MOV","M-8","AL"),</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>120</v>
+        <v>163</v>
       </c>
       <c r="B123" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>78</v>
+        <f>DEC2HEX(A123,2)</f>
+        <v>A3</v>
       </c>
       <c r="C123" t="s">
-        <v>349</v>
+        <v>335</v>
+      </c>
+      <c r="D123" t="s">
+        <v>336</v>
       </c>
       <c r="E123" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="F123" s="19" t="s">
-        <v>355</v>
+        <v>325</v>
+      </c>
+      <c r="G123" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H123" t="s">
+        <v>364</v>
       </c>
       <c r="I123" t="str">
-        <f t="shared" si="2"/>
-        <v>new OpCodeTable(0x78,"IP-INC-8","","JS","SHORT",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A123,2),",","""",C123,"""",",","""",D123,"""",",","""",E123,"""",",","""",F123,"""",",","""",G123,"""),")</f>
+        <v>new OpCodeTable(0xA3,"A-LO","A-HI","MOV","M-16","AX"),</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="B124" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>79</v>
+        <f>DEC2HEX(A124,2)</f>
+        <v>B0</v>
       </c>
       <c r="C124" t="s">
-        <v>349</v>
+        <v>270</v>
       </c>
       <c r="E124" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="F124" s="19" t="s">
-        <v>355</v>
+        <v>9</v>
+      </c>
+      <c r="G124" s="19" t="s">
+        <v>284</v>
       </c>
       <c r="I124" t="str">
-        <f t="shared" si="2"/>
-        <v>new OpCodeTable(0x79,"IP-INC-8","","JNS","SHORT",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A124,2),",","""",C124,"""",",","""",D124,"""",",","""",E124,"""",",","""",F124,"""",",","""",G124,"""),")</f>
+        <v>new OpCodeTable(0xB0,"D-8","","MOV","AL","I-8"),</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>122</v>
+        <v>177</v>
       </c>
       <c r="B125" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>7A</v>
+        <f>DEC2HEX(A125,2)</f>
+        <v>B1</v>
       </c>
       <c r="C125" t="s">
-        <v>349</v>
+        <v>270</v>
       </c>
       <c r="E125" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="F125" s="19" t="s">
-        <v>355</v>
+        <v>56</v>
+      </c>
+      <c r="G125" s="19" t="s">
+        <v>284</v>
       </c>
       <c r="I125" t="str">
-        <f t="shared" si="2"/>
-        <v>new OpCodeTable(0x7A,"IP-INC-8","","JPE","SHORT",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A125,2),",","""",C125,"""",",","""",D125,"""",",","""",E125,"""",",","""",F125,"""",",","""",G125,"""),")</f>
+        <v>new OpCodeTable(0xB1,"D-8","","MOV","CL","I-8"),</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="B126" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>7B</v>
+        <f>DEC2HEX(A126,2)</f>
+        <v>B2</v>
       </c>
       <c r="C126" t="s">
-        <v>349</v>
+        <v>270</v>
       </c>
       <c r="E126" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F126" s="19" t="s">
-        <v>355</v>
+        <v>57</v>
+      </c>
+      <c r="G126" s="19" t="s">
+        <v>284</v>
       </c>
       <c r="I126" t="str">
-        <f t="shared" si="2"/>
-        <v>new OpCodeTable(0x7B,"IP-INC-8","","JPO","SHORT",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A126,2),",","""",C126,"""",",","""",D126,"""",",","""",E126,"""",",","""",F126,"""",",","""",G126,"""),")</f>
+        <v>new OpCodeTable(0xB2,"D-8","","MOV","DL","I-8"),</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>124</v>
+        <v>179</v>
       </c>
       <c r="B127" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>7C</v>
+        <f>DEC2HEX(A127,2)</f>
+        <v>B3</v>
       </c>
       <c r="C127" t="s">
-        <v>349</v>
+        <v>270</v>
       </c>
       <c r="E127" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="F127" s="19" t="s">
-        <v>355</v>
+        <v>58</v>
+      </c>
+      <c r="G127" s="19" t="s">
+        <v>284</v>
       </c>
       <c r="I127" t="str">
-        <f t="shared" si="2"/>
-        <v>new OpCodeTable(0x7C,"IP-INC-8","","JL","SHORT",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A127,2),",","""",C127,"""",",","""",D127,"""",",","""",E127,"""",",","""",F127,"""",",","""",G127,"""),")</f>
+        <v>new OpCodeTable(0xB3,"D-8","","MOV","BL","I-8"),</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="B128" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>7D</v>
+        <f>DEC2HEX(A128,2)</f>
+        <v>B4</v>
       </c>
       <c r="C128" t="s">
-        <v>349</v>
+        <v>270</v>
       </c>
       <c r="E128" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="F128" s="19" t="s">
-        <v>355</v>
+        <v>59</v>
+      </c>
+      <c r="G128" s="19" t="s">
+        <v>284</v>
       </c>
       <c r="I128" t="str">
-        <f t="shared" si="2"/>
-        <v>new OpCodeTable(0x7D,"IP-INC-8","","JGE","SHORT",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A128,2),",","""",C128,"""",",","""",D128,"""",",","""",E128,"""",",","""",F128,"""",",","""",G128,"""),")</f>
+        <v>new OpCodeTable(0xB4,"D-8","","MOV","AH","I-8"),</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>126</v>
+        <v>181</v>
       </c>
       <c r="B129" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>7E</v>
+        <f>DEC2HEX(A129,2)</f>
+        <v>B5</v>
       </c>
       <c r="C129" t="s">
-        <v>349</v>
+        <v>270</v>
       </c>
       <c r="E129" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="F129" s="19" t="s">
-        <v>355</v>
+        <v>60</v>
+      </c>
+      <c r="G129" s="19" t="s">
+        <v>284</v>
       </c>
       <c r="I129" t="str">
-        <f t="shared" si="2"/>
-        <v>new OpCodeTable(0x7E,"IP-INC-8","","JLE","SHORT",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A129,2),",","""",C129,"""",",","""",D129,"""",",","""",E129,"""",",","""",F129,"""",",","""",G129,"""),")</f>
+        <v>new OpCodeTable(0xB5,"D-8","","MOV","CH","I-8"),</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="B130" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>7F</v>
+        <f>DEC2HEX(A130,2)</f>
+        <v>B6</v>
       </c>
       <c r="C130" t="s">
-        <v>349</v>
+        <v>270</v>
       </c>
       <c r="E130" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="F130" s="19" t="s">
-        <v>355</v>
+        <v>61</v>
+      </c>
+      <c r="G130" s="19" t="s">
+        <v>284</v>
       </c>
       <c r="I130" t="str">
-        <f t="shared" si="2"/>
-        <v>new OpCodeTable(0x7F,"IP-INC-8","","JGE","SHORT",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A130,2),",","""",C130,"""",",","""",D130,"""",",","""",E130,"""",",","""",F130,"""",",","""",G130,"""),")</f>
+        <v>new OpCodeTable(0xB6,"D-8","","MOV","DH","I-8"),</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>128</v>
+        <v>183</v>
       </c>
       <c r="B131" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>80</v>
+        <f>DEC2HEX(A131,2)</f>
+        <v>B7</v>
       </c>
       <c r="C131" t="s">
-        <v>269</v>
-      </c>
-      <c r="D131" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E131" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F131" s="19" t="s">
-        <v>280</v>
+        <v>62</v>
       </c>
       <c r="G131" s="19" t="s">
         <v>284</v>
       </c>
       <c r="I131" t="str">
-        <f t="shared" ref="I131:I194" si="4">CONCATENATE("new OpCodeTable(0x",DEC2HEX(A131,2),",","""",C131,"""",",","""",D131,"""",",","""",E131,"""",",","""",F131,"""",",","""",G131,"""),")</f>
-        <v>new OpCodeTable(0x80,"MRR","DISP","GRP1","RM-8","I-8"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A131,2),",","""",C131,"""",",","""",D131,"""",",","""",E131,"""",",","""",F131,"""",",","""",G131,"""),")</f>
+        <v>new OpCodeTable(0xB7,"D-8","","MOV","BH","I-8"),</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="B132" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>81</v>
+        <f>DEC2HEX(A132,2)</f>
+        <v>B8</v>
       </c>
       <c r="C132" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D132" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E132" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F132" s="19" t="s">
-        <v>282</v>
+        <v>10</v>
       </c>
       <c r="G132" s="19" t="s">
         <v>285</v>
       </c>
       <c r="I132" t="str">
-        <f t="shared" si="4"/>
-        <v>new OpCodeTable(0x81,"MRR","DISP","GRP1","RM-16","I-16"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A132,2),",","""",C132,"""",",","""",D132,"""",",","""",E132,"""",",","""",F132,"""",",","""",G132,"""),")</f>
+        <v>new OpCodeTable(0xB8,"D-LO","D-HI","MOV","AX","I-16"),</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>130</v>
+        <v>185</v>
       </c>
       <c r="B133" s="7" t="str">
-        <f t="shared" ref="B133:B196" si="5">DEC2HEX(A133,2)</f>
-        <v>82</v>
+        <f>DEC2HEX(A133,2)</f>
+        <v>B9</v>
       </c>
       <c r="C133" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D133" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E133" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F133" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="G133" s="21" t="s">
-        <v>284</v>
+        <v>28</v>
+      </c>
+      <c r="G133" s="19" t="s">
+        <v>285</v>
       </c>
       <c r="I133" t="str">
-        <f t="shared" si="4"/>
-        <v>new OpCodeTable(0x82,"MRR","DISP","GRP1","RM-8","I-8"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A133,2),",","""",C133,"""",",","""",D133,"""",",","""",E133,"""",",","""",F133,"""",",","""",G133,"""),")</f>
+        <v>new OpCodeTable(0xB9,"D-LO","D-HI","MOV","CX","I-16"),</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>131</v>
+        <v>186</v>
       </c>
       <c r="B134" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>83</v>
+        <f>DEC2HEX(A134,2)</f>
+        <v>BA</v>
       </c>
       <c r="C134" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D134" t="s">
-        <v>366</v>
+        <v>277</v>
       </c>
       <c r="E134" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F134" s="19" t="s">
-        <v>282</v>
+        <v>27</v>
       </c>
       <c r="G134" s="19" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I134" t="str">
-        <f t="shared" si="4"/>
-        <v>new OpCodeTable(0x83,"MRR","DISP-SX","GRP1","RM-16","I-8"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A134,2),",","""",C134,"""",",","""",D134,"""",",","""",E134,"""",",","""",F134,"""",",","""",G134,"""),")</f>
+        <v>new OpCodeTable(0xBA,"D-LO","D-HI","MOV","DX","I-16"),</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>132</v>
+        <v>187</v>
       </c>
       <c r="B135" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>84</v>
+        <f>DEC2HEX(A135,2)</f>
+        <v>BB</v>
       </c>
       <c r="C135" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D135" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E135" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F135" s="19" t="s">
-        <v>280</v>
+        <v>29</v>
       </c>
       <c r="G135" s="19" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="I135" t="str">
-        <f t="shared" si="4"/>
-        <v>new OpCodeTable(0x84,"MRR","DISP","TEST","RM-8","R-8"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A135,2),",","""",C135,"""",",","""",D135,"""",",","""",E135,"""",",","""",F135,"""",",","""",G135,"""),")</f>
+        <v>new OpCodeTable(0xBB,"D-LO","D-HI","MOV","BX","I-16"),</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>133</v>
+        <v>188</v>
       </c>
       <c r="B136" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>85</v>
+        <f>DEC2HEX(A136,2)</f>
+        <v>BC</v>
       </c>
       <c r="C136" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D136" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E136" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F136" s="19" t="s">
-        <v>282</v>
+        <v>30</v>
       </c>
       <c r="G136" s="19" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="I136" t="str">
-        <f t="shared" si="4"/>
-        <v>new OpCodeTable(0x85,"MRR","DISP","TEST","RM-16","R-16"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A136,2),",","""",C136,"""",",","""",D136,"""",",","""",E136,"""",",","""",F136,"""",",","""",G136,"""),")</f>
+        <v>new OpCodeTable(0xBC,"D-LO","D-HI","MOV","SP","I-16"),</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="B137" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>86</v>
+        <f>DEC2HEX(A137,2)</f>
+        <v>BD</v>
       </c>
       <c r="C137" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D137" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E137" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F137" s="19" t="s">
-        <v>281</v>
+        <v>31</v>
       </c>
       <c r="G137" s="19" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="I137" t="str">
-        <f t="shared" si="4"/>
-        <v>new OpCodeTable(0x86,"MRR","DISP","XCHG","R-8","RM-8"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A137,2),",","""",C137,"""",",","""",D137,"""",",","""",E137,"""",",","""",F137,"""",",","""",G137,"""),")</f>
+        <v>new OpCodeTable(0xBD,"D-LO","D-HI","MOV","BP","I-16"),</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c r="B138" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>87</v>
+        <f>DEC2HEX(A138,2)</f>
+        <v>BE</v>
       </c>
       <c r="C138" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D138" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E138" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F138" s="19" t="s">
-        <v>283</v>
+        <v>32</v>
       </c>
       <c r="G138" s="19" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="I138" t="str">
-        <f t="shared" si="4"/>
-        <v>new OpCodeTable(0x87,"MRR","DISP","XCHG","R-16","RM-16"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A138,2),",","""",C138,"""",",","""",D138,"""",",","""",E138,"""",",","""",F138,"""",",","""",G138,"""),")</f>
+        <v>new OpCodeTable(0xBE,"D-LO","D-HI","MOV","SI","I-16"),</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>136</v>
+        <v>191</v>
       </c>
       <c r="B139" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>88</v>
+        <f>DEC2HEX(A139,2)</f>
+        <v>BF</v>
       </c>
       <c r="C139" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D139" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E139" t="s">
         <v>50</v>
       </c>
       <c r="F139" s="19" t="s">
-        <v>280</v>
+        <v>33</v>
       </c>
       <c r="G139" s="19" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="I139" t="str">
-        <f t="shared" si="4"/>
-        <v>new OpCodeTable(0x88,"MRR","DISP","MOV","RM-8","R-8"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A139,2),",","""",C139,"""",",","""",D139,"""",",","""",E139,"""",",","""",F139,"""",",","""",G139,"""),")</f>
+        <v>new OpCodeTable(0xBF,"D-LO","D-HI","MOV","DI","I-16"),</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>137</v>
+        <v>198</v>
       </c>
       <c r="B140" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>89</v>
+        <f>DEC2HEX(A140,2)</f>
+        <v>C6</v>
       </c>
       <c r="C140" t="s">
         <v>269</v>
@@ -19283,23 +19443,23 @@
         <v>50</v>
       </c>
       <c r="F140" s="19" t="s">
-        <v>282</v>
+        <v>337</v>
       </c>
       <c r="G140" s="19" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I140" t="str">
-        <f t="shared" si="4"/>
-        <v>new OpCodeTable(0x89,"MRR","DISP","MOV","RM-16","R-16"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A140,2),",","""",C140,"""",",","""",D140,"""",",","""",E140,"""",",","""",F140,"""",",","""",G140,"""),")</f>
+        <v>new OpCodeTable(0xC6,"MRR","DISP","MOV","M-8","I-8"),</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>138</v>
+        <v>199</v>
       </c>
       <c r="B141" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>8A</v>
+        <f>DEC2HEX(A141,2)</f>
+        <v>C7</v>
       </c>
       <c r="C141" t="s">
         <v>269</v>
@@ -19311,107 +19471,71 @@
         <v>50</v>
       </c>
       <c r="F141" s="19" t="s">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="G141" s="19" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="I141" t="str">
-        <f t="shared" si="4"/>
-        <v>new OpCodeTable(0x8A,"MRR","DISP","MOV","R-8","RM-8"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A141,2),",","""",C141,"""",",","""",D141,"""",",","""",E141,"""",",","""",F141,"""",",","""",G141,"""),")</f>
+        <v>new OpCodeTable(0xC7,"MRR","DISP","MOV","M-16","I-16"),</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="B142" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>8B</v>
-      </c>
-      <c r="C142" t="s">
-        <v>269</v>
-      </c>
-      <c r="D142" t="s">
-        <v>276</v>
+        <f>DEC2HEX(A142,2)</f>
+        <v>A4</v>
       </c>
       <c r="E142" t="s">
-        <v>50</v>
-      </c>
-      <c r="F142" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="G142" s="19" t="s">
-        <v>282</v>
+        <v>52</v>
       </c>
       <c r="I142" t="str">
-        <f t="shared" si="4"/>
-        <v>new OpCodeTable(0x8B,"MRR","DISP","MOV","R-16","RM-16"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A142,2),",","""",C142,"""",",","""",D142,"""",",","""",E142,"""",",","""",F142,"""",",","""",G142,"""),")</f>
+        <v>new OpCodeTable(0xA4,"","","MOVSB","",""),</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="B143" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>8C</v>
-      </c>
-      <c r="C143" t="s">
-        <v>269</v>
-      </c>
-      <c r="D143" t="s">
-        <v>276</v>
+        <f>DEC2HEX(A143,2)</f>
+        <v>A5</v>
       </c>
       <c r="E143" t="s">
-        <v>50</v>
-      </c>
-      <c r="F143" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="G143" s="19" t="s">
-        <v>324</v>
+        <v>53</v>
       </c>
       <c r="I143" t="str">
-        <f t="shared" si="4"/>
-        <v>new OpCodeTable(0x8C,"MRR","DISP","MOV","RM-16","SEG"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A143,2),",","""",C143,"""",",","""",D143,"""",",","""",E143,"""",",","""",F143,"""",",","""",G143,"""),")</f>
+        <v>new OpCodeTable(0xA5,"","","MOVSW","",""),</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B144" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>8D</v>
-      </c>
-      <c r="C144" t="s">
-        <v>269</v>
-      </c>
-      <c r="D144" t="s">
-        <v>276</v>
+        <f>DEC2HEX(A144,2)</f>
+        <v>90</v>
       </c>
       <c r="E144" t="s">
-        <v>96</v>
-      </c>
-      <c r="F144" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="G144" s="19" t="s">
-        <v>325</v>
+        <v>49</v>
       </c>
       <c r="I144" t="str">
-        <f t="shared" si="4"/>
-        <v>new OpCodeTable(0x8D,"MRR","DISP","LEA","R-16","M-16"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A144,2),",","""",C144,"""",",","""",D144,"""",",","""",E144,"""",",","""",F144,"""",",","""",G144,"""),")</f>
+        <v>new OpCodeTable(0x90,"","","NOP","",""),</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>142</v>
+        <v>8</v>
       </c>
       <c r="B145" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>8E</v>
+        <f>DEC2HEX(A145,2)</f>
+        <v>08</v>
       </c>
       <c r="C145" t="s">
         <v>269</v>
@@ -19420,26 +19544,26 @@
         <v>276</v>
       </c>
       <c r="E145" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="F145" s="19" t="s">
-        <v>324</v>
+        <v>280</v>
       </c>
       <c r="G145" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I145" t="str">
-        <f t="shared" si="4"/>
-        <v>new OpCodeTable(0x8E,"MRR","DISP","MOV","SEG","RM-16"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A145,2),",","""",C145,"""",",","""",D145,"""",",","""",E145,"""",",","""",F145,"""",",","""",G145,"""),")</f>
+        <v>new OpCodeTable(0x08,"MRR","DISP","OR","RM-8","R-8"),</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>143</v>
+        <v>9</v>
       </c>
       <c r="B146" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>8F</v>
+        <f>DEC2HEX(A146,2)</f>
+        <v>09</v>
       </c>
       <c r="C146" t="s">
         <v>269</v>
@@ -19448,1012 +19572,937 @@
         <v>276</v>
       </c>
       <c r="E146" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="F146" s="19" t="s">
         <v>282</v>
       </c>
+      <c r="G146" s="19" t="s">
+        <v>283</v>
+      </c>
       <c r="I146" t="str">
-        <f t="shared" si="4"/>
-        <v>new OpCodeTable(0x8F,"MRR","DISP","POP","RM-16",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A146,2),",","""",C146,"""",",","""",D146,"""",",","""",E146,"""",",","""",F146,"""",",","""",G146,"""),")</f>
+        <v>new OpCodeTable(0x09,"MRR","DISP","OR","RM-16","R-16"),</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="B147" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>90</v>
+        <f>DEC2HEX(A147,2)</f>
+        <v>0A</v>
+      </c>
+      <c r="C147" t="s">
+        <v>269</v>
+      </c>
+      <c r="D147" t="s">
+        <v>276</v>
       </c>
       <c r="E147" t="s">
-        <v>49</v>
+        <v>85</v>
+      </c>
+      <c r="F147" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="G147" s="19" t="s">
+        <v>280</v>
       </c>
       <c r="I147" t="str">
-        <f t="shared" si="4"/>
-        <v>new OpCodeTable(0x90,"","","NOP","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A147,2),",","""",C147,"""",",","""",D147,"""",",","""",E147,"""",",","""",F147,"""",",","""",G147,"""),")</f>
+        <v>new OpCodeTable(0x0A,"MRR","DISP","OR","R-8","RM-8"),</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="B148" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>91</v>
+        <f>DEC2HEX(A148,2)</f>
+        <v>0B</v>
+      </c>
+      <c r="C148" t="s">
+        <v>269</v>
+      </c>
+      <c r="D148" t="s">
+        <v>276</v>
       </c>
       <c r="E148" t="s">
-        <v>326</v>
+        <v>85</v>
+      </c>
+      <c r="F148" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="G148" s="19" t="s">
+        <v>282</v>
       </c>
       <c r="I148" t="str">
-        <f t="shared" si="4"/>
-        <v>new OpCodeTable(0x91,"","","XCHG AX,CX","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A148,2),",","""",C148,"""",",","""",D148,"""",",","""",E148,"""",",","""",F148,"""",",","""",G148,"""),")</f>
+        <v>new OpCodeTable(0x0B,"MRR","DISP","OR","R-16","RM-16"),</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="B149" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>92</v>
+        <f>DEC2HEX(A149,2)</f>
+        <v>0C</v>
+      </c>
+      <c r="C149" t="s">
+        <v>270</v>
       </c>
       <c r="E149" t="s">
-        <v>327</v>
+        <v>85</v>
+      </c>
+      <c r="F149" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G149" s="19" t="s">
+        <v>284</v>
       </c>
       <c r="I149" t="str">
-        <f t="shared" si="4"/>
-        <v>new OpCodeTable(0x92,"","","XCHG AX,DX","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A149,2),",","""",C149,"""",",","""",D149,"""",",","""",E149,"""",",","""",F149,"""",",","""",G149,"""),")</f>
+        <v>new OpCodeTable(0x0C,"D-8","","OR","AL","I-8"),</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="B150" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>93</v>
+        <f>DEC2HEX(A150,2)</f>
+        <v>0D</v>
+      </c>
+      <c r="C150" t="s">
+        <v>271</v>
+      </c>
+      <c r="D150" t="s">
+        <v>277</v>
       </c>
       <c r="E150" t="s">
-        <v>328</v>
+        <v>85</v>
+      </c>
+      <c r="F150" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="19" t="s">
+        <v>285</v>
       </c>
       <c r="I150" t="str">
-        <f t="shared" si="4"/>
-        <v>new OpCodeTable(0x93,"","","XCHG AX,BX","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A150,2),",","""",C150,"""",",","""",D150,"""",",","""",E150,"""",",","""",F150,"""",",","""",G150,"""),")</f>
+        <v>new OpCodeTable(0x0D,"D-LO","D-HI","OR","AX","I-16"),</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>148</v>
+        <v>230</v>
       </c>
       <c r="B151" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>94</v>
+        <f>DEC2HEX(A151,2)</f>
+        <v>E6</v>
+      </c>
+      <c r="C151" t="s">
+        <v>270</v>
       </c>
       <c r="E151" t="s">
-        <v>329</v>
+        <v>77</v>
+      </c>
+      <c r="F151" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="G151" s="19" t="s">
+        <v>9</v>
       </c>
       <c r="I151" t="str">
-        <f t="shared" si="4"/>
-        <v>new OpCodeTable(0x94,"","","XCHG AX,SP","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A151,2),",","""",C151,"""",",","""",D151,"""",",","""",E151,"""",",","""",F151,"""",",","""",G151,"""),")</f>
+        <v>new OpCodeTable(0xE6,"D-8","","OUT","I-8","AL"),</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>149</v>
+        <v>231</v>
       </c>
       <c r="B152" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>95</v>
+        <f>DEC2HEX(A152,2)</f>
+        <v>E7</v>
+      </c>
+      <c r="C152" t="s">
+        <v>270</v>
       </c>
       <c r="E152" t="s">
-        <v>330</v>
+        <v>77</v>
+      </c>
+      <c r="F152" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="G152" s="19" t="s">
+        <v>10</v>
       </c>
       <c r="I152" t="str">
-        <f t="shared" si="4"/>
-        <v>new OpCodeTable(0x95,"","","XCHG AX,BP","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A152,2),",","""",C152,"""",",","""",D152,"""",",","""",E152,"""",",","""",F152,"""",",","""",G152,"""),")</f>
+        <v>new OpCodeTable(0xE7,"D-8","","OUT","I-8","AX"),</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>150</v>
+        <v>238</v>
       </c>
       <c r="B153" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>96</v>
+        <f>DEC2HEX(A153,2)</f>
+        <v>EE</v>
       </c>
       <c r="E153" t="s">
-        <v>331</v>
+        <v>358</v>
       </c>
       <c r="I153" t="str">
-        <f t="shared" si="4"/>
-        <v>new OpCodeTable(0x96,"","","XCHG AX,SI","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A153,2),",","""",C153,"""",",","""",D153,"""",",","""",E153,"""",",","""",F153,"""",",","""",G153,"""),")</f>
+        <v>new OpCodeTable(0xEE,"","","OUT AL,DX","",""),</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>151</v>
+        <v>239</v>
       </c>
       <c r="B154" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>97</v>
+        <f>DEC2HEX(A154,2)</f>
+        <v>EF</v>
       </c>
       <c r="E154" t="s">
-        <v>332</v>
+        <v>359</v>
       </c>
       <c r="I154" t="str">
-        <f t="shared" si="4"/>
-        <v>new OpCodeTable(0x97,"","","XCHG AX,DI","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A154,2),",","""",C154,"""",",","""",D154,"""",",","""",E154,"""",",","""",F154,"""",",","""",G154,"""),")</f>
+        <v>new OpCodeTable(0xEF,"","","OUT AX,DX","",""),</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B155" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>98</v>
+        <f>DEC2HEX(A155,2)</f>
+        <v>8F</v>
+      </c>
+      <c r="C155" t="s">
+        <v>269</v>
+      </c>
+      <c r="D155" t="s">
+        <v>276</v>
       </c>
       <c r="E155" t="s">
-        <v>104</v>
+        <v>16</v>
+      </c>
+      <c r="F155" s="19" t="s">
+        <v>282</v>
       </c>
       <c r="I155" t="str">
-        <f t="shared" si="4"/>
-        <v>new OpCodeTable(0x98,"","","CBW","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A155,2),",","""",C155,"""",",","""",D155,"""",",","""",E155,"""",",","""",F155,"""",",","""",G155,"""),")</f>
+        <v>new OpCodeTable(0x8F,"MRR","DISP","POP","RM-16",""),</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>153</v>
+        <v>88</v>
       </c>
       <c r="B156" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>99</v>
+        <f>DEC2HEX(A156,2)</f>
+        <v>58</v>
       </c>
       <c r="E156" t="s">
-        <v>105</v>
+        <v>316</v>
       </c>
       <c r="I156" t="str">
-        <f t="shared" si="4"/>
-        <v>new OpCodeTable(0x99,"","","CWD","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A156,2),",","""",C156,"""",",","""",D156,"""",",","""",E156,"""",",","""",F156,"""",",","""",G156,"""),")</f>
+        <v>new OpCodeTable(0x58,"","","POP AX","",""),</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>154</v>
+        <v>93</v>
       </c>
       <c r="B157" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>9A</v>
-      </c>
-      <c r="C157" t="s">
-        <v>271</v>
-      </c>
-      <c r="D157" t="s">
-        <v>333</v>
+        <f>DEC2HEX(A157,2)</f>
+        <v>5D</v>
       </c>
       <c r="E157" t="s">
-        <v>106</v>
-      </c>
-      <c r="F157" s="19" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="I157" t="str">
-        <f t="shared" si="4"/>
-        <v>new OpCodeTable(0x9A,"D-LO","D-HI,S-LO,S-HI","CALL","FAR",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A157,2),",","""",C157,"""",",","""",D157,"""",",","""",E157,"""",",","""",F157,"""",",","""",G157,"""),")</f>
+        <v>new OpCodeTable(0x5D,"","","POP BP","",""),</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>155</v>
+        <v>91</v>
       </c>
       <c r="B158" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>9B</v>
+        <f>DEC2HEX(A158,2)</f>
+        <v>5B</v>
       </c>
       <c r="E158" t="s">
-        <v>108</v>
+        <v>319</v>
       </c>
       <c r="I158" t="str">
-        <f t="shared" si="4"/>
-        <v>new OpCodeTable(0x9B,"","","WAIT","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A158,2),",","""",C158,"""",",","""",D158,"""",",","""",E158,"""",",","""",F158,"""",",","""",G158,"""),")</f>
+        <v>new OpCodeTable(0x5B,"","","POP BX","",""),</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>156</v>
+        <v>15</v>
       </c>
       <c r="B159" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>9C</v>
+        <f>DEC2HEX(A159,2)</f>
+        <v>0F</v>
       </c>
       <c r="E159" t="s">
-        <v>109</v>
+        <v>287</v>
       </c>
       <c r="I159" t="str">
-        <f t="shared" si="4"/>
-        <v>new OpCodeTable(0x9C,"","","PUSHF","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A159,2),",","""",C159,"""",",","""",D159,"""",",","""",E159,"""",",","""",F159,"""",",","""",G159,"""),")</f>
+        <v>new OpCodeTable(0x0F,"","","POP CS","",""),</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>157</v>
+        <v>89</v>
       </c>
       <c r="B160" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>9D</v>
+        <f>DEC2HEX(A160,2)</f>
+        <v>59</v>
       </c>
       <c r="E160" t="s">
-        <v>110</v>
+        <v>317</v>
       </c>
       <c r="I160" t="str">
-        <f t="shared" si="4"/>
-        <v>new OpCodeTable(0x9D,"","","POPF","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A160,2),",","""",C160,"""",",","""",D160,"""",",","""",E160,"""",",","""",F160,"""",",","""",G160,"""),")</f>
+        <v>new OpCodeTable(0x59,"","","POP CX","",""),</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>158</v>
+        <v>95</v>
       </c>
       <c r="B161" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>9E</v>
+        <f>DEC2HEX(A161,2)</f>
+        <v>5F</v>
       </c>
       <c r="E161" t="s">
-        <v>111</v>
+        <v>323</v>
       </c>
       <c r="I161" t="str">
-        <f t="shared" si="4"/>
-        <v>new OpCodeTable(0x9E,"","","SAHF","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A161,2),",","""",C161,"""",",","""",D161,"""",",","""",E161,"""",",","""",F161,"""",",","""",G161,"""),")</f>
+        <v>new OpCodeTable(0x5F,"","","POP DI","",""),</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>159</v>
+        <v>31</v>
       </c>
       <c r="B162" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>9F</v>
+        <f>DEC2HEX(A162,2)</f>
+        <v>1F</v>
       </c>
       <c r="E162" t="s">
-        <v>112</v>
+        <v>291</v>
       </c>
       <c r="I162" t="str">
-        <f t="shared" si="4"/>
-        <v>new OpCodeTable(0x9F,"","","LAHF","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A162,2),",","""",C162,"""",",","""",D162,"""",",","""",E162,"""",",","""",F162,"""",",","""",G162,"""),")</f>
+        <v>new OpCodeTable(0x1F,"","","POP DS","",""),</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="B163" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>A0</v>
-      </c>
-      <c r="C163" t="s">
-        <v>335</v>
-      </c>
-      <c r="D163" t="s">
-        <v>336</v>
+        <f>DEC2HEX(A163,2)</f>
+        <v>5A</v>
       </c>
       <c r="E163" t="s">
-        <v>50</v>
-      </c>
-      <c r="F163" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G163" s="19" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="I163" t="str">
-        <f t="shared" si="4"/>
-        <v>new OpCodeTable(0xA0,"A-LO","A-HI","MOV","AL","M-8"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A163,2),",","""",C163,"""",",","""",D163,"""",",","""",E163,"""",",","""",F163,"""",",","""",G163,"""),")</f>
+        <v>new OpCodeTable(0x5A,"","","POP DX","",""),</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>161</v>
+        <v>7</v>
       </c>
       <c r="B164" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>A1</v>
-      </c>
-      <c r="C164" t="s">
-        <v>335</v>
-      </c>
-      <c r="D164" t="s">
-        <v>336</v>
+        <f>DEC2HEX(A164,2)</f>
+        <v>07</v>
       </c>
       <c r="E164" t="s">
-        <v>50</v>
-      </c>
-      <c r="F164" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G164" s="19" t="s">
-        <v>325</v>
+        <v>279</v>
       </c>
       <c r="I164" t="str">
-        <f t="shared" si="4"/>
-        <v>new OpCodeTable(0xA1,"A-LO","A-HI","MOV","AX","M-16"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A164,2),",","""",C164,"""",",","""",D164,"""",",","""",E164,"""",",","""",F164,"""",",","""",G164,"""),")</f>
+        <v>new OpCodeTable(0x07,"","","POP ES","",""),</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>162</v>
+        <v>94</v>
       </c>
       <c r="B165" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>A2</v>
-      </c>
-      <c r="C165" t="s">
-        <v>335</v>
-      </c>
-      <c r="D165" t="s">
-        <v>336</v>
+        <f>DEC2HEX(A165,2)</f>
+        <v>5E</v>
       </c>
       <c r="E165" t="s">
-        <v>50</v>
-      </c>
-      <c r="F165" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="G165" s="19" t="s">
-        <v>9</v>
+        <v>322</v>
       </c>
       <c r="I165" t="str">
-        <f t="shared" si="4"/>
-        <v>new OpCodeTable(0xA2,"A-LO","A-HI","MOV","M-8","AL"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A165,2),",","""",C165,"""",",","""",D165,"""",",","""",E165,"""",",","""",F165,"""",",","""",G165,"""),")</f>
+        <v>new OpCodeTable(0x5E,"","","POP SI","",""),</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>163</v>
+        <v>92</v>
       </c>
       <c r="B166" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>A3</v>
-      </c>
-      <c r="C166" t="s">
-        <v>335</v>
-      </c>
-      <c r="D166" t="s">
-        <v>336</v>
+        <f>DEC2HEX(A166,2)</f>
+        <v>5C</v>
       </c>
       <c r="E166" t="s">
-        <v>50</v>
-      </c>
-      <c r="F166" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="G166" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H166" t="s">
-        <v>364</v>
+        <v>320</v>
       </c>
       <c r="I166" t="str">
-        <f t="shared" si="4"/>
-        <v>new OpCodeTable(0xA3,"A-LO","A-HI","MOV","M-16","AX"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A166,2),",","""",C166,"""",",","""",D166,"""",",","""",E166,"""",",","""",F166,"""",",","""",G166,"""),")</f>
+        <v>new OpCodeTable(0x5C,"","","POP SP","",""),</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>164</v>
+        <v>23</v>
       </c>
       <c r="B167" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>A4</v>
+        <f>DEC2HEX(A167,2)</f>
+        <v>17</v>
       </c>
       <c r="E167" t="s">
-        <v>52</v>
+        <v>289</v>
       </c>
       <c r="I167" t="str">
-        <f t="shared" si="4"/>
-        <v>new OpCodeTable(0xA4,"","","MOVSB","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A167,2),",","""",C167,"""",",","""",D167,"""",",","""",E167,"""",",","""",F167,"""",",","""",G167,"""),")</f>
+        <v>new OpCodeTable(0x17,"","","POP SS","",""),</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B168" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>A5</v>
+        <f>DEC2HEX(A168,2)</f>
+        <v>9D</v>
       </c>
       <c r="E168" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="I168" t="str">
-        <f t="shared" si="4"/>
-        <v>new OpCodeTable(0xA5,"","","MOVSW","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A168,2),",","""",C168,"""",",","""",D168,"""",",","""",E168,"""",",","""",F168,"""",",","""",G168,"""),")</f>
+        <v>new OpCodeTable(0x9D,"","","POPF","",""),</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="B169" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>A6</v>
+        <f>DEC2HEX(A169,2)</f>
+        <v>50</v>
       </c>
       <c r="E169" t="s">
-        <v>54</v>
+        <v>308</v>
       </c>
       <c r="I169" t="str">
-        <f t="shared" si="4"/>
-        <v>new OpCodeTable(0xA6,"","","CMPSB","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A169,2),",","""",C169,"""",",","""",D169,"""",",","""",E169,"""",",","""",F169,"""",",","""",G169,"""),")</f>
+        <v>new OpCodeTable(0x50,"","","PUSH AX","",""),</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>167</v>
+        <v>85</v>
       </c>
       <c r="B170" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>A7</v>
+        <f>DEC2HEX(A170,2)</f>
+        <v>55</v>
       </c>
       <c r="E170" t="s">
-        <v>55</v>
+        <v>313</v>
       </c>
       <c r="I170" t="str">
-        <f t="shared" si="4"/>
-        <v>new OpCodeTable(0xA7,"","","CMPSW","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A170,2),",","""",C170,"""",",","""",D170,"""",",","""",E170,"""",",","""",F170,"""",",","""",G170,"""),")</f>
+        <v>new OpCodeTable(0x55,"","","PUSH BP","",""),</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>168</v>
+        <v>83</v>
       </c>
       <c r="B171" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>A8</v>
-      </c>
-      <c r="C171" t="s">
-        <v>270</v>
+        <f>DEC2HEX(A171,2)</f>
+        <v>53</v>
       </c>
       <c r="E171" t="s">
-        <v>47</v>
-      </c>
-      <c r="F171" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G171" s="19" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="I171" t="str">
-        <f t="shared" si="4"/>
-        <v>new OpCodeTable(0xA8,"D-8","","TEST","AL","I-8"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A171,2),",","""",C171,"""",",","""",D171,"""",",","""",E171,"""",",","""",F171,"""",",","""",G171,"""),")</f>
+        <v>new OpCodeTable(0x53,"","","PUSH BX","",""),</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>169</v>
+        <v>14</v>
       </c>
       <c r="B172" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>A9</v>
-      </c>
-      <c r="C172" t="s">
-        <v>271</v>
-      </c>
-      <c r="D172" t="s">
-        <v>277</v>
+        <f>DEC2HEX(A172,2)</f>
+        <v>0E</v>
       </c>
       <c r="E172" t="s">
-        <v>47</v>
-      </c>
-      <c r="F172" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G172" s="19" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I172" t="str">
-        <f t="shared" si="4"/>
-        <v>new OpCodeTable(0xA9,"D-LO","D-HI","TEST","AX","I-16"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A172,2),",","""",C172,"""",",","""",D172,"""",",","""",E172,"""",",","""",F172,"""",",","""",G172,"""),")</f>
+        <v>new OpCodeTable(0x0E,"","","PUSH CS","",""),</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>170</v>
+        <v>81</v>
       </c>
       <c r="B173" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>AA</v>
+        <f>DEC2HEX(A173,2)</f>
+        <v>51</v>
       </c>
       <c r="E173" t="s">
-        <v>113</v>
+        <v>309</v>
       </c>
       <c r="I173" t="str">
-        <f t="shared" si="4"/>
-        <v>new OpCodeTable(0xAA,"","","STOSB","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A173,2),",","""",C173,"""",",","""",D173,"""",",","""",E173,"""",",","""",F173,"""",",","""",G173,"""),")</f>
+        <v>new OpCodeTable(0x51,"","","PUSH CX","",""),</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>171</v>
+        <v>87</v>
       </c>
       <c r="B174" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>AB</v>
+        <f>DEC2HEX(A174,2)</f>
+        <v>57</v>
       </c>
       <c r="E174" t="s">
-        <v>114</v>
+        <v>315</v>
       </c>
       <c r="I174" t="str">
-        <f t="shared" si="4"/>
-        <v>new OpCodeTable(0xAB,"","","STOSW","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A174,2),",","""",C174,"""",",","""",D174,"""",",","""",E174,"""",",","""",F174,"""",",","""",G174,"""),")</f>
+        <v>new OpCodeTable(0x57,"","","PUSH DI","",""),</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>172</v>
+        <v>30</v>
       </c>
       <c r="B175" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>AC</v>
+        <f>DEC2HEX(A175,2)</f>
+        <v>1E</v>
       </c>
       <c r="E175" t="s">
-        <v>115</v>
+        <v>290</v>
       </c>
       <c r="I175" t="str">
-        <f t="shared" si="4"/>
-        <v>new OpCodeTable(0xAC,"","","LODSB","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A175,2),",","""",C175,"""",",","""",D175,"""",",","""",E175,"""",",","""",F175,"""",",","""",G175,"""),")</f>
+        <v>new OpCodeTable(0x1E,"","","PUSH DS","",""),</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>173</v>
+        <v>82</v>
       </c>
       <c r="B176" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>AD</v>
+        <f>DEC2HEX(A176,2)</f>
+        <v>52</v>
       </c>
       <c r="E176" t="s">
-        <v>116</v>
+        <v>310</v>
       </c>
       <c r="I176" t="str">
-        <f t="shared" si="4"/>
-        <v>new OpCodeTable(0xAD,"","","LODSW","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A176,2),",","""",C176,"""",",","""",D176,"""",",","""",E176,"""",",","""",F176,"""",",","""",G176,"""),")</f>
+        <v>new OpCodeTable(0x52,"","","PUSH DX","",""),</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>174</v>
+        <v>6</v>
       </c>
       <c r="B177" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>AE</v>
+        <f>DEC2HEX(A177,2)</f>
+        <v>06</v>
       </c>
       <c r="E177" t="s">
-        <v>117</v>
+        <v>278</v>
       </c>
       <c r="I177" t="str">
-        <f t="shared" si="4"/>
-        <v>new OpCodeTable(0xAE,"","","SCASB","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A177,2),",","""",C177,"""",",","""",D177,"""",",","""",E177,"""",",","""",F177,"""",",","""",G177,"""),")</f>
+        <v>new OpCodeTable(0x06,"","","PUSH ES","",""),</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>175</v>
+        <v>86</v>
       </c>
       <c r="B178" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>AF</v>
+        <f>DEC2HEX(A178,2)</f>
+        <v>56</v>
       </c>
       <c r="E178" t="s">
-        <v>118</v>
+        <v>314</v>
       </c>
       <c r="I178" t="str">
-        <f t="shared" si="4"/>
-        <v>new OpCodeTable(0xAF,"","","SCASW","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A178,2),",","""",C178,"""",",","""",D178,"""",",","""",E178,"""",",","""",F178,"""",",","""",G178,"""),")</f>
+        <v>new OpCodeTable(0x56,"","","PUSH SI","",""),</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>176</v>
+        <v>84</v>
       </c>
       <c r="B179" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>B0</v>
-      </c>
-      <c r="C179" t="s">
-        <v>270</v>
+        <f>DEC2HEX(A179,2)</f>
+        <v>54</v>
       </c>
       <c r="E179" t="s">
-        <v>50</v>
-      </c>
-      <c r="F179" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G179" s="19" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="I179" t="str">
-        <f t="shared" si="4"/>
-        <v>new OpCodeTable(0xB0,"D-8","","MOV","AL","I-8"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A179,2),",","""",C179,"""",",","""",D179,"""",",","""",E179,"""",",","""",F179,"""",",","""",G179,"""),")</f>
+        <v>new OpCodeTable(0x54,"","","PUSH SP","",""),</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="B180" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>B1</v>
-      </c>
-      <c r="C180" t="s">
-        <v>270</v>
+        <f>DEC2HEX(A180,2)</f>
+        <v>16</v>
       </c>
       <c r="E180" t="s">
-        <v>50</v>
-      </c>
-      <c r="F180" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="G180" s="19" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="I180" t="str">
-        <f t="shared" si="4"/>
-        <v>new OpCodeTable(0xB1,"D-8","","MOV","CL","I-8"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A180,2),",","""",C180,"""",",","""",D180,"""",",","""",E180,"""",",","""",F180,"""",",","""",G180,"""),")</f>
+        <v>new OpCodeTable(0x16,"","","PUSH SS","",""),</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="B181" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>B2</v>
-      </c>
-      <c r="C181" t="s">
-        <v>270</v>
+        <f>DEC2HEX(A181,2)</f>
+        <v>9C</v>
       </c>
       <c r="E181" t="s">
-        <v>50</v>
-      </c>
-      <c r="F181" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="G181" s="19" t="s">
-        <v>284</v>
+        <v>109</v>
       </c>
       <c r="I181" t="str">
-        <f t="shared" si="4"/>
-        <v>new OpCodeTable(0xB2,"D-8","","MOV","DL","I-8"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A181,2),",","""",C181,"""",",","""",D181,"""",",","""",E181,"""",",","""",F181,"""",",","""",G181,"""),")</f>
+        <v>new OpCodeTable(0x9C,"","","PUSHF","",""),</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>179</v>
+        <v>243</v>
       </c>
       <c r="B182" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>B3</v>
-      </c>
-      <c r="C182" t="s">
-        <v>270</v>
+        <f>DEC2HEX(A182,2)</f>
+        <v>F3</v>
       </c>
       <c r="E182" t="s">
-        <v>50</v>
-      </c>
-      <c r="F182" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="G182" s="19" t="s">
-        <v>284</v>
+        <v>360</v>
       </c>
       <c r="I182" t="str">
-        <f t="shared" si="4"/>
-        <v>new OpCodeTable(0xB3,"D-8","","MOV","BL","I-8"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A182,2),",","""",C182,"""",",","""",D182,"""",",","""",E182,"""",",","""",F182,"""",",","""",G182,"""),")</f>
+        <v>new OpCodeTable(0xF3,"","","REP","",""),</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>180</v>
+        <v>242</v>
       </c>
       <c r="B183" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>B4</v>
-      </c>
-      <c r="C183" t="s">
-        <v>270</v>
+        <f>DEC2HEX(A183,2)</f>
+        <v>F2</v>
       </c>
       <c r="E183" t="s">
-        <v>50</v>
-      </c>
-      <c r="F183" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G183" s="19" t="s">
-        <v>284</v>
+        <v>79</v>
       </c>
       <c r="I183" t="str">
-        <f t="shared" si="4"/>
-        <v>new OpCodeTable(0xB4,"D-8","","MOV","AH","I-8"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A183,2),",","""",C183,"""",",","""",D183,"""",",","""",E183,"""",",","""",F183,"""",",","""",G183,"""),")</f>
+        <v>new OpCodeTable(0xF2,"","","REPNZ","",""),</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="B184" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>B5</v>
+        <f>DEC2HEX(A184,2)</f>
+        <v>C2</v>
       </c>
       <c r="C184" t="s">
-        <v>270</v>
+        <v>271</v>
+      </c>
+      <c r="D184" t="s">
+        <v>277</v>
       </c>
       <c r="E184" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="F184" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="G184" s="19" t="s">
-        <v>284</v>
+        <v>285</v>
+      </c>
+      <c r="H184" t="s">
+        <v>343</v>
       </c>
       <c r="I184" t="str">
-        <f t="shared" si="4"/>
-        <v>new OpCodeTable(0xB5,"D-8","","MOV","CH","I-8"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A184,2),",","""",C184,"""",",","""",D184,"""",",","""",E184,"""",",","""",F184,"""",",","""",G184,"""),")</f>
+        <v>new OpCodeTable(0xC2,"D-LO","D-HI","RET","I-16",""),</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="B185" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>B6</v>
-      </c>
-      <c r="C185" t="s">
-        <v>270</v>
+        <f>DEC2HEX(A185,2)</f>
+        <v>C3</v>
       </c>
       <c r="E185" t="s">
-        <v>50</v>
-      </c>
-      <c r="F185" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="G185" s="19" t="s">
-        <v>284</v>
+        <v>63</v>
+      </c>
+      <c r="H185" t="s">
+        <v>343</v>
       </c>
       <c r="I185" t="str">
-        <f t="shared" si="4"/>
-        <v>new OpCodeTable(0xB6,"D-8","","MOV","DH","I-8"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A185,2),",","""",C185,"""",",","""",D185,"""",",","""",E185,"""",",","""",F185,"""",",","""",G185,"""),")</f>
+        <v>new OpCodeTable(0xC3,"","","RET","",""),</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="B186" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>B7</v>
+        <f>DEC2HEX(A186,2)</f>
+        <v>CA</v>
       </c>
       <c r="C186" t="s">
-        <v>270</v>
+        <v>271</v>
+      </c>
+      <c r="D186" t="s">
+        <v>277</v>
       </c>
       <c r="E186" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="F186" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="G186" s="19" t="s">
-        <v>284</v>
+        <v>285</v>
+      </c>
+      <c r="H186" t="s">
+        <v>343</v>
       </c>
       <c r="I186" t="str">
-        <f t="shared" si="4"/>
-        <v>new OpCodeTable(0xB7,"D-8","","MOV","BH","I-8"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A186,2),",","""",C186,"""",",","""",D186,"""",",","""",E186,"""",",","""",F186,"""",",","""",G186,"""),")</f>
+        <v>new OpCodeTable(0xCA,"D-LO","D-HI","RET","I-16",""),</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="B187" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>B8</v>
-      </c>
-      <c r="C187" t="s">
-        <v>271</v>
-      </c>
-      <c r="D187" t="s">
-        <v>277</v>
+        <f>DEC2HEX(A187,2)</f>
+        <v>CB</v>
       </c>
       <c r="E187" t="s">
-        <v>50</v>
-      </c>
-      <c r="F187" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G187" s="19" t="s">
-        <v>285</v>
+        <v>63</v>
+      </c>
+      <c r="H187" t="s">
+        <v>343</v>
       </c>
       <c r="I187" t="str">
-        <f t="shared" si="4"/>
-        <v>new OpCodeTable(0xB8,"D-LO","D-HI","MOV","AX","I-16"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A187,2),",","""",C187,"""",",","""",D187,"""",",","""",E187,"""",",","""",F187,"""",",","""",G187,"""),")</f>
+        <v>new OpCodeTable(0xCB,"","","RET","",""),</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="B188" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>B9</v>
-      </c>
-      <c r="C188" t="s">
-        <v>271</v>
-      </c>
-      <c r="D188" t="s">
-        <v>277</v>
+        <f>DEC2HEX(A188,2)</f>
+        <v>9E</v>
       </c>
       <c r="E188" t="s">
-        <v>50</v>
-      </c>
-      <c r="F188" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G188" s="19" t="s">
-        <v>285</v>
+        <v>111</v>
       </c>
       <c r="I188" t="str">
-        <f t="shared" si="4"/>
-        <v>new OpCodeTable(0xB9,"D-LO","D-HI","MOV","CX","I-16"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A188,2),",","""",C188,"""",",","""",D188,"""",",","""",E188,"""",",","""",F188,"""",",","""",G188,"""),")</f>
+        <v>new OpCodeTable(0x9E,"","","SAHF","",""),</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>186</v>
+        <v>24</v>
       </c>
       <c r="B189" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>BA</v>
+        <f>DEC2HEX(A189,2)</f>
+        <v>18</v>
       </c>
       <c r="C189" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D189" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E189" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="F189" s="19" t="s">
-        <v>27</v>
+        <v>280</v>
       </c>
       <c r="G189" s="19" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="I189" t="str">
-        <f t="shared" si="4"/>
-        <v>new OpCodeTable(0xBA,"D-LO","D-HI","MOV","DX","I-16"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A189,2),",","""",C189,"""",",","""",D189,"""",",","""",E189,"""",",","""",F189,"""",",","""",G189,"""),")</f>
+        <v>new OpCodeTable(0x18,"MRR","DISP","SBB","RM-8","R-8"),</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>187</v>
+        <v>25</v>
       </c>
       <c r="B190" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>BB</v>
+        <f>DEC2HEX(A190,2)</f>
+        <v>19</v>
       </c>
       <c r="C190" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D190" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E190" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="F190" s="19" t="s">
-        <v>29</v>
+        <v>282</v>
       </c>
       <c r="G190" s="19" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I190" t="str">
-        <f t="shared" si="4"/>
-        <v>new OpCodeTable(0xBB,"D-LO","D-HI","MOV","BX","I-16"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A190,2),",","""",C190,"""",",","""",D190,"""",",","""",E190,"""",",","""",F190,"""",",","""",G190,"""),")</f>
+        <v>new OpCodeTable(0x19,"MRR","DISP","SBB","RM-16","R-16"),</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>188</v>
+        <v>26</v>
       </c>
       <c r="B191" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>BC</v>
+        <f>DEC2HEX(A191,2)</f>
+        <v>1A</v>
       </c>
       <c r="C191" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D191" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E191" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="F191" s="19" t="s">
-        <v>30</v>
+        <v>281</v>
       </c>
       <c r="G191" s="19" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="I191" t="str">
-        <f t="shared" si="4"/>
-        <v>new OpCodeTable(0xBC,"D-LO","D-HI","MOV","SP","I-16"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A191,2),",","""",C191,"""",",","""",D191,"""",",","""",E191,"""",",","""",F191,"""",",","""",G191,"""),")</f>
+        <v>new OpCodeTable(0x1A,"MRR","DISP","SBB","R-8","RM-8"),</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>189</v>
+        <v>27</v>
       </c>
       <c r="B192" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>BD</v>
+        <f>DEC2HEX(A192,2)</f>
+        <v>1B</v>
       </c>
       <c r="C192" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D192" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E192" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="F192" s="19" t="s">
-        <v>31</v>
+        <v>283</v>
       </c>
       <c r="G192" s="19" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="I192" t="str">
-        <f t="shared" si="4"/>
-        <v>new OpCodeTable(0xBD,"D-LO","D-HI","MOV","BP","I-16"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A192,2),",","""",C192,"""",",","""",D192,"""",",","""",E192,"""",",","""",F192,"""",",","""",G192,"""),")</f>
+        <v>new OpCodeTable(0x1B,"MRR","DISP","SBB","R-16","RM-16"),</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>190</v>
+        <v>28</v>
       </c>
       <c r="B193" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>BE</v>
+        <f>DEC2HEX(A193,2)</f>
+        <v>1C</v>
       </c>
       <c r="C193" t="s">
-        <v>271</v>
-      </c>
-      <c r="D193" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="E193" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="F193" s="19" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G193" s="19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I193" t="str">
-        <f t="shared" si="4"/>
-        <v>new OpCodeTable(0xBE,"D-LO","D-HI","MOV","SI","I-16"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A193,2),",","""",C193,"""",",","""",D193,"""",",","""",E193,"""",",","""",F193,"""",",","""",G193,"""),")</f>
+        <v>new OpCodeTable(0x1C,"D-8","","SBB","AL","I-8"),</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>191</v>
+        <v>29</v>
       </c>
       <c r="B194" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>BF</v>
+        <f>DEC2HEX(A194,2)</f>
+        <v>1D</v>
       </c>
       <c r="C194" t="s">
         <v>271</v>
@@ -20462,458 +20511,444 @@
         <v>277</v>
       </c>
       <c r="E194" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="F194" s="19" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G194" s="19" t="s">
         <v>285</v>
       </c>
       <c r="I194" t="str">
-        <f t="shared" si="4"/>
-        <v>new OpCodeTable(0xBF,"D-LO","D-HI","MOV","DI","I-16"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A194,2),",","""",C194,"""",",","""",D194,"""",",","""",E194,"""",",","""",F194,"""",",","""",G194,"""),")</f>
+        <v>new OpCodeTable(0x1D,"D-LO","D-HI","SBB","AX","I-16"),</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>192</v>
-      </c>
-      <c r="B195" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>C0</v>
-      </c>
-      <c r="C195" s="4"/>
-      <c r="D195" s="4"/>
-      <c r="E195" s="4"/>
-      <c r="F195" s="20"/>
-      <c r="G195" s="20"/>
+        <v>174</v>
+      </c>
+      <c r="B195" s="7" t="str">
+        <f>DEC2HEX(A195,2)</f>
+        <v>AE</v>
+      </c>
+      <c r="E195" t="s">
+        <v>117</v>
+      </c>
       <c r="I195" t="str">
-        <f t="shared" ref="I195:I258" si="6">CONCATENATE("new OpCodeTable(0x",DEC2HEX(A195,2),",","""",C195,"""",",","""",D195,"""",",","""",E195,"""",",","""",F195,"""",",","""",G195,"""),")</f>
-        <v>new OpCodeTable(0xC0,"","","","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A195,2),",","""",C195,"""",",","""",D195,"""",",","""",E195,"""",",","""",F195,"""",",","""",G195,"""),")</f>
+        <v>new OpCodeTable(0xAE,"","","SCASB","",""),</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>193</v>
-      </c>
-      <c r="B196" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>C1</v>
-      </c>
-      <c r="C196" s="4"/>
-      <c r="D196" s="4"/>
-      <c r="E196" s="4"/>
-      <c r="F196" s="20"/>
-      <c r="G196" s="20"/>
+        <v>175</v>
+      </c>
+      <c r="B196" s="7" t="str">
+        <f>DEC2HEX(A196,2)</f>
+        <v>AF</v>
+      </c>
+      <c r="E196" t="s">
+        <v>118</v>
+      </c>
       <c r="I196" t="str">
-        <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xC1,"","","","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A196,2),",","""",C196,"""",",","""",D196,"""",",","""",E196,"""",",","""",F196,"""",",","""",G196,"""),")</f>
+        <v>new OpCodeTable(0xAF,"","","SCASW","",""),</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>194</v>
+        <v>54</v>
       </c>
       <c r="B197" s="7" t="str">
-        <f t="shared" ref="B197:B258" si="7">DEC2HEX(A197,2)</f>
-        <v>C2</v>
-      </c>
-      <c r="C197" t="s">
-        <v>271</v>
-      </c>
-      <c r="D197" t="s">
-        <v>277</v>
+        <f>DEC2HEX(A197,2)</f>
+        <v>36</v>
       </c>
       <c r="E197" t="s">
-        <v>63</v>
-      </c>
-      <c r="F197" s="19" t="s">
-        <v>285</v>
-      </c>
-      <c r="H197" t="s">
-        <v>343</v>
+        <v>23</v>
       </c>
       <c r="I197" t="str">
-        <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xC2,"D-LO","D-HI","RET","I-16",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A197,2),",","""",C197,"""",",","""",D197,"""",",","""",E197,"""",",","""",F197,"""",",","""",G197,"""),")</f>
+        <v>new OpCodeTable(0x36,"","","SS:","",""),</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>195</v>
+        <v>249</v>
       </c>
       <c r="B198" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>C3</v>
+        <f>DEC2HEX(A198,2)</f>
+        <v>F9</v>
       </c>
       <c r="E198" t="s">
-        <v>63</v>
-      </c>
-      <c r="H198" t="s">
-        <v>343</v>
+        <v>126</v>
       </c>
       <c r="I198" t="str">
-        <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xC3,"","","RET","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A198,2),",","""",C198,"""",",","""",D198,"""",",","""",E198,"""",",","""",F198,"""",",","""",G198,"""),")</f>
+        <v>new OpCodeTable(0xF9,"","","STC","",""),</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="B199" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>C4</v>
-      </c>
-      <c r="C199" t="s">
-        <v>269</v>
-      </c>
-      <c r="D199" t="s">
-        <v>276</v>
+        <f>DEC2HEX(A199,2)</f>
+        <v>FD</v>
       </c>
       <c r="E199" t="s">
-        <v>64</v>
-      </c>
-      <c r="F199" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="G199" s="19" t="s">
-        <v>325</v>
+        <v>130</v>
       </c>
       <c r="I199" t="str">
-        <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xC4,"MRR","DISP","LES","R-16","M-16"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A199,2),",","""",C199,"""",",","""",D199,"""",",","""",E199,"""",",","""",F199,"""",",","""",G199,"""),")</f>
+        <v>new OpCodeTable(0xFD,"","","STD","",""),</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>197</v>
+        <v>251</v>
       </c>
       <c r="B200" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>C5</v>
-      </c>
-      <c r="C200" t="s">
-        <v>269</v>
-      </c>
-      <c r="D200" t="s">
-        <v>276</v>
+        <f>DEC2HEX(A200,2)</f>
+        <v>FB</v>
       </c>
       <c r="E200" t="s">
-        <v>65</v>
-      </c>
-      <c r="F200" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="G200" s="19" t="s">
-        <v>325</v>
+        <v>128</v>
       </c>
       <c r="I200" t="str">
-        <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xC5,"MRR","DISP","LDS","R-16","M-16"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A200,2),",","""",C200,"""",",","""",D200,"""",",","""",E200,"""",",","""",F200,"""",",","""",G200,"""),")</f>
+        <v>new OpCodeTable(0xFB,"","","STI","",""),</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="B201" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>C6</v>
-      </c>
-      <c r="C201" t="s">
-        <v>269</v>
-      </c>
-      <c r="D201" t="s">
-        <v>276</v>
+        <f>DEC2HEX(A201,2)</f>
+        <v>AA</v>
       </c>
       <c r="E201" t="s">
-        <v>50</v>
-      </c>
-      <c r="F201" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="G201" s="19" t="s">
-        <v>284</v>
+        <v>113</v>
       </c>
       <c r="I201" t="str">
-        <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xC6,"MRR","DISP","MOV","M-8","I-8"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A201,2),",","""",C201,"""",",","""",D201,"""",",","""",E201,"""",",","""",F201,"""",",","""",G201,"""),")</f>
+        <v>new OpCodeTable(0xAA,"","","STOSB","",""),</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="B202" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>C7</v>
-      </c>
-      <c r="C202" t="s">
-        <v>269</v>
-      </c>
-      <c r="D202" t="s">
-        <v>276</v>
+        <f>DEC2HEX(A202,2)</f>
+        <v>AB</v>
       </c>
       <c r="E202" t="s">
-        <v>50</v>
-      </c>
-      <c r="F202" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="G202" s="19" t="s">
-        <v>285</v>
+        <v>114</v>
       </c>
       <c r="I202" t="str">
-        <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xC7,"MRR","DISP","MOV","M-16","I-16"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A202,2),",","""",C202,"""",",","""",D202,"""",",","""",E202,"""",",","""",F202,"""",",","""",G202,"""),")</f>
+        <v>new OpCodeTable(0xAB,"","","STOSW","",""),</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>200</v>
-      </c>
-      <c r="B203" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>C8</v>
-      </c>
-      <c r="C203" s="4"/>
-      <c r="D203" s="4"/>
-      <c r="E203" s="4"/>
-      <c r="F203" s="20"/>
-      <c r="G203" s="20"/>
+        <v>40</v>
+      </c>
+      <c r="B203" s="7" t="str">
+        <f>DEC2HEX(A203,2)</f>
+        <v>28</v>
+      </c>
+      <c r="C203" t="s">
+        <v>269</v>
+      </c>
+      <c r="D203" t="s">
+        <v>276</v>
+      </c>
+      <c r="E203" t="s">
+        <v>88</v>
+      </c>
+      <c r="F203" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="G203" s="19" t="s">
+        <v>281</v>
+      </c>
       <c r="I203" t="str">
-        <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xC8,"","","","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A203,2),",","""",C203,"""",",","""",D203,"""",",","""",E203,"""",",","""",F203,"""",",","""",G203,"""),")</f>
+        <v>new OpCodeTable(0x28,"MRR","DISP","SUB","RM-8","R-8"),</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>201</v>
-      </c>
-      <c r="B204" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>C9</v>
-      </c>
-      <c r="C204" s="4"/>
-      <c r="D204" s="4"/>
-      <c r="E204" s="4"/>
-      <c r="F204" s="20"/>
-      <c r="G204" s="20"/>
+        <v>41</v>
+      </c>
+      <c r="B204" s="7" t="str">
+        <f>DEC2HEX(A204,2)</f>
+        <v>29</v>
+      </c>
+      <c r="C204" t="s">
+        <v>269</v>
+      </c>
+      <c r="D204" t="s">
+        <v>276</v>
+      </c>
+      <c r="E204" t="s">
+        <v>88</v>
+      </c>
+      <c r="F204" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="G204" s="19" t="s">
+        <v>283</v>
+      </c>
       <c r="I204" t="str">
-        <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xC9,"","","","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A204,2),",","""",C204,"""",",","""",D204,"""",",","""",E204,"""",",","""",F204,"""",",","""",G204,"""),")</f>
+        <v>new OpCodeTable(0x29,"MRR","DISP","SUB","RM-16","R-16"),</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>202</v>
+        <v>42</v>
       </c>
       <c r="B205" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>CA</v>
+        <f>DEC2HEX(A205,2)</f>
+        <v>2A</v>
       </c>
       <c r="C205" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D205" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E205" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="F205" s="19" t="s">
-        <v>285</v>
-      </c>
-      <c r="H205" t="s">
-        <v>343</v>
+        <v>281</v>
+      </c>
+      <c r="G205" s="19" t="s">
+        <v>280</v>
       </c>
       <c r="I205" t="str">
-        <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xCA,"D-LO","D-HI","RET","I-16",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A205,2),",","""",C205,"""",",","""",D205,"""",",","""",E205,"""",",","""",F205,"""",",","""",G205,"""),")</f>
+        <v>new OpCodeTable(0x2A,"MRR","DISP","SUB","R-8","RM-8"),</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>203</v>
+        <v>43</v>
       </c>
       <c r="B206" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>CB</v>
+        <f>DEC2HEX(A206,2)</f>
+        <v>2B</v>
+      </c>
+      <c r="C206" t="s">
+        <v>269</v>
+      </c>
+      <c r="D206" t="s">
+        <v>276</v>
       </c>
       <c r="E206" t="s">
-        <v>63</v>
-      </c>
-      <c r="H206" t="s">
-        <v>343</v>
+        <v>88</v>
+      </c>
+      <c r="F206" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="G206" s="19" t="s">
+        <v>282</v>
       </c>
       <c r="I206" t="str">
-        <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xCB,"","","RET","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A206,2),",","""",C206,"""",",","""",D206,"""",",","""",E206,"""",",","""",F206,"""",",","""",G206,"""),")</f>
+        <v>new OpCodeTable(0x2B,"MRR","DISP","SUB","R-16","RM-16"),</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>204</v>
+        <v>44</v>
       </c>
       <c r="B207" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>CC</v>
+        <f>DEC2HEX(A207,2)</f>
+        <v>2C</v>
+      </c>
+      <c r="C207" t="s">
+        <v>270</v>
       </c>
       <c r="E207" t="s">
-        <v>365</v>
+        <v>88</v>
+      </c>
+      <c r="F207" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G207" s="19" t="s">
+        <v>284</v>
       </c>
       <c r="I207" t="str">
-        <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xCC,"","","INT3","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A207,2),",","""",C207,"""",",","""",D207,"""",",","""",E207,"""",",","""",F207,"""",",","""",G207,"""),")</f>
+        <v>new OpCodeTable(0x2C,"D-8","","SUB","AL","I-8"),</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>205</v>
+        <v>45</v>
       </c>
       <c r="B208" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>CD</v>
+        <f>DEC2HEX(A208,2)</f>
+        <v>2D</v>
       </c>
       <c r="C208" t="s">
-        <v>270</v>
+        <v>271</v>
+      </c>
+      <c r="D208" t="s">
+        <v>277</v>
       </c>
       <c r="E208" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="F208" s="19" t="s">
-        <v>284</v>
+        <v>10</v>
+      </c>
+      <c r="G208" s="19" t="s">
+        <v>285</v>
       </c>
       <c r="I208" t="str">
-        <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xCD,"D-8","","INT","I-8",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A208,2),",","""",C208,"""",",","""",D208,"""",",","""",E208,"""",",","""",F208,"""",",","""",G208,"""),")</f>
+        <v>new OpCodeTable(0x2D,"D-LO","D-HI","SUB","AX","I-16"),</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>206</v>
+        <v>132</v>
       </c>
       <c r="B209" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>CE</v>
+        <f>DEC2HEX(A209,2)</f>
+        <v>84</v>
+      </c>
+      <c r="C209" t="s">
+        <v>269</v>
+      </c>
+      <c r="D209" t="s">
+        <v>276</v>
       </c>
       <c r="E209" t="s">
-        <v>121</v>
+        <v>47</v>
+      </c>
+      <c r="F209" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="G209" s="19" t="s">
+        <v>281</v>
       </c>
       <c r="I209" t="str">
-        <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xCE,"","","INTO","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A209,2),",","""",C209,"""",",","""",D209,"""",",","""",E209,"""",",","""",F209,"""",",","""",G209,"""),")</f>
+        <v>new OpCodeTable(0x84,"MRR","DISP","TEST","RM-8","R-8"),</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>207</v>
+        <v>133</v>
       </c>
       <c r="B210" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>CF</v>
+        <f>DEC2HEX(A210,2)</f>
+        <v>85</v>
+      </c>
+      <c r="C210" t="s">
+        <v>269</v>
+      </c>
+      <c r="D210" t="s">
+        <v>276</v>
       </c>
       <c r="E210" t="s">
-        <v>122</v>
+        <v>47</v>
+      </c>
+      <c r="F210" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="G210" s="19" t="s">
+        <v>283</v>
       </c>
       <c r="I210" t="str">
-        <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xCF,"","","IRET","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A210,2),",","""",C210,"""",",","""",D210,"""",",","""",E210,"""",",","""",F210,"""",",","""",G210,"""),")</f>
+        <v>new OpCodeTable(0x85,"MRR","DISP","TEST","RM-16","R-16"),</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>208</v>
+        <v>168</v>
       </c>
       <c r="B211" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>D0</v>
+        <f>DEC2HEX(A211,2)</f>
+        <v>A8</v>
       </c>
       <c r="C211" t="s">
-        <v>269</v>
-      </c>
-      <c r="D211" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E211" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F211" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="G211" s="19">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="G211" s="19" t="s">
+        <v>284</v>
       </c>
       <c r="I211" t="str">
-        <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xD0,"MRR","DISP","GRP2","RM-8","1"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A211,2),",","""",C211,"""",",","""",D211,"""",",","""",E211,"""",",","""",F211,"""",",","""",G211,"""),")</f>
+        <v>new OpCodeTable(0xA8,"D-8","","TEST","AL","I-8"),</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>209</v>
+        <v>169</v>
       </c>
       <c r="B212" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>D1</v>
+        <f>DEC2HEX(A212,2)</f>
+        <v>A9</v>
       </c>
       <c r="C212" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D212" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E212" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F212" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="G212" s="19">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="G212" s="19" t="s">
+        <v>285</v>
       </c>
       <c r="I212" t="str">
-        <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xD1,"MRR","DISP","GRP2","RM-16","1"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A212,2),",","""",C212,"""",",","""",D212,"""",",","""",E212,"""",",","""",F212,"""",",","""",G212,"""),")</f>
+        <v>new OpCodeTable(0xA9,"D-LO","D-HI","TEST","AX","I-16"),</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>210</v>
+        <v>155</v>
       </c>
       <c r="B213" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>D2</v>
-      </c>
-      <c r="C213" t="s">
-        <v>269</v>
-      </c>
-      <c r="D213" t="s">
-        <v>276</v>
+        <f>DEC2HEX(A213,2)</f>
+        <v>9B</v>
       </c>
       <c r="E213" t="s">
-        <v>44</v>
-      </c>
-      <c r="F213" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="G213" s="19" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="I213" t="str">
-        <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xD2,"MRR","DISP","GRP2","RM-8","CL"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A213,2),",","""",C213,"""",",","""",D213,"""",",","""",E213,"""",",","""",F213,"""",",","""",G213,"""),")</f>
+        <v>new OpCodeTable(0x9B,"","","WAIT","",""),</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>211</v>
+        <v>134</v>
       </c>
       <c r="B214" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>D3</v>
+        <f>DEC2HEX(A214,2)</f>
+        <v>86</v>
       </c>
       <c r="C214" t="s">
         <v>269</v>
@@ -20922,624 +20957,602 @@
         <v>276</v>
       </c>
       <c r="E214" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F214" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G214" s="19" t="s">
-        <v>56</v>
+        <v>280</v>
       </c>
       <c r="I214" t="str">
-        <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xD3,"MRR","DISP","GRP2","RM-16","CL"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A214,2),",","""",C214,"""",",","""",D214,"""",",","""",E214,"""",",","""",F214,"""",",","""",G214,"""),")</f>
+        <v>new OpCodeTable(0x86,"MRR","DISP","XCHG","R-8","RM-8"),</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>212</v>
+        <v>135</v>
       </c>
       <c r="B215" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>D4</v>
+        <f>DEC2HEX(A215,2)</f>
+        <v>87</v>
       </c>
       <c r="C215" t="s">
-        <v>270</v>
+        <v>269</v>
+      </c>
+      <c r="D215" t="s">
+        <v>276</v>
       </c>
       <c r="E215" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="F215" s="19" t="s">
-        <v>284</v>
+        <v>283</v>
+      </c>
+      <c r="G215" s="19" t="s">
+        <v>282</v>
       </c>
       <c r="I215" t="str">
-        <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xD4,"D-8","","AAM","I-8",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A215,2),",","""",C215,"""",",","""",D215,"""",",","""",E215,"""",",","""",F215,"""",",","""",G215,"""),")</f>
+        <v>new OpCodeTable(0x87,"MRR","DISP","XCHG","R-16","RM-16"),</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>213</v>
+        <v>149</v>
       </c>
       <c r="B216" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>D5</v>
-      </c>
-      <c r="C216" t="s">
-        <v>270</v>
+        <f>DEC2HEX(A216,2)</f>
+        <v>95</v>
       </c>
       <c r="E216" t="s">
-        <v>70</v>
-      </c>
-      <c r="F216" s="19" t="s">
-        <v>284</v>
+        <v>330</v>
       </c>
       <c r="I216" t="str">
-        <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xD5,"D-8","","AAD","I-8",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A216,2),",","""",C216,"""",",","""",D216,"""",",","""",E216,"""",",","""",F216,"""",",","""",G216,"""),")</f>
+        <v>new OpCodeTable(0x95,"","","XCHG AX,BP","",""),</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>214</v>
-      </c>
-      <c r="B217" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>D6</v>
-      </c>
-      <c r="C217" s="4"/>
-      <c r="D217" s="4"/>
-      <c r="E217" s="4"/>
-      <c r="F217" s="20"/>
-      <c r="G217" s="20"/>
+        <v>147</v>
+      </c>
+      <c r="B217" s="7" t="str">
+        <f>DEC2HEX(A217,2)</f>
+        <v>93</v>
+      </c>
+      <c r="E217" t="s">
+        <v>328</v>
+      </c>
       <c r="I217" t="str">
-        <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xD6,"","","","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A217,2),",","""",C217,"""",",","""",D217,"""",",","""",E217,"""",",","""",F217,"""",",","""",G217,"""),")</f>
+        <v>new OpCodeTable(0x93,"","","XCHG AX,BX","",""),</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c r="B218" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>D7</v>
+        <f>DEC2HEX(A218,2)</f>
+        <v>91</v>
       </c>
       <c r="E218" t="s">
-        <v>71</v>
+        <v>326</v>
       </c>
       <c r="I218" t="str">
-        <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xD7,"","","XLAT","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A218,2),",","""",C218,"""",",","""",D218,"""",",","""",E218,"""",",","""",F218,"""",",","""",G218,"""),")</f>
+        <v>new OpCodeTable(0x91,"","","XCHG AX,CX","",""),</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>216</v>
+        <v>151</v>
       </c>
       <c r="B219" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>D8</v>
-      </c>
-      <c r="C219" t="s">
-        <v>269</v>
-      </c>
-      <c r="D219" t="s">
-        <v>276</v>
+        <f>DEC2HEX(A219,2)</f>
+        <v>97</v>
       </c>
       <c r="E219" t="s">
-        <v>345</v>
-      </c>
-      <c r="F219" s="19" t="s">
-        <v>346</v>
-      </c>
-      <c r="G219" s="19" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="I219" t="str">
-        <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xD8,"MRR","DISP","ESC","OPCODE","SOURCE"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A219,2),",","""",C219,"""",",","""",D219,"""",",","""",E219,"""",",","""",F219,"""",",","""",G219,"""),")</f>
+        <v>new OpCodeTable(0x97,"","","XCHG AX,DI","",""),</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>217</v>
-      </c>
-      <c r="B220" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>D9</v>
-      </c>
-      <c r="C220" s="4"/>
-      <c r="D220" s="4"/>
-      <c r="E220" s="4"/>
-      <c r="F220" s="20"/>
-      <c r="G220" s="20"/>
+        <v>146</v>
+      </c>
+      <c r="B220" s="7" t="str">
+        <f>DEC2HEX(A220,2)</f>
+        <v>92</v>
+      </c>
+      <c r="E220" t="s">
+        <v>327</v>
+      </c>
       <c r="I220" t="str">
-        <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xD9,"","","","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A220,2),",","""",C220,"""",",","""",D220,"""",",","""",E220,"""",",","""",F220,"""",",","""",G220,"""),")</f>
+        <v>new OpCodeTable(0x92,"","","XCHG AX,DX","",""),</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>218</v>
-      </c>
-      <c r="B221" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>DA</v>
-      </c>
-      <c r="C221" s="4"/>
-      <c r="D221" s="4"/>
-      <c r="E221" s="4"/>
-      <c r="F221" s="20"/>
-      <c r="G221" s="20"/>
+        <v>150</v>
+      </c>
+      <c r="B221" s="7" t="str">
+        <f>DEC2HEX(A221,2)</f>
+        <v>96</v>
+      </c>
+      <c r="E221" t="s">
+        <v>331</v>
+      </c>
       <c r="I221" t="str">
-        <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xDA,"","","","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A221,2),",","""",C221,"""",",","""",D221,"""",",","""",E221,"""",",","""",F221,"""",",","""",G221,"""),")</f>
+        <v>new OpCodeTable(0x96,"","","XCHG AX,SI","",""),</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>219</v>
-      </c>
-      <c r="B222" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>DB</v>
-      </c>
-      <c r="C222" s="4"/>
-      <c r="D222" s="4"/>
-      <c r="E222" s="4"/>
-      <c r="F222" s="20"/>
-      <c r="G222" s="20"/>
+        <v>148</v>
+      </c>
+      <c r="B222" s="7" t="str">
+        <f>DEC2HEX(A222,2)</f>
+        <v>94</v>
+      </c>
+      <c r="E222" t="s">
+        <v>329</v>
+      </c>
       <c r="I222" t="str">
-        <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xDB,"","","","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A222,2),",","""",C222,"""",",","""",D222,"""",",","""",E222,"""",",","""",F222,"""",",","""",G222,"""),")</f>
+        <v>new OpCodeTable(0x94,"","","XCHG AX,SP","",""),</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>220</v>
-      </c>
-      <c r="B223" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>DC</v>
-      </c>
-      <c r="C223" s="4"/>
-      <c r="D223" s="4"/>
-      <c r="E223" s="4"/>
-      <c r="F223" s="20"/>
-      <c r="G223" s="20"/>
+        <v>215</v>
+      </c>
+      <c r="B223" s="7" t="str">
+        <f>DEC2HEX(A223,2)</f>
+        <v>D7</v>
+      </c>
+      <c r="E223" t="s">
+        <v>71</v>
+      </c>
       <c r="I223" t="str">
-        <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xDC,"","","","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A223,2),",","""",C223,"""",",","""",D223,"""",",","""",E223,"""",",","""",F223,"""",",","""",G223,"""),")</f>
+        <v>new OpCodeTable(0xD7,"","","XLAT","",""),</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>221</v>
-      </c>
-      <c r="B224" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>DD</v>
-      </c>
-      <c r="C224" s="4"/>
-      <c r="D224" s="4"/>
-      <c r="E224" s="4"/>
-      <c r="F224" s="20"/>
-      <c r="G224" s="20"/>
+        <v>48</v>
+      </c>
+      <c r="B224" s="7" t="str">
+        <f>DEC2HEX(A224,2)</f>
+        <v>30</v>
+      </c>
+      <c r="C224" t="s">
+        <v>269</v>
+      </c>
+      <c r="D224" t="s">
+        <v>276</v>
+      </c>
+      <c r="E224" t="s">
+        <v>22</v>
+      </c>
+      <c r="F224" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="G224" s="19" t="s">
+        <v>281</v>
+      </c>
       <c r="I224" t="str">
-        <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xDD,"","","","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A224,2),",","""",C224,"""",",","""",D224,"""",",","""",E224,"""",",","""",F224,"""",",","""",G224,"""),")</f>
+        <v>new OpCodeTable(0x30,"MRR","DISP","XOR","RM-8","R-8"),</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>222</v>
-      </c>
-      <c r="B225" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>DE</v>
-      </c>
-      <c r="C225" s="4"/>
-      <c r="D225" s="4"/>
-      <c r="E225" s="4"/>
-      <c r="F225" s="20"/>
-      <c r="G225" s="20"/>
+        <v>49</v>
+      </c>
+      <c r="B225" s="7" t="str">
+        <f>DEC2HEX(A225,2)</f>
+        <v>31</v>
+      </c>
+      <c r="C225" t="s">
+        <v>269</v>
+      </c>
+      <c r="D225" t="s">
+        <v>276</v>
+      </c>
+      <c r="E225" t="s">
+        <v>22</v>
+      </c>
+      <c r="F225" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="G225" s="19" t="s">
+        <v>283</v>
+      </c>
       <c r="I225" t="str">
-        <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xDE,"","","","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A225,2),",","""",C225,"""",",","""",D225,"""",",","""",E225,"""",",","""",F225,"""",",","""",G225,"""),")</f>
+        <v>new OpCodeTable(0x31,"MRR","DISP","XOR","RM-16","R-16"),</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>223</v>
+        <v>50</v>
       </c>
       <c r="B226" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>DF</v>
+        <f>DEC2HEX(A226,2)</f>
+        <v>32</v>
       </c>
       <c r="C226" t="s">
         <v>269</v>
       </c>
-      <c r="H226" t="s">
-        <v>348</v>
+      <c r="D226" t="s">
+        <v>276</v>
+      </c>
+      <c r="E226" t="s">
+        <v>22</v>
+      </c>
+      <c r="F226" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="G226" s="19" t="s">
+        <v>280</v>
       </c>
       <c r="I226" t="str">
-        <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xDF,"MRR","","","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A226,2),",","""",C226,"""",",","""",D226,"""",",","""",E226,"""",",","""",F226,"""",",","""",G226,"""),")</f>
+        <v>new OpCodeTable(0x32,"MRR","DISP","XOR","R-8","RM-8"),</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>224</v>
+        <v>51</v>
       </c>
       <c r="B227" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>E0</v>
+        <f>DEC2HEX(A227,2)</f>
+        <v>33</v>
       </c>
       <c r="C227" t="s">
-        <v>349</v>
+        <v>269</v>
+      </c>
+      <c r="D227" t="s">
+        <v>276</v>
       </c>
       <c r="E227" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="F227" s="19" t="s">
-        <v>355</v>
+        <v>283</v>
+      </c>
+      <c r="G227" s="19" t="s">
+        <v>282</v>
       </c>
       <c r="I227" t="str">
-        <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xE0,"IP-INC-8","","LOOPNZ","SHORT",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A227,2),",","""",C227,"""",",","""",D227,"""",",","""",E227,"""",",","""",F227,"""",",","""",G227,"""),")</f>
+        <v>new OpCodeTable(0x33,"MRR","DISP","XOR","R-16","RM-16"),</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>225</v>
+        <v>52</v>
       </c>
       <c r="B228" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>E1</v>
+        <f>DEC2HEX(A228,2)</f>
+        <v>34</v>
       </c>
       <c r="C228" t="s">
-        <v>349</v>
+        <v>270</v>
       </c>
       <c r="E228" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="F228" s="19" t="s">
-        <v>355</v>
+        <v>9</v>
+      </c>
+      <c r="G228" s="19" t="s">
+        <v>284</v>
       </c>
       <c r="I228" t="str">
-        <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xE1,"IP-INC-8","","LOOPZ","SHORT",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A228,2),",","""",C228,"""",",","""",D228,"""",",","""",E228,"""",",","""",F228,"""",",","""",G228,"""),")</f>
+        <v>new OpCodeTable(0x34,"D-8","","XOR","AL","I-8"),</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>226</v>
+        <v>53</v>
       </c>
       <c r="B229" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>E2</v>
+        <f>DEC2HEX(A229,2)</f>
+        <v>35</v>
       </c>
       <c r="C229" t="s">
-        <v>349</v>
+        <v>271</v>
+      </c>
+      <c r="D229" t="s">
+        <v>277</v>
       </c>
       <c r="E229" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="F229" s="19" t="s">
-        <v>355</v>
+        <v>10</v>
+      </c>
+      <c r="G229" s="19" t="s">
+        <v>285</v>
       </c>
       <c r="I229" t="str">
-        <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xE2,"IP-INC-8","","LOOP","SHORT",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A229,2),",","""",C229,"""",",","""",D229,"""",",","""",E229,"""",",","""",F229,"""",",","""",G229,"""),")</f>
+        <v>new OpCodeTable(0x35,"D-LO","D-HI","XOR","AX","I-16"),</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>227</v>
-      </c>
-      <c r="B230" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>E3</v>
-      </c>
-      <c r="C230" t="s">
-        <v>349</v>
-      </c>
-      <c r="E230" t="s">
-        <v>75</v>
-      </c>
-      <c r="F230" s="19" t="s">
-        <v>355</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="B230" s="12" t="str">
+        <f>DEC2HEX(A230,2)</f>
+        <v>60</v>
+      </c>
+      <c r="C230" s="4"/>
+      <c r="D230" s="4"/>
+      <c r="E230" s="4"/>
+      <c r="F230" s="20"/>
+      <c r="G230" s="20"/>
       <c r="I230" t="str">
-        <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xE3,"IP-INC-8","","JCXZ","SHORT",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A230,2),",","""",C230,"""",",","""",D230,"""",",","""",E230,"""",",","""",F230,"""",",","""",G230,"""),")</f>
+        <v>new OpCodeTable(0x60,"","","","",""),</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>228</v>
-      </c>
-      <c r="B231" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>E4</v>
-      </c>
-      <c r="C231" t="s">
-        <v>270</v>
-      </c>
-      <c r="E231" t="s">
-        <v>76</v>
-      </c>
-      <c r="F231" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G231" s="19" t="s">
-        <v>284</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="B231" s="12" t="str">
+        <f>DEC2HEX(A231,2)</f>
+        <v>61</v>
+      </c>
+      <c r="C231" s="4"/>
+      <c r="D231" s="4"/>
+      <c r="E231" s="4"/>
+      <c r="F231" s="20"/>
+      <c r="G231" s="20"/>
       <c r="I231" t="str">
-        <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xE4,"D-8","","IN","AL","I-8"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A231,2),",","""",C231,"""",",","""",D231,"""",",","""",E231,"""",",","""",F231,"""",",","""",G231,"""),")</f>
+        <v>new OpCodeTable(0x61,"","","","",""),</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>229</v>
-      </c>
-      <c r="B232" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>E5</v>
-      </c>
-      <c r="C232" t="s">
-        <v>270</v>
-      </c>
-      <c r="E232" t="s">
-        <v>76</v>
-      </c>
-      <c r="F232" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G232" s="19" t="s">
-        <v>284</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="B232" s="12" t="str">
+        <f>DEC2HEX(A232,2)</f>
+        <v>62</v>
+      </c>
+      <c r="C232" s="4"/>
+      <c r="D232" s="4"/>
+      <c r="E232" s="4"/>
+      <c r="F232" s="20"/>
+      <c r="G232" s="20"/>
       <c r="I232" t="str">
-        <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xE5,"D-8","","IN","AX","I-8"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A232,2),",","""",C232,"""",",","""",D232,"""",",","""",E232,"""",",","""",F232,"""",",","""",G232,"""),")</f>
+        <v>new OpCodeTable(0x62,"","","","",""),</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>230</v>
-      </c>
-      <c r="B233" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>E6</v>
-      </c>
-      <c r="C233" t="s">
-        <v>270</v>
-      </c>
-      <c r="E233" t="s">
-        <v>77</v>
-      </c>
-      <c r="F233" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="G233" s="19" t="s">
-        <v>9</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="B233" s="12" t="str">
+        <f>DEC2HEX(A233,2)</f>
+        <v>63</v>
+      </c>
+      <c r="C233" s="4"/>
+      <c r="D233" s="4"/>
+      <c r="E233" s="4"/>
+      <c r="F233" s="20"/>
+      <c r="G233" s="20"/>
       <c r="I233" t="str">
-        <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xE6,"D-8","","OUT","I-8","AL"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A233,2),",","""",C233,"""",",","""",D233,"""",",","""",E233,"""",",","""",F233,"""",",","""",G233,"""),")</f>
+        <v>new OpCodeTable(0x63,"","","","",""),</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>231</v>
-      </c>
-      <c r="B234" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>E7</v>
-      </c>
-      <c r="C234" t="s">
-        <v>270</v>
-      </c>
-      <c r="E234" t="s">
-        <v>77</v>
-      </c>
-      <c r="F234" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="G234" s="19" t="s">
-        <v>10</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="B234" s="12" t="str">
+        <f>DEC2HEX(A234,2)</f>
+        <v>64</v>
+      </c>
+      <c r="C234" s="4"/>
+      <c r="D234" s="4"/>
+      <c r="E234" s="4"/>
+      <c r="F234" s="20"/>
+      <c r="G234" s="20"/>
       <c r="I234" t="str">
-        <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xE7,"D-8","","OUT","I-8","AX"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A234,2),",","""",C234,"""",",","""",D234,"""",",","""",E234,"""",",","""",F234,"""",",","""",G234,"""),")</f>
+        <v>new OpCodeTable(0x64,"","","","",""),</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>232</v>
-      </c>
-      <c r="B235" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>E8</v>
-      </c>
-      <c r="C235" t="s">
-        <v>350</v>
-      </c>
-      <c r="D235" t="s">
-        <v>351</v>
-      </c>
-      <c r="E235" t="s">
-        <v>106</v>
-      </c>
-      <c r="F235" s="19" t="s">
-        <v>352</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B235" s="12" t="str">
+        <f>DEC2HEX(A235,2)</f>
+        <v>65</v>
+      </c>
+      <c r="C235" s="4"/>
+      <c r="D235" s="4"/>
+      <c r="E235" s="4"/>
+      <c r="F235" s="20"/>
+      <c r="G235" s="20"/>
       <c r="I235" t="str">
-        <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xE8,"IP-INC-LO","IP-INC-HI","CALL","NEAR",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A235,2),",","""",C235,"""",",","""",D235,"""",",","""",E235,"""",",","""",F235,"""",",","""",G235,"""),")</f>
+        <v>new OpCodeTable(0x65,"","","","",""),</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>233</v>
-      </c>
-      <c r="B236" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>E9</v>
-      </c>
-      <c r="C236" t="s">
-        <v>350</v>
-      </c>
-      <c r="D236" t="s">
-        <v>351</v>
-      </c>
-      <c r="E236" t="s">
-        <v>124</v>
-      </c>
-      <c r="F236" s="19" t="s">
-        <v>352</v>
+        <v>102</v>
+      </c>
+      <c r="B236" s="12" t="str">
+        <f>DEC2HEX(A236,2)</f>
+        <v>66</v>
+      </c>
+      <c r="C236" s="4"/>
+      <c r="D236" s="4"/>
+      <c r="E236" s="4"/>
+      <c r="F236" s="20"/>
+      <c r="G236" s="20"/>
+      <c r="H236" t="s">
+        <v>342</v>
       </c>
       <c r="I236" t="str">
-        <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xE9,"IP-INC-LO","IP-INC-HI","JMP","NEAR",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A236,2),",","""",C236,"""",",","""",D236,"""",",","""",E236,"""",",","""",F236,"""",",","""",G236,"""),")</f>
+        <v>new OpCodeTable(0x66,"","","","",""),</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>234</v>
-      </c>
-      <c r="B237" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>EA</v>
-      </c>
-      <c r="C237" t="s">
-        <v>353</v>
-      </c>
-      <c r="D237" t="s">
-        <v>354</v>
-      </c>
-      <c r="E237" t="s">
-        <v>124</v>
-      </c>
-      <c r="F237" s="19" t="s">
-        <v>334</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="B237" s="12" t="str">
+        <f>DEC2HEX(A237,2)</f>
+        <v>67</v>
+      </c>
+      <c r="C237" s="4"/>
+      <c r="D237" s="4"/>
+      <c r="E237" s="4"/>
+      <c r="F237" s="20"/>
+      <c r="G237" s="20"/>
       <c r="I237" t="str">
-        <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xEA,"IP-LO","IP-HI,CS-LO,CS-HI","JMP","FAR",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A237,2),",","""",C237,"""",",","""",D237,"""",",","""",E237,"""",",","""",F237,"""",",","""",G237,"""),")</f>
+        <v>new OpCodeTable(0x67,"","","","",""),</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>235</v>
-      </c>
-      <c r="B238" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>EB</v>
-      </c>
-      <c r="C238" t="s">
-        <v>349</v>
-      </c>
-      <c r="E238" t="s">
-        <v>124</v>
-      </c>
-      <c r="F238" s="19" t="s">
-        <v>355</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="B238" s="12" t="str">
+        <f>DEC2HEX(A238,2)</f>
+        <v>68</v>
+      </c>
+      <c r="C238" s="4"/>
+      <c r="D238" s="4"/>
+      <c r="E238" s="4"/>
+      <c r="F238" s="20"/>
+      <c r="G238" s="20"/>
       <c r="I238" t="str">
-        <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xEB,"IP-INC-8","","JMP","SHORT",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A238,2),",","""",C238,"""",",","""",D238,"""",",","""",E238,"""",",","""",F238,"""",",","""",G238,"""),")</f>
+        <v>new OpCodeTable(0x68,"","","","",""),</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>236</v>
-      </c>
-      <c r="B239" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>EC</v>
-      </c>
-      <c r="E239" t="s">
-        <v>356</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B239" s="12" t="str">
+        <f>DEC2HEX(A239,2)</f>
+        <v>69</v>
+      </c>
+      <c r="C239" s="4"/>
+      <c r="D239" s="4"/>
+      <c r="E239" s="4"/>
+      <c r="F239" s="20"/>
+      <c r="G239" s="20"/>
       <c r="I239" t="str">
-        <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xEC,"","","IN AL,DX","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A239,2),",","""",C239,"""",",","""",D239,"""",",","""",E239,"""",",","""",F239,"""",",","""",G239,"""),")</f>
+        <v>new OpCodeTable(0x69,"","","","",""),</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>237</v>
-      </c>
-      <c r="B240" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>ED</v>
-      </c>
-      <c r="E240" t="s">
-        <v>357</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="B240" s="12" t="str">
+        <f>DEC2HEX(A240,2)</f>
+        <v>6A</v>
+      </c>
+      <c r="C240" s="4"/>
+      <c r="D240" s="4"/>
+      <c r="E240" s="4"/>
+      <c r="F240" s="20"/>
+      <c r="G240" s="20"/>
       <c r="I240" t="str">
-        <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xED,"","","IN AX,DX","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A240,2),",","""",C240,"""",",","""",D240,"""",",","""",E240,"""",",","""",F240,"""",",","""",G240,"""),")</f>
+        <v>new OpCodeTable(0x6A,"","","","",""),</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>238</v>
-      </c>
-      <c r="B241" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>EE</v>
-      </c>
-      <c r="E241" t="s">
-        <v>358</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="B241" s="12" t="str">
+        <f>DEC2HEX(A241,2)</f>
+        <v>6B</v>
+      </c>
+      <c r="C241" s="4"/>
+      <c r="D241" s="4"/>
+      <c r="E241" s="4"/>
+      <c r="F241" s="20"/>
+      <c r="G241" s="20"/>
       <c r="I241" t="str">
-        <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xEE,"","","OUT AL,DX","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A241,2),",","""",C241,"""",",","""",D241,"""",",","""",E241,"""",",","""",F241,"""",",","""",G241,"""),")</f>
+        <v>new OpCodeTable(0x6B,"","","","",""),</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>239</v>
-      </c>
-      <c r="B242" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>EF</v>
-      </c>
-      <c r="E242" t="s">
-        <v>359</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="B242" s="12" t="str">
+        <f>DEC2HEX(A242,2)</f>
+        <v>6C</v>
+      </c>
+      <c r="C242" s="4"/>
+      <c r="D242" s="4"/>
+      <c r="E242" s="4"/>
+      <c r="F242" s="20"/>
+      <c r="G242" s="20"/>
       <c r="I242" t="str">
-        <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xEF,"","","OUT AX,DX","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A242,2),",","""",C242,"""",",","""",D242,"""",",","""",E242,"""",",","""",F242,"""",",","""",G242,"""),")</f>
+        <v>new OpCodeTable(0x6C,"","","","",""),</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>240</v>
-      </c>
-      <c r="B243" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>F0</v>
-      </c>
-      <c r="E243" t="s">
-        <v>78</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="B243" s="12" t="str">
+        <f>DEC2HEX(A243,2)</f>
+        <v>6D</v>
+      </c>
+      <c r="C243" s="4"/>
+      <c r="D243" s="4"/>
+      <c r="E243" s="4"/>
+      <c r="F243" s="20"/>
+      <c r="G243" s="20"/>
       <c r="I243" t="str">
-        <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xF0,"","","LOCK","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A243,2),",","""",C243,"""",",","""",D243,"""",",","""",E243,"""",",","""",F243,"""",",","""",G243,"""),")</f>
+        <v>new OpCodeTable(0x6D,"","","","",""),</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>241</v>
+        <v>110</v>
       </c>
       <c r="B244" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>F1</v>
+        <f>DEC2HEX(A244,2)</f>
+        <v>6E</v>
       </c>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
@@ -21547,277 +21560,268 @@
       <c r="F244" s="20"/>
       <c r="G244" s="20"/>
       <c r="I244" t="str">
-        <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xF1,"","","","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A244,2),",","""",C244,"""",",","""",D244,"""",",","""",E244,"""",",","""",F244,"""",",","""",G244,"""),")</f>
+        <v>new OpCodeTable(0x6E,"","","","",""),</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>242</v>
-      </c>
-      <c r="B245" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>F2</v>
-      </c>
-      <c r="E245" t="s">
-        <v>79</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B245" s="12" t="str">
+        <f>DEC2HEX(A245,2)</f>
+        <v>6F</v>
+      </c>
+      <c r="C245" s="4"/>
+      <c r="D245" s="4"/>
+      <c r="E245" s="4"/>
+      <c r="F245" s="20"/>
+      <c r="G245" s="20"/>
       <c r="I245" t="str">
-        <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xF2,"","","REPNZ","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A245,2),",","""",C245,"""",",","""",D245,"""",",","""",E245,"""",",","""",F245,"""",",","""",G245,"""),")</f>
+        <v>new OpCodeTable(0x6F,"","","","",""),</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>243</v>
-      </c>
-      <c r="B246" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>F3</v>
-      </c>
-      <c r="E246" t="s">
-        <v>360</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="B246" s="12" t="str">
+        <f>DEC2HEX(A246,2)</f>
+        <v>C0</v>
+      </c>
+      <c r="C246" s="4"/>
+      <c r="D246" s="4"/>
+      <c r="E246" s="4"/>
+      <c r="F246" s="20"/>
+      <c r="G246" s="20"/>
       <c r="I246" t="str">
-        <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xF3,"","","REP","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A246,2),",","""",C246,"""",",","""",D246,"""",",","""",E246,"""",",","""",F246,"""",",","""",G246,"""),")</f>
+        <v>new OpCodeTable(0xC0,"","","","",""),</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>244</v>
-      </c>
-      <c r="B247" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>F4</v>
-      </c>
-      <c r="E247" t="s">
-        <v>81</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="B247" s="12" t="str">
+        <f>DEC2HEX(A247,2)</f>
+        <v>C1</v>
+      </c>
+      <c r="C247" s="4"/>
+      <c r="D247" s="4"/>
+      <c r="E247" s="4"/>
+      <c r="F247" s="20"/>
+      <c r="G247" s="20"/>
       <c r="I247" t="str">
-        <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xF4,"","","HLT","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A247,2),",","""",C247,"""",",","""",D247,"""",",","""",E247,"""",",","""",F247,"""",",","""",G247,"""),")</f>
+        <v>new OpCodeTable(0xC1,"","","","",""),</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>245</v>
-      </c>
-      <c r="B248" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>F5</v>
-      </c>
-      <c r="E248" t="s">
-        <v>82</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="B248" s="12" t="str">
+        <f>DEC2HEX(A248,2)</f>
+        <v>C8</v>
+      </c>
+      <c r="C248" s="4"/>
+      <c r="D248" s="4"/>
+      <c r="E248" s="4"/>
+      <c r="F248" s="20"/>
+      <c r="G248" s="20"/>
       <c r="I248" t="str">
-        <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xF5,"","","CMC","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A248,2),",","""",C248,"""",",","""",D248,"""",",","""",E248,"""",",","""",F248,"""",",","""",G248,"""),")</f>
+        <v>new OpCodeTable(0xC8,"","","","",""),</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>246</v>
-      </c>
-      <c r="B249" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>F6</v>
-      </c>
-      <c r="C249" t="s">
-        <v>269</v>
-      </c>
-      <c r="D249" t="s">
-        <v>276</v>
-      </c>
-      <c r="E249" t="s">
-        <v>45</v>
-      </c>
-      <c r="F249" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="G249" s="19" t="s">
-        <v>284</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="B249" s="12" t="str">
+        <f>DEC2HEX(A249,2)</f>
+        <v>C9</v>
+      </c>
+      <c r="C249" s="4"/>
+      <c r="D249" s="4"/>
+      <c r="E249" s="4"/>
+      <c r="F249" s="20"/>
+      <c r="G249" s="20"/>
       <c r="I249" t="str">
-        <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xF6,"MRR","DISP","GRP3","RM-8","I-8"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A249,2),",","""",C249,"""",",","""",D249,"""",",","""",E249,"""",",","""",F249,"""",",","""",G249,"""),")</f>
+        <v>new OpCodeTable(0xC9,"","","","",""),</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>247</v>
-      </c>
-      <c r="B250" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>F7</v>
-      </c>
-      <c r="C250" t="s">
-        <v>269</v>
-      </c>
-      <c r="D250" t="s">
-        <v>276</v>
-      </c>
-      <c r="E250" t="s">
-        <v>45</v>
-      </c>
-      <c r="F250" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="G250" s="19" t="s">
-        <v>285</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="B250" s="12" t="str">
+        <f>DEC2HEX(A250,2)</f>
+        <v>D6</v>
+      </c>
+      <c r="C250" s="4"/>
+      <c r="D250" s="4"/>
+      <c r="E250" s="4"/>
+      <c r="F250" s="20"/>
+      <c r="G250" s="20"/>
       <c r="I250" t="str">
-        <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xF7,"MRR","DISP","GRP3","RM-16","I-16"),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A250,2),",","""",C250,"""",",","""",D250,"""",",","""",E250,"""",",","""",F250,"""",",","""",G250,"""),")</f>
+        <v>new OpCodeTable(0xD6,"","","","",""),</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>248</v>
-      </c>
-      <c r="B251" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>F8</v>
-      </c>
-      <c r="E251" t="s">
-        <v>125</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="B251" s="12" t="str">
+        <f>DEC2HEX(A251,2)</f>
+        <v>D9</v>
+      </c>
+      <c r="C251" s="4"/>
+      <c r="D251" s="4"/>
+      <c r="E251" s="4"/>
+      <c r="F251" s="20"/>
+      <c r="G251" s="20"/>
       <c r="I251" t="str">
-        <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xF8,"","","CLC","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A251,2),",","""",C251,"""",",","""",D251,"""",",","""",E251,"""",",","""",F251,"""",",","""",G251,"""),")</f>
+        <v>new OpCodeTable(0xD9,"","","","",""),</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>249</v>
-      </c>
-      <c r="B252" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>F9</v>
-      </c>
-      <c r="E252" t="s">
-        <v>126</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="B252" s="12" t="str">
+        <f>DEC2HEX(A252,2)</f>
+        <v>DA</v>
+      </c>
+      <c r="C252" s="4"/>
+      <c r="D252" s="4"/>
+      <c r="E252" s="4"/>
+      <c r="F252" s="20"/>
+      <c r="G252" s="20"/>
       <c r="I252" t="str">
-        <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xF9,"","","STC","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A252,2),",","""",C252,"""",",","""",D252,"""",",","""",E252,"""",",","""",F252,"""",",","""",G252,"""),")</f>
+        <v>new OpCodeTable(0xDA,"","","","",""),</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>250</v>
-      </c>
-      <c r="B253" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>FA</v>
-      </c>
-      <c r="E253" t="s">
-        <v>127</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="B253" s="12" t="str">
+        <f>DEC2HEX(A253,2)</f>
+        <v>DB</v>
+      </c>
+      <c r="C253" s="4"/>
+      <c r="D253" s="4"/>
+      <c r="E253" s="4"/>
+      <c r="F253" s="20"/>
+      <c r="G253" s="20"/>
       <c r="I253" t="str">
-        <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xFA,"","","CLI","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A253,2),",","""",C253,"""",",","""",D253,"""",",","""",E253,"""",",","""",F253,"""",",","""",G253,"""),")</f>
+        <v>new OpCodeTable(0xDB,"","","","",""),</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>251</v>
-      </c>
-      <c r="B254" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>FB</v>
-      </c>
-      <c r="E254" t="s">
-        <v>128</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="B254" s="12" t="str">
+        <f>DEC2HEX(A254,2)</f>
+        <v>DC</v>
+      </c>
+      <c r="C254" s="4"/>
+      <c r="D254" s="4"/>
+      <c r="E254" s="4"/>
+      <c r="F254" s="20"/>
+      <c r="G254" s="20"/>
       <c r="I254" t="str">
-        <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xFB,"","","STI","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A254,2),",","""",C254,"""",",","""",D254,"""",",","""",E254,"""",",","""",F254,"""",",","""",G254,"""),")</f>
+        <v>new OpCodeTable(0xDC,"","","","",""),</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>252</v>
-      </c>
-      <c r="B255" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>FC</v>
-      </c>
-      <c r="E255" t="s">
-        <v>129</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="B255" s="12" t="str">
+        <f>DEC2HEX(A255,2)</f>
+        <v>DD</v>
+      </c>
+      <c r="C255" s="4"/>
+      <c r="D255" s="4"/>
+      <c r="E255" s="4"/>
+      <c r="F255" s="20"/>
+      <c r="G255" s="20"/>
       <c r="I255" t="str">
-        <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xFC,"","","CLD","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A255,2),",","""",C255,"""",",","""",D255,"""",",","""",E255,"""",",","""",F255,"""",",","""",G255,"""),")</f>
+        <v>new OpCodeTable(0xDD,"","","","",""),</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>253</v>
-      </c>
-      <c r="B256" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>FD</v>
-      </c>
-      <c r="E256" t="s">
-        <v>130</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="B256" s="12" t="str">
+        <f>DEC2HEX(A256,2)</f>
+        <v>DE</v>
+      </c>
+      <c r="C256" s="4"/>
+      <c r="D256" s="4"/>
+      <c r="E256" s="4"/>
+      <c r="F256" s="20"/>
+      <c r="G256" s="20"/>
       <c r="I256" t="str">
-        <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xFD,"","","STD","",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A256,2),",","""",C256,"""",",","""",D256,"""",",","""",E256,"""",",","""",F256,"""",",","""",G256,"""),")</f>
+        <v>new OpCodeTable(0xDE,"","","","",""),</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="B257" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>FE</v>
+        <f>DEC2HEX(A257,2)</f>
+        <v>DF</v>
       </c>
       <c r="C257" t="s">
         <v>269</v>
       </c>
-      <c r="D257" t="s">
-        <v>276</v>
-      </c>
-      <c r="E257" t="s">
-        <v>46</v>
-      </c>
-      <c r="F257" s="19" t="s">
-        <v>280</v>
+      <c r="H257" t="s">
+        <v>348</v>
       </c>
       <c r="I257" t="str">
-        <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xFE,"MRR","DISP","GRP4","RM-8",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A257,2),",","""",C257,"""",",","""",D257,"""",",","""",E257,"""",",","""",F257,"""",",","""",G257,"""),")</f>
+        <v>new OpCodeTable(0xDF,"MRR","","","",""),</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>255</v>
-      </c>
-      <c r="B258" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>FF</v>
-      </c>
-      <c r="C258" t="s">
-        <v>269</v>
-      </c>
-      <c r="D258" t="s">
-        <v>276</v>
-      </c>
-      <c r="E258" t="s">
-        <v>131</v>
-      </c>
-      <c r="F258" s="19" t="s">
-        <v>282</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="B258" s="12" t="str">
+        <f>DEC2HEX(A258,2)</f>
+        <v>F1</v>
+      </c>
+      <c r="C258" s="4"/>
+      <c r="D258" s="4"/>
+      <c r="E258" s="4"/>
+      <c r="F258" s="20"/>
+      <c r="G258" s="20"/>
       <c r="I258" t="str">
-        <f t="shared" si="6"/>
-        <v>new OpCodeTable(0xFF,"MRR","DISP","GRP5","RM-16",""),</v>
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A258,2),",","""",C258,"""",",","""",D258,"""",",","""",E258,"""",",","""",F258,"""",",","""",G258,"""),")</f>
+        <v>new OpCodeTable(0xF1,"","","","",""),</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A3:I258">
+    <sortCondition ref="E3:E258"/>
+    <sortCondition ref="B3:B258"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -21827,8 +21831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H257"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="F134" sqref="F134"/>
+    <sheetView topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="A193" sqref="A193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Resources/8086 op code list.xlsx
+++ b/Resources/8086 op code list.xlsx
@@ -16243,10 +16243,10 @@
   <dimension ref="A2:I258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B111" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B189" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C114" sqref="C114"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16260,195 +16260,209 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="A2">
         <v>0</v>
       </c>
+      <c r="B2" s="7" t="str">
+        <f>DEC2HEX(0,2)</f>
+        <v>00</v>
+      </c>
       <c r="C2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="E2" t="s">
-        <v>273</v>
+        <v>6</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="I2" t="s">
-        <v>256</v>
+        <v>281</v>
+      </c>
+      <c r="I2" t="str">
+        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A2,2),",","""",C2,"""",",","""",D2,"""",",","""",E2,"""",",","""",F2,"""",",","""",G2,"""),")</f>
+        <v>new OpCodeTable(0x00,"MRR","DISP","ADD","RM-8","R-8"),</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="B3" s="7" t="str">
         <f>DEC2HEX(A3,2)</f>
-        <v>37</v>
+        <v>01</v>
+      </c>
+      <c r="C3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D3" t="s">
+        <v>276</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>6</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>283</v>
       </c>
       <c r="I3" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A3,2),",","""",C3,"""",",","""",D3,"""",",","""",E3,"""",",","""",F3,"""",",","""",G3,"""),")</f>
-        <v>new OpCodeTable(0x37,"","","AAA","",""),</v>
+        <v>new OpCodeTable(0x01,"MRR","DISP","ADD","RM-16","R-16"),</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>213</v>
+        <v>2</v>
       </c>
       <c r="B4" s="7" t="str">
         <f>DEC2HEX(A4,2)</f>
-        <v>D5</v>
+        <v>02</v>
       </c>
       <c r="C4" t="s">
-        <v>270</v>
+        <v>269</v>
+      </c>
+      <c r="D4" t="s">
+        <v>276</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>284</v>
+        <v>281</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>280</v>
       </c>
       <c r="I4" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A4,2),",","""",C4,"""",",","""",D4,"""",",","""",E4,"""",",","""",F4,"""",",","""",G4,"""),")</f>
-        <v>new OpCodeTable(0xD5,"D-8","","AAD","I-8",""),</v>
+        <v>new OpCodeTable(0x02,"MRR","DISP","ADD","R-8","RM-8"),</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>212</v>
+        <v>3</v>
       </c>
       <c r="B5" s="7" t="str">
         <f>DEC2HEX(A5,2)</f>
-        <v>D4</v>
+        <v>03</v>
       </c>
       <c r="C5" t="s">
-        <v>270</v>
+        <v>269</v>
+      </c>
+      <c r="D5" t="s">
+        <v>276</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>284</v>
+        <v>283</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>282</v>
       </c>
       <c r="I5" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A5,2),",","""",C5,"""",",","""",D5,"""",",","""",E5,"""",",","""",F5,"""",",","""",G5,"""),")</f>
-        <v>new OpCodeTable(0xD4,"D-8","","AAM","I-8",""),</v>
+        <v>new OpCodeTable(0x03,"MRR","DISP","ADD","R-16","RM-16"),</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="B6" s="7" t="str">
         <f>DEC2HEX(A6,2)</f>
-        <v>3F</v>
+        <v>04</v>
+      </c>
+      <c r="C6" t="s">
+        <v>270</v>
       </c>
       <c r="E6" t="s">
-        <v>93</v>
+        <v>6</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>284</v>
       </c>
       <c r="I6" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A6,2),",","""",C6,"""",",","""",D6,"""",",","""",E6,"""",",","""",F6,"""",",","""",G6,"""),")</f>
-        <v>new OpCodeTable(0x3F,"","","AAS","",""),</v>
+        <v>new OpCodeTable(0x04,"D-8","","ADD","AL","I-8"),</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B7" s="7" t="str">
         <f>DEC2HEX(A7,2)</f>
+        <v>05</v>
+      </c>
+      <c r="C7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D7" t="s">
+        <v>277</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
-        <v>269</v>
-      </c>
-      <c r="D7" t="s">
-        <v>276</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>280</v>
-      </c>
       <c r="G7" s="19" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="I7" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A7,2),",","""",C7,"""",",","""",D7,"""",",","""",E7,"""",",","""",F7,"""",",","""",G7,"""),")</f>
-        <v>new OpCodeTable(0x10,"MRR","DISP","ADC","RM-8","R-8"),</v>
+        <v>new OpCodeTable(0x05,"D-LO","D-HI","ADD","AX","I-16"),</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B8" s="7" t="str">
         <f>DEC2HEX(A8,2)</f>
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>269</v>
-      </c>
-      <c r="D8" t="s">
-        <v>276</v>
+        <v>06</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="I8" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A8,2),",","""",C8,"""",",","""",D8,"""",",","""",E8,"""",",","""",F8,"""",",","""",G8,"""),")</f>
-        <v>new OpCodeTable(0x11,"MRR","DISP","ADC","RM-16","R-16"),</v>
+        <v>new OpCodeTable(0x06,"","","PUSH ES","",""),</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B9" s="7" t="str">
         <f>DEC2HEX(A9,2)</f>
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>269</v>
-      </c>
-      <c r="D9" t="s">
-        <v>276</v>
+        <v>07</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I9" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A9,2),",","""",C9,"""",",","""",D9,"""",",","""",E9,"""",",","""",F9,"""",",","""",G9,"""),")</f>
-        <v>new OpCodeTable(0x12,"MRR","DISP","ADC","R-8","RM-8"),</v>
+        <v>new OpCodeTable(0x07,"","","POP ES","",""),</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B10" s="7" t="str">
         <f>DEC2HEX(A10,2)</f>
-        <v>13</v>
+        <v>08</v>
       </c>
       <c r="C10" t="s">
         <v>269</v>
@@ -16457,79 +16471,82 @@
         <v>276</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I10" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A10,2),",","""",C10,"""",",","""",D10,"""",",","""",E10,"""",",","""",F10,"""",",","""",G10,"""),")</f>
-        <v>new OpCodeTable(0x13,"MRR","DISP","ADC","R-16","RM-16"),</v>
+        <v>new OpCodeTable(0x08,"MRR","DISP","OR","RM-8","R-8"),</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B11" s="7" t="str">
         <f>DEC2HEX(A11,2)</f>
-        <v>14</v>
+        <v>09</v>
       </c>
       <c r="C11" t="s">
-        <v>270</v>
+        <v>269</v>
+      </c>
+      <c r="D11" t="s">
+        <v>276</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>9</v>
+        <v>282</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I11" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A11,2),",","""",C11,"""",",","""",D11,"""",",","""",E11,"""",",","""",F11,"""",",","""",G11,"""),")</f>
-        <v>new OpCodeTable(0x14,"D-8","","ADC","AL","I-8"),</v>
+        <v>new OpCodeTable(0x09,"MRR","DISP","OR","RM-16","R-16"),</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B12" s="7" t="str">
         <f>DEC2HEX(A12,2)</f>
-        <v>15</v>
+        <v>0A</v>
       </c>
       <c r="C12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>10</v>
+        <v>281</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="I12" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A12,2),",","""",C12,"""",",","""",D12,"""",",","""",E12,"""",",","""",F12,"""",",","""",G12,"""),")</f>
-        <v>new OpCodeTable(0x15,"D-LO","D-HI","ADC","AX","I-16"),</v>
+        <v>new OpCodeTable(0x0A,"MRR","DISP","OR","R-8","RM-8"),</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B13" s="7" t="str">
-        <f>DEC2HEX(0,2)</f>
-        <v>00</v>
+        <f>DEC2HEX(A13,2)</f>
+        <v>0B</v>
       </c>
       <c r="C13" t="s">
         <v>269</v>
@@ -16538,163 +16555,139 @@
         <v>276</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I13" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A13,2),",","""",C13,"""",",","""",D13,"""",",","""",E13,"""",",","""",F13,"""",",","""",G13,"""),")</f>
-        <v>new OpCodeTable(0x00,"MRR","DISP","ADD","RM-8","R-8"),</v>
+        <v>new OpCodeTable(0x0B,"MRR","DISP","OR","R-16","RM-16"),</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B14" s="7" t="str">
         <f>DEC2HEX(A14,2)</f>
-        <v>01</v>
+        <v>0C</v>
       </c>
       <c r="C14" t="s">
-        <v>269</v>
-      </c>
-      <c r="D14" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>282</v>
+        <v>9</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I14" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A14,2),",","""",C14,"""",",","""",D14,"""",",","""",E14,"""",",","""",F14,"""",",","""",G14,"""),")</f>
-        <v>new OpCodeTable(0x01,"MRR","DISP","ADD","RM-16","R-16"),</v>
+        <v>new OpCodeTable(0x0C,"D-8","","OR","AL","I-8"),</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B15" s="7" t="str">
         <f>DEC2HEX(A15,2)</f>
-        <v>02</v>
+        <v>0D</v>
       </c>
       <c r="C15" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D15" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>281</v>
+        <v>10</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="I15" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A15,2),",","""",C15,"""",",","""",D15,"""",",","""",E15,"""",",","""",F15,"""",",","""",G15,"""),")</f>
-        <v>new OpCodeTable(0x02,"MRR","DISP","ADD","R-8","RM-8"),</v>
+        <v>new OpCodeTable(0x0D,"D-LO","D-HI","OR","AX","I-16"),</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B16" s="7" t="str">
         <f>DEC2HEX(A16,2)</f>
-        <v>03</v>
-      </c>
-      <c r="C16" t="s">
-        <v>269</v>
-      </c>
-      <c r="D16" t="s">
-        <v>276</v>
+        <v>0E</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="I16" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A16,2),",","""",C16,"""",",","""",D16,"""",",","""",E16,"""",",","""",F16,"""",",","""",G16,"""),")</f>
-        <v>new OpCodeTable(0x03,"MRR","DISP","ADD","R-16","RM-16"),</v>
+        <v>new OpCodeTable(0x0E,"","","PUSH CS","",""),</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B17" s="7" t="str">
         <f>DEC2HEX(A17,2)</f>
-        <v>04</v>
-      </c>
-      <c r="C17" t="s">
-        <v>270</v>
+        <v>0F</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="I17" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A17,2),",","""",C17,"""",",","""",D17,"""",",","""",E17,"""",",","""",F17,"""",",","""",G17,"""),")</f>
-        <v>new OpCodeTable(0x04,"D-8","","ADD","AL","I-8"),</v>
+        <v>new OpCodeTable(0x0F,"","","POP CS","",""),</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B18" s="7" t="str">
         <f>DEC2HEX(A18,2)</f>
-        <v>05</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>10</v>
+        <v>280</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="I18" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A18,2),",","""",C18,"""",",","""",D18,"""",",","""",E18,"""",",","""",F18,"""",",","""",G18,"""),")</f>
-        <v>new OpCodeTable(0x05,"D-LO","D-HI","ADD","AX","I-16"),</v>
+        <v>new OpCodeTable(0x10,"MRR","DISP","ADC","RM-8","R-8"),</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B19" s="7" t="str">
         <f>DEC2HEX(A19,2)</f>
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
         <v>269</v>
@@ -16703,26 +16696,26 @@
         <v>276</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="I19" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A19,2),",","""",C19,"""",",","""",D19,"""",",","""",E19,"""",",","""",F19,"""",",","""",G19,"""),")</f>
-        <v>new OpCodeTable(0x20,"MRR","DISP","AND","RM-8","R-8"),</v>
+        <v>new OpCodeTable(0x11,"MRR","DISP","ADC","RM-16","R-16"),</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B20" s="7" t="str">
         <f>DEC2HEX(A20,2)</f>
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
         <v>269</v>
@@ -16731,26 +16724,26 @@
         <v>276</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I20" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A20,2),",","""",C20,"""",",","""",D20,"""",",","""",E20,"""",",","""",F20,"""",",","""",G20,"""),")</f>
-        <v>new OpCodeTable(0x21,"MRR","DISP","AND","RM-16","R-16"),</v>
+        <v>new OpCodeTable(0x12,"MRR","DISP","ADC","R-8","RM-8"),</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B21" s="7" t="str">
         <f>DEC2HEX(A21,2)</f>
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
         <v>269</v>
@@ -16759,293 +16752,308 @@
         <v>276</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="I21" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A21,2),",","""",C21,"""",",","""",D21,"""",",","""",E21,"""",",","""",F21,"""",",","""",G21,"""),")</f>
-        <v>new OpCodeTable(0x22,"MRR","DISP","AND","R-8","RM-8"),</v>
+        <v>new OpCodeTable(0x13,"MRR","DISP","ADC","R-16","RM-16"),</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B22" s="7" t="str">
         <f>DEC2HEX(A22,2)</f>
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>269</v>
-      </c>
-      <c r="D22" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>283</v>
+        <v>9</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="I22" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A22,2),",","""",C22,"""",",","""",D22,"""",",","""",E22,"""",",","""",F22,"""",",","""",G22,"""),")</f>
-        <v>new OpCodeTable(0x23,"MRR","DISP","AND","R-16","RM-16"),</v>
+        <v>new OpCodeTable(0x14,"D-8","","ADC","AL","I-8"),</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B23" s="7" t="str">
         <f>DEC2HEX(A23,2)</f>
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>270</v>
+        <v>271</v>
+      </c>
+      <c r="D23" t="s">
+        <v>277</v>
       </c>
       <c r="E23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I23" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A23,2),",","""",C23,"""",",","""",D23,"""",",","""",E23,"""",",","""",F23,"""",",","""",G23,"""),")</f>
-        <v>new OpCodeTable(0x24,"D-8","","AND","AL","I-8"),</v>
+        <v>new OpCodeTable(0x15,"D-LO","D-HI","ADC","AX","I-16"),</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B24" s="7" t="str">
         <f>DEC2HEX(A24,2)</f>
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>271</v>
-      </c>
-      <c r="D24" t="s">
-        <v>277</v>
+        <v>16</v>
       </c>
       <c r="E24" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="I24" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A24,2),",","""",C24,"""",",","""",D24,"""",",","""",E24,"""",",","""",F24,"""",",","""",G24,"""),")</f>
-        <v>new OpCodeTable(0x25,"D-LO","D-HI","AND","AX","I-16"),</v>
+        <v>new OpCodeTable(0x16,"","","PUSH SS","",""),</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="B25" s="7" t="str">
         <f>DEC2HEX(A25,2)</f>
-        <v>9A</v>
-      </c>
-      <c r="C25" t="s">
-        <v>271</v>
-      </c>
-      <c r="D25" t="s">
-        <v>333</v>
+        <v>17</v>
       </c>
       <c r="E25" t="s">
-        <v>106</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>334</v>
+        <v>289</v>
       </c>
       <c r="I25" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A25,2),",","""",C25,"""",",","""",D25,"""",",","""",E25,"""",",","""",F25,"""",",","""",G25,"""),")</f>
-        <v>new OpCodeTable(0x9A,"D-LO","D-HI,S-LO,S-HI","CALL","FAR",""),</v>
+        <v>new OpCodeTable(0x17,"","","POP SS","",""),</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>232</v>
+        <v>24</v>
       </c>
       <c r="B26" s="7" t="str">
         <f>DEC2HEX(A26,2)</f>
-        <v>E8</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>350</v>
+        <v>269</v>
       </c>
       <c r="D26" t="s">
-        <v>351</v>
+        <v>276</v>
       </c>
       <c r="E26" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>352</v>
+        <v>280</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>281</v>
       </c>
       <c r="I26" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A26,2),",","""",C26,"""",",","""",D26,"""",",","""",E26,"""",",","""",F26,"""",",","""",G26,"""),")</f>
-        <v>new OpCodeTable(0xE8,"IP-INC-LO","IP-INC-HI","CALL","NEAR",""),</v>
+        <v>new OpCodeTable(0x18,"MRR","DISP","SBB","RM-8","R-8"),</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>152</v>
+        <v>25</v>
       </c>
       <c r="B27" s="7" t="str">
         <f>DEC2HEX(A27,2)</f>
-        <v>98</v>
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>269</v>
+      </c>
+      <c r="D27" t="s">
+        <v>276</v>
       </c>
       <c r="E27" t="s">
-        <v>104</v>
+        <v>86</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>283</v>
       </c>
       <c r="I27" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A27,2),",","""",C27,"""",",","""",D27,"""",",","""",E27,"""",",","""",F27,"""",",","""",G27,"""),")</f>
-        <v>new OpCodeTable(0x98,"","","CBW","",""),</v>
+        <v>new OpCodeTable(0x19,"MRR","DISP","SBB","RM-16","R-16"),</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>248</v>
+        <v>26</v>
       </c>
       <c r="B28" s="7" t="str">
         <f>DEC2HEX(A28,2)</f>
-        <v>F8</v>
+        <v>1A</v>
+      </c>
+      <c r="C28" t="s">
+        <v>269</v>
+      </c>
+      <c r="D28" t="s">
+        <v>276</v>
       </c>
       <c r="E28" t="s">
-        <v>125</v>
+        <v>86</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>280</v>
       </c>
       <c r="I28" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A28,2),",","""",C28,"""",",","""",D28,"""",",","""",E28,"""",",","""",F28,"""",",","""",G28,"""),")</f>
-        <v>new OpCodeTable(0xF8,"","","CLC","",""),</v>
+        <v>new OpCodeTable(0x1A,"MRR","DISP","SBB","R-8","RM-8"),</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>252</v>
+        <v>27</v>
       </c>
       <c r="B29" s="7" t="str">
         <f>DEC2HEX(A29,2)</f>
-        <v>FC</v>
+        <v>1B</v>
+      </c>
+      <c r="C29" t="s">
+        <v>269</v>
+      </c>
+      <c r="D29" t="s">
+        <v>276</v>
       </c>
       <c r="E29" t="s">
-        <v>129</v>
+        <v>86</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>282</v>
       </c>
       <c r="I29" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A29,2),",","""",C29,"""",",","""",D29,"""",",","""",E29,"""",",","""",F29,"""",",","""",G29,"""),")</f>
-        <v>new OpCodeTable(0xFC,"","","CLD","",""),</v>
+        <v>new OpCodeTable(0x1B,"MRR","DISP","SBB","R-16","RM-16"),</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>250</v>
+        <v>28</v>
       </c>
       <c r="B30" s="7" t="str">
         <f>DEC2HEX(A30,2)</f>
-        <v>FA</v>
+        <v>1C</v>
+      </c>
+      <c r="C30" t="s">
+        <v>270</v>
       </c>
       <c r="E30" t="s">
-        <v>127</v>
+        <v>86</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>284</v>
       </c>
       <c r="I30" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A30,2),",","""",C30,"""",",","""",D30,"""",",","""",E30,"""",",","""",F30,"""",",","""",G30,"""),")</f>
-        <v>new OpCodeTable(0xFA,"","","CLI","",""),</v>
+        <v>new OpCodeTable(0x1C,"D-8","","SBB","AL","I-8"),</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>245</v>
+        <v>29</v>
       </c>
       <c r="B31" s="7" t="str">
         <f>DEC2HEX(A31,2)</f>
-        <v>F5</v>
+        <v>1D</v>
+      </c>
+      <c r="C31" t="s">
+        <v>271</v>
+      </c>
+      <c r="D31" t="s">
+        <v>277</v>
       </c>
       <c r="E31" t="s">
-        <v>82</v>
+        <v>86</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>285</v>
       </c>
       <c r="I31" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A31,2),",","""",C31,"""",",","""",D31,"""",",","""",E31,"""",",","""",F31,"""",",","""",G31,"""),")</f>
-        <v>new OpCodeTable(0xF5,"","","CMC","",""),</v>
+        <v>new OpCodeTable(0x1D,"D-LO","D-HI","SBB","AX","I-16"),</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="B32" s="7" t="str">
         <f>DEC2HEX(A32,2)</f>
-        <v>38</v>
-      </c>
-      <c r="C32" t="s">
-        <v>269</v>
-      </c>
-      <c r="D32" t="s">
-        <v>276</v>
+        <v>1E</v>
       </c>
       <c r="E32" t="s">
-        <v>91</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="G32" s="19" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="I32" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A32,2),",","""",C32,"""",",","""",D32,"""",",","""",E32,"""",",","""",F32,"""",",","""",G32,"""),")</f>
-        <v>new OpCodeTable(0x38,"MRR","DISP","CMP","RM-8","R-8"),</v>
+        <v>new OpCodeTable(0x1E,"","","PUSH DS","",""),</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="B33" s="7" t="str">
         <f>DEC2HEX(A33,2)</f>
-        <v>39</v>
-      </c>
-      <c r="C33" t="s">
-        <v>269</v>
-      </c>
-      <c r="D33" t="s">
-        <v>276</v>
+        <v>1F</v>
       </c>
       <c r="E33" t="s">
-        <v>91</v>
-      </c>
-      <c r="F33" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="G33" s="19" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="I33" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A33,2),",","""",C33,"""",",","""",D33,"""",",","""",E33,"""",",","""",F33,"""",",","""",G33,"""),")</f>
-        <v>new OpCodeTable(0x39,"MRR","DISP","CMP","RM-16","R-16"),</v>
+        <v>new OpCodeTable(0x1F,"","","POP DS","",""),</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="B34" s="7" t="str">
         <f>DEC2HEX(A34,2)</f>
-        <v>3A</v>
+        <v>20</v>
       </c>
       <c r="C34" t="s">
         <v>269</v>
@@ -17054,26 +17062,26 @@
         <v>276</v>
       </c>
       <c r="E34" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="F34" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="G34" s="19" t="s">
         <v>281</v>
-      </c>
-      <c r="G34" s="19" t="s">
-        <v>280</v>
       </c>
       <c r="I34" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A34,2),",","""",C34,"""",",","""",D34,"""",",","""",E34,"""",",","""",F34,"""",",","""",G34,"""),")</f>
-        <v>new OpCodeTable(0x3A,"MRR","DISP","CMP","R-8","RM-8"),</v>
+        <v>new OpCodeTable(0x20,"MRR","DISP","AND","RM-8","R-8"),</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="B35" s="7" t="str">
         <f>DEC2HEX(A35,2)</f>
-        <v>3B</v>
+        <v>21</v>
       </c>
       <c r="C35" t="s">
         <v>269</v>
@@ -17082,475 +17090,589 @@
         <v>276</v>
       </c>
       <c r="E35" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="F35" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="G35" s="19" t="s">
         <v>283</v>
-      </c>
-      <c r="G35" s="19" t="s">
-        <v>282</v>
       </c>
       <c r="I35" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A35,2),",","""",C35,"""",",","""",D35,"""",",","""",E35,"""",",","""",F35,"""",",","""",G35,"""),")</f>
-        <v>new OpCodeTable(0x3B,"MRR","DISP","CMP","R-16","RM-16"),</v>
+        <v>new OpCodeTable(0x21,"MRR","DISP","AND","RM-16","R-16"),</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="B36" s="7" t="str">
         <f>DEC2HEX(A36,2)</f>
-        <v>3C</v>
+        <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>270</v>
+        <v>269</v>
+      </c>
+      <c r="D36" t="s">
+        <v>276</v>
       </c>
       <c r="E36" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>9</v>
+        <v>281</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="I36" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A36,2),",","""",C36,"""",",","""",D36,"""",",","""",E36,"""",",","""",F36,"""",",","""",G36,"""),")</f>
-        <v>new OpCodeTable(0x3C,"D-8","","CMP","AL","I-8"),</v>
+        <v>new OpCodeTable(0x22,"MRR","DISP","AND","R-8","RM-8"),</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="B37" s="7" t="str">
         <f>DEC2HEX(A37,2)</f>
-        <v>3D</v>
+        <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E37" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>10</v>
+        <v>283</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="I37" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A37,2),",","""",C37,"""",",","""",D37,"""",",","""",E37,"""",",","""",F37,"""",",","""",G37,"""),")</f>
-        <v>new OpCodeTable(0x3D,"D-LO","D-HI","CMP","AX","I-16"),</v>
+        <v>new OpCodeTable(0x23,"MRR","DISP","AND","R-16","RM-16"),</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>166</v>
+        <v>36</v>
       </c>
       <c r="B38" s="7" t="str">
         <f>DEC2HEX(A38,2)</f>
-        <v>A6</v>
+        <v>24</v>
+      </c>
+      <c r="C38" t="s">
+        <v>270</v>
       </c>
       <c r="E38" t="s">
-        <v>54</v>
+        <v>19</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>284</v>
       </c>
       <c r="I38" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A38,2),",","""",C38,"""",",","""",D38,"""",",","""",E38,"""",",","""",F38,"""",",","""",G38,"""),")</f>
-        <v>new OpCodeTable(0xA6,"","","CMPSB","",""),</v>
+        <v>new OpCodeTable(0x24,"D-8","","AND","AL","I-8"),</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="B39" s="7" t="str">
         <f>DEC2HEX(A39,2)</f>
-        <v>A7</v>
+        <v>25</v>
+      </c>
+      <c r="C39" t="s">
+        <v>271</v>
+      </c>
+      <c r="D39" t="s">
+        <v>277</v>
       </c>
       <c r="E39" t="s">
-        <v>55</v>
+        <v>19</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>285</v>
       </c>
       <c r="I39" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A39,2),",","""",C39,"""",",","""",D39,"""",",","""",E39,"""",",","""",F39,"""",",","""",G39,"""),")</f>
-        <v>new OpCodeTable(0xA7,"","","CMPSW","",""),</v>
+        <v>new OpCodeTable(0x25,"D-LO","D-HI","AND","AX","I-16"),</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B40" s="7" t="str">
         <f>DEC2HEX(A40,2)</f>
-        <v>2E</v>
+        <v>26</v>
       </c>
       <c r="E40" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="I40" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A40,2),",","""",C40,"""",",","""",D40,"""",",","""",E40,"""",",","""",F40,"""",",","""",G40,"""),")</f>
-        <v>new OpCodeTable(0x2E,"","","CS:","",""),</v>
+        <v>new OpCodeTable(0x26,"","","ES:","",""),</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>153</v>
+        <v>39</v>
       </c>
       <c r="B41" s="7" t="str">
         <f>DEC2HEX(A41,2)</f>
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="E41" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="I41" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A41,2),",","""",C41,"""",",","""",D41,"""",",","""",E41,"""",",","""",F41,"""",",","""",G41,"""),")</f>
-        <v>new OpCodeTable(0x99,"","","CWD","",""),</v>
+        <v>new OpCodeTable(0x27,"","","DAA","",""),</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B42" s="7" t="str">
         <f>DEC2HEX(A42,2)</f>
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="C42" t="s">
+        <v>269</v>
+      </c>
+      <c r="D42" t="s">
+        <v>276</v>
       </c>
       <c r="E42" t="s">
-        <v>21</v>
+        <v>88</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>281</v>
       </c>
       <c r="I42" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A42,2),",","""",C42,"""",",","""",D42,"""",",","""",E42,"""",",","""",F42,"""",",","""",G42,"""),")</f>
-        <v>new OpCodeTable(0x27,"","","DAA","",""),</v>
+        <v>new OpCodeTable(0x28,"MRR","DISP","SUB","RM-8","R-8"),</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B43" s="7" t="str">
         <f>DEC2HEX(A43,2)</f>
-        <v>2F</v>
+        <v>29</v>
+      </c>
+      <c r="C43" t="s">
+        <v>269</v>
+      </c>
+      <c r="D43" t="s">
+        <v>276</v>
       </c>
       <c r="E43" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="F43" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="G43" s="19" t="s">
+        <v>283</v>
       </c>
       <c r="I43" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A43,2),",","""",C43,"""",",","""",D43,"""",",","""",E43,"""",",","""",F43,"""",",","""",G43,"""),")</f>
-        <v>new OpCodeTable(0x2F,"","","DAS","",""),</v>
+        <v>new OpCodeTable(0x29,"MRR","DISP","SUB","RM-16","R-16"),</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="B44" s="7" t="str">
         <f>DEC2HEX(A44,2)</f>
-        <v>48</v>
+        <v>2A</v>
+      </c>
+      <c r="C44" t="s">
+        <v>269</v>
+      </c>
+      <c r="D44" t="s">
+        <v>276</v>
       </c>
       <c r="E44" t="s">
-        <v>300</v>
+        <v>88</v>
+      </c>
+      <c r="F44" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="G44" s="19" t="s">
+        <v>280</v>
       </c>
       <c r="I44" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A44,2),",","""",C44,"""",",","""",D44,"""",",","""",E44,"""",",","""",F44,"""",",","""",G44,"""),")</f>
-        <v>new OpCodeTable(0x48,"","","DEC AX","",""),</v>
+        <v>new OpCodeTable(0x2A,"MRR","DISP","SUB","R-8","RM-8"),</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="B45" s="7" t="str">
         <f>DEC2HEX(A45,2)</f>
-        <v>4D</v>
+        <v>2B</v>
+      </c>
+      <c r="C45" t="s">
+        <v>269</v>
+      </c>
+      <c r="D45" t="s">
+        <v>276</v>
       </c>
       <c r="E45" t="s">
-        <v>305</v>
+        <v>88</v>
+      </c>
+      <c r="F45" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="G45" s="19" t="s">
+        <v>282</v>
       </c>
       <c r="I45" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A45,2),",","""",C45,"""",",","""",D45,"""",",","""",E45,"""",",","""",F45,"""",",","""",G45,"""),")</f>
-        <v>new OpCodeTable(0x4D,"","","DEC BP","",""),</v>
+        <v>new OpCodeTable(0x2B,"MRR","DISP","SUB","R-16","RM-16"),</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="B46" s="7" t="str">
         <f>DEC2HEX(A46,2)</f>
-        <v>4B</v>
+        <v>2C</v>
+      </c>
+      <c r="C46" t="s">
+        <v>270</v>
       </c>
       <c r="E46" t="s">
-        <v>303</v>
+        <v>88</v>
+      </c>
+      <c r="F46" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" s="19" t="s">
+        <v>284</v>
       </c>
       <c r="I46" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A46,2),",","""",C46,"""",",","""",D46,"""",",","""",E46,"""",",","""",F46,"""",",","""",G46,"""),")</f>
-        <v>new OpCodeTable(0x4B,"","","DEC BX","",""),</v>
+        <v>new OpCodeTable(0x2C,"D-8","","SUB","AL","I-8"),</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B47" s="7" t="str">
         <f>DEC2HEX(A47,2)</f>
-        <v>49</v>
+        <v>2D</v>
+      </c>
+      <c r="C47" t="s">
+        <v>271</v>
+      </c>
+      <c r="D47" t="s">
+        <v>277</v>
       </c>
       <c r="E47" t="s">
-        <v>301</v>
+        <v>88</v>
+      </c>
+      <c r="F47" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="19" t="s">
+        <v>285</v>
       </c>
       <c r="I47" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A47,2),",","""",C47,"""",",","""",D47,"""",",","""",E47,"""",",","""",F47,"""",",","""",G47,"""),")</f>
-        <v>new OpCodeTable(0x49,"","","DEC CX","",""),</v>
+        <v>new OpCodeTable(0x2D,"D-LO","D-HI","SUB","AX","I-16"),</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="B48" s="7" t="str">
         <f>DEC2HEX(A48,2)</f>
-        <v>4F</v>
+        <v>2E</v>
       </c>
       <c r="E48" t="s">
-        <v>307</v>
+        <v>90</v>
       </c>
       <c r="I48" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A48,2),",","""",C48,"""",",","""",D48,"""",",","""",E48,"""",",","""",F48,"""",",","""",G48,"""),")</f>
-        <v>new OpCodeTable(0x4F,"","","DEC DI","",""),</v>
+        <v>new OpCodeTable(0x2E,"","","CS:","",""),</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="B49" s="7" t="str">
         <f>DEC2HEX(A49,2)</f>
-        <v>4A</v>
+        <v>2F</v>
       </c>
       <c r="E49" t="s">
-        <v>302</v>
+        <v>89</v>
       </c>
       <c r="I49" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A49,2),",","""",C49,"""",",","""",D49,"""",",","""",E49,"""",",","""",F49,"""",",","""",G49,"""),")</f>
-        <v>new OpCodeTable(0x4A,"","","DEC DX","",""),</v>
+        <v>new OpCodeTable(0x2F,"","","DAS","",""),</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="B50" s="7" t="str">
         <f>DEC2HEX(A50,2)</f>
-        <v>4E</v>
+        <v>30</v>
+      </c>
+      <c r="C50" t="s">
+        <v>269</v>
+      </c>
+      <c r="D50" t="s">
+        <v>276</v>
       </c>
       <c r="E50" t="s">
-        <v>306</v>
+        <v>22</v>
+      </c>
+      <c r="F50" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="G50" s="19" t="s">
+        <v>281</v>
       </c>
       <c r="I50" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A50,2),",","""",C50,"""",",","""",D50,"""",",","""",E50,"""",",","""",F50,"""",",","""",G50,"""),")</f>
-        <v>new OpCodeTable(0x4E,"","","DEC SI","",""),</v>
+        <v>new OpCodeTable(0x30,"MRR","DISP","XOR","RM-8","R-8"),</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="B51" s="7" t="str">
         <f>DEC2HEX(A51,2)</f>
-        <v>4C</v>
+        <v>31</v>
+      </c>
+      <c r="C51" t="s">
+        <v>269</v>
+      </c>
+      <c r="D51" t="s">
+        <v>276</v>
       </c>
       <c r="E51" t="s">
-        <v>304</v>
+        <v>22</v>
+      </c>
+      <c r="F51" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="G51" s="19" t="s">
+        <v>283</v>
       </c>
       <c r="I51" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A51,2),",","""",C51,"""",",","""",D51,"""",",","""",E51,"""",",","""",F51,"""",",","""",G51,"""),")</f>
-        <v>new OpCodeTable(0x4C,"","","DEC SP","",""),</v>
+        <v>new OpCodeTable(0x31,"MRR","DISP","XOR","RM-16","R-16"),</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B52" s="7" t="str">
         <f>DEC2HEX(A52,2)</f>
-        <v>3E</v>
+        <v>32</v>
+      </c>
+      <c r="C52" t="s">
+        <v>269</v>
+      </c>
+      <c r="D52" t="s">
+        <v>276</v>
       </c>
       <c r="E52" t="s">
-        <v>92</v>
+        <v>22</v>
+      </c>
+      <c r="F52" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="G52" s="19" t="s">
+        <v>280</v>
       </c>
       <c r="I52" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A52,2),",","""",C52,"""",",","""",D52,"""",",","""",E52,"""",",","""",F52,"""",",","""",G52,"""),")</f>
-        <v>new OpCodeTable(0x3E,"","","DS:","",""),</v>
+        <v>new OpCodeTable(0x32,"MRR","DISP","XOR","R-8","RM-8"),</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B53" s="7" t="str">
         <f>DEC2HEX(A53,2)</f>
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="C53" t="s">
+        <v>269</v>
+      </c>
+      <c r="D53" t="s">
+        <v>276</v>
       </c>
       <c r="E53" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="F53" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="G53" s="19" t="s">
+        <v>282</v>
       </c>
       <c r="I53" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A53,2),",","""",C53,"""",",","""",D53,"""",",","""",E53,"""",",","""",F53,"""",",","""",G53,"""),")</f>
-        <v>new OpCodeTable(0x26,"","","ES:","",""),</v>
+        <v>new OpCodeTable(0x33,"MRR","DISP","XOR","R-16","RM-16"),</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>216</v>
+        <v>52</v>
       </c>
       <c r="B54" s="7" t="str">
         <f>DEC2HEX(A54,2)</f>
-        <v>D8</v>
+        <v>34</v>
       </c>
       <c r="C54" t="s">
-        <v>269</v>
-      </c>
-      <c r="D54" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E54" t="s">
-        <v>345</v>
+        <v>22</v>
       </c>
       <c r="F54" s="19" t="s">
-        <v>346</v>
+        <v>9</v>
       </c>
       <c r="G54" s="19" t="s">
-        <v>347</v>
+        <v>284</v>
       </c>
       <c r="I54" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A54,2),",","""",C54,"""",",","""",D54,"""",",","""",E54,"""",",","""",F54,"""",",","""",G54,"""),")</f>
-        <v>new OpCodeTable(0xD8,"MRR","DISP","ESC","OPCODE","SOURCE"),</v>
+        <v>new OpCodeTable(0x34,"D-8","","XOR","AL","I-8"),</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="B55" s="7" t="str">
         <f>DEC2HEX(A55,2)</f>
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="C55" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D55" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="F55" s="19" t="s">
-        <v>280</v>
+        <v>10</v>
       </c>
       <c r="G55" s="19" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I55" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A55,2),",","""",C55,"""",",","""",D55,"""",",","""",E55,"""",",","""",F55,"""",",","""",G55,"""),")</f>
-        <v>new OpCodeTable(0x80,"MRR","DISP","GRP1","RM-8","I-8"),</v>
+        <v>new OpCodeTable(0x35,"D-LO","D-HI","XOR","AX","I-16"),</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="B56" s="7" t="str">
         <f>DEC2HEX(A56,2)</f>
-        <v>81</v>
-      </c>
-      <c r="C56" t="s">
-        <v>269</v>
-      </c>
-      <c r="D56" t="s">
-        <v>276</v>
+        <v>36</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
-      </c>
-      <c r="F56" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="G56" s="19" t="s">
-        <v>285</v>
+        <v>23</v>
       </c>
       <c r="I56" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A56,2),",","""",C56,"""",",","""",D56,"""",",","""",E56,"""",",","""",F56,"""",",","""",G56,"""),")</f>
-        <v>new OpCodeTable(0x81,"MRR","DISP","GRP1","RM-16","I-16"),</v>
+        <v>new OpCodeTable(0x36,"","","SS:","",""),</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="B57" s="7" t="str">
         <f>DEC2HEX(A57,2)</f>
-        <v>82</v>
-      </c>
-      <c r="C57" t="s">
-        <v>269</v>
-      </c>
-      <c r="D57" t="s">
-        <v>276</v>
+        <v>37</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
-      </c>
-      <c r="F57" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="G57" s="21" t="s">
-        <v>284</v>
+        <v>24</v>
       </c>
       <c r="I57" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A57,2),",","""",C57,"""",",","""",D57,"""",",","""",E57,"""",",","""",F57,"""",",","""",G57,"""),")</f>
-        <v>new OpCodeTable(0x82,"MRR","DISP","GRP1","RM-8","I-8"),</v>
+        <v>new OpCodeTable(0x37,"","","AAA","",""),</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>131</v>
+        <v>56</v>
       </c>
       <c r="B58" s="7" t="str">
         <f>DEC2HEX(A58,2)</f>
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="C58" t="s">
         <v>269</v>
       </c>
       <c r="D58" t="s">
-        <v>366</v>
+        <v>276</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="F58" s="19" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G58" s="19" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="I58" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A58,2),",","""",C58,"""",",","""",D58,"""",",","""",E58,"""",",","""",F58,"""",",","""",G58,"""),")</f>
-        <v>new OpCodeTable(0x83,"MRR","DISP-SX","GRP1","RM-16","I-8"),</v>
+        <v>new OpCodeTable(0x38,"MRR","DISP","CMP","RM-8","R-8"),</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>208</v>
+        <v>57</v>
       </c>
       <c r="B59" s="7" t="str">
         <f>DEC2HEX(A59,2)</f>
-        <v>D0</v>
+        <v>39</v>
       </c>
       <c r="C59" t="s">
         <v>269</v>
@@ -17559,26 +17681,26 @@
         <v>276</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="F59" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="G59" s="19">
-        <v>1</v>
+        <v>282</v>
+      </c>
+      <c r="G59" s="19" t="s">
+        <v>283</v>
       </c>
       <c r="I59" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A59,2),",","""",C59,"""",",","""",D59,"""",",","""",E59,"""",",","""",F59,"""",",","""",G59,"""),")</f>
-        <v>new OpCodeTable(0xD0,"MRR","DISP","GRP2","RM-8","1"),</v>
+        <v>new OpCodeTable(0x39,"MRR","DISP","CMP","RM-16","R-16"),</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>209</v>
+        <v>58</v>
       </c>
       <c r="B60" s="7" t="str">
         <f>DEC2HEX(A60,2)</f>
-        <v>D1</v>
+        <v>3A</v>
       </c>
       <c r="C60" t="s">
         <v>269</v>
@@ -17587,26 +17709,26 @@
         <v>276</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="F60" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="G60" s="19">
-        <v>1</v>
+        <v>281</v>
+      </c>
+      <c r="G60" s="19" t="s">
+        <v>280</v>
       </c>
       <c r="I60" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A60,2),",","""",C60,"""",",","""",D60,"""",",","""",E60,"""",",","""",F60,"""",",","""",G60,"""),")</f>
-        <v>new OpCodeTable(0xD1,"MRR","DISP","GRP2","RM-16","1"),</v>
+        <v>new OpCodeTable(0x3A,"MRR","DISP","CMP","R-8","RM-8"),</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>210</v>
+        <v>59</v>
       </c>
       <c r="B61" s="7" t="str">
         <f>DEC2HEX(A61,2)</f>
-        <v>D2</v>
+        <v>3B</v>
       </c>
       <c r="C61" t="s">
         <v>269</v>
@@ -17615,1823 +17737,1546 @@
         <v>276</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="F61" s="19" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="G61" s="19" t="s">
-        <v>56</v>
+        <v>282</v>
       </c>
       <c r="I61" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A61,2),",","""",C61,"""",",","""",D61,"""",",","""",E61,"""",",","""",F61,"""",",","""",G61,"""),")</f>
-        <v>new OpCodeTable(0xD2,"MRR","DISP","GRP2","RM-8","CL"),</v>
+        <v>new OpCodeTable(0x3B,"MRR","DISP","CMP","R-16","RM-16"),</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>211</v>
+        <v>60</v>
       </c>
       <c r="B62" s="7" t="str">
         <f>DEC2HEX(A62,2)</f>
-        <v>D3</v>
+        <v>3C</v>
       </c>
       <c r="C62" t="s">
-        <v>269</v>
-      </c>
-      <c r="D62" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="F62" s="19" t="s">
-        <v>282</v>
+        <v>9</v>
       </c>
       <c r="G62" s="19" t="s">
-        <v>56</v>
+        <v>284</v>
       </c>
       <c r="I62" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A62,2),",","""",C62,"""",",","""",D62,"""",",","""",E62,"""",",","""",F62,"""",",","""",G62,"""),")</f>
-        <v>new OpCodeTable(0xD3,"MRR","DISP","GRP2","RM-16","CL"),</v>
+        <v>new OpCodeTable(0x3C,"D-8","","CMP","AL","I-8"),</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>246</v>
+        <v>61</v>
       </c>
       <c r="B63" s="7" t="str">
         <f>DEC2HEX(A63,2)</f>
-        <v>F6</v>
+        <v>3D</v>
       </c>
       <c r="C63" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D63" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E63" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>280</v>
+        <v>10</v>
       </c>
       <c r="G63" s="19" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I63" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A63,2),",","""",C63,"""",",","""",D63,"""",",","""",E63,"""",",","""",F63,"""",",","""",G63,"""),")</f>
-        <v>new OpCodeTable(0xF6,"MRR","DISP","GRP3","RM-8","I-8"),</v>
+        <v>new OpCodeTable(0x3D,"D-LO","D-HI","CMP","AX","I-16"),</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>247</v>
+        <v>62</v>
       </c>
       <c r="B64" s="7" t="str">
         <f>DEC2HEX(A64,2)</f>
-        <v>F7</v>
-      </c>
-      <c r="C64" t="s">
-        <v>269</v>
-      </c>
-      <c r="D64" t="s">
-        <v>276</v>
+        <v>3E</v>
       </c>
       <c r="E64" t="s">
-        <v>45</v>
-      </c>
-      <c r="F64" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="G64" s="19" t="s">
-        <v>285</v>
+        <v>92</v>
       </c>
       <c r="I64" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A64,2),",","""",C64,"""",",","""",D64,"""",",","""",E64,"""",",","""",F64,"""",",","""",G64,"""),")</f>
-        <v>new OpCodeTable(0xF7,"MRR","DISP","GRP3","RM-16","I-16"),</v>
+        <v>new OpCodeTable(0x3E,"","","DS:","",""),</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>254</v>
+        <v>63</v>
       </c>
       <c r="B65" s="7" t="str">
         <f>DEC2HEX(A65,2)</f>
-        <v>FE</v>
-      </c>
-      <c r="C65" t="s">
-        <v>269</v>
-      </c>
-      <c r="D65" t="s">
-        <v>276</v>
+        <v>3F</v>
       </c>
       <c r="E65" t="s">
-        <v>46</v>
-      </c>
-      <c r="F65" s="19" t="s">
-        <v>280</v>
+        <v>93</v>
       </c>
       <c r="I65" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A65,2),",","""",C65,"""",",","""",D65,"""",",","""",E65,"""",",","""",F65,"""",",","""",G65,"""),")</f>
-        <v>new OpCodeTable(0xFE,"MRR","DISP","GRP4","RM-8",""),</v>
+        <v>new OpCodeTable(0x3F,"","","AAS","",""),</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>255</v>
+        <v>64</v>
       </c>
       <c r="B66" s="7" t="str">
         <f>DEC2HEX(A66,2)</f>
-        <v>FF</v>
-      </c>
-      <c r="C66" t="s">
-        <v>269</v>
-      </c>
-      <c r="D66" t="s">
-        <v>276</v>
+        <v>40</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
-      </c>
-      <c r="F66" s="19" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="I66" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A66,2),",","""",C66,"""",",","""",D66,"""",",","""",E66,"""",",","""",F66,"""",",","""",G66,"""),")</f>
-        <v>new OpCodeTable(0xFF,"MRR","DISP","GRP5","RM-16",""),</v>
+        <v>new OpCodeTable(0x40,"","","INC AX","",""),</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>244</v>
+        <v>65</v>
       </c>
       <c r="B67" s="7" t="str">
         <f>DEC2HEX(A67,2)</f>
-        <v>F4</v>
+        <v>41</v>
       </c>
       <c r="E67" t="s">
-        <v>81</v>
+        <v>293</v>
       </c>
       <c r="I67" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A67,2),",","""",C67,"""",",","""",D67,"""",",","""",E67,"""",",","""",F67,"""",",","""",G67,"""),")</f>
-        <v>new OpCodeTable(0xF4,"","","HLT","",""),</v>
+        <v>new OpCodeTable(0x41,"","","INC CX","",""),</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>228</v>
+        <v>66</v>
       </c>
       <c r="B68" s="7" t="str">
         <f>DEC2HEX(A68,2)</f>
-        <v>E4</v>
-      </c>
-      <c r="C68" t="s">
-        <v>270</v>
+        <v>42</v>
       </c>
       <c r="E68" t="s">
-        <v>76</v>
-      </c>
-      <c r="F68" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G68" s="19" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="I68" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A68,2),",","""",C68,"""",",","""",D68,"""",",","""",E68,"""",",","""",F68,"""",",","""",G68,"""),")</f>
-        <v>new OpCodeTable(0xE4,"D-8","","IN","AL","I-8"),</v>
+        <v>new OpCodeTable(0x42,"","","INC DX","",""),</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>229</v>
+        <v>67</v>
       </c>
       <c r="B69" s="7" t="str">
         <f>DEC2HEX(A69,2)</f>
-        <v>E5</v>
-      </c>
-      <c r="C69" t="s">
-        <v>270</v>
+        <v>43</v>
       </c>
       <c r="E69" t="s">
-        <v>76</v>
-      </c>
-      <c r="F69" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G69" s="19" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="I69" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A69,2),",","""",C69,"""",",","""",D69,"""",",","""",E69,"""",",","""",F69,"""",",","""",G69,"""),")</f>
-        <v>new OpCodeTable(0xE5,"D-8","","IN","AX","I-8"),</v>
+        <v>new OpCodeTable(0x43,"","","INC BX","",""),</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>236</v>
+        <v>68</v>
       </c>
       <c r="B70" s="7" t="str">
         <f>DEC2HEX(A70,2)</f>
-        <v>EC</v>
+        <v>44</v>
       </c>
       <c r="E70" t="s">
-        <v>356</v>
+        <v>296</v>
       </c>
       <c r="I70" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A70,2),",","""",C70,"""",",","""",D70,"""",",","""",E70,"""",",","""",F70,"""",",","""",G70,"""),")</f>
-        <v>new OpCodeTable(0xEC,"","","IN AL,DX","",""),</v>
+        <v>new OpCodeTable(0x44,"","","INC SP","",""),</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>237</v>
+        <v>69</v>
       </c>
       <c r="B71" s="7" t="str">
         <f>DEC2HEX(A71,2)</f>
-        <v>ED</v>
+        <v>45</v>
       </c>
       <c r="E71" t="s">
-        <v>357</v>
+        <v>297</v>
       </c>
       <c r="I71" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A71,2),",","""",C71,"""",",","""",D71,"""",",","""",E71,"""",",","""",F71,"""",",","""",G71,"""),")</f>
-        <v>new OpCodeTable(0xED,"","","IN AX,DX","",""),</v>
+        <v>new OpCodeTable(0x45,"","","INC BP","",""),</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B72" s="7" t="str">
         <f>DEC2HEX(A72,2)</f>
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E72" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="I72" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A72,2),",","""",C72,"""",",","""",D72,"""",",","""",E72,"""",",","""",F72,"""",",","""",G72,"""),")</f>
-        <v>new OpCodeTable(0x40,"","","INC AX","",""),</v>
+        <v>new OpCodeTable(0x46,"","","INC SI","",""),</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B73" s="7" t="str">
         <f>DEC2HEX(A73,2)</f>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E73" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="I73" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A73,2),",","""",C73,"""",",","""",D73,"""",",","""",E73,"""",",","""",F73,"""",",","""",G73,"""),")</f>
-        <v>new OpCodeTable(0x45,"","","INC BP","",""),</v>
+        <v>new OpCodeTable(0x47,"","","INC DI","",""),</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B74" s="7" t="str">
         <f>DEC2HEX(A74,2)</f>
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E74" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="I74" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A74,2),",","""",C74,"""",",","""",D74,"""",",","""",E74,"""",",","""",F74,"""",",","""",G74,"""),")</f>
-        <v>new OpCodeTable(0x43,"","","INC BX","",""),</v>
+        <v>new OpCodeTable(0x48,"","","DEC AX","",""),</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B75" s="7" t="str">
         <f>DEC2HEX(A75,2)</f>
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E75" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="I75" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A75,2),",","""",C75,"""",",","""",D75,"""",",","""",E75,"""",",","""",F75,"""",",","""",G75,"""),")</f>
-        <v>new OpCodeTable(0x41,"","","INC CX","",""),</v>
+        <v>new OpCodeTable(0x49,"","","DEC CX","",""),</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B76" s="7" t="str">
         <f>DEC2HEX(A76,2)</f>
-        <v>47</v>
+        <v>4A</v>
       </c>
       <c r="E76" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="I76" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A76,2),",","""",C76,"""",",","""",D76,"""",",","""",E76,"""",",","""",F76,"""",",","""",G76,"""),")</f>
-        <v>new OpCodeTable(0x47,"","","INC DI","",""),</v>
+        <v>new OpCodeTable(0x4A,"","","DEC DX","",""),</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B77" s="7" t="str">
         <f>DEC2HEX(A77,2)</f>
-        <v>42</v>
+        <v>4B</v>
       </c>
       <c r="E77" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="I77" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A77,2),",","""",C77,"""",",","""",D77,"""",",","""",E77,"""",",","""",F77,"""",",","""",G77,"""),")</f>
-        <v>new OpCodeTable(0x42,"","","INC DX","",""),</v>
+        <v>new OpCodeTable(0x4B,"","","DEC BX","",""),</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B78" s="7" t="str">
         <f>DEC2HEX(A78,2)</f>
-        <v>46</v>
+        <v>4C</v>
       </c>
       <c r="E78" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="I78" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A78,2),",","""",C78,"""",",","""",D78,"""",",","""",E78,"""",",","""",F78,"""",",","""",G78,"""),")</f>
-        <v>new OpCodeTable(0x46,"","","INC SI","",""),</v>
+        <v>new OpCodeTable(0x4C,"","","DEC SP","",""),</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B79" s="7" t="str">
         <f>DEC2HEX(A79,2)</f>
-        <v>44</v>
+        <v>4D</v>
       </c>
       <c r="E79" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="I79" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A79,2),",","""",C79,"""",",","""",D79,"""",",","""",E79,"""",",","""",F79,"""",",","""",G79,"""),")</f>
-        <v>new OpCodeTable(0x44,"","","INC SP","",""),</v>
+        <v>new OpCodeTable(0x4D,"","","DEC BP","",""),</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>205</v>
+        <v>78</v>
       </c>
       <c r="B80" s="7" t="str">
         <f>DEC2HEX(A80,2)</f>
-        <v>CD</v>
-      </c>
-      <c r="C80" t="s">
-        <v>270</v>
+        <v>4E</v>
       </c>
       <c r="E80" t="s">
-        <v>120</v>
-      </c>
-      <c r="F80" s="19" t="s">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="I80" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A80,2),",","""",C80,"""",",","""",D80,"""",",","""",E80,"""",",","""",F80,"""",",","""",G80,"""),")</f>
-        <v>new OpCodeTable(0xCD,"D-8","","INT","I-8",""),</v>
+        <v>new OpCodeTable(0x4E,"","","DEC SI","",""),</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>204</v>
+        <v>79</v>
       </c>
       <c r="B81" s="7" t="str">
         <f>DEC2HEX(A81,2)</f>
-        <v>CC</v>
+        <v>4F</v>
       </c>
       <c r="E81" t="s">
-        <v>365</v>
+        <v>307</v>
       </c>
       <c r="I81" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A81,2),",","""",C81,"""",",","""",D81,"""",",","""",E81,"""",",","""",F81,"""",",","""",G81,"""),")</f>
-        <v>new OpCodeTable(0xCC,"","","INT3","",""),</v>
+        <v>new OpCodeTable(0x4F,"","","DEC DI","",""),</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>206</v>
+        <v>80</v>
       </c>
       <c r="B82" s="7" t="str">
         <f>DEC2HEX(A82,2)</f>
-        <v>CE</v>
+        <v>50</v>
       </c>
       <c r="E82" t="s">
-        <v>121</v>
+        <v>308</v>
       </c>
       <c r="I82" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A82,2),",","""",C82,"""",",","""",D82,"""",",","""",E82,"""",",","""",F82,"""",",","""",G82,"""),")</f>
-        <v>new OpCodeTable(0xCE,"","","INTO","",""),</v>
+        <v>new OpCodeTable(0x50,"","","PUSH AX","",""),</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>207</v>
+        <v>81</v>
       </c>
       <c r="B83" s="7" t="str">
         <f>DEC2HEX(A83,2)</f>
-        <v>CF</v>
+        <v>51</v>
       </c>
       <c r="E83" t="s">
-        <v>122</v>
+        <v>309</v>
       </c>
       <c r="I83" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A83,2),",","""",C83,"""",",","""",D83,"""",",","""",E83,"""",",","""",F83,"""",",","""",G83,"""),")</f>
-        <v>new OpCodeTable(0xCF,"","","IRET","",""),</v>
+        <v>new OpCodeTable(0x51,"","","PUSH CX","",""),</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="B84" s="7" t="str">
         <f>DEC2HEX(A84,2)</f>
-        <v>77</v>
-      </c>
-      <c r="C84" t="s">
-        <v>349</v>
+        <v>52</v>
       </c>
       <c r="E84" t="s">
-        <v>41</v>
-      </c>
-      <c r="F84" s="19" t="s">
-        <v>355</v>
+        <v>310</v>
       </c>
       <c r="I84" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A84,2),",","""",C84,"""",",","""",D84,"""",",","""",E84,"""",",","""",F84,"""",",","""",G84,"""),")</f>
-        <v>new OpCodeTable(0x77,"IP-INC-8","","JA","SHORT",""),</v>
+        <v>new OpCodeTable(0x52,"","","PUSH DX","",""),</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="B85" s="7" t="str">
         <f>DEC2HEX(A85,2)</f>
-        <v>72</v>
-      </c>
-      <c r="C85" t="s">
-        <v>349</v>
+        <v>53</v>
       </c>
       <c r="E85" t="s">
-        <v>36</v>
-      </c>
-      <c r="F85" s="19" t="s">
-        <v>355</v>
+        <v>311</v>
       </c>
       <c r="I85" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A85,2),",","""",C85,"""",",","""",D85,"""",",","""",E85,"""",",","""",F85,"""",",","""",G85,"""),")</f>
-        <v>new OpCodeTable(0x72,"IP-INC-8","","JB","SHORT",""),</v>
+        <v>new OpCodeTable(0x53,"","","PUSH BX","",""),</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="B86" s="7" t="str">
         <f>DEC2HEX(A86,2)</f>
-        <v>76</v>
-      </c>
-      <c r="C86" t="s">
-        <v>349</v>
+        <v>54</v>
       </c>
       <c r="E86" t="s">
-        <v>40</v>
-      </c>
-      <c r="F86" s="19" t="s">
-        <v>355</v>
+        <v>312</v>
       </c>
       <c r="I86" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A86,2),",","""",C86,"""",",","""",D86,"""",",","""",E86,"""",",","""",F86,"""",",","""",G86,"""),")</f>
-        <v>new OpCodeTable(0x76,"IP-INC-8","","JBE","SHORT",""),</v>
+        <v>new OpCodeTable(0x54,"","","PUSH SP","",""),</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>227</v>
+        <v>85</v>
       </c>
       <c r="B87" s="7" t="str">
         <f>DEC2HEX(A87,2)</f>
-        <v>E3</v>
-      </c>
-      <c r="C87" t="s">
-        <v>349</v>
+        <v>55</v>
       </c>
       <c r="E87" t="s">
-        <v>75</v>
-      </c>
-      <c r="F87" s="19" t="s">
-        <v>355</v>
+        <v>313</v>
       </c>
       <c r="I87" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A87,2),",","""",C87,"""",",","""",D87,"""",",","""",E87,"""",",","""",F87,"""",",","""",G87,"""),")</f>
-        <v>new OpCodeTable(0xE3,"IP-INC-8","","JCXZ","SHORT",""),</v>
+        <v>new OpCodeTable(0x55,"","","PUSH BP","",""),</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="B88" s="7" t="str">
         <f>DEC2HEX(A88,2)</f>
-        <v>7D</v>
-      </c>
-      <c r="C88" t="s">
-        <v>349</v>
+        <v>56</v>
       </c>
       <c r="E88" t="s">
-        <v>102</v>
-      </c>
-      <c r="F88" s="19" t="s">
-        <v>355</v>
+        <v>314</v>
       </c>
       <c r="I88" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A88,2),",","""",C88,"""",",","""",D88,"""",",","""",E88,"""",",","""",F88,"""",",","""",G88,"""),")</f>
-        <v>new OpCodeTable(0x7D,"IP-INC-8","","JGE","SHORT",""),</v>
+        <v>new OpCodeTable(0x56,"","","PUSH SI","",""),</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="B89" s="7" t="str">
         <f>DEC2HEX(A89,2)</f>
-        <v>7F</v>
-      </c>
-      <c r="C89" t="s">
-        <v>349</v>
+        <v>57</v>
       </c>
       <c r="E89" t="s">
-        <v>102</v>
-      </c>
-      <c r="F89" s="19" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="I89" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A89,2),",","""",C89,"""",",","""",D89,"""",",","""",E89,"""",",","""",F89,"""",",","""",G89,"""),")</f>
-        <v>new OpCodeTable(0x7F,"IP-INC-8","","JGE","SHORT",""),</v>
+        <v>new OpCodeTable(0x57,"","","PUSH DI","",""),</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="B90" s="7" t="str">
         <f>DEC2HEX(A90,2)</f>
-        <v>7C</v>
-      </c>
-      <c r="C90" t="s">
-        <v>349</v>
+        <v>58</v>
       </c>
       <c r="E90" t="s">
-        <v>101</v>
-      </c>
-      <c r="F90" s="19" t="s">
-        <v>355</v>
+        <v>316</v>
       </c>
       <c r="I90" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A90,2),",","""",C90,"""",",","""",D90,"""",",","""",E90,"""",",","""",F90,"""",",","""",G90,"""),")</f>
-        <v>new OpCodeTable(0x7C,"IP-INC-8","","JL","SHORT",""),</v>
+        <v>new OpCodeTable(0x58,"","","POP AX","",""),</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="B91" s="7" t="str">
         <f>DEC2HEX(A91,2)</f>
-        <v>7E</v>
-      </c>
-      <c r="C91" t="s">
-        <v>349</v>
+        <v>59</v>
       </c>
       <c r="E91" t="s">
-        <v>103</v>
-      </c>
-      <c r="F91" s="19" t="s">
-        <v>355</v>
+        <v>317</v>
       </c>
       <c r="I91" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A91,2),",","""",C91,"""",",","""",D91,"""",",","""",E91,"""",",","""",F91,"""",",","""",G91,"""),")</f>
-        <v>new OpCodeTable(0x7E,"IP-INC-8","","JLE","SHORT",""),</v>
+        <v>new OpCodeTable(0x59,"","","POP CX","",""),</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>233</v>
+        <v>90</v>
       </c>
       <c r="B92" s="7" t="str">
         <f>DEC2HEX(A92,2)</f>
-        <v>E9</v>
-      </c>
-      <c r="C92" t="s">
-        <v>350</v>
-      </c>
-      <c r="D92" t="s">
-        <v>351</v>
+        <v>5A</v>
       </c>
       <c r="E92" t="s">
-        <v>124</v>
-      </c>
-      <c r="F92" s="19" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="I92" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A92,2),",","""",C92,"""",",","""",D92,"""",",","""",E92,"""",",","""",F92,"""",",","""",G92,"""),")</f>
-        <v>new OpCodeTable(0xE9,"IP-INC-LO","IP-INC-HI","JMP","NEAR",""),</v>
+        <v>new OpCodeTable(0x5A,"","","POP DX","",""),</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>234</v>
+        <v>91</v>
       </c>
       <c r="B93" s="7" t="str">
         <f>DEC2HEX(A93,2)</f>
-        <v>EA</v>
-      </c>
-      <c r="C93" t="s">
-        <v>353</v>
-      </c>
-      <c r="D93" t="s">
-        <v>354</v>
+        <v>5B</v>
       </c>
       <c r="E93" t="s">
-        <v>124</v>
-      </c>
-      <c r="F93" s="19" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="I93" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A93,2),",","""",C93,"""",",","""",D93,"""",",","""",E93,"""",",","""",F93,"""",",","""",G93,"""),")</f>
-        <v>new OpCodeTable(0xEA,"IP-LO","IP-HI,CS-LO,CS-HI","JMP","FAR",""),</v>
+        <v>new OpCodeTable(0x5B,"","","POP BX","",""),</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>235</v>
+        <v>92</v>
       </c>
       <c r="B94" s="7" t="str">
         <f>DEC2HEX(A94,2)</f>
-        <v>EB</v>
-      </c>
-      <c r="C94" t="s">
-        <v>349</v>
+        <v>5C</v>
       </c>
       <c r="E94" t="s">
-        <v>124</v>
-      </c>
-      <c r="F94" s="19" t="s">
-        <v>355</v>
+        <v>320</v>
       </c>
       <c r="I94" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A94,2),",","""",C94,"""",",","""",D94,"""",",","""",E94,"""",",","""",F94,"""",",","""",G94,"""),")</f>
-        <v>new OpCodeTable(0xEB,"IP-INC-8","","JMP","SHORT",""),</v>
+        <v>new OpCodeTable(0x5C,"","","POP SP","",""),</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B95" s="7" t="str">
         <f>DEC2HEX(A95,2)</f>
-        <v>73</v>
-      </c>
-      <c r="C95" t="s">
-        <v>349</v>
+        <v>5D</v>
       </c>
       <c r="E95" t="s">
-        <v>37</v>
-      </c>
-      <c r="F95" s="19" t="s">
-        <v>355</v>
+        <v>321</v>
       </c>
       <c r="I95" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A95,2),",","""",C95,"""",",","""",D95,"""",",","""",E95,"""",",","""",F95,"""",",","""",G95,"""),")</f>
-        <v>new OpCodeTable(0x73,"IP-INC-8","","JNB","SHORT",""),</v>
+        <v>new OpCodeTable(0x5D,"","","POP BP","",""),</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="B96" s="7" t="str">
         <f>DEC2HEX(A96,2)</f>
-        <v>71</v>
-      </c>
-      <c r="C96" t="s">
-        <v>349</v>
+        <v>5E</v>
       </c>
       <c r="E96" t="s">
-        <v>35</v>
-      </c>
-      <c r="F96" s="19" t="s">
-        <v>355</v>
+        <v>322</v>
       </c>
       <c r="I96" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A96,2),",","""",C96,"""",",","""",D96,"""",",","""",E96,"""",",","""",F96,"""",",","""",G96,"""),")</f>
-        <v>new OpCodeTable(0x71,"IP-INC-8","","JNO","SHORT",""),</v>
+        <v>new OpCodeTable(0x5E,"","","POP SI","",""),</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="B97" s="7" t="str">
         <f>DEC2HEX(A97,2)</f>
-        <v>79</v>
-      </c>
-      <c r="C97" t="s">
-        <v>349</v>
+        <v>5F</v>
       </c>
       <c r="E97" t="s">
-        <v>98</v>
-      </c>
-      <c r="F97" s="19" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="I97" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A97,2),",","""",C97,"""",",","""",D97,"""",",","""",E97,"""",",","""",F97,"""",",","""",G97,"""),")</f>
-        <v>new OpCodeTable(0x79,"IP-INC-8","","JNS","SHORT",""),</v>
+        <v>new OpCodeTable(0x5F,"","","POP DI","",""),</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>117</v>
-      </c>
-      <c r="B98" s="7" t="str">
+        <v>96</v>
+      </c>
+      <c r="B98" s="12" t="str">
         <f>DEC2HEX(A98,2)</f>
-        <v>75</v>
-      </c>
-      <c r="C98" t="s">
-        <v>349</v>
-      </c>
-      <c r="E98" t="s">
-        <v>39</v>
-      </c>
-      <c r="F98" s="19" t="s">
-        <v>355</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="20"/>
+      <c r="G98" s="20"/>
       <c r="I98" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A98,2),",","""",C98,"""",",","""",D98,"""",",","""",E98,"""",",","""",F98,"""",",","""",G98,"""),")</f>
-        <v>new OpCodeTable(0x75,"IP-INC-8","","JNZ","SHORT",""),</v>
+        <v>new OpCodeTable(0x60,"","","","",""),</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>112</v>
-      </c>
-      <c r="B99" s="17" t="str">
+        <v>97</v>
+      </c>
+      <c r="B99" s="12" t="str">
         <f>DEC2HEX(A99,2)</f>
-        <v>70</v>
-      </c>
-      <c r="C99" t="s">
-        <v>349</v>
-      </c>
-      <c r="E99" t="s">
-        <v>34</v>
-      </c>
-      <c r="F99" s="19" t="s">
-        <v>355</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="20"/>
+      <c r="G99" s="20"/>
       <c r="I99" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A99,2),",","""",C99,"""",",","""",D99,"""",",","""",E99,"""",",","""",F99,"""",",","""",G99,"""),")</f>
-        <v>new OpCodeTable(0x70,"IP-INC-8","","JO","SHORT",""),</v>
+        <v>new OpCodeTable(0x61,"","","","",""),</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>122</v>
-      </c>
-      <c r="B100" s="7" t="str">
+        <v>98</v>
+      </c>
+      <c r="B100" s="12" t="str">
         <f>DEC2HEX(A100,2)</f>
-        <v>7A</v>
-      </c>
-      <c r="C100" t="s">
-        <v>349</v>
-      </c>
-      <c r="E100" t="s">
-        <v>99</v>
-      </c>
-      <c r="F100" s="19" t="s">
-        <v>355</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="20"/>
+      <c r="G100" s="20"/>
       <c r="I100" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A100,2),",","""",C100,"""",",","""",D100,"""",",","""",E100,"""",",","""",F100,"""",",","""",G100,"""),")</f>
-        <v>new OpCodeTable(0x7A,"IP-INC-8","","JPE","SHORT",""),</v>
+        <v>new OpCodeTable(0x62,"","","","",""),</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>123</v>
-      </c>
-      <c r="B101" s="7" t="str">
+        <v>99</v>
+      </c>
+      <c r="B101" s="12" t="str">
         <f>DEC2HEX(A101,2)</f>
-        <v>7B</v>
-      </c>
-      <c r="C101" t="s">
-        <v>349</v>
-      </c>
-      <c r="E101" t="s">
-        <v>100</v>
-      </c>
-      <c r="F101" s="19" t="s">
-        <v>355</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="20"/>
+      <c r="G101" s="20"/>
       <c r="I101" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A101,2),",","""",C101,"""",",","""",D101,"""",",","""",E101,"""",",","""",F101,"""",",","""",G101,"""),")</f>
-        <v>new OpCodeTable(0x7B,"IP-INC-8","","JPO","SHORT",""),</v>
+        <v>new OpCodeTable(0x63,"","","","",""),</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>120</v>
-      </c>
-      <c r="B102" s="7" t="str">
+        <v>100</v>
+      </c>
+      <c r="B102" s="12" t="str">
         <f>DEC2HEX(A102,2)</f>
-        <v>78</v>
-      </c>
-      <c r="C102" t="s">
-        <v>349</v>
-      </c>
-      <c r="E102" t="s">
-        <v>97</v>
-      </c>
-      <c r="F102" s="19" t="s">
-        <v>355</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="20"/>
+      <c r="G102" s="20"/>
       <c r="I102" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A102,2),",","""",C102,"""",",","""",D102,"""",",","""",E102,"""",",","""",F102,"""",",","""",G102,"""),")</f>
-        <v>new OpCodeTable(0x78,"IP-INC-8","","JS","SHORT",""),</v>
+        <v>new OpCodeTable(0x64,"","","","",""),</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>116</v>
-      </c>
-      <c r="B103" s="7" t="str">
+        <v>101</v>
+      </c>
+      <c r="B103" s="12" t="str">
         <f>DEC2HEX(A103,2)</f>
-        <v>74</v>
-      </c>
-      <c r="C103" t="s">
-        <v>349</v>
-      </c>
-      <c r="E103" t="s">
-        <v>38</v>
-      </c>
-      <c r="F103" s="19" t="s">
-        <v>355</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="20"/>
+      <c r="G103" s="20"/>
       <c r="I103" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A103,2),",","""",C103,"""",",","""",D103,"""",",","""",E103,"""",",","""",F103,"""",",","""",G103,"""),")</f>
-        <v>new OpCodeTable(0x74,"IP-INC-8","","JZ","SHORT",""),</v>
+        <v>new OpCodeTable(0x65,"","","","",""),</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>159</v>
-      </c>
-      <c r="B104" s="7" t="str">
+        <v>102</v>
+      </c>
+      <c r="B104" s="12" t="str">
         <f>DEC2HEX(A104,2)</f>
-        <v>9F</v>
-      </c>
-      <c r="E104" t="s">
-        <v>112</v>
+        <v>66</v>
+      </c>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="20"/>
+      <c r="G104" s="20"/>
+      <c r="H104" t="s">
+        <v>342</v>
       </c>
       <c r="I104" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A104,2),",","""",C104,"""",",","""",D104,"""",",","""",E104,"""",",","""",F104,"""",",","""",G104,"""),")</f>
-        <v>new OpCodeTable(0x9F,"","","LAHF","",""),</v>
+        <v>new OpCodeTable(0x66,"","","","",""),</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>197</v>
-      </c>
-      <c r="B105" s="7" t="str">
+        <v>103</v>
+      </c>
+      <c r="B105" s="12" t="str">
         <f>DEC2HEX(A105,2)</f>
-        <v>C5</v>
-      </c>
-      <c r="C105" t="s">
-        <v>269</v>
-      </c>
-      <c r="D105" t="s">
-        <v>276</v>
-      </c>
-      <c r="E105" t="s">
-        <v>65</v>
-      </c>
-      <c r="F105" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="G105" s="19" t="s">
-        <v>325</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="20"/>
+      <c r="G105" s="20"/>
       <c r="I105" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A105,2),",","""",C105,"""",",","""",D105,"""",",","""",E105,"""",",","""",F105,"""",",","""",G105,"""),")</f>
-        <v>new OpCodeTable(0xC5,"MRR","DISP","LDS","R-16","M-16"),</v>
+        <v>new OpCodeTable(0x67,"","","","",""),</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>141</v>
-      </c>
-      <c r="B106" s="7" t="str">
+        <v>104</v>
+      </c>
+      <c r="B106" s="12" t="str">
         <f>DEC2HEX(A106,2)</f>
-        <v>8D</v>
-      </c>
-      <c r="C106" t="s">
-        <v>269</v>
-      </c>
-      <c r="D106" t="s">
-        <v>276</v>
-      </c>
-      <c r="E106" t="s">
-        <v>96</v>
-      </c>
-      <c r="F106" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="G106" s="19" t="s">
-        <v>325</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="20"/>
+      <c r="G106" s="20"/>
       <c r="I106" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A106,2),",","""",C106,"""",",","""",D106,"""",",","""",E106,"""",",","""",F106,"""",",","""",G106,"""),")</f>
-        <v>new OpCodeTable(0x8D,"MRR","DISP","LEA","R-16","M-16"),</v>
+        <v>new OpCodeTable(0x68,"","","","",""),</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>196</v>
-      </c>
-      <c r="B107" s="7" t="str">
+        <v>105</v>
+      </c>
+      <c r="B107" s="12" t="str">
         <f>DEC2HEX(A107,2)</f>
-        <v>C4</v>
-      </c>
-      <c r="C107" t="s">
-        <v>269</v>
-      </c>
-      <c r="D107" t="s">
-        <v>276</v>
-      </c>
-      <c r="E107" t="s">
-        <v>64</v>
-      </c>
-      <c r="F107" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="G107" s="19" t="s">
-        <v>325</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="20"/>
+      <c r="G107" s="20"/>
       <c r="I107" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A107,2),",","""",C107,"""",",","""",D107,"""",",","""",E107,"""",",","""",F107,"""",",","""",G107,"""),")</f>
-        <v>new OpCodeTable(0xC4,"MRR","DISP","LES","R-16","M-16"),</v>
+        <v>new OpCodeTable(0x69,"","","","",""),</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>240</v>
-      </c>
-      <c r="B108" s="7" t="str">
+        <v>106</v>
+      </c>
+      <c r="B108" s="12" t="str">
         <f>DEC2HEX(A108,2)</f>
-        <v>F0</v>
-      </c>
-      <c r="E108" t="s">
-        <v>78</v>
-      </c>
+        <v>6A</v>
+      </c>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="20"/>
+      <c r="G108" s="20"/>
       <c r="I108" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A108,2),",","""",C108,"""",",","""",D108,"""",",","""",E108,"""",",","""",F108,"""",",","""",G108,"""),")</f>
-        <v>new OpCodeTable(0xF0,"","","LOCK","",""),</v>
+        <v>new OpCodeTable(0x6A,"","","","",""),</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>172</v>
-      </c>
-      <c r="B109" s="7" t="str">
+        <v>107</v>
+      </c>
+      <c r="B109" s="12" t="str">
         <f>DEC2HEX(A109,2)</f>
-        <v>AC</v>
-      </c>
-      <c r="E109" t="s">
-        <v>115</v>
-      </c>
+        <v>6B</v>
+      </c>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="20"/>
+      <c r="G109" s="20"/>
       <c r="I109" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A109,2),",","""",C109,"""",",","""",D109,"""",",","""",E109,"""",",","""",F109,"""",",","""",G109,"""),")</f>
-        <v>new OpCodeTable(0xAC,"","","LODSB","",""),</v>
+        <v>new OpCodeTable(0x6B,"","","","",""),</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>173</v>
-      </c>
-      <c r="B110" s="7" t="str">
+        <v>108</v>
+      </c>
+      <c r="B110" s="12" t="str">
         <f>DEC2HEX(A110,2)</f>
-        <v>AD</v>
-      </c>
-      <c r="E110" t="s">
-        <v>116</v>
-      </c>
+        <v>6C</v>
+      </c>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="20"/>
+      <c r="G110" s="20"/>
       <c r="I110" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A110,2),",","""",C110,"""",",","""",D110,"""",",","""",E110,"""",",","""",F110,"""",",","""",G110,"""),")</f>
-        <v>new OpCodeTable(0xAD,"","","LODSW","",""),</v>
+        <v>new OpCodeTable(0x6C,"","","","",""),</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>226</v>
-      </c>
-      <c r="B111" s="7" t="str">
+        <v>109</v>
+      </c>
+      <c r="B111" s="12" t="str">
         <f>DEC2HEX(A111,2)</f>
-        <v>E2</v>
-      </c>
-      <c r="C111" t="s">
-        <v>349</v>
-      </c>
-      <c r="E111" t="s">
-        <v>74</v>
-      </c>
-      <c r="F111" s="19" t="s">
-        <v>355</v>
-      </c>
+        <v>6D</v>
+      </c>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="20"/>
+      <c r="G111" s="20"/>
       <c r="I111" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A111,2),",","""",C111,"""",",","""",D111,"""",",","""",E111,"""",",","""",F111,"""",",","""",G111,"""),")</f>
-        <v>new OpCodeTable(0xE2,"IP-INC-8","","LOOP","SHORT",""),</v>
+        <v>new OpCodeTable(0x6D,"","","","",""),</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>224</v>
-      </c>
-      <c r="B112" s="7" t="str">
+        <v>110</v>
+      </c>
+      <c r="B112" s="12" t="str">
         <f>DEC2HEX(A112,2)</f>
-        <v>E0</v>
-      </c>
-      <c r="C112" t="s">
-        <v>349</v>
-      </c>
-      <c r="E112" t="s">
-        <v>72</v>
-      </c>
-      <c r="F112" s="19" t="s">
-        <v>355</v>
-      </c>
+        <v>6E</v>
+      </c>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="20"/>
+      <c r="G112" s="20"/>
       <c r="I112" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A112,2),",","""",C112,"""",",","""",D112,"""",",","""",E112,"""",",","""",F112,"""",",","""",G112,"""),")</f>
-        <v>new OpCodeTable(0xE0,"IP-INC-8","","LOOPNZ","SHORT",""),</v>
+        <v>new OpCodeTable(0x6E,"","","","",""),</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>225</v>
-      </c>
-      <c r="B113" s="7" t="str">
+        <v>111</v>
+      </c>
+      <c r="B113" s="12" t="str">
         <f>DEC2HEX(A113,2)</f>
-        <v>E1</v>
-      </c>
-      <c r="C113" t="s">
-        <v>349</v>
-      </c>
-      <c r="E113" t="s">
-        <v>73</v>
-      </c>
-      <c r="F113" s="19" t="s">
-        <v>355</v>
-      </c>
+        <v>6F</v>
+      </c>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="20"/>
+      <c r="G113" s="20"/>
       <c r="I113" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A113,2),",","""",C113,"""",",","""",D113,"""",",","""",E113,"""",",","""",F113,"""",",","""",G113,"""),")</f>
-        <v>new OpCodeTable(0xE1,"IP-INC-8","","LOOPZ","SHORT",""),</v>
+        <v>new OpCodeTable(0x6F,"","","","",""),</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>136</v>
-      </c>
-      <c r="B114" s="7" t="str">
+        <v>112</v>
+      </c>
+      <c r="B114" s="17" t="str">
         <f>DEC2HEX(A114,2)</f>
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C114" t="s">
-        <v>269</v>
-      </c>
-      <c r="D114" t="s">
-        <v>276</v>
+        <v>349</v>
       </c>
       <c r="E114" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="F114" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="G114" s="19" t="s">
-        <v>281</v>
+        <v>355</v>
       </c>
       <c r="I114" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A114,2),",","""",C114,"""",",","""",D114,"""",",","""",E114,"""",",","""",F114,"""",",","""",G114,"""),")</f>
-        <v>new OpCodeTable(0x88,"MRR","DISP","MOV","RM-8","R-8"),</v>
+        <v>new OpCodeTable(0x70,"IP-INC-8","","JO","SHORT",""),</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="B115" s="7" t="str">
         <f>DEC2HEX(A115,2)</f>
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C115" t="s">
-        <v>269</v>
-      </c>
-      <c r="D115" t="s">
-        <v>276</v>
+        <v>349</v>
       </c>
       <c r="E115" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F115" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="G115" s="19" t="s">
-        <v>283</v>
+        <v>355</v>
       </c>
       <c r="I115" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A115,2),",","""",C115,"""",",","""",D115,"""",",","""",E115,"""",",","""",F115,"""",",","""",G115,"""),")</f>
-        <v>new OpCodeTable(0x89,"MRR","DISP","MOV","RM-16","R-16"),</v>
+        <v>new OpCodeTable(0x71,"IP-INC-8","","JNO","SHORT",""),</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B116" s="7" t="str">
         <f>DEC2HEX(A116,2)</f>
-        <v>8A</v>
+        <v>72</v>
       </c>
       <c r="C116" t="s">
-        <v>269</v>
-      </c>
-      <c r="D116" t="s">
-        <v>276</v>
+        <v>349</v>
       </c>
       <c r="E116" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F116" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="G116" s="19" t="s">
-        <v>280</v>
+        <v>355</v>
       </c>
       <c r="I116" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A116,2),",","""",C116,"""",",","""",D116,"""",",","""",E116,"""",",","""",F116,"""",",","""",G116,"""),")</f>
-        <v>new OpCodeTable(0x8A,"MRR","DISP","MOV","R-8","RM-8"),</v>
+        <v>new OpCodeTable(0x72,"IP-INC-8","","JB","SHORT",""),</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="B117" s="7" t="str">
         <f>DEC2HEX(A117,2)</f>
-        <v>8B</v>
+        <v>73</v>
       </c>
       <c r="C117" t="s">
-        <v>269</v>
-      </c>
-      <c r="D117" t="s">
-        <v>276</v>
+        <v>349</v>
       </c>
       <c r="E117" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F117" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="G117" s="19" t="s">
-        <v>282</v>
+        <v>355</v>
       </c>
       <c r="I117" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A117,2),",","""",C117,"""",",","""",D117,"""",",","""",E117,"""",",","""",F117,"""",",","""",G117,"""),")</f>
-        <v>new OpCodeTable(0x8B,"MRR","DISP","MOV","R-16","RM-16"),</v>
+        <v>new OpCodeTable(0x73,"IP-INC-8","","JNB","SHORT",""),</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="B118" s="7" t="str">
         <f>DEC2HEX(A118,2)</f>
-        <v>8C</v>
+        <v>74</v>
       </c>
       <c r="C118" t="s">
-        <v>269</v>
-      </c>
-      <c r="D118" t="s">
-        <v>276</v>
+        <v>349</v>
       </c>
       <c r="E118" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F118" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="G118" s="19" t="s">
-        <v>324</v>
+        <v>355</v>
       </c>
       <c r="I118" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A118,2),",","""",C118,"""",",","""",D118,"""",",","""",E118,"""",",","""",F118,"""",",","""",G118,"""),")</f>
-        <v>new OpCodeTable(0x8C,"MRR","DISP","MOV","RM-16","SEG"),</v>
+        <v>new OpCodeTable(0x74,"IP-INC-8","","JZ","SHORT",""),</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="B119" s="7" t="str">
         <f>DEC2HEX(A119,2)</f>
-        <v>8E</v>
+        <v>75</v>
       </c>
       <c r="C119" t="s">
-        <v>269</v>
-      </c>
-      <c r="D119" t="s">
-        <v>276</v>
+        <v>349</v>
       </c>
       <c r="E119" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F119" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="G119" s="19" t="s">
-        <v>282</v>
+        <v>355</v>
       </c>
       <c r="I119" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A119,2),",","""",C119,"""",",","""",D119,"""",",","""",E119,"""",",","""",F119,"""",",","""",G119,"""),")</f>
-        <v>new OpCodeTable(0x8E,"MRR","DISP","MOV","SEG","RM-16"),</v>
+        <v>new OpCodeTable(0x75,"IP-INC-8","","JNZ","SHORT",""),</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="B120" s="7" t="str">
         <f>DEC2HEX(A120,2)</f>
-        <v>A0</v>
+        <v>76</v>
       </c>
       <c r="C120" t="s">
-        <v>335</v>
-      </c>
-      <c r="D120" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="E120" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F120" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G120" s="19" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="I120" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A120,2),",","""",C120,"""",",","""",D120,"""",",","""",E120,"""",",","""",F120,"""",",","""",G120,"""),")</f>
-        <v>new OpCodeTable(0xA0,"A-LO","A-HI","MOV","AL","M-8"),</v>
+        <v>new OpCodeTable(0x76,"IP-INC-8","","JBE","SHORT",""),</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="B121" s="7" t="str">
         <f>DEC2HEX(A121,2)</f>
-        <v>A1</v>
+        <v>77</v>
       </c>
       <c r="C121" t="s">
-        <v>335</v>
-      </c>
-      <c r="D121" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="E121" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F121" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" s="19" t="s">
-        <v>325</v>
+        <v>355</v>
       </c>
       <c r="I121" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A121,2),",","""",C121,"""",",","""",D121,"""",",","""",E121,"""",",","""",F121,"""",",","""",G121,"""),")</f>
-        <v>new OpCodeTable(0xA1,"A-LO","A-HI","MOV","AX","M-16"),</v>
+        <v>new OpCodeTable(0x77,"IP-INC-8","","JA","SHORT",""),</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="B122" s="7" t="str">
         <f>DEC2HEX(A122,2)</f>
-        <v>A2</v>
+        <v>78</v>
       </c>
       <c r="C122" t="s">
-        <v>335</v>
-      </c>
-      <c r="D122" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="E122" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="F122" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="G122" s="19" t="s">
-        <v>9</v>
+        <v>355</v>
       </c>
       <c r="I122" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A122,2),",","""",C122,"""",",","""",D122,"""",",","""",E122,"""",",","""",F122,"""",",","""",G122,"""),")</f>
-        <v>new OpCodeTable(0xA2,"A-LO","A-HI","MOV","M-8","AL"),</v>
+        <v>new OpCodeTable(0x78,"IP-INC-8","","JS","SHORT",""),</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="B123" s="7" t="str">
         <f>DEC2HEX(A123,2)</f>
-        <v>A3</v>
+        <v>79</v>
       </c>
       <c r="C123" t="s">
-        <v>335</v>
-      </c>
-      <c r="D123" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="E123" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="F123" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="G123" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H123" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="I123" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A123,2),",","""",C123,"""",",","""",D123,"""",",","""",E123,"""",",","""",F123,"""",",","""",G123,"""),")</f>
-        <v>new OpCodeTable(0xA3,"A-LO","A-HI","MOV","M-16","AX"),</v>
+        <v>new OpCodeTable(0x79,"IP-INC-8","","JNS","SHORT",""),</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="B124" s="7" t="str">
         <f>DEC2HEX(A124,2)</f>
-        <v>B0</v>
+        <v>7A</v>
       </c>
       <c r="C124" t="s">
-        <v>270</v>
+        <v>349</v>
       </c>
       <c r="E124" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="F124" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G124" s="19" t="s">
-        <v>284</v>
+        <v>355</v>
       </c>
       <c r="I124" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A124,2),",","""",C124,"""",",","""",D124,"""",",","""",E124,"""",",","""",F124,"""",",","""",G124,"""),")</f>
-        <v>new OpCodeTable(0xB0,"D-8","","MOV","AL","I-8"),</v>
+        <v>new OpCodeTable(0x7A,"IP-INC-8","","JPE","SHORT",""),</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>177</v>
+        <v>123</v>
       </c>
       <c r="B125" s="7" t="str">
         <f>DEC2HEX(A125,2)</f>
-        <v>B1</v>
+        <v>7B</v>
       </c>
       <c r="C125" t="s">
-        <v>270</v>
+        <v>349</v>
       </c>
       <c r="E125" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F125" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="G125" s="19" t="s">
-        <v>284</v>
+        <v>355</v>
       </c>
       <c r="I125" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A125,2),",","""",C125,"""",",","""",D125,"""",",","""",E125,"""",",","""",F125,"""",",","""",G125,"""),")</f>
-        <v>new OpCodeTable(0xB1,"D-8","","MOV","CL","I-8"),</v>
+        <v>new OpCodeTable(0x7B,"IP-INC-8","","JPO","SHORT",""),</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>178</v>
+        <v>124</v>
       </c>
       <c r="B126" s="7" t="str">
         <f>DEC2HEX(A126,2)</f>
-        <v>B2</v>
+        <v>7C</v>
       </c>
       <c r="C126" t="s">
-        <v>270</v>
+        <v>349</v>
       </c>
       <c r="E126" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="F126" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="G126" s="19" t="s">
-        <v>284</v>
+        <v>355</v>
       </c>
       <c r="I126" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A126,2),",","""",C126,"""",",","""",D126,"""",",","""",E126,"""",",","""",F126,"""",",","""",G126,"""),")</f>
-        <v>new OpCodeTable(0xB2,"D-8","","MOV","DL","I-8"),</v>
+        <v>new OpCodeTable(0x7C,"IP-INC-8","","JL","SHORT",""),</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>179</v>
+        <v>125</v>
       </c>
       <c r="B127" s="7" t="str">
         <f>DEC2HEX(A127,2)</f>
-        <v>B3</v>
+        <v>7D</v>
       </c>
       <c r="C127" t="s">
-        <v>270</v>
+        <v>349</v>
       </c>
       <c r="E127" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="F127" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="G127" s="19" t="s">
-        <v>284</v>
+        <v>355</v>
       </c>
       <c r="I127" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A127,2),",","""",C127,"""",",","""",D127,"""",",","""",E127,"""",",","""",F127,"""",",","""",G127,"""),")</f>
-        <v>new OpCodeTable(0xB3,"D-8","","MOV","BL","I-8"),</v>
+        <v>new OpCodeTable(0x7D,"IP-INC-8","","JGE","SHORT",""),</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>180</v>
+        <v>126</v>
       </c>
       <c r="B128" s="7" t="str">
         <f>DEC2HEX(A128,2)</f>
-        <v>B4</v>
+        <v>7E</v>
       </c>
       <c r="C128" t="s">
-        <v>270</v>
+        <v>349</v>
       </c>
       <c r="E128" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="F128" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G128" s="19" t="s">
-        <v>284</v>
+        <v>355</v>
       </c>
       <c r="I128" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A128,2),",","""",C128,"""",",","""",D128,"""",",","""",E128,"""",",","""",F128,"""",",","""",G128,"""),")</f>
-        <v>new OpCodeTable(0xB4,"D-8","","MOV","AH","I-8"),</v>
+        <v>new OpCodeTable(0x7E,"IP-INC-8","","JLE","SHORT",""),</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="B129" s="7" t="str">
         <f>DEC2HEX(A129,2)</f>
-        <v>B5</v>
+        <v>7F</v>
       </c>
       <c r="C129" t="s">
-        <v>270</v>
+        <v>349</v>
       </c>
       <c r="E129" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="F129" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="G129" s="19" t="s">
-        <v>284</v>
+        <v>355</v>
       </c>
       <c r="I129" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A129,2),",","""",C129,"""",",","""",D129,"""",",","""",E129,"""",",","""",F129,"""",",","""",G129,"""),")</f>
-        <v>new OpCodeTable(0xB5,"D-8","","MOV","CH","I-8"),</v>
+        <v>new OpCodeTable(0x7F,"IP-INC-8","","JGE","SHORT",""),</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="B130" s="7" t="str">
         <f>DEC2HEX(A130,2)</f>
-        <v>B6</v>
+        <v>80</v>
       </c>
       <c r="C130" t="s">
-        <v>270</v>
+        <v>269</v>
+      </c>
+      <c r="D130" t="s">
+        <v>276</v>
       </c>
       <c r="E130" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F130" s="19" t="s">
-        <v>61</v>
+        <v>280</v>
       </c>
       <c r="G130" s="19" t="s">
         <v>284</v>
       </c>
       <c r="I130" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A130,2),",","""",C130,"""",",","""",D130,"""",",","""",E130,"""",",","""",F130,"""",",","""",G130,"""),")</f>
-        <v>new OpCodeTable(0xB6,"D-8","","MOV","DH","I-8"),</v>
+        <v>new OpCodeTable(0x80,"MRR","DISP","GRP1","RM-8","I-8"),</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>183</v>
+        <v>129</v>
       </c>
       <c r="B131" s="7" t="str">
         <f>DEC2HEX(A131,2)</f>
-        <v>B7</v>
+        <v>81</v>
       </c>
       <c r="C131" t="s">
-        <v>270</v>
+        <v>269</v>
+      </c>
+      <c r="D131" t="s">
+        <v>276</v>
       </c>
       <c r="E131" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F131" s="19" t="s">
-        <v>62</v>
+        <v>282</v>
       </c>
       <c r="G131" s="19" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I131" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A131,2),",","""",C131,"""",",","""",D131,"""",",","""",E131,"""",",","""",F131,"""",",","""",G131,"""),")</f>
-        <v>new OpCodeTable(0xB7,"D-8","","MOV","BH","I-8"),</v>
+        <v>new OpCodeTable(0x81,"MRR","DISP","GRP1","RM-16","I-16"),</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="B132" s="7" t="str">
         <f>DEC2HEX(A132,2)</f>
-        <v>B8</v>
+        <v>82</v>
       </c>
       <c r="C132" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D132" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E132" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F132" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="19" t="s">
-        <v>285</v>
+        <v>280</v>
+      </c>
+      <c r="G132" s="21" t="s">
+        <v>284</v>
       </c>
       <c r="I132" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A132,2),",","""",C132,"""",",","""",D132,"""",",","""",E132,"""",",","""",F132,"""",",","""",G132,"""),")</f>
-        <v>new OpCodeTable(0xB8,"D-LO","D-HI","MOV","AX","I-16"),</v>
+        <v>new OpCodeTable(0x82,"MRR","DISP","GRP1","RM-8","I-8"),</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>185</v>
+        <v>131</v>
       </c>
       <c r="B133" s="7" t="str">
         <f>DEC2HEX(A133,2)</f>
-        <v>B9</v>
+        <v>83</v>
       </c>
       <c r="C133" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D133" t="s">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="E133" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F133" s="19" t="s">
-        <v>28</v>
+        <v>282</v>
       </c>
       <c r="G133" s="19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I133" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A133,2),",","""",C133,"""",",","""",D133,"""",",","""",E133,"""",",","""",F133,"""",",","""",G133,"""),")</f>
-        <v>new OpCodeTable(0xB9,"D-LO","D-HI","MOV","CX","I-16"),</v>
+        <v>new OpCodeTable(0x83,"MRR","DISP-SX","GRP1","RM-16","I-8"),</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>186</v>
+        <v>132</v>
       </c>
       <c r="B134" s="7" t="str">
         <f>DEC2HEX(A134,2)</f>
-        <v>BA</v>
+        <v>84</v>
       </c>
       <c r="C134" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D134" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E134" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F134" s="19" t="s">
-        <v>27</v>
+        <v>280</v>
       </c>
       <c r="G134" s="19" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="I134" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A134,2),",","""",C134,"""",",","""",D134,"""",",","""",E134,"""",",","""",F134,"""",",","""",G134,"""),")</f>
-        <v>new OpCodeTable(0xBA,"D-LO","D-HI","MOV","DX","I-16"),</v>
+        <v>new OpCodeTable(0x84,"MRR","DISP","TEST","RM-8","R-8"),</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="B135" s="7" t="str">
         <f>DEC2HEX(A135,2)</f>
-        <v>BB</v>
+        <v>85</v>
       </c>
       <c r="C135" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D135" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E135" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F135" s="19" t="s">
-        <v>29</v>
+        <v>282</v>
       </c>
       <c r="G135" s="19" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I135" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A135,2),",","""",C135,"""",",","""",D135,"""",",","""",E135,"""",",","""",F135,"""",",","""",G135,"""),")</f>
-        <v>new OpCodeTable(0xBB,"D-LO","D-HI","MOV","BX","I-16"),</v>
+        <v>new OpCodeTable(0x85,"MRR","DISP","TEST","RM-16","R-16"),</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>188</v>
+        <v>134</v>
       </c>
       <c r="B136" s="7" t="str">
         <f>DEC2HEX(A136,2)</f>
-        <v>BC</v>
+        <v>86</v>
       </c>
       <c r="C136" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D136" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E136" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F136" s="19" t="s">
-        <v>30</v>
+        <v>281</v>
       </c>
       <c r="G136" s="19" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="I136" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A136,2),",","""",C136,"""",",","""",D136,"""",",","""",E136,"""",",","""",F136,"""",",","""",G136,"""),")</f>
-        <v>new OpCodeTable(0xBC,"D-LO","D-HI","MOV","SP","I-16"),</v>
+        <v>new OpCodeTable(0x86,"MRR","DISP","XCHG","R-8","RM-8"),</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>189</v>
+        <v>135</v>
       </c>
       <c r="B137" s="7" t="str">
         <f>DEC2HEX(A137,2)</f>
-        <v>BD</v>
+        <v>87</v>
       </c>
       <c r="C137" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D137" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E137" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F137" s="19" t="s">
-        <v>31</v>
+        <v>283</v>
       </c>
       <c r="G137" s="19" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="I137" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A137,2),",","""",C137,"""",",","""",D137,"""",",","""",E137,"""",",","""",F137,"""",",","""",G137,"""),")</f>
-        <v>new OpCodeTable(0xBD,"D-LO","D-HI","MOV","BP","I-16"),</v>
+        <v>new OpCodeTable(0x87,"MRR","DISP","XCHG","R-16","RM-16"),</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>190</v>
+        <v>136</v>
       </c>
       <c r="B138" s="7" t="str">
         <f>DEC2HEX(A138,2)</f>
-        <v>BE</v>
+        <v>88</v>
       </c>
       <c r="C138" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D138" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E138" t="s">
         <v>50</v>
       </c>
       <c r="F138" s="19" t="s">
-        <v>32</v>
+        <v>280</v>
       </c>
       <c r="G138" s="19" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="I138" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A138,2),",","""",C138,"""",",","""",D138,"""",",","""",E138,"""",",","""",F138,"""",",","""",G138,"""),")</f>
-        <v>new OpCodeTable(0xBE,"D-LO","D-HI","MOV","SI","I-16"),</v>
+        <v>new OpCodeTable(0x88,"MRR","DISP","MOV","RM-8","R-8"),</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>191</v>
+        <v>137</v>
       </c>
       <c r="B139" s="7" t="str">
         <f>DEC2HEX(A139,2)</f>
-        <v>BF</v>
+        <v>89</v>
       </c>
       <c r="C139" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D139" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E139" t="s">
         <v>50</v>
       </c>
       <c r="F139" s="19" t="s">
-        <v>33</v>
+        <v>282</v>
       </c>
       <c r="G139" s="19" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I139" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A139,2),",","""",C139,"""",",","""",D139,"""",",","""",E139,"""",",","""",F139,"""",",","""",G139,"""),")</f>
-        <v>new OpCodeTable(0xBF,"D-LO","D-HI","MOV","DI","I-16"),</v>
+        <v>new OpCodeTable(0x89,"MRR","DISP","MOV","RM-16","R-16"),</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>198</v>
+        <v>138</v>
       </c>
       <c r="B140" s="7" t="str">
         <f>DEC2HEX(A140,2)</f>
-        <v>C6</v>
+        <v>8A</v>
       </c>
       <c r="C140" t="s">
         <v>269</v>
@@ -19443,23 +19288,23 @@
         <v>50</v>
       </c>
       <c r="F140" s="19" t="s">
-        <v>337</v>
+        <v>281</v>
       </c>
       <c r="G140" s="19" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="I140" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A140,2),",","""",C140,"""",",","""",D140,"""",",","""",E140,"""",",","""",F140,"""",",","""",G140,"""),")</f>
-        <v>new OpCodeTable(0xC6,"MRR","DISP","MOV","M-8","I-8"),</v>
+        <v>new OpCodeTable(0x8A,"MRR","DISP","MOV","R-8","RM-8"),</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>199</v>
+        <v>139</v>
       </c>
       <c r="B141" s="7" t="str">
         <f>DEC2HEX(A141,2)</f>
-        <v>C7</v>
+        <v>8B</v>
       </c>
       <c r="C141" t="s">
         <v>269</v>
@@ -19471,71 +19316,107 @@
         <v>50</v>
       </c>
       <c r="F141" s="19" t="s">
-        <v>325</v>
+        <v>283</v>
       </c>
       <c r="G141" s="19" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="I141" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A141,2),",","""",C141,"""",",","""",D141,"""",",","""",E141,"""",",","""",F141,"""",",","""",G141,"""),")</f>
-        <v>new OpCodeTable(0xC7,"MRR","DISP","MOV","M-16","I-16"),</v>
+        <v>new OpCodeTable(0x8B,"MRR","DISP","MOV","R-16","RM-16"),</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="B142" s="7" t="str">
         <f>DEC2HEX(A142,2)</f>
-        <v>A4</v>
+        <v>8C</v>
+      </c>
+      <c r="C142" t="s">
+        <v>269</v>
+      </c>
+      <c r="D142" t="s">
+        <v>276</v>
       </c>
       <c r="E142" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="F142" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="G142" s="19" t="s">
+        <v>324</v>
       </c>
       <c r="I142" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A142,2),",","""",C142,"""",",","""",D142,"""",",","""",E142,"""",",","""",F142,"""",",","""",G142,"""),")</f>
-        <v>new OpCodeTable(0xA4,"","","MOVSB","",""),</v>
+        <v>new OpCodeTable(0x8C,"MRR","DISP","MOV","RM-16","SEG"),</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="B143" s="7" t="str">
         <f>DEC2HEX(A143,2)</f>
-        <v>A5</v>
+        <v>8D</v>
+      </c>
+      <c r="C143" t="s">
+        <v>269</v>
+      </c>
+      <c r="D143" t="s">
+        <v>276</v>
       </c>
       <c r="E143" t="s">
-        <v>53</v>
+        <v>96</v>
+      </c>
+      <c r="F143" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="G143" s="19" t="s">
+        <v>325</v>
       </c>
       <c r="I143" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A143,2),",","""",C143,"""",",","""",D143,"""",",","""",E143,"""",",","""",F143,"""",",","""",G143,"""),")</f>
-        <v>new OpCodeTable(0xA5,"","","MOVSW","",""),</v>
+        <v>new OpCodeTable(0x8D,"MRR","DISP","LEA","R-16","M-16"),</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B144" s="7" t="str">
         <f>DEC2HEX(A144,2)</f>
-        <v>90</v>
+        <v>8E</v>
+      </c>
+      <c r="C144" t="s">
+        <v>269</v>
+      </c>
+      <c r="D144" t="s">
+        <v>276</v>
       </c>
       <c r="E144" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="F144" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="G144" s="19" t="s">
+        <v>282</v>
       </c>
       <c r="I144" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A144,2),",","""",C144,"""",",","""",D144,"""",",","""",E144,"""",",","""",F144,"""",",","""",G144,"""),")</f>
-        <v>new OpCodeTable(0x90,"","","NOP","",""),</v>
+        <v>new OpCodeTable(0x8E,"MRR","DISP","MOV","SEG","RM-16"),</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>8</v>
+        <v>143</v>
       </c>
       <c r="B145" s="7" t="str">
         <f>DEC2HEX(A145,2)</f>
-        <v>08</v>
+        <v>8F</v>
       </c>
       <c r="C145" t="s">
         <v>269</v>
@@ -19544,765 +19425,816 @@
         <v>276</v>
       </c>
       <c r="E145" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="F145" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="G145" s="19" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I145" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A145,2),",","""",C145,"""",",","""",D145,"""",",","""",E145,"""",",","""",F145,"""",",","""",G145,"""),")</f>
-        <v>new OpCodeTable(0x08,"MRR","DISP","OR","RM-8","R-8"),</v>
+        <v>new OpCodeTable(0x8F,"MRR","DISP","POP","RM-16",""),</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="B146" s="7" t="str">
         <f>DEC2HEX(A146,2)</f>
-        <v>09</v>
-      </c>
-      <c r="C146" t="s">
-        <v>269</v>
-      </c>
-      <c r="D146" t="s">
-        <v>276</v>
+        <v>90</v>
       </c>
       <c r="E146" t="s">
-        <v>85</v>
-      </c>
-      <c r="F146" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="G146" s="19" t="s">
-        <v>283</v>
+        <v>49</v>
       </c>
       <c r="I146" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A146,2),",","""",C146,"""",",","""",D146,"""",",","""",E146,"""",",","""",F146,"""",",","""",G146,"""),")</f>
-        <v>new OpCodeTable(0x09,"MRR","DISP","OR","RM-16","R-16"),</v>
+        <v>new OpCodeTable(0x90,"","","NOP","",""),</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="B147" s="7" t="str">
         <f>DEC2HEX(A147,2)</f>
-        <v>0A</v>
-      </c>
-      <c r="C147" t="s">
-        <v>269</v>
-      </c>
-      <c r="D147" t="s">
-        <v>276</v>
+        <v>91</v>
       </c>
       <c r="E147" t="s">
-        <v>85</v>
-      </c>
-      <c r="F147" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="G147" s="19" t="s">
-        <v>280</v>
+        <v>326</v>
       </c>
       <c r="I147" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A147,2),",","""",C147,"""",",","""",D147,"""",",","""",E147,"""",",","""",F147,"""",",","""",G147,"""),")</f>
-        <v>new OpCodeTable(0x0A,"MRR","DISP","OR","R-8","RM-8"),</v>
+        <v>new OpCodeTable(0x91,"","","XCHG AX,CX","",""),</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="B148" s="7" t="str">
         <f>DEC2HEX(A148,2)</f>
-        <v>0B</v>
-      </c>
-      <c r="C148" t="s">
-        <v>269</v>
-      </c>
-      <c r="D148" t="s">
-        <v>276</v>
+        <v>92</v>
       </c>
       <c r="E148" t="s">
-        <v>85</v>
-      </c>
-      <c r="F148" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="G148" s="19" t="s">
-        <v>282</v>
+        <v>327</v>
       </c>
       <c r="I148" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A148,2),",","""",C148,"""",",","""",D148,"""",",","""",E148,"""",",","""",F148,"""",",","""",G148,"""),")</f>
-        <v>new OpCodeTable(0x0B,"MRR","DISP","OR","R-16","RM-16"),</v>
+        <v>new OpCodeTable(0x92,"","","XCHG AX,DX","",""),</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="B149" s="7" t="str">
         <f>DEC2HEX(A149,2)</f>
-        <v>0C</v>
-      </c>
-      <c r="C149" t="s">
-        <v>270</v>
+        <v>93</v>
       </c>
       <c r="E149" t="s">
-        <v>85</v>
-      </c>
-      <c r="F149" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G149" s="19" t="s">
-        <v>284</v>
+        <v>328</v>
       </c>
       <c r="I149" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A149,2),",","""",C149,"""",",","""",D149,"""",",","""",E149,"""",",","""",F149,"""",",","""",G149,"""),")</f>
-        <v>new OpCodeTable(0x0C,"D-8","","OR","AL","I-8"),</v>
+        <v>new OpCodeTable(0x93,"","","XCHG AX,BX","",""),</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="B150" s="7" t="str">
         <f>DEC2HEX(A150,2)</f>
-        <v>0D</v>
-      </c>
-      <c r="C150" t="s">
-        <v>271</v>
-      </c>
-      <c r="D150" t="s">
-        <v>277</v>
+        <v>94</v>
       </c>
       <c r="E150" t="s">
-        <v>85</v>
-      </c>
-      <c r="F150" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G150" s="19" t="s">
-        <v>285</v>
+        <v>329</v>
       </c>
       <c r="I150" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A150,2),",","""",C150,"""",",","""",D150,"""",",","""",E150,"""",",","""",F150,"""",",","""",G150,"""),")</f>
-        <v>new OpCodeTable(0x0D,"D-LO","D-HI","OR","AX","I-16"),</v>
+        <v>new OpCodeTable(0x94,"","","XCHG AX,SP","",""),</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>230</v>
+        <v>149</v>
       </c>
       <c r="B151" s="7" t="str">
         <f>DEC2HEX(A151,2)</f>
-        <v>E6</v>
-      </c>
-      <c r="C151" t="s">
-        <v>270</v>
+        <v>95</v>
       </c>
       <c r="E151" t="s">
-        <v>77</v>
-      </c>
-      <c r="F151" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="G151" s="19" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="I151" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A151,2),",","""",C151,"""",",","""",D151,"""",",","""",E151,"""",",","""",F151,"""",",","""",G151,"""),")</f>
-        <v>new OpCodeTable(0xE6,"D-8","","OUT","I-8","AL"),</v>
+        <v>new OpCodeTable(0x95,"","","XCHG AX,BP","",""),</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>231</v>
+        <v>150</v>
       </c>
       <c r="B152" s="7" t="str">
         <f>DEC2HEX(A152,2)</f>
-        <v>E7</v>
-      </c>
-      <c r="C152" t="s">
-        <v>270</v>
+        <v>96</v>
       </c>
       <c r="E152" t="s">
-        <v>77</v>
-      </c>
-      <c r="F152" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="G152" s="19" t="s">
-        <v>10</v>
+        <v>331</v>
       </c>
       <c r="I152" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A152,2),",","""",C152,"""",",","""",D152,"""",",","""",E152,"""",",","""",F152,"""",",","""",G152,"""),")</f>
-        <v>new OpCodeTable(0xE7,"D-8","","OUT","I-8","AX"),</v>
+        <v>new OpCodeTable(0x96,"","","XCHG AX,SI","",""),</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>238</v>
+        <v>151</v>
       </c>
       <c r="B153" s="7" t="str">
         <f>DEC2HEX(A153,2)</f>
-        <v>EE</v>
+        <v>97</v>
       </c>
       <c r="E153" t="s">
-        <v>358</v>
+        <v>332</v>
       </c>
       <c r="I153" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A153,2),",","""",C153,"""",",","""",D153,"""",",","""",E153,"""",",","""",F153,"""",",","""",G153,"""),")</f>
-        <v>new OpCodeTable(0xEE,"","","OUT AL,DX","",""),</v>
+        <v>new OpCodeTable(0x97,"","","XCHG AX,DI","",""),</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>239</v>
+        <v>152</v>
       </c>
       <c r="B154" s="7" t="str">
         <f>DEC2HEX(A154,2)</f>
-        <v>EF</v>
+        <v>98</v>
       </c>
       <c r="E154" t="s">
-        <v>359</v>
+        <v>104</v>
       </c>
       <c r="I154" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A154,2),",","""",C154,"""",",","""",D154,"""",",","""",E154,"""",",","""",F154,"""",",","""",G154,"""),")</f>
-        <v>new OpCodeTable(0xEF,"","","OUT AX,DX","",""),</v>
+        <v>new OpCodeTable(0x98,"","","CBW","",""),</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="B155" s="7" t="str">
         <f>DEC2HEX(A155,2)</f>
-        <v>8F</v>
-      </c>
-      <c r="C155" t="s">
-        <v>269</v>
-      </c>
-      <c r="D155" t="s">
-        <v>276</v>
+        <v>99</v>
       </c>
       <c r="E155" t="s">
-        <v>16</v>
-      </c>
-      <c r="F155" s="19" t="s">
-        <v>282</v>
+        <v>105</v>
       </c>
       <c r="I155" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A155,2),",","""",C155,"""",",","""",D155,"""",",","""",E155,"""",",","""",F155,"""",",","""",G155,"""),")</f>
-        <v>new OpCodeTable(0x8F,"MRR","DISP","POP","RM-16",""),</v>
+        <v>new OpCodeTable(0x99,"","","CWD","",""),</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>88</v>
+        <v>154</v>
       </c>
       <c r="B156" s="7" t="str">
         <f>DEC2HEX(A156,2)</f>
-        <v>58</v>
+        <v>9A</v>
+      </c>
+      <c r="C156" t="s">
+        <v>271</v>
+      </c>
+      <c r="D156" t="s">
+        <v>333</v>
       </c>
       <c r="E156" t="s">
-        <v>316</v>
+        <v>106</v>
+      </c>
+      <c r="F156" s="19" t="s">
+        <v>334</v>
       </c>
       <c r="I156" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A156,2),",","""",C156,"""",",","""",D156,"""",",","""",E156,"""",",","""",F156,"""",",","""",G156,"""),")</f>
-        <v>new OpCodeTable(0x58,"","","POP AX","",""),</v>
+        <v>new OpCodeTable(0x9A,"D-LO","D-HI,S-LO,S-HI","CALL","FAR",""),</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>93</v>
+        <v>155</v>
       </c>
       <c r="B157" s="7" t="str">
         <f>DEC2HEX(A157,2)</f>
-        <v>5D</v>
+        <v>9B</v>
       </c>
       <c r="E157" t="s">
-        <v>321</v>
+        <v>108</v>
       </c>
       <c r="I157" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A157,2),",","""",C157,"""",",","""",D157,"""",",","""",E157,"""",",","""",F157,"""",",","""",G157,"""),")</f>
-        <v>new OpCodeTable(0x5D,"","","POP BP","",""),</v>
+        <v>new OpCodeTable(0x9B,"","","WAIT","",""),</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>91</v>
+        <v>156</v>
       </c>
       <c r="B158" s="7" t="str">
         <f>DEC2HEX(A158,2)</f>
-        <v>5B</v>
+        <v>9C</v>
       </c>
       <c r="E158" t="s">
-        <v>319</v>
+        <v>109</v>
       </c>
       <c r="I158" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A158,2),",","""",C158,"""",",","""",D158,"""",",","""",E158,"""",",","""",F158,"""",",","""",G158,"""),")</f>
-        <v>new OpCodeTable(0x5B,"","","POP BX","",""),</v>
+        <v>new OpCodeTable(0x9C,"","","PUSHF","",""),</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="B159" s="7" t="str">
         <f>DEC2HEX(A159,2)</f>
-        <v>0F</v>
+        <v>9D</v>
       </c>
       <c r="E159" t="s">
-        <v>287</v>
+        <v>110</v>
       </c>
       <c r="I159" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A159,2),",","""",C159,"""",",","""",D159,"""",",","""",E159,"""",",","""",F159,"""",",","""",G159,"""),")</f>
-        <v>new OpCodeTable(0x0F,"","","POP CS","",""),</v>
+        <v>new OpCodeTable(0x9D,"","","POPF","",""),</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>89</v>
+        <v>158</v>
       </c>
       <c r="B160" s="7" t="str">
         <f>DEC2HEX(A160,2)</f>
-        <v>59</v>
+        <v>9E</v>
       </c>
       <c r="E160" t="s">
-        <v>317</v>
+        <v>111</v>
       </c>
       <c r="I160" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A160,2),",","""",C160,"""",",","""",D160,"""",",","""",E160,"""",",","""",F160,"""",",","""",G160,"""),")</f>
-        <v>new OpCodeTable(0x59,"","","POP CX","",""),</v>
+        <v>new OpCodeTable(0x9E,"","","SAHF","",""),</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="B161" s="7" t="str">
         <f>DEC2HEX(A161,2)</f>
-        <v>5F</v>
+        <v>9F</v>
       </c>
       <c r="E161" t="s">
-        <v>323</v>
+        <v>112</v>
       </c>
       <c r="I161" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A161,2),",","""",C161,"""",",","""",D161,"""",",","""",E161,"""",",","""",F161,"""",",","""",G161,"""),")</f>
-        <v>new OpCodeTable(0x5F,"","","POP DI","",""),</v>
+        <v>new OpCodeTable(0x9F,"","","LAHF","",""),</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>31</v>
+        <v>160</v>
       </c>
       <c r="B162" s="7" t="str">
         <f>DEC2HEX(A162,2)</f>
-        <v>1F</v>
+        <v>A0</v>
+      </c>
+      <c r="C162" t="s">
+        <v>335</v>
+      </c>
+      <c r="D162" t="s">
+        <v>336</v>
       </c>
       <c r="E162" t="s">
-        <v>291</v>
+        <v>50</v>
+      </c>
+      <c r="F162" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G162" s="19" t="s">
+        <v>337</v>
       </c>
       <c r="I162" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A162,2),",","""",C162,"""",",","""",D162,"""",",","""",E162,"""",",","""",F162,"""",",","""",G162,"""),")</f>
-        <v>new OpCodeTable(0x1F,"","","POP DS","",""),</v>
+        <v>new OpCodeTable(0xA0,"A-LO","A-HI","MOV","AL","M-8"),</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="B163" s="7" t="str">
         <f>DEC2HEX(A163,2)</f>
-        <v>5A</v>
+        <v>A1</v>
+      </c>
+      <c r="C163" t="s">
+        <v>335</v>
+      </c>
+      <c r="D163" t="s">
+        <v>336</v>
       </c>
       <c r="E163" t="s">
-        <v>318</v>
+        <v>50</v>
+      </c>
+      <c r="F163" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="19" t="s">
+        <v>325</v>
       </c>
       <c r="I163" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A163,2),",","""",C163,"""",",","""",D163,"""",",","""",E163,"""",",","""",F163,"""",",","""",G163,"""),")</f>
-        <v>new OpCodeTable(0x5A,"","","POP DX","",""),</v>
+        <v>new OpCodeTable(0xA1,"A-LO","A-HI","MOV","AX","M-16"),</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>7</v>
+        <v>162</v>
       </c>
       <c r="B164" s="7" t="str">
         <f>DEC2HEX(A164,2)</f>
-        <v>07</v>
+        <v>A2</v>
+      </c>
+      <c r="C164" t="s">
+        <v>335</v>
+      </c>
+      <c r="D164" t="s">
+        <v>336</v>
       </c>
       <c r="E164" t="s">
-        <v>279</v>
+        <v>50</v>
+      </c>
+      <c r="F164" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="G164" s="19" t="s">
+        <v>9</v>
       </c>
       <c r="I164" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A164,2),",","""",C164,"""",",","""",D164,"""",",","""",E164,"""",",","""",F164,"""",",","""",G164,"""),")</f>
-        <v>new OpCodeTable(0x07,"","","POP ES","",""),</v>
+        <v>new OpCodeTable(0xA2,"A-LO","A-HI","MOV","M-8","AL"),</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>94</v>
+        <v>163</v>
       </c>
       <c r="B165" s="7" t="str">
         <f>DEC2HEX(A165,2)</f>
-        <v>5E</v>
+        <v>A3</v>
+      </c>
+      <c r="C165" t="s">
+        <v>335</v>
+      </c>
+      <c r="D165" t="s">
+        <v>336</v>
       </c>
       <c r="E165" t="s">
-        <v>322</v>
+        <v>50</v>
+      </c>
+      <c r="F165" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="G165" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H165" t="s">
+        <v>364</v>
       </c>
       <c r="I165" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A165,2),",","""",C165,"""",",","""",D165,"""",",","""",E165,"""",",","""",F165,"""",",","""",G165,"""),")</f>
-        <v>new OpCodeTable(0x5E,"","","POP SI","",""),</v>
+        <v>new OpCodeTable(0xA3,"A-LO","A-HI","MOV","M-16","AX"),</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>92</v>
+        <v>164</v>
       </c>
       <c r="B166" s="7" t="str">
         <f>DEC2HEX(A166,2)</f>
-        <v>5C</v>
+        <v>A4</v>
       </c>
       <c r="E166" t="s">
-        <v>320</v>
+        <v>52</v>
       </c>
       <c r="I166" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A166,2),",","""",C166,"""",",","""",D166,"""",",","""",E166,"""",",","""",F166,"""",",","""",G166,"""),")</f>
-        <v>new OpCodeTable(0x5C,"","","POP SP","",""),</v>
+        <v>new OpCodeTable(0xA4,"","","MOVSB","",""),</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>23</v>
+        <v>165</v>
       </c>
       <c r="B167" s="7" t="str">
         <f>DEC2HEX(A167,2)</f>
-        <v>17</v>
+        <v>A5</v>
       </c>
       <c r="E167" t="s">
-        <v>289</v>
+        <v>53</v>
       </c>
       <c r="I167" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A167,2),",","""",C167,"""",",","""",D167,"""",",","""",E167,"""",",","""",F167,"""",",","""",G167,"""),")</f>
-        <v>new OpCodeTable(0x17,"","","POP SS","",""),</v>
+        <v>new OpCodeTable(0xA5,"","","MOVSW","",""),</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B168" s="7" t="str">
         <f>DEC2HEX(A168,2)</f>
-        <v>9D</v>
+        <v>A6</v>
       </c>
       <c r="E168" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="I168" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A168,2),",","""",C168,"""",",","""",D168,"""",",","""",E168,"""",",","""",F168,"""",",","""",G168,"""),")</f>
-        <v>new OpCodeTable(0x9D,"","","POPF","",""),</v>
+        <v>new OpCodeTable(0xA6,"","","CMPSB","",""),</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="B169" s="7" t="str">
         <f>DEC2HEX(A169,2)</f>
-        <v>50</v>
+        <v>A7</v>
       </c>
       <c r="E169" t="s">
-        <v>308</v>
+        <v>55</v>
       </c>
       <c r="I169" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A169,2),",","""",C169,"""",",","""",D169,"""",",","""",E169,"""",",","""",F169,"""",",","""",G169,"""),")</f>
-        <v>new OpCodeTable(0x50,"","","PUSH AX","",""),</v>
+        <v>new OpCodeTable(0xA7,"","","CMPSW","",""),</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>85</v>
+        <v>168</v>
       </c>
       <c r="B170" s="7" t="str">
         <f>DEC2HEX(A170,2)</f>
-        <v>55</v>
+        <v>A8</v>
+      </c>
+      <c r="C170" t="s">
+        <v>270</v>
       </c>
       <c r="E170" t="s">
-        <v>313</v>
+        <v>47</v>
+      </c>
+      <c r="F170" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G170" s="19" t="s">
+        <v>284</v>
       </c>
       <c r="I170" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A170,2),",","""",C170,"""",",","""",D170,"""",",","""",E170,"""",",","""",F170,"""",",","""",G170,"""),")</f>
-        <v>new OpCodeTable(0x55,"","","PUSH BP","",""),</v>
+        <v>new OpCodeTable(0xA8,"D-8","","TEST","AL","I-8"),</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>83</v>
+        <v>169</v>
       </c>
       <c r="B171" s="7" t="str">
         <f>DEC2HEX(A171,2)</f>
-        <v>53</v>
+        <v>A9</v>
+      </c>
+      <c r="C171" t="s">
+        <v>271</v>
+      </c>
+      <c r="D171" t="s">
+        <v>277</v>
       </c>
       <c r="E171" t="s">
-        <v>311</v>
+        <v>47</v>
+      </c>
+      <c r="F171" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="19" t="s">
+        <v>285</v>
       </c>
       <c r="I171" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A171,2),",","""",C171,"""",",","""",D171,"""",",","""",E171,"""",",","""",F171,"""",",","""",G171,"""),")</f>
-        <v>new OpCodeTable(0x53,"","","PUSH BX","",""),</v>
+        <v>new OpCodeTable(0xA9,"D-LO","D-HI","TEST","AX","I-16"),</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="B172" s="7" t="str">
         <f>DEC2HEX(A172,2)</f>
-        <v>0E</v>
+        <v>AA</v>
       </c>
       <c r="E172" t="s">
-        <v>286</v>
+        <v>113</v>
       </c>
       <c r="I172" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A172,2),",","""",C172,"""",",","""",D172,"""",",","""",E172,"""",",","""",F172,"""",",","""",G172,"""),")</f>
-        <v>new OpCodeTable(0x0E,"","","PUSH CS","",""),</v>
+        <v>new OpCodeTable(0xAA,"","","STOSB","",""),</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="B173" s="7" t="str">
         <f>DEC2HEX(A173,2)</f>
-        <v>51</v>
+        <v>AB</v>
       </c>
       <c r="E173" t="s">
-        <v>309</v>
+        <v>114</v>
       </c>
       <c r="I173" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A173,2),",","""",C173,"""",",","""",D173,"""",",","""",E173,"""",",","""",F173,"""",",","""",G173,"""),")</f>
-        <v>new OpCodeTable(0x51,"","","PUSH CX","",""),</v>
+        <v>new OpCodeTable(0xAB,"","","STOSW","",""),</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="B174" s="7" t="str">
         <f>DEC2HEX(A174,2)</f>
-        <v>57</v>
+        <v>AC</v>
       </c>
       <c r="E174" t="s">
-        <v>315</v>
+        <v>115</v>
       </c>
       <c r="I174" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A174,2),",","""",C174,"""",",","""",D174,"""",",","""",E174,"""",",","""",F174,"""",",","""",G174,"""),")</f>
-        <v>new OpCodeTable(0x57,"","","PUSH DI","",""),</v>
+        <v>new OpCodeTable(0xAC,"","","LODSB","",""),</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>30</v>
+        <v>173</v>
       </c>
       <c r="B175" s="7" t="str">
         <f>DEC2HEX(A175,2)</f>
-        <v>1E</v>
+        <v>AD</v>
       </c>
       <c r="E175" t="s">
-        <v>290</v>
+        <v>116</v>
       </c>
       <c r="I175" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A175,2),",","""",C175,"""",",","""",D175,"""",",","""",E175,"""",",","""",F175,"""",",","""",G175,"""),")</f>
-        <v>new OpCodeTable(0x1E,"","","PUSH DS","",""),</v>
+        <v>new OpCodeTable(0xAD,"","","LODSW","",""),</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="B176" s="7" t="str">
         <f>DEC2HEX(A176,2)</f>
-        <v>52</v>
+        <v>AE</v>
       </c>
       <c r="E176" t="s">
-        <v>310</v>
+        <v>117</v>
       </c>
       <c r="I176" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A176,2),",","""",C176,"""",",","""",D176,"""",",","""",E176,"""",",","""",F176,"""",",","""",G176,"""),")</f>
-        <v>new OpCodeTable(0x52,"","","PUSH DX","",""),</v>
+        <v>new OpCodeTable(0xAE,"","","SCASB","",""),</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>6</v>
+        <v>175</v>
       </c>
       <c r="B177" s="7" t="str">
         <f>DEC2HEX(A177,2)</f>
-        <v>06</v>
+        <v>AF</v>
       </c>
       <c r="E177" t="s">
-        <v>278</v>
+        <v>118</v>
       </c>
       <c r="I177" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A177,2),",","""",C177,"""",",","""",D177,"""",",","""",E177,"""",",","""",F177,"""",",","""",G177,"""),")</f>
-        <v>new OpCodeTable(0x06,"","","PUSH ES","",""),</v>
+        <v>new OpCodeTable(0xAF,"","","SCASW","",""),</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>86</v>
+        <v>176</v>
       </c>
       <c r="B178" s="7" t="str">
         <f>DEC2HEX(A178,2)</f>
-        <v>56</v>
+        <v>B0</v>
+      </c>
+      <c r="C178" t="s">
+        <v>270</v>
       </c>
       <c r="E178" t="s">
-        <v>314</v>
+        <v>50</v>
+      </c>
+      <c r="F178" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G178" s="19" t="s">
+        <v>284</v>
       </c>
       <c r="I178" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A178,2),",","""",C178,"""",",","""",D178,"""",",","""",E178,"""",",","""",F178,"""",",","""",G178,"""),")</f>
-        <v>new OpCodeTable(0x56,"","","PUSH SI","",""),</v>
+        <v>new OpCodeTable(0xB0,"D-8","","MOV","AL","I-8"),</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>84</v>
+        <v>177</v>
       </c>
       <c r="B179" s="7" t="str">
         <f>DEC2HEX(A179,2)</f>
-        <v>54</v>
+        <v>B1</v>
+      </c>
+      <c r="C179" t="s">
+        <v>270</v>
       </c>
       <c r="E179" t="s">
-        <v>312</v>
+        <v>50</v>
+      </c>
+      <c r="F179" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G179" s="19" t="s">
+        <v>284</v>
       </c>
       <c r="I179" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A179,2),",","""",C179,"""",",","""",D179,"""",",","""",E179,"""",",","""",F179,"""",",","""",G179,"""),")</f>
-        <v>new OpCodeTable(0x54,"","","PUSH SP","",""),</v>
+        <v>new OpCodeTable(0xB1,"D-8","","MOV","CL","I-8"),</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>22</v>
+        <v>178</v>
       </c>
       <c r="B180" s="7" t="str">
         <f>DEC2HEX(A180,2)</f>
-        <v>16</v>
+        <v>B2</v>
+      </c>
+      <c r="C180" t="s">
+        <v>270</v>
       </c>
       <c r="E180" t="s">
-        <v>288</v>
+        <v>50</v>
+      </c>
+      <c r="F180" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G180" s="19" t="s">
+        <v>284</v>
       </c>
       <c r="I180" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A180,2),",","""",C180,"""",",","""",D180,"""",",","""",E180,"""",",","""",F180,"""",",","""",G180,"""),")</f>
-        <v>new OpCodeTable(0x16,"","","PUSH SS","",""),</v>
+        <v>new OpCodeTable(0xB2,"D-8","","MOV","DL","I-8"),</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="B181" s="7" t="str">
         <f>DEC2HEX(A181,2)</f>
-        <v>9C</v>
+        <v>B3</v>
+      </c>
+      <c r="C181" t="s">
+        <v>270</v>
       </c>
       <c r="E181" t="s">
-        <v>109</v>
+        <v>50</v>
+      </c>
+      <c r="F181" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G181" s="19" t="s">
+        <v>284</v>
       </c>
       <c r="I181" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A181,2),",","""",C181,"""",",","""",D181,"""",",","""",E181,"""",",","""",F181,"""",",","""",G181,"""),")</f>
-        <v>new OpCodeTable(0x9C,"","","PUSHF","",""),</v>
+        <v>new OpCodeTable(0xB3,"D-8","","MOV","BL","I-8"),</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>243</v>
+        <v>180</v>
       </c>
       <c r="B182" s="7" t="str">
         <f>DEC2HEX(A182,2)</f>
-        <v>F3</v>
+        <v>B4</v>
+      </c>
+      <c r="C182" t="s">
+        <v>270</v>
       </c>
       <c r="E182" t="s">
-        <v>360</v>
+        <v>50</v>
+      </c>
+      <c r="F182" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G182" s="19" t="s">
+        <v>284</v>
       </c>
       <c r="I182" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A182,2),",","""",C182,"""",",","""",D182,"""",",","""",E182,"""",",","""",F182,"""",",","""",G182,"""),")</f>
-        <v>new OpCodeTable(0xF3,"","","REP","",""),</v>
+        <v>new OpCodeTable(0xB4,"D-8","","MOV","AH","I-8"),</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>242</v>
+        <v>181</v>
       </c>
       <c r="B183" s="7" t="str">
         <f>DEC2HEX(A183,2)</f>
-        <v>F2</v>
+        <v>B5</v>
+      </c>
+      <c r="C183" t="s">
+        <v>270</v>
       </c>
       <c r="E183" t="s">
-        <v>79</v>
+        <v>50</v>
+      </c>
+      <c r="F183" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G183" s="19" t="s">
+        <v>284</v>
       </c>
       <c r="I183" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A183,2),",","""",C183,"""",",","""",D183,"""",",","""",E183,"""",",","""",F183,"""",",","""",G183,"""),")</f>
-        <v>new OpCodeTable(0xF2,"","","REPNZ","",""),</v>
+        <v>new OpCodeTable(0xB5,"D-8","","MOV","CH","I-8"),</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="B184" s="7" t="str">
         <f>DEC2HEX(A184,2)</f>
-        <v>C2</v>
+        <v>B6</v>
       </c>
       <c r="C184" t="s">
-        <v>271</v>
-      </c>
-      <c r="D184" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="E184" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="F184" s="19" t="s">
-        <v>285</v>
-      </c>
-      <c r="H184" t="s">
-        <v>343</v>
+        <v>61</v>
+      </c>
+      <c r="G184" s="19" t="s">
+        <v>284</v>
       </c>
       <c r="I184" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A184,2),",","""",C184,"""",",","""",D184,"""",",","""",E184,"""",",","""",F184,"""",",","""",G184,"""),")</f>
-        <v>new OpCodeTable(0xC2,"D-LO","D-HI","RET","I-16",""),</v>
+        <v>new OpCodeTable(0xB6,"D-8","","MOV","DH","I-8"),</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B185" s="7" t="str">
         <f>DEC2HEX(A185,2)</f>
-        <v>C3</v>
+        <v>B7</v>
+      </c>
+      <c r="C185" t="s">
+        <v>270</v>
       </c>
       <c r="E185" t="s">
-        <v>63</v>
-      </c>
-      <c r="H185" t="s">
-        <v>343</v>
+        <v>50</v>
+      </c>
+      <c r="F185" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G185" s="19" t="s">
+        <v>284</v>
       </c>
       <c r="I185" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A185,2),",","""",C185,"""",",","""",D185,"""",",","""",E185,"""",",","""",F185,"""",",","""",G185,"""),")</f>
-        <v>new OpCodeTable(0xC3,"","","RET","",""),</v>
+        <v>new OpCodeTable(0xB7,"D-8","","MOV","BH","I-8"),</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="B186" s="7" t="str">
         <f>DEC2HEX(A186,2)</f>
-        <v>CA</v>
+        <v>B8</v>
       </c>
       <c r="C186" t="s">
         <v>271</v>
@@ -20311,547 +20243,570 @@
         <v>277</v>
       </c>
       <c r="E186" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="F186" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="19" t="s">
         <v>285</v>
-      </c>
-      <c r="H186" t="s">
-        <v>343</v>
       </c>
       <c r="I186" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A186,2),",","""",C186,"""",",","""",D186,"""",",","""",E186,"""",",","""",F186,"""",",","""",G186,"""),")</f>
-        <v>new OpCodeTable(0xCA,"D-LO","D-HI","RET","I-16",""),</v>
+        <v>new OpCodeTable(0xB8,"D-LO","D-HI","MOV","AX","I-16"),</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="B187" s="7" t="str">
         <f>DEC2HEX(A187,2)</f>
-        <v>CB</v>
+        <v>B9</v>
+      </c>
+      <c r="C187" t="s">
+        <v>271</v>
+      </c>
+      <c r="D187" t="s">
+        <v>277</v>
       </c>
       <c r="E187" t="s">
-        <v>63</v>
-      </c>
-      <c r="H187" t="s">
-        <v>343</v>
+        <v>50</v>
+      </c>
+      <c r="F187" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G187" s="19" t="s">
+        <v>285</v>
       </c>
       <c r="I187" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A187,2),",","""",C187,"""",",","""",D187,"""",",","""",E187,"""",",","""",F187,"""",",","""",G187,"""),")</f>
-        <v>new OpCodeTable(0xCB,"","","RET","",""),</v>
+        <v>new OpCodeTable(0xB9,"D-LO","D-HI","MOV","CX","I-16"),</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="B188" s="7" t="str">
         <f>DEC2HEX(A188,2)</f>
-        <v>9E</v>
+        <v>BA</v>
+      </c>
+      <c r="C188" t="s">
+        <v>271</v>
+      </c>
+      <c r="D188" t="s">
+        <v>277</v>
       </c>
       <c r="E188" t="s">
-        <v>111</v>
+        <v>50</v>
+      </c>
+      <c r="F188" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G188" s="19" t="s">
+        <v>285</v>
       </c>
       <c r="I188" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A188,2),",","""",C188,"""",",","""",D188,"""",",","""",E188,"""",",","""",F188,"""",",","""",G188,"""),")</f>
-        <v>new OpCodeTable(0x9E,"","","SAHF","",""),</v>
+        <v>new OpCodeTable(0xBA,"D-LO","D-HI","MOV","DX","I-16"),</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>24</v>
+        <v>187</v>
       </c>
       <c r="B189" s="7" t="str">
         <f>DEC2HEX(A189,2)</f>
-        <v>18</v>
+        <v>BB</v>
       </c>
       <c r="C189" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D189" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E189" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="F189" s="19" t="s">
-        <v>280</v>
+        <v>29</v>
       </c>
       <c r="G189" s="19" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="I189" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A189,2),",","""",C189,"""",",","""",D189,"""",",","""",E189,"""",",","""",F189,"""",",","""",G189,"""),")</f>
-        <v>new OpCodeTable(0x18,"MRR","DISP","SBB","RM-8","R-8"),</v>
+        <v>new OpCodeTable(0xBB,"D-LO","D-HI","MOV","BX","I-16"),</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>25</v>
+        <v>188</v>
       </c>
       <c r="B190" s="7" t="str">
         <f>DEC2HEX(A190,2)</f>
-        <v>19</v>
+        <v>BC</v>
       </c>
       <c r="C190" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D190" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E190" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="F190" s="19" t="s">
-        <v>282</v>
+        <v>30</v>
       </c>
       <c r="G190" s="19" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="I190" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A190,2),",","""",C190,"""",",","""",D190,"""",",","""",E190,"""",",","""",F190,"""",",","""",G190,"""),")</f>
-        <v>new OpCodeTable(0x19,"MRR","DISP","SBB","RM-16","R-16"),</v>
+        <v>new OpCodeTable(0xBC,"D-LO","D-HI","MOV","SP","I-16"),</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>26</v>
+        <v>189</v>
       </c>
       <c r="B191" s="7" t="str">
         <f>DEC2HEX(A191,2)</f>
-        <v>1A</v>
+        <v>BD</v>
       </c>
       <c r="C191" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D191" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E191" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="F191" s="19" t="s">
-        <v>281</v>
+        <v>31</v>
       </c>
       <c r="G191" s="19" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="I191" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A191,2),",","""",C191,"""",",","""",D191,"""",",","""",E191,"""",",","""",F191,"""",",","""",G191,"""),")</f>
-        <v>new OpCodeTable(0x1A,"MRR","DISP","SBB","R-8","RM-8"),</v>
+        <v>new OpCodeTable(0xBD,"D-LO","D-HI","MOV","BP","I-16"),</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>27</v>
+        <v>190</v>
       </c>
       <c r="B192" s="7" t="str">
         <f>DEC2HEX(A192,2)</f>
-        <v>1B</v>
+        <v>BE</v>
       </c>
       <c r="C192" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D192" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E192" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="F192" s="19" t="s">
-        <v>283</v>
+        <v>32</v>
       </c>
       <c r="G192" s="19" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="I192" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A192,2),",","""",C192,"""",",","""",D192,"""",",","""",E192,"""",",","""",F192,"""",",","""",G192,"""),")</f>
-        <v>new OpCodeTable(0x1B,"MRR","DISP","SBB","R-16","RM-16"),</v>
+        <v>new OpCodeTable(0xBE,"D-LO","D-HI","MOV","SI","I-16"),</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>28</v>
+        <v>191</v>
       </c>
       <c r="B193" s="7" t="str">
         <f>DEC2HEX(A193,2)</f>
-        <v>1C</v>
+        <v>BF</v>
       </c>
       <c r="C193" t="s">
-        <v>270</v>
+        <v>271</v>
+      </c>
+      <c r="D193" t="s">
+        <v>277</v>
       </c>
       <c r="E193" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="F193" s="19" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="G193" s="19" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I193" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A193,2),",","""",C193,"""",",","""",D193,"""",",","""",E193,"""",",","""",F193,"""",",","""",G193,"""),")</f>
-        <v>new OpCodeTable(0x1C,"D-8","","SBB","AL","I-8"),</v>
+        <v>new OpCodeTable(0xBF,"D-LO","D-HI","MOV","DI","I-16"),</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>29</v>
-      </c>
-      <c r="B194" s="7" t="str">
+        <v>192</v>
+      </c>
+      <c r="B194" s="12" t="str">
         <f>DEC2HEX(A194,2)</f>
-        <v>1D</v>
-      </c>
-      <c r="C194" t="s">
-        <v>271</v>
-      </c>
-      <c r="D194" t="s">
-        <v>277</v>
-      </c>
-      <c r="E194" t="s">
-        <v>86</v>
-      </c>
-      <c r="F194" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G194" s="19" t="s">
-        <v>285</v>
-      </c>
+        <v>C0</v>
+      </c>
+      <c r="C194" s="4"/>
+      <c r="D194" s="4"/>
+      <c r="E194" s="4"/>
+      <c r="F194" s="20"/>
+      <c r="G194" s="20"/>
       <c r="I194" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A194,2),",","""",C194,"""",",","""",D194,"""",",","""",E194,"""",",","""",F194,"""",",","""",G194,"""),")</f>
-        <v>new OpCodeTable(0x1D,"D-LO","D-HI","SBB","AX","I-16"),</v>
+        <v>new OpCodeTable(0xC0,"","","","",""),</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>174</v>
-      </c>
-      <c r="B195" s="7" t="str">
+        <v>193</v>
+      </c>
+      <c r="B195" s="12" t="str">
         <f>DEC2HEX(A195,2)</f>
-        <v>AE</v>
-      </c>
-      <c r="E195" t="s">
-        <v>117</v>
-      </c>
+        <v>C1</v>
+      </c>
+      <c r="C195" s="4"/>
+      <c r="D195" s="4"/>
+      <c r="E195" s="4"/>
+      <c r="F195" s="20"/>
+      <c r="G195" s="20"/>
       <c r="I195" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A195,2),",","""",C195,"""",",","""",D195,"""",",","""",E195,"""",",","""",F195,"""",",","""",G195,"""),")</f>
-        <v>new OpCodeTable(0xAE,"","","SCASB","",""),</v>
+        <v>new OpCodeTable(0xC1,"","","","",""),</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="B196" s="7" t="str">
         <f>DEC2HEX(A196,2)</f>
-        <v>AF</v>
+        <v>C2</v>
+      </c>
+      <c r="C196" t="s">
+        <v>271</v>
+      </c>
+      <c r="D196" t="s">
+        <v>277</v>
       </c>
       <c r="E196" t="s">
-        <v>118</v>
+        <v>63</v>
+      </c>
+      <c r="F196" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="H196" t="s">
+        <v>343</v>
       </c>
       <c r="I196" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A196,2),",","""",C196,"""",",","""",D196,"""",",","""",E196,"""",",","""",F196,"""",",","""",G196,"""),")</f>
-        <v>new OpCodeTable(0xAF,"","","SCASW","",""),</v>
+        <v>new OpCodeTable(0xC2,"D-LO","D-HI","RET","I-16",""),</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>54</v>
+        <v>195</v>
       </c>
       <c r="B197" s="7" t="str">
         <f>DEC2HEX(A197,2)</f>
-        <v>36</v>
+        <v>C3</v>
       </c>
       <c r="E197" t="s">
-        <v>23</v>
+        <v>63</v>
+      </c>
+      <c r="H197" t="s">
+        <v>343</v>
       </c>
       <c r="I197" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A197,2),",","""",C197,"""",",","""",D197,"""",",","""",E197,"""",",","""",F197,"""",",","""",G197,"""),")</f>
-        <v>new OpCodeTable(0x36,"","","SS:","",""),</v>
+        <v>new OpCodeTable(0xC3,"","","RET","",""),</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>249</v>
+        <v>196</v>
       </c>
       <c r="B198" s="7" t="str">
         <f>DEC2HEX(A198,2)</f>
-        <v>F9</v>
+        <v>C4</v>
+      </c>
+      <c r="C198" t="s">
+        <v>269</v>
+      </c>
+      <c r="D198" t="s">
+        <v>276</v>
       </c>
       <c r="E198" t="s">
-        <v>126</v>
+        <v>64</v>
+      </c>
+      <c r="F198" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="G198" s="19" t="s">
+        <v>325</v>
       </c>
       <c r="I198" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A198,2),",","""",C198,"""",",","""",D198,"""",",","""",E198,"""",",","""",F198,"""",",","""",G198,"""),")</f>
-        <v>new OpCodeTable(0xF9,"","","STC","",""),</v>
+        <v>new OpCodeTable(0xC4,"MRR","DISP","LES","R-16","M-16"),</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>253</v>
+        <v>197</v>
       </c>
       <c r="B199" s="7" t="str">
         <f>DEC2HEX(A199,2)</f>
-        <v>FD</v>
+        <v>C5</v>
+      </c>
+      <c r="C199" t="s">
+        <v>269</v>
+      </c>
+      <c r="D199" t="s">
+        <v>276</v>
       </c>
       <c r="E199" t="s">
-        <v>130</v>
+        <v>65</v>
+      </c>
+      <c r="F199" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="G199" s="19" t="s">
+        <v>325</v>
       </c>
       <c r="I199" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A199,2),",","""",C199,"""",",","""",D199,"""",",","""",E199,"""",",","""",F199,"""",",","""",G199,"""),")</f>
-        <v>new OpCodeTable(0xFD,"","","STD","",""),</v>
+        <v>new OpCodeTable(0xC5,"MRR","DISP","LDS","R-16","M-16"),</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>251</v>
+        <v>198</v>
       </c>
       <c r="B200" s="7" t="str">
         <f>DEC2HEX(A200,2)</f>
-        <v>FB</v>
+        <v>C6</v>
+      </c>
+      <c r="C200" t="s">
+        <v>269</v>
+      </c>
+      <c r="D200" t="s">
+        <v>276</v>
       </c>
       <c r="E200" t="s">
-        <v>128</v>
+        <v>50</v>
+      </c>
+      <c r="F200" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="G200" s="19" t="s">
+        <v>284</v>
       </c>
       <c r="I200" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A200,2),",","""",C200,"""",",","""",D200,"""",",","""",E200,"""",",","""",F200,"""",",","""",G200,"""),")</f>
-        <v>new OpCodeTable(0xFB,"","","STI","",""),</v>
+        <v>new OpCodeTable(0xC6,"MRR","DISP","MOV","M-8","I-8"),</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="B201" s="7" t="str">
         <f>DEC2HEX(A201,2)</f>
-        <v>AA</v>
+        <v>C7</v>
+      </c>
+      <c r="C201" t="s">
+        <v>269</v>
+      </c>
+      <c r="D201" t="s">
+        <v>276</v>
       </c>
       <c r="E201" t="s">
-        <v>113</v>
+        <v>50</v>
+      </c>
+      <c r="F201" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="G201" s="19" t="s">
+        <v>285</v>
       </c>
       <c r="I201" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A201,2),",","""",C201,"""",",","""",D201,"""",",","""",E201,"""",",","""",F201,"""",",","""",G201,"""),")</f>
-        <v>new OpCodeTable(0xAA,"","","STOSB","",""),</v>
+        <v>new OpCodeTable(0xC7,"MRR","DISP","MOV","M-16","I-16"),</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>171</v>
-      </c>
-      <c r="B202" s="7" t="str">
+        <v>200</v>
+      </c>
+      <c r="B202" s="12" t="str">
         <f>DEC2HEX(A202,2)</f>
-        <v>AB</v>
-      </c>
-      <c r="E202" t="s">
-        <v>114</v>
-      </c>
+        <v>C8</v>
+      </c>
+      <c r="C202" s="4"/>
+      <c r="D202" s="4"/>
+      <c r="E202" s="4"/>
+      <c r="F202" s="20"/>
+      <c r="G202" s="20"/>
       <c r="I202" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A202,2),",","""",C202,"""",",","""",D202,"""",",","""",E202,"""",",","""",F202,"""",",","""",G202,"""),")</f>
-        <v>new OpCodeTable(0xAB,"","","STOSW","",""),</v>
+        <v>new OpCodeTable(0xC8,"","","","",""),</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>40</v>
-      </c>
-      <c r="B203" s="7" t="str">
+        <v>201</v>
+      </c>
+      <c r="B203" s="12" t="str">
         <f>DEC2HEX(A203,2)</f>
-        <v>28</v>
-      </c>
-      <c r="C203" t="s">
-        <v>269</v>
-      </c>
-      <c r="D203" t="s">
-        <v>276</v>
-      </c>
-      <c r="E203" t="s">
-        <v>88</v>
-      </c>
-      <c r="F203" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="G203" s="19" t="s">
-        <v>281</v>
-      </c>
+        <v>C9</v>
+      </c>
+      <c r="C203" s="4"/>
+      <c r="D203" s="4"/>
+      <c r="E203" s="4"/>
+      <c r="F203" s="20"/>
+      <c r="G203" s="20"/>
       <c r="I203" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A203,2),",","""",C203,"""",",","""",D203,"""",",","""",E203,"""",",","""",F203,"""",",","""",G203,"""),")</f>
-        <v>new OpCodeTable(0x28,"MRR","DISP","SUB","RM-8","R-8"),</v>
+        <v>new OpCodeTable(0xC9,"","","","",""),</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>41</v>
+        <v>202</v>
       </c>
       <c r="B204" s="7" t="str">
         <f>DEC2HEX(A204,2)</f>
-        <v>29</v>
+        <v>CA</v>
       </c>
       <c r="C204" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D204" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E204" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="F204" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="G204" s="19" t="s">
-        <v>283</v>
+        <v>285</v>
+      </c>
+      <c r="H204" t="s">
+        <v>343</v>
       </c>
       <c r="I204" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A204,2),",","""",C204,"""",",","""",D204,"""",",","""",E204,"""",",","""",F204,"""",",","""",G204,"""),")</f>
-        <v>new OpCodeTable(0x29,"MRR","DISP","SUB","RM-16","R-16"),</v>
+        <v>new OpCodeTable(0xCA,"D-LO","D-HI","RET","I-16",""),</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>42</v>
+        <v>203</v>
       </c>
       <c r="B205" s="7" t="str">
         <f>DEC2HEX(A205,2)</f>
-        <v>2A</v>
-      </c>
-      <c r="C205" t="s">
-        <v>269</v>
-      </c>
-      <c r="D205" t="s">
-        <v>276</v>
+        <v>CB</v>
       </c>
       <c r="E205" t="s">
-        <v>88</v>
-      </c>
-      <c r="F205" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="G205" s="19" t="s">
-        <v>280</v>
+        <v>63</v>
+      </c>
+      <c r="H205" t="s">
+        <v>343</v>
       </c>
       <c r="I205" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A205,2),",","""",C205,"""",",","""",D205,"""",",","""",E205,"""",",","""",F205,"""",",","""",G205,"""),")</f>
-        <v>new OpCodeTable(0x2A,"MRR","DISP","SUB","R-8","RM-8"),</v>
+        <v>new OpCodeTable(0xCB,"","","RET","",""),</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>43</v>
+        <v>204</v>
       </c>
       <c r="B206" s="7" t="str">
         <f>DEC2HEX(A206,2)</f>
-        <v>2B</v>
-      </c>
-      <c r="C206" t="s">
-        <v>269</v>
-      </c>
-      <c r="D206" t="s">
-        <v>276</v>
+        <v>CC</v>
       </c>
       <c r="E206" t="s">
-        <v>88</v>
-      </c>
-      <c r="F206" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="G206" s="19" t="s">
-        <v>282</v>
+        <v>365</v>
       </c>
       <c r="I206" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A206,2),",","""",C206,"""",",","""",D206,"""",",","""",E206,"""",",","""",F206,"""",",","""",G206,"""),")</f>
-        <v>new OpCodeTable(0x2B,"MRR","DISP","SUB","R-16","RM-16"),</v>
+        <v>new OpCodeTable(0xCC,"","","INT3","",""),</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>44</v>
+        <v>205</v>
       </c>
       <c r="B207" s="7" t="str">
         <f>DEC2HEX(A207,2)</f>
-        <v>2C</v>
+        <v>CD</v>
       </c>
       <c r="C207" t="s">
         <v>270</v>
       </c>
       <c r="E207" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="F207" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G207" s="19" t="s">
         <v>284</v>
       </c>
       <c r="I207" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A207,2),",","""",C207,"""",",","""",D207,"""",",","""",E207,"""",",","""",F207,"""",",","""",G207,"""),")</f>
-        <v>new OpCodeTable(0x2C,"D-8","","SUB","AL","I-8"),</v>
+        <v>new OpCodeTable(0xCD,"D-8","","INT","I-8",""),</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>45</v>
+        <v>206</v>
       </c>
       <c r="B208" s="7" t="str">
         <f>DEC2HEX(A208,2)</f>
-        <v>2D</v>
-      </c>
-      <c r="C208" t="s">
-        <v>271</v>
-      </c>
-      <c r="D208" t="s">
-        <v>277</v>
+        <v>CE</v>
       </c>
       <c r="E208" t="s">
-        <v>88</v>
-      </c>
-      <c r="F208" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G208" s="19" t="s">
-        <v>285</v>
+        <v>121</v>
       </c>
       <c r="I208" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A208,2),",","""",C208,"""",",","""",D208,"""",",","""",E208,"""",",","""",F208,"""",",","""",G208,"""),")</f>
-        <v>new OpCodeTable(0x2D,"D-LO","D-HI","SUB","AX","I-16"),</v>
+        <v>new OpCodeTable(0xCE,"","","INTO","",""),</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>132</v>
+        <v>207</v>
       </c>
       <c r="B209" s="7" t="str">
         <f>DEC2HEX(A209,2)</f>
-        <v>84</v>
-      </c>
-      <c r="C209" t="s">
-        <v>269</v>
-      </c>
-      <c r="D209" t="s">
-        <v>276</v>
+        <v>CF</v>
       </c>
       <c r="E209" t="s">
-        <v>47</v>
-      </c>
-      <c r="F209" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="G209" s="19" t="s">
-        <v>281</v>
+        <v>122</v>
       </c>
       <c r="I209" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A209,2),",","""",C209,"""",",","""",D209,"""",",","""",E209,"""",",","""",F209,"""",",","""",G209,"""),")</f>
-        <v>new OpCodeTable(0x84,"MRR","DISP","TEST","RM-8","R-8"),</v>
+        <v>new OpCodeTable(0xCF,"","","IRET","",""),</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>133</v>
+        <v>208</v>
       </c>
       <c r="B210" s="7" t="str">
         <f>DEC2HEX(A210,2)</f>
-        <v>85</v>
+        <v>D0</v>
       </c>
       <c r="C210" t="s">
         <v>269</v>
@@ -20860,681 +20815,708 @@
         <v>276</v>
       </c>
       <c r="E210" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F210" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="G210" s="19" t="s">
-        <v>283</v>
+        <v>280</v>
+      </c>
+      <c r="G210" s="19">
+        <v>1</v>
       </c>
       <c r="I210" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A210,2),",","""",C210,"""",",","""",D210,"""",",","""",E210,"""",",","""",F210,"""",",","""",G210,"""),")</f>
-        <v>new OpCodeTable(0x85,"MRR","DISP","TEST","RM-16","R-16"),</v>
+        <v>new OpCodeTable(0xD0,"MRR","DISP","GRP2","RM-8","1"),</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B211" s="7" t="str">
         <f>DEC2HEX(A211,2)</f>
-        <v>A8</v>
+        <v>D1</v>
       </c>
       <c r="C211" t="s">
-        <v>270</v>
+        <v>269</v>
+      </c>
+      <c r="D211" t="s">
+        <v>276</v>
       </c>
       <c r="E211" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F211" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G211" s="19" t="s">
-        <v>284</v>
+        <v>282</v>
+      </c>
+      <c r="G211" s="19">
+        <v>1</v>
       </c>
       <c r="I211" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A211,2),",","""",C211,"""",",","""",D211,"""",",","""",E211,"""",",","""",F211,"""",",","""",G211,"""),")</f>
-        <v>new OpCodeTable(0xA8,"D-8","","TEST","AL","I-8"),</v>
+        <v>new OpCodeTable(0xD1,"MRR","DISP","GRP2","RM-16","1"),</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>169</v>
+        <v>210</v>
       </c>
       <c r="B212" s="7" t="str">
         <f>DEC2HEX(A212,2)</f>
-        <v>A9</v>
+        <v>D2</v>
       </c>
       <c r="C212" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D212" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E212" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F212" s="19" t="s">
-        <v>10</v>
+        <v>280</v>
       </c>
       <c r="G212" s="19" t="s">
-        <v>285</v>
+        <v>56</v>
       </c>
       <c r="I212" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A212,2),",","""",C212,"""",",","""",D212,"""",",","""",E212,"""",",","""",F212,"""",",","""",G212,"""),")</f>
-        <v>new OpCodeTable(0xA9,"D-LO","D-HI","TEST","AX","I-16"),</v>
+        <v>new OpCodeTable(0xD2,"MRR","DISP","GRP2","RM-8","CL"),</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>155</v>
+        <v>211</v>
       </c>
       <c r="B213" s="7" t="str">
         <f>DEC2HEX(A213,2)</f>
-        <v>9B</v>
+        <v>D3</v>
+      </c>
+      <c r="C213" t="s">
+        <v>269</v>
+      </c>
+      <c r="D213" t="s">
+        <v>276</v>
       </c>
       <c r="E213" t="s">
-        <v>108</v>
+        <v>44</v>
+      </c>
+      <c r="F213" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="G213" s="19" t="s">
+        <v>56</v>
       </c>
       <c r="I213" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A213,2),",","""",C213,"""",",","""",D213,"""",",","""",E213,"""",",","""",F213,"""",",","""",G213,"""),")</f>
-        <v>new OpCodeTable(0x9B,"","","WAIT","",""),</v>
+        <v>new OpCodeTable(0xD3,"MRR","DISP","GRP2","RM-16","CL"),</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>134</v>
+        <v>212</v>
       </c>
       <c r="B214" s="7" t="str">
         <f>DEC2HEX(A214,2)</f>
-        <v>86</v>
+        <v>D4</v>
       </c>
       <c r="C214" t="s">
-        <v>269</v>
-      </c>
-      <c r="D214" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E214" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="F214" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="G214" s="19" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="I214" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A214,2),",","""",C214,"""",",","""",D214,"""",",","""",E214,"""",",","""",F214,"""",",","""",G214,"""),")</f>
-        <v>new OpCodeTable(0x86,"MRR","DISP","XCHG","R-8","RM-8"),</v>
+        <v>new OpCodeTable(0xD4,"D-8","","AAM","I-8",""),</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>135</v>
+        <v>213</v>
       </c>
       <c r="B215" s="7" t="str">
         <f>DEC2HEX(A215,2)</f>
-        <v>87</v>
+        <v>D5</v>
       </c>
       <c r="C215" t="s">
-        <v>269</v>
-      </c>
-      <c r="D215" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E215" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="F215" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="G215" s="19" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="I215" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A215,2),",","""",C215,"""",",","""",D215,"""",",","""",E215,"""",",","""",F215,"""",",","""",G215,"""),")</f>
-        <v>new OpCodeTable(0x87,"MRR","DISP","XCHG","R-16","RM-16"),</v>
+        <v>new OpCodeTable(0xD5,"D-8","","AAD","I-8",""),</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>149</v>
-      </c>
-      <c r="B216" s="7" t="str">
+        <v>214</v>
+      </c>
+      <c r="B216" s="12" t="str">
         <f>DEC2HEX(A216,2)</f>
-        <v>95</v>
-      </c>
-      <c r="E216" t="s">
-        <v>330</v>
-      </c>
+        <v>D6</v>
+      </c>
+      <c r="C216" s="4"/>
+      <c r="D216" s="4"/>
+      <c r="E216" s="4"/>
+      <c r="F216" s="20"/>
+      <c r="G216" s="20"/>
       <c r="I216" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A216,2),",","""",C216,"""",",","""",D216,"""",",","""",E216,"""",",","""",F216,"""",",","""",G216,"""),")</f>
-        <v>new OpCodeTable(0x95,"","","XCHG AX,BP","",""),</v>
+        <v>new OpCodeTable(0xD6,"","","","",""),</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>147</v>
+        <v>215</v>
       </c>
       <c r="B217" s="7" t="str">
         <f>DEC2HEX(A217,2)</f>
-        <v>93</v>
+        <v>D7</v>
       </c>
       <c r="E217" t="s">
-        <v>328</v>
+        <v>71</v>
       </c>
       <c r="I217" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A217,2),",","""",C217,"""",",","""",D217,"""",",","""",E217,"""",",","""",F217,"""",",","""",G217,"""),")</f>
-        <v>new OpCodeTable(0x93,"","","XCHG AX,BX","",""),</v>
+        <v>new OpCodeTable(0xD7,"","","XLAT","",""),</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>145</v>
+        <v>216</v>
       </c>
       <c r="B218" s="7" t="str">
         <f>DEC2HEX(A218,2)</f>
-        <v>91</v>
+        <v>D8</v>
+      </c>
+      <c r="C218" t="s">
+        <v>269</v>
+      </c>
+      <c r="D218" t="s">
+        <v>276</v>
       </c>
       <c r="E218" t="s">
-        <v>326</v>
+        <v>345</v>
+      </c>
+      <c r="F218" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="G218" s="19" t="s">
+        <v>347</v>
       </c>
       <c r="I218" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A218,2),",","""",C218,"""",",","""",D218,"""",",","""",E218,"""",",","""",F218,"""",",","""",G218,"""),")</f>
-        <v>new OpCodeTable(0x91,"","","XCHG AX,CX","",""),</v>
+        <v>new OpCodeTable(0xD8,"MRR","DISP","ESC","OPCODE","SOURCE"),</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>151</v>
-      </c>
-      <c r="B219" s="7" t="str">
+        <v>217</v>
+      </c>
+      <c r="B219" s="12" t="str">
         <f>DEC2HEX(A219,2)</f>
-        <v>97</v>
-      </c>
-      <c r="E219" t="s">
-        <v>332</v>
-      </c>
+        <v>D9</v>
+      </c>
+      <c r="C219" s="4"/>
+      <c r="D219" s="4"/>
+      <c r="E219" s="4"/>
+      <c r="F219" s="20"/>
+      <c r="G219" s="20"/>
       <c r="I219" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A219,2),",","""",C219,"""",",","""",D219,"""",",","""",E219,"""",",","""",F219,"""",",","""",G219,"""),")</f>
-        <v>new OpCodeTable(0x97,"","","XCHG AX,DI","",""),</v>
+        <v>new OpCodeTable(0xD9,"","","","",""),</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>146</v>
-      </c>
-      <c r="B220" s="7" t="str">
+        <v>218</v>
+      </c>
+      <c r="B220" s="12" t="str">
         <f>DEC2HEX(A220,2)</f>
-        <v>92</v>
-      </c>
-      <c r="E220" t="s">
-        <v>327</v>
-      </c>
+        <v>DA</v>
+      </c>
+      <c r="C220" s="4"/>
+      <c r="D220" s="4"/>
+      <c r="E220" s="4"/>
+      <c r="F220" s="20"/>
+      <c r="G220" s="20"/>
       <c r="I220" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A220,2),",","""",C220,"""",",","""",D220,"""",",","""",E220,"""",",","""",F220,"""",",","""",G220,"""),")</f>
-        <v>new OpCodeTable(0x92,"","","XCHG AX,DX","",""),</v>
+        <v>new OpCodeTable(0xDA,"","","","",""),</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>150</v>
-      </c>
-      <c r="B221" s="7" t="str">
+        <v>219</v>
+      </c>
+      <c r="B221" s="12" t="str">
         <f>DEC2HEX(A221,2)</f>
-        <v>96</v>
-      </c>
-      <c r="E221" t="s">
-        <v>331</v>
-      </c>
+        <v>DB</v>
+      </c>
+      <c r="C221" s="4"/>
+      <c r="D221" s="4"/>
+      <c r="E221" s="4"/>
+      <c r="F221" s="20"/>
+      <c r="G221" s="20"/>
       <c r="I221" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A221,2),",","""",C221,"""",",","""",D221,"""",",","""",E221,"""",",","""",F221,"""",",","""",G221,"""),")</f>
-        <v>new OpCodeTable(0x96,"","","XCHG AX,SI","",""),</v>
+        <v>new OpCodeTable(0xDB,"","","","",""),</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>148</v>
-      </c>
-      <c r="B222" s="7" t="str">
+        <v>220</v>
+      </c>
+      <c r="B222" s="12" t="str">
         <f>DEC2HEX(A222,2)</f>
-        <v>94</v>
-      </c>
-      <c r="E222" t="s">
-        <v>329</v>
-      </c>
+        <v>DC</v>
+      </c>
+      <c r="C222" s="4"/>
+      <c r="D222" s="4"/>
+      <c r="E222" s="4"/>
+      <c r="F222" s="20"/>
+      <c r="G222" s="20"/>
       <c r="I222" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A222,2),",","""",C222,"""",",","""",D222,"""",",","""",E222,"""",",","""",F222,"""",",","""",G222,"""),")</f>
-        <v>new OpCodeTable(0x94,"","","XCHG AX,SP","",""),</v>
+        <v>new OpCodeTable(0xDC,"","","","",""),</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>215</v>
-      </c>
-      <c r="B223" s="7" t="str">
+        <v>221</v>
+      </c>
+      <c r="B223" s="12" t="str">
         <f>DEC2HEX(A223,2)</f>
-        <v>D7</v>
-      </c>
-      <c r="E223" t="s">
-        <v>71</v>
-      </c>
+        <v>DD</v>
+      </c>
+      <c r="C223" s="4"/>
+      <c r="D223" s="4"/>
+      <c r="E223" s="4"/>
+      <c r="F223" s="20"/>
+      <c r="G223" s="20"/>
       <c r="I223" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A223,2),",","""",C223,"""",",","""",D223,"""",",","""",E223,"""",",","""",F223,"""",",","""",G223,"""),")</f>
-        <v>new OpCodeTable(0xD7,"","","XLAT","",""),</v>
+        <v>new OpCodeTable(0xDD,"","","","",""),</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>48</v>
-      </c>
-      <c r="B224" s="7" t="str">
+        <v>222</v>
+      </c>
+      <c r="B224" s="12" t="str">
         <f>DEC2HEX(A224,2)</f>
-        <v>30</v>
-      </c>
-      <c r="C224" t="s">
-        <v>269</v>
-      </c>
-      <c r="D224" t="s">
-        <v>276</v>
-      </c>
-      <c r="E224" t="s">
-        <v>22</v>
-      </c>
-      <c r="F224" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="G224" s="19" t="s">
-        <v>281</v>
-      </c>
+        <v>DE</v>
+      </c>
+      <c r="C224" s="4"/>
+      <c r="D224" s="4"/>
+      <c r="E224" s="4"/>
+      <c r="F224" s="20"/>
+      <c r="G224" s="20"/>
       <c r="I224" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A224,2),",","""",C224,"""",",","""",D224,"""",",","""",E224,"""",",","""",F224,"""",",","""",G224,"""),")</f>
-        <v>new OpCodeTable(0x30,"MRR","DISP","XOR","RM-8","R-8"),</v>
+        <v>new OpCodeTable(0xDE,"","","","",""),</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>49</v>
+        <v>223</v>
       </c>
       <c r="B225" s="7" t="str">
         <f>DEC2HEX(A225,2)</f>
-        <v>31</v>
+        <v>DF</v>
       </c>
       <c r="C225" t="s">
         <v>269</v>
       </c>
-      <c r="D225" t="s">
-        <v>276</v>
-      </c>
-      <c r="E225" t="s">
-        <v>22</v>
-      </c>
-      <c r="F225" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="G225" s="19" t="s">
-        <v>283</v>
+      <c r="H225" t="s">
+        <v>348</v>
       </c>
       <c r="I225" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A225,2),",","""",C225,"""",",","""",D225,"""",",","""",E225,"""",",","""",F225,"""",",","""",G225,"""),")</f>
-        <v>new OpCodeTable(0x31,"MRR","DISP","XOR","RM-16","R-16"),</v>
+        <v>new OpCodeTable(0xDF,"MRR","","","",""),</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>50</v>
+        <v>224</v>
       </c>
       <c r="B226" s="7" t="str">
         <f>DEC2HEX(A226,2)</f>
-        <v>32</v>
+        <v>E0</v>
       </c>
       <c r="C226" t="s">
-        <v>269</v>
-      </c>
-      <c r="D226" t="s">
-        <v>276</v>
+        <v>349</v>
       </c>
       <c r="E226" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="F226" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="G226" s="19" t="s">
-        <v>280</v>
+        <v>355</v>
       </c>
       <c r="I226" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A226,2),",","""",C226,"""",",","""",D226,"""",",","""",E226,"""",",","""",F226,"""",",","""",G226,"""),")</f>
-        <v>new OpCodeTable(0x32,"MRR","DISP","XOR","R-8","RM-8"),</v>
+        <v>new OpCodeTable(0xE0,"IP-INC-8","","LOOPNZ","SHORT",""),</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>51</v>
+        <v>225</v>
       </c>
       <c r="B227" s="7" t="str">
         <f>DEC2HEX(A227,2)</f>
-        <v>33</v>
+        <v>E1</v>
       </c>
       <c r="C227" t="s">
-        <v>269</v>
-      </c>
-      <c r="D227" t="s">
-        <v>276</v>
+        <v>349</v>
       </c>
       <c r="E227" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="F227" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="G227" s="19" t="s">
-        <v>282</v>
+        <v>355</v>
       </c>
       <c r="I227" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A227,2),",","""",C227,"""",",","""",D227,"""",",","""",E227,"""",",","""",F227,"""",",","""",G227,"""),")</f>
-        <v>new OpCodeTable(0x33,"MRR","DISP","XOR","R-16","RM-16"),</v>
+        <v>new OpCodeTable(0xE1,"IP-INC-8","","LOOPZ","SHORT",""),</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>52</v>
+        <v>226</v>
       </c>
       <c r="B228" s="7" t="str">
         <f>DEC2HEX(A228,2)</f>
-        <v>34</v>
+        <v>E2</v>
       </c>
       <c r="C228" t="s">
-        <v>270</v>
+        <v>349</v>
       </c>
       <c r="E228" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="F228" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G228" s="19" t="s">
-        <v>284</v>
+        <v>355</v>
       </c>
       <c r="I228" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A228,2),",","""",C228,"""",",","""",D228,"""",",","""",E228,"""",",","""",F228,"""",",","""",G228,"""),")</f>
-        <v>new OpCodeTable(0x34,"D-8","","XOR","AL","I-8"),</v>
+        <v>new OpCodeTable(0xE2,"IP-INC-8","","LOOP","SHORT",""),</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>53</v>
+        <v>227</v>
       </c>
       <c r="B229" s="7" t="str">
         <f>DEC2HEX(A229,2)</f>
-        <v>35</v>
+        <v>E3</v>
       </c>
       <c r="C229" t="s">
-        <v>271</v>
-      </c>
-      <c r="D229" t="s">
-        <v>277</v>
+        <v>349</v>
       </c>
       <c r="E229" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="F229" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G229" s="19" t="s">
-        <v>285</v>
+        <v>355</v>
       </c>
       <c r="I229" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A229,2),",","""",C229,"""",",","""",D229,"""",",","""",E229,"""",",","""",F229,"""",",","""",G229,"""),")</f>
-        <v>new OpCodeTable(0x35,"D-LO","D-HI","XOR","AX","I-16"),</v>
+        <v>new OpCodeTable(0xE3,"IP-INC-8","","JCXZ","SHORT",""),</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>96</v>
-      </c>
-      <c r="B230" s="12" t="str">
+        <v>228</v>
+      </c>
+      <c r="B230" s="7" t="str">
         <f>DEC2HEX(A230,2)</f>
-        <v>60</v>
-      </c>
-      <c r="C230" s="4"/>
-      <c r="D230" s="4"/>
-      <c r="E230" s="4"/>
-      <c r="F230" s="20"/>
-      <c r="G230" s="20"/>
+        <v>E4</v>
+      </c>
+      <c r="C230" t="s">
+        <v>270</v>
+      </c>
+      <c r="E230" t="s">
+        <v>76</v>
+      </c>
+      <c r="F230" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G230" s="19" t="s">
+        <v>284</v>
+      </c>
       <c r="I230" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A230,2),",","""",C230,"""",",","""",D230,"""",",","""",E230,"""",",","""",F230,"""",",","""",G230,"""),")</f>
-        <v>new OpCodeTable(0x60,"","","","",""),</v>
+        <v>new OpCodeTable(0xE4,"D-8","","IN","AL","I-8"),</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>97</v>
-      </c>
-      <c r="B231" s="12" t="str">
+        <v>229</v>
+      </c>
+      <c r="B231" s="7" t="str">
         <f>DEC2HEX(A231,2)</f>
-        <v>61</v>
-      </c>
-      <c r="C231" s="4"/>
-      <c r="D231" s="4"/>
-      <c r="E231" s="4"/>
-      <c r="F231" s="20"/>
-      <c r="G231" s="20"/>
+        <v>E5</v>
+      </c>
+      <c r="C231" t="s">
+        <v>270</v>
+      </c>
+      <c r="E231" t="s">
+        <v>76</v>
+      </c>
+      <c r="F231" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G231" s="19" t="s">
+        <v>284</v>
+      </c>
       <c r="I231" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A231,2),",","""",C231,"""",",","""",D231,"""",",","""",E231,"""",",","""",F231,"""",",","""",G231,"""),")</f>
-        <v>new OpCodeTable(0x61,"","","","",""),</v>
+        <v>new OpCodeTable(0xE5,"D-8","","IN","AX","I-8"),</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>98</v>
-      </c>
-      <c r="B232" s="12" t="str">
+        <v>230</v>
+      </c>
+      <c r="B232" s="7" t="str">
         <f>DEC2HEX(A232,2)</f>
-        <v>62</v>
-      </c>
-      <c r="C232" s="4"/>
-      <c r="D232" s="4"/>
-      <c r="E232" s="4"/>
-      <c r="F232" s="20"/>
-      <c r="G232" s="20"/>
+        <v>E6</v>
+      </c>
+      <c r="C232" t="s">
+        <v>270</v>
+      </c>
+      <c r="E232" t="s">
+        <v>77</v>
+      </c>
+      <c r="F232" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="G232" s="19" t="s">
+        <v>9</v>
+      </c>
       <c r="I232" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A232,2),",","""",C232,"""",",","""",D232,"""",",","""",E232,"""",",","""",F232,"""",",","""",G232,"""),")</f>
-        <v>new OpCodeTable(0x62,"","","","",""),</v>
+        <v>new OpCodeTable(0xE6,"D-8","","OUT","I-8","AL"),</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>99</v>
-      </c>
-      <c r="B233" s="12" t="str">
+        <v>231</v>
+      </c>
+      <c r="B233" s="7" t="str">
         <f>DEC2HEX(A233,2)</f>
-        <v>63</v>
-      </c>
-      <c r="C233" s="4"/>
-      <c r="D233" s="4"/>
-      <c r="E233" s="4"/>
-      <c r="F233" s="20"/>
-      <c r="G233" s="20"/>
+        <v>E7</v>
+      </c>
+      <c r="C233" t="s">
+        <v>270</v>
+      </c>
+      <c r="E233" t="s">
+        <v>77</v>
+      </c>
+      <c r="F233" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="G233" s="19" t="s">
+        <v>10</v>
+      </c>
       <c r="I233" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A233,2),",","""",C233,"""",",","""",D233,"""",",","""",E233,"""",",","""",F233,"""",",","""",G233,"""),")</f>
-        <v>new OpCodeTable(0x63,"","","","",""),</v>
+        <v>new OpCodeTable(0xE7,"D-8","","OUT","I-8","AX"),</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>100</v>
-      </c>
-      <c r="B234" s="12" t="str">
+        <v>232</v>
+      </c>
+      <c r="B234" s="7" t="str">
         <f>DEC2HEX(A234,2)</f>
-        <v>64</v>
-      </c>
-      <c r="C234" s="4"/>
-      <c r="D234" s="4"/>
-      <c r="E234" s="4"/>
-      <c r="F234" s="20"/>
-      <c r="G234" s="20"/>
+        <v>E8</v>
+      </c>
+      <c r="C234" t="s">
+        <v>350</v>
+      </c>
+      <c r="D234" t="s">
+        <v>351</v>
+      </c>
+      <c r="E234" t="s">
+        <v>106</v>
+      </c>
+      <c r="F234" s="19" t="s">
+        <v>352</v>
+      </c>
       <c r="I234" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A234,2),",","""",C234,"""",",","""",D234,"""",",","""",E234,"""",",","""",F234,"""",",","""",G234,"""),")</f>
-        <v>new OpCodeTable(0x64,"","","","",""),</v>
+        <v>new OpCodeTable(0xE8,"IP-INC-LO","IP-INC-HI","CALL","NEAR",""),</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>101</v>
-      </c>
-      <c r="B235" s="12" t="str">
+        <v>233</v>
+      </c>
+      <c r="B235" s="7" t="str">
         <f>DEC2HEX(A235,2)</f>
-        <v>65</v>
-      </c>
-      <c r="C235" s="4"/>
-      <c r="D235" s="4"/>
-      <c r="E235" s="4"/>
-      <c r="F235" s="20"/>
-      <c r="G235" s="20"/>
+        <v>E9</v>
+      </c>
+      <c r="C235" t="s">
+        <v>350</v>
+      </c>
+      <c r="D235" t="s">
+        <v>351</v>
+      </c>
+      <c r="E235" t="s">
+        <v>124</v>
+      </c>
+      <c r="F235" s="19" t="s">
+        <v>352</v>
+      </c>
       <c r="I235" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A235,2),",","""",C235,"""",",","""",D235,"""",",","""",E235,"""",",","""",F235,"""",",","""",G235,"""),")</f>
-        <v>new OpCodeTable(0x65,"","","","",""),</v>
+        <v>new OpCodeTable(0xE9,"IP-INC-LO","IP-INC-HI","JMP","NEAR",""),</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>102</v>
-      </c>
-      <c r="B236" s="12" t="str">
+        <v>234</v>
+      </c>
+      <c r="B236" s="7" t="str">
         <f>DEC2HEX(A236,2)</f>
-        <v>66</v>
-      </c>
-      <c r="C236" s="4"/>
-      <c r="D236" s="4"/>
-      <c r="E236" s="4"/>
-      <c r="F236" s="20"/>
-      <c r="G236" s="20"/>
-      <c r="H236" t="s">
-        <v>342</v>
+        <v>EA</v>
+      </c>
+      <c r="C236" t="s">
+        <v>353</v>
+      </c>
+      <c r="D236" t="s">
+        <v>354</v>
+      </c>
+      <c r="E236" t="s">
+        <v>124</v>
+      </c>
+      <c r="F236" s="19" t="s">
+        <v>334</v>
       </c>
       <c r="I236" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A236,2),",","""",C236,"""",",","""",D236,"""",",","""",E236,"""",",","""",F236,"""",",","""",G236,"""),")</f>
-        <v>new OpCodeTable(0x66,"","","","",""),</v>
+        <v>new OpCodeTable(0xEA,"IP-LO","IP-HI,CS-LO,CS-HI","JMP","FAR",""),</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>103</v>
-      </c>
-      <c r="B237" s="12" t="str">
+        <v>235</v>
+      </c>
+      <c r="B237" s="7" t="str">
         <f>DEC2HEX(A237,2)</f>
-        <v>67</v>
-      </c>
-      <c r="C237" s="4"/>
-      <c r="D237" s="4"/>
-      <c r="E237" s="4"/>
-      <c r="F237" s="20"/>
-      <c r="G237" s="20"/>
+        <v>EB</v>
+      </c>
+      <c r="C237" t="s">
+        <v>349</v>
+      </c>
+      <c r="E237" t="s">
+        <v>124</v>
+      </c>
+      <c r="F237" s="19" t="s">
+        <v>355</v>
+      </c>
       <c r="I237" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A237,2),",","""",C237,"""",",","""",D237,"""",",","""",E237,"""",",","""",F237,"""",",","""",G237,"""),")</f>
-        <v>new OpCodeTable(0x67,"","","","",""),</v>
+        <v>new OpCodeTable(0xEB,"IP-INC-8","","JMP","SHORT",""),</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>104</v>
-      </c>
-      <c r="B238" s="12" t="str">
+        <v>236</v>
+      </c>
+      <c r="B238" s="7" t="str">
         <f>DEC2HEX(A238,2)</f>
-        <v>68</v>
-      </c>
-      <c r="C238" s="4"/>
-      <c r="D238" s="4"/>
-      <c r="E238" s="4"/>
-      <c r="F238" s="20"/>
-      <c r="G238" s="20"/>
+        <v>EC</v>
+      </c>
+      <c r="E238" t="s">
+        <v>356</v>
+      </c>
       <c r="I238" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A238,2),",","""",C238,"""",",","""",D238,"""",",","""",E238,"""",",","""",F238,"""",",","""",G238,"""),")</f>
-        <v>new OpCodeTable(0x68,"","","","",""),</v>
+        <v>new OpCodeTable(0xEC,"","","IN AL,DX","",""),</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>105</v>
-      </c>
-      <c r="B239" s="12" t="str">
+        <v>237</v>
+      </c>
+      <c r="B239" s="7" t="str">
         <f>DEC2HEX(A239,2)</f>
-        <v>69</v>
-      </c>
-      <c r="C239" s="4"/>
-      <c r="D239" s="4"/>
-      <c r="E239" s="4"/>
-      <c r="F239" s="20"/>
-      <c r="G239" s="20"/>
+        <v>ED</v>
+      </c>
+      <c r="E239" t="s">
+        <v>357</v>
+      </c>
       <c r="I239" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A239,2),",","""",C239,"""",",","""",D239,"""",",","""",E239,"""",",","""",F239,"""",",","""",G239,"""),")</f>
-        <v>new OpCodeTable(0x69,"","","","",""),</v>
+        <v>new OpCodeTable(0xED,"","","IN AX,DX","",""),</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>106</v>
-      </c>
-      <c r="B240" s="12" t="str">
+        <v>238</v>
+      </c>
+      <c r="B240" s="7" t="str">
         <f>DEC2HEX(A240,2)</f>
-        <v>6A</v>
-      </c>
-      <c r="C240" s="4"/>
-      <c r="D240" s="4"/>
-      <c r="E240" s="4"/>
-      <c r="F240" s="20"/>
-      <c r="G240" s="20"/>
+        <v>EE</v>
+      </c>
+      <c r="E240" t="s">
+        <v>358</v>
+      </c>
       <c r="I240" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A240,2),",","""",C240,"""",",","""",D240,"""",",","""",E240,"""",",","""",F240,"""",",","""",G240,"""),")</f>
-        <v>new OpCodeTable(0x6A,"","","","",""),</v>
+        <v>new OpCodeTable(0xEE,"","","OUT AL,DX","",""),</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>107</v>
-      </c>
-      <c r="B241" s="12" t="str">
+        <v>239</v>
+      </c>
+      <c r="B241" s="7" t="str">
         <f>DEC2HEX(A241,2)</f>
-        <v>6B</v>
-      </c>
-      <c r="C241" s="4"/>
-      <c r="D241" s="4"/>
-      <c r="E241" s="4"/>
-      <c r="F241" s="20"/>
-      <c r="G241" s="20"/>
+        <v>EF</v>
+      </c>
+      <c r="E241" t="s">
+        <v>359</v>
+      </c>
       <c r="I241" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A241,2),",","""",C241,"""",",","""",D241,"""",",","""",E241,"""",",","""",F241,"""",",","""",G241,"""),")</f>
-        <v>new OpCodeTable(0x6B,"","","","",""),</v>
+        <v>new OpCodeTable(0xEF,"","","OUT AX,DX","",""),</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>108</v>
-      </c>
-      <c r="B242" s="12" t="str">
+        <v>240</v>
+      </c>
+      <c r="B242" s="7" t="str">
         <f>DEC2HEX(A242,2)</f>
-        <v>6C</v>
-      </c>
-      <c r="C242" s="4"/>
-      <c r="D242" s="4"/>
-      <c r="E242" s="4"/>
-      <c r="F242" s="20"/>
-      <c r="G242" s="20"/>
+        <v>F0</v>
+      </c>
+      <c r="E242" t="s">
+        <v>78</v>
+      </c>
       <c r="I242" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A242,2),",","""",C242,"""",",","""",D242,"""",",","""",E242,"""",",","""",F242,"""",",","""",G242,"""),")</f>
-        <v>new OpCodeTable(0x6C,"","","","",""),</v>
+        <v>new OpCodeTable(0xF0,"","","LOCK","",""),</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>109</v>
+        <v>241</v>
       </c>
       <c r="B243" s="12" t="str">
         <f>DEC2HEX(A243,2)</f>
-        <v>6D</v>
+        <v>F1</v>
       </c>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
@@ -21543,284 +21525,301 @@
       <c r="G243" s="20"/>
       <c r="I243" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A243,2),",","""",C243,"""",",","""",D243,"""",",","""",E243,"""",",","""",F243,"""",",","""",G243,"""),")</f>
-        <v>new OpCodeTable(0x6D,"","","","",""),</v>
+        <v>new OpCodeTable(0xF1,"","","","",""),</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>110</v>
-      </c>
-      <c r="B244" s="12" t="str">
+        <v>242</v>
+      </c>
+      <c r="B244" s="7" t="str">
         <f>DEC2HEX(A244,2)</f>
-        <v>6E</v>
-      </c>
-      <c r="C244" s="4"/>
-      <c r="D244" s="4"/>
-      <c r="E244" s="4"/>
-      <c r="F244" s="20"/>
-      <c r="G244" s="20"/>
+        <v>F2</v>
+      </c>
+      <c r="E244" t="s">
+        <v>79</v>
+      </c>
       <c r="I244" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A244,2),",","""",C244,"""",",","""",D244,"""",",","""",E244,"""",",","""",F244,"""",",","""",G244,"""),")</f>
-        <v>new OpCodeTable(0x6E,"","","","",""),</v>
+        <v>new OpCodeTable(0xF2,"","","REPNZ","",""),</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>111</v>
-      </c>
-      <c r="B245" s="12" t="str">
+        <v>243</v>
+      </c>
+      <c r="B245" s="7" t="str">
         <f>DEC2HEX(A245,2)</f>
-        <v>6F</v>
-      </c>
-      <c r="C245" s="4"/>
-      <c r="D245" s="4"/>
-      <c r="E245" s="4"/>
-      <c r="F245" s="20"/>
-      <c r="G245" s="20"/>
+        <v>F3</v>
+      </c>
+      <c r="E245" t="s">
+        <v>360</v>
+      </c>
       <c r="I245" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A245,2),",","""",C245,"""",",","""",D245,"""",",","""",E245,"""",",","""",F245,"""",",","""",G245,"""),")</f>
-        <v>new OpCodeTable(0x6F,"","","","",""),</v>
+        <v>new OpCodeTable(0xF3,"","","REP","",""),</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>192</v>
-      </c>
-      <c r="B246" s="12" t="str">
+        <v>244</v>
+      </c>
+      <c r="B246" s="7" t="str">
         <f>DEC2HEX(A246,2)</f>
-        <v>C0</v>
-      </c>
-      <c r="C246" s="4"/>
-      <c r="D246" s="4"/>
-      <c r="E246" s="4"/>
-      <c r="F246" s="20"/>
-      <c r="G246" s="20"/>
+        <v>F4</v>
+      </c>
+      <c r="E246" t="s">
+        <v>81</v>
+      </c>
       <c r="I246" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A246,2),",","""",C246,"""",",","""",D246,"""",",","""",E246,"""",",","""",F246,"""",",","""",G246,"""),")</f>
-        <v>new OpCodeTable(0xC0,"","","","",""),</v>
+        <v>new OpCodeTable(0xF4,"","","HLT","",""),</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>193</v>
-      </c>
-      <c r="B247" s="12" t="str">
+        <v>245</v>
+      </c>
+      <c r="B247" s="7" t="str">
         <f>DEC2HEX(A247,2)</f>
-        <v>C1</v>
-      </c>
-      <c r="C247" s="4"/>
-      <c r="D247" s="4"/>
-      <c r="E247" s="4"/>
-      <c r="F247" s="20"/>
-      <c r="G247" s="20"/>
+        <v>F5</v>
+      </c>
+      <c r="E247" t="s">
+        <v>82</v>
+      </c>
       <c r="I247" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A247,2),",","""",C247,"""",",","""",D247,"""",",","""",E247,"""",",","""",F247,"""",",","""",G247,"""),")</f>
-        <v>new OpCodeTable(0xC1,"","","","",""),</v>
+        <v>new OpCodeTable(0xF5,"","","CMC","",""),</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>200</v>
-      </c>
-      <c r="B248" s="12" t="str">
+        <v>246</v>
+      </c>
+      <c r="B248" s="7" t="str">
         <f>DEC2HEX(A248,2)</f>
-        <v>C8</v>
-      </c>
-      <c r="C248" s="4"/>
-      <c r="D248" s="4"/>
-      <c r="E248" s="4"/>
-      <c r="F248" s="20"/>
-      <c r="G248" s="20"/>
+        <v>F6</v>
+      </c>
+      <c r="C248" t="s">
+        <v>269</v>
+      </c>
+      <c r="D248" t="s">
+        <v>276</v>
+      </c>
+      <c r="E248" t="s">
+        <v>45</v>
+      </c>
+      <c r="F248" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="G248" s="19" t="s">
+        <v>284</v>
+      </c>
       <c r="I248" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A248,2),",","""",C248,"""",",","""",D248,"""",",","""",E248,"""",",","""",F248,"""",",","""",G248,"""),")</f>
-        <v>new OpCodeTable(0xC8,"","","","",""),</v>
+        <v>new OpCodeTable(0xF6,"MRR","DISP","GRP3","RM-8","I-8"),</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>201</v>
-      </c>
-      <c r="B249" s="12" t="str">
+        <v>247</v>
+      </c>
+      <c r="B249" s="7" t="str">
         <f>DEC2HEX(A249,2)</f>
-        <v>C9</v>
-      </c>
-      <c r="C249" s="4"/>
-      <c r="D249" s="4"/>
-      <c r="E249" s="4"/>
-      <c r="F249" s="20"/>
-      <c r="G249" s="20"/>
+        <v>F7</v>
+      </c>
+      <c r="C249" t="s">
+        <v>269</v>
+      </c>
+      <c r="D249" t="s">
+        <v>276</v>
+      </c>
+      <c r="E249" t="s">
+        <v>45</v>
+      </c>
+      <c r="F249" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="G249" s="19" t="s">
+        <v>285</v>
+      </c>
       <c r="I249" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A249,2),",","""",C249,"""",",","""",D249,"""",",","""",E249,"""",",","""",F249,"""",",","""",G249,"""),")</f>
-        <v>new OpCodeTable(0xC9,"","","","",""),</v>
+        <v>new OpCodeTable(0xF7,"MRR","DISP","GRP3","RM-16","I-16"),</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>214</v>
-      </c>
-      <c r="B250" s="12" t="str">
+        <v>248</v>
+      </c>
+      <c r="B250" s="7" t="str">
         <f>DEC2HEX(A250,2)</f>
-        <v>D6</v>
-      </c>
-      <c r="C250" s="4"/>
-      <c r="D250" s="4"/>
-      <c r="E250" s="4"/>
-      <c r="F250" s="20"/>
-      <c r="G250" s="20"/>
+        <v>F8</v>
+      </c>
+      <c r="E250" t="s">
+        <v>125</v>
+      </c>
       <c r="I250" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A250,2),",","""",C250,"""",",","""",D250,"""",",","""",E250,"""",",","""",F250,"""",",","""",G250,"""),")</f>
-        <v>new OpCodeTable(0xD6,"","","","",""),</v>
+        <v>new OpCodeTable(0xF8,"","","CLC","",""),</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>217</v>
-      </c>
-      <c r="B251" s="12" t="str">
+        <v>249</v>
+      </c>
+      <c r="B251" s="7" t="str">
         <f>DEC2HEX(A251,2)</f>
-        <v>D9</v>
-      </c>
-      <c r="C251" s="4"/>
-      <c r="D251" s="4"/>
-      <c r="E251" s="4"/>
-      <c r="F251" s="20"/>
-      <c r="G251" s="20"/>
+        <v>F9</v>
+      </c>
+      <c r="E251" t="s">
+        <v>126</v>
+      </c>
       <c r="I251" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A251,2),",","""",C251,"""",",","""",D251,"""",",","""",E251,"""",",","""",F251,"""",",","""",G251,"""),")</f>
-        <v>new OpCodeTable(0xD9,"","","","",""),</v>
+        <v>new OpCodeTable(0xF9,"","","STC","",""),</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>218</v>
-      </c>
-      <c r="B252" s="12" t="str">
+        <v>250</v>
+      </c>
+      <c r="B252" s="7" t="str">
         <f>DEC2HEX(A252,2)</f>
-        <v>DA</v>
-      </c>
-      <c r="C252" s="4"/>
-      <c r="D252" s="4"/>
-      <c r="E252" s="4"/>
-      <c r="F252" s="20"/>
-      <c r="G252" s="20"/>
+        <v>FA</v>
+      </c>
+      <c r="E252" t="s">
+        <v>127</v>
+      </c>
       <c r="I252" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A252,2),",","""",C252,"""",",","""",D252,"""",",","""",E252,"""",",","""",F252,"""",",","""",G252,"""),")</f>
-        <v>new OpCodeTable(0xDA,"","","","",""),</v>
+        <v>new OpCodeTable(0xFA,"","","CLI","",""),</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>219</v>
-      </c>
-      <c r="B253" s="12" t="str">
+        <v>251</v>
+      </c>
+      <c r="B253" s="7" t="str">
         <f>DEC2HEX(A253,2)</f>
-        <v>DB</v>
-      </c>
-      <c r="C253" s="4"/>
-      <c r="D253" s="4"/>
-      <c r="E253" s="4"/>
-      <c r="F253" s="20"/>
-      <c r="G253" s="20"/>
+        <v>FB</v>
+      </c>
+      <c r="E253" t="s">
+        <v>128</v>
+      </c>
       <c r="I253" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A253,2),",","""",C253,"""",",","""",D253,"""",",","""",E253,"""",",","""",F253,"""",",","""",G253,"""),")</f>
-        <v>new OpCodeTable(0xDB,"","","","",""),</v>
+        <v>new OpCodeTable(0xFB,"","","STI","",""),</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>220</v>
-      </c>
-      <c r="B254" s="12" t="str">
+        <v>252</v>
+      </c>
+      <c r="B254" s="7" t="str">
         <f>DEC2HEX(A254,2)</f>
-        <v>DC</v>
-      </c>
-      <c r="C254" s="4"/>
-      <c r="D254" s="4"/>
-      <c r="E254" s="4"/>
-      <c r="F254" s="20"/>
-      <c r="G254" s="20"/>
+        <v>FC</v>
+      </c>
+      <c r="E254" t="s">
+        <v>129</v>
+      </c>
       <c r="I254" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A254,2),",","""",C254,"""",",","""",D254,"""",",","""",E254,"""",",","""",F254,"""",",","""",G254,"""),")</f>
-        <v>new OpCodeTable(0xDC,"","","","",""),</v>
+        <v>new OpCodeTable(0xFC,"","","CLD","",""),</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>221</v>
-      </c>
-      <c r="B255" s="12" t="str">
+        <v>253</v>
+      </c>
+      <c r="B255" s="7" t="str">
         <f>DEC2HEX(A255,2)</f>
-        <v>DD</v>
-      </c>
-      <c r="C255" s="4"/>
-      <c r="D255" s="4"/>
-      <c r="E255" s="4"/>
-      <c r="F255" s="20"/>
-      <c r="G255" s="20"/>
+        <v>FD</v>
+      </c>
+      <c r="E255" t="s">
+        <v>130</v>
+      </c>
       <c r="I255" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A255,2),",","""",C255,"""",",","""",D255,"""",",","""",E255,"""",",","""",F255,"""",",","""",G255,"""),")</f>
-        <v>new OpCodeTable(0xDD,"","","","",""),</v>
+        <v>new OpCodeTable(0xFD,"","","STD","",""),</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>222</v>
-      </c>
-      <c r="B256" s="12" t="str">
+        <v>254</v>
+      </c>
+      <c r="B256" s="7" t="str">
         <f>DEC2HEX(A256,2)</f>
-        <v>DE</v>
-      </c>
-      <c r="C256" s="4"/>
-      <c r="D256" s="4"/>
-      <c r="E256" s="4"/>
-      <c r="F256" s="20"/>
-      <c r="G256" s="20"/>
+        <v>FE</v>
+      </c>
+      <c r="C256" t="s">
+        <v>269</v>
+      </c>
+      <c r="D256" t="s">
+        <v>276</v>
+      </c>
+      <c r="E256" t="s">
+        <v>46</v>
+      </c>
+      <c r="F256" s="19" t="s">
+        <v>280</v>
+      </c>
       <c r="I256" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A256,2),",","""",C256,"""",",","""",D256,"""",",","""",E256,"""",",","""",F256,"""",",","""",G256,"""),")</f>
-        <v>new OpCodeTable(0xDE,"","","","",""),</v>
+        <v>new OpCodeTable(0xFE,"MRR","DISP","GRP4","RM-8",""),</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="B257" s="7" t="str">
         <f>DEC2HEX(A257,2)</f>
-        <v>DF</v>
+        <v>FF</v>
       </c>
       <c r="C257" t="s">
         <v>269</v>
       </c>
-      <c r="H257" t="s">
-        <v>348</v>
+      <c r="D257" t="s">
+        <v>276</v>
+      </c>
+      <c r="E257" t="s">
+        <v>131</v>
+      </c>
+      <c r="F257" s="19" t="s">
+        <v>282</v>
       </c>
       <c r="I257" t="str">
         <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A257,2),",","""",C257,"""",",","""",D257,"""",",","""",E257,"""",",","""",F257,"""",",","""",G257,"""),")</f>
-        <v>new OpCodeTable(0xDF,"MRR","","","",""),</v>
+        <v>new OpCodeTable(0xFF,"MRR","DISP","GRP5","RM-16",""),</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A258">
-        <v>241</v>
-      </c>
-      <c r="B258" s="12" t="str">
-        <f>DEC2HEX(A258,2)</f>
-        <v>F1</v>
-      </c>
-      <c r="C258" s="4"/>
-      <c r="D258" s="4"/>
-      <c r="E258" s="4"/>
-      <c r="F258" s="20"/>
-      <c r="G258" s="20"/>
-      <c r="I258" t="str">
-        <f>CONCATENATE("new OpCodeTable(0x",DEC2HEX(A258,2),",","""",C258,"""",",","""",D258,"""",",","""",E258,"""",",","""",F258,"""",",","""",G258,"""),")</f>
-        <v>new OpCodeTable(0xF1,"","","","",""),</v>
+      <c r="B258" t="s">
+        <v>0</v>
+      </c>
+      <c r="C258" t="s">
+        <v>268</v>
+      </c>
+      <c r="D258" t="s">
+        <v>272</v>
+      </c>
+      <c r="E258" t="s">
+        <v>273</v>
+      </c>
+      <c r="F258" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="G258" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="I258" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:I258">
-    <sortCondition ref="E3:E258"/>
-    <sortCondition ref="B3:B258"/>
+  <sortState ref="A2:I258">
+    <sortCondition ref="A2:A258"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
